--- a/electricity-build-rate-constraint.xlsx
+++ b/electricity-build-rate-constraint.xlsx
@@ -10,57 +10,43 @@
     <sheet name="Model" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Average_life" localSheetId="0">Model!$B$13</definedName>
-    <definedName name="Average_life">#REF!</definedName>
+    <definedName name="Average_life_of_low_carbon_generation">Model!$B$13</definedName>
     <definedName name="CCS_by_2020">Model!$B$37</definedName>
-    <definedName name="Demand" localSheetId="0">Model!$B$48:$AN$48</definedName>
-    <definedName name="Demand">#REF!</definedName>
-    <definedName name="Demand_in_2050" localSheetId="0">Model!$B$4</definedName>
-    <definedName name="Demand_in_2050">#REF!</definedName>
+    <definedName name="Demand">Model!$B$48:$AN$48</definedName>
     <definedName name="Electricity_demand_growth_rate">Model!$B$32</definedName>
     <definedName name="Electricity_demand_in_2012">Model!$B$31</definedName>
-    <definedName name="Emissions" localSheetId="0">Model!$B$53:$AN$53</definedName>
-    <definedName name="Emissions">#REF!</definedName>
-    <definedName name="Emissions_factor" localSheetId="0">Model!$B$52:$AN$52</definedName>
-    <definedName name="Emissions_factor">#REF!</definedName>
-    <definedName name="High_carbon" localSheetId="0">Model!$B$50:$AN$50</definedName>
-    <definedName name="High_carbon">#REF!</definedName>
-    <definedName name="High_carbon_EF" localSheetId="0">Model!$B$51:$AN$51</definedName>
-    <definedName name="High_carbon_EF">#REF!</definedName>
+    <definedName name="Electricity_demand_in_2050">Model!$B$4</definedName>
+    <definedName name="Electricity_emissions_during_CB4">Model!$F$3</definedName>
+    <definedName name="Electrification_Start_year">Model!$B$3</definedName>
+    <definedName name="Emissions">Model!$B$53:$AN$53</definedName>
+    <definedName name="Emissions_factor">Model!$B$52:$AN$52</definedName>
+    <definedName name="Emissions_factor_2030">Model!$F$6</definedName>
+    <definedName name="Emissions_factor_2050">Model!$F$7</definedName>
+    <definedName name="High_carbon">Model!$B$50:$AN$50</definedName>
+    <definedName name="High_carbon_EF">Model!$B$51:$AN$51</definedName>
     <definedName name="High_carbon_emissions_factor_2012">Model!$B$40</definedName>
     <definedName name="High_carbon_emissions_factor_2020">Model!$C$40</definedName>
     <definedName name="High_carbon_emissions_factor_2050">Model!$D$40</definedName>
-    <definedName name="Maximum_build_rate" localSheetId="0">Model!$B$9</definedName>
-    <definedName name="Maximum_build_rate">#REF!</definedName>
-    <definedName name="Maximum_industry_contraction" localSheetId="0">Model!$B$12</definedName>
-    <definedName name="Maximum_industry_contraction">#REF!</definedName>
-    <definedName name="Maximum_industry_expansion" localSheetId="0">Model!$B$11</definedName>
-    <definedName name="Maximum_industry_expansion">#REF!</definedName>
+    <definedName name="High_carbon_load_factor">Model!$B$89:$AN$89</definedName>
+    <definedName name="Low_carbon_load_factor">Model!$B$85:$AN$85</definedName>
+    <definedName name="Maximum_low_c">Model!$B$12</definedName>
+    <definedName name="Maximum_low_carbon_build_rate">Model!$B$9</definedName>
+    <definedName name="Maximum_low_carbon_build_rate_contraction">Model!$B$12</definedName>
+    <definedName name="Maximum_low_carbon_build_rate_expansion">Model!$B$11</definedName>
     <definedName name="MaxMean2012">Model!$B$45</definedName>
     <definedName name="MaxMean2050">Model!$C$45</definedName>
-    <definedName name="Minimum_build_rate" localSheetId="0">Model!$B$10</definedName>
-    <definedName name="Minimum_build_rate">#REF!</definedName>
+    <definedName name="Minimum_low_carbon_build_rate">Model!$B$10</definedName>
     <definedName name="MinMean2012">Model!$B$44</definedName>
     <definedName name="MinMean2050">Model!$C$44</definedName>
-    <definedName name="Net_increase_in_zero_carbon" localSheetId="0">Model!$B$56:$AN$56</definedName>
-    <definedName name="Net_increase_in_zero_carbon">#REF!</definedName>
+    <definedName name="Net_increase_in_zero_carbon">Model!$B$56:$AN$56</definedName>
     <definedName name="Nuclear_change_2012_2020">Model!$B$36</definedName>
     <definedName name="Nuclear_in_2012">Model!$B$35</definedName>
-    <definedName name="Renewable_electricity_in_2020" localSheetId="0">Model!$B$7</definedName>
-    <definedName name="Renewable_electricity_in_2020">#REF!</definedName>
+    <definedName name="Renewable_electricity_in_2020">Model!$B$7</definedName>
     <definedName name="Renewables_in_2012">Model!$B$34</definedName>
-    <definedName name="Start_year" localSheetId="0">Model!$B$3</definedName>
-    <definedName name="Start_year">#REF!</definedName>
-    <definedName name="Year" localSheetId="0">Model!$B$47:$AN$47</definedName>
-    <definedName name="Year">#REF!</definedName>
-    <definedName name="Year_second_build_starts" localSheetId="0">Model!$B$8</definedName>
-    <definedName name="Year_second_build_starts">#REF!</definedName>
-    <definedName name="Zero_carbon" localSheetId="0">Model!$B$49:$AN$49</definedName>
-    <definedName name="Zero_carbon">#REF!</definedName>
-    <definedName name="Zero_carbon_built" localSheetId="0">Model!$B$55:$AN$55</definedName>
-    <definedName name="Zero_carbon_built">#REF!</definedName>
-    <definedName name="Zero_carbon_decomissioned" localSheetId="0">Model!$B$54:$AN$54</definedName>
-    <definedName name="Zero_carbon_decomissioned">#REF!</definedName>
+    <definedName name="Year_second_wave_of_building_starts">Model!$B$8</definedName>
+    <definedName name="Zero_carbon">Model!$B$49:$AN$49</definedName>
+    <definedName name="Zero_carbon_built">Model!$B$55:$AN$55</definedName>
+    <definedName name="Zero_carbon_decomissioned">Model!$B$54:$AN$54</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -72,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>Demand</t>
   </si>
@@ -218,9 +204,6 @@
     <t>CB4</t>
   </si>
   <si>
-    <t>TWh/CB4 period</t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -319,6 +302,9 @@
   <si>
     <t>High carbon load factor</t>
   </si>
+  <si>
+    <t>MtCO2/CB4 period</t>
+  </si>
 </sst>
 </file>
 
@@ -402,10 +388,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,7 +453,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="39">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -478,6 +470,9 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -493,6 +488,9 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -705,118 +703,118 @@
                   <c:v>97.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.3916266811482</c:v>
+                  <c:v>107.3125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.0832533622965</c:v>
+                  <c:v>116.925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.7748800434447</c:v>
+                  <c:v>126.5375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.466506724593</c:v>
+                  <c:v>136.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.1581334057412</c:v>
+                  <c:v>145.7625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173.8497600868895</c:v>
+                  <c:v>155.3749999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.5413867680377</c:v>
+                  <c:v>164.9875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.233013449186</c:v>
+                  <c:v>174.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.5919130008798</c:v>
+                  <c:v>168.7799999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>186.1721825675171</c:v>
+                  <c:v>167.537</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179.9664431485999</c:v>
+                  <c:v>168.5269333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>173.9675617103132</c:v>
+                  <c:v>172.7711188888888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>168.1686429866361</c:v>
+                  <c:v>181.8047065925925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>162.5630215537482</c:v>
+                  <c:v>197.806125835736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.1442541686233</c:v>
+                  <c:v>223.1281617520731</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>151.9061123630025</c:v>
+                  <c:v>255.0142662730054</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146.8425752842357</c:v>
+                  <c:v>283.1607654589766</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>141.9478227747612</c:v>
+                  <c:v>308.0108847302193</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147.2162286822692</c:v>
+                  <c:v>329.9705414139961</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>162.3090210595269</c:v>
+                  <c:v>349.4104899290684</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>196.8987203575427</c:v>
+                  <c:v>366.6684443857336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>234.165429678958</c:v>
+                  <c:v>382.1461568062971</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>270.1646495855852</c:v>
+                  <c:v>396.547781895251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>303.87669954804</c:v>
+                  <c:v>410.1223724582072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>334.9939497683937</c:v>
+                  <c:v>423.0262281313452</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>363.8212741490349</c:v>
+                  <c:v>435.3877563218892</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>390.6308656994051</c:v>
+                  <c:v>447.312230075913</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>415.6653903344768</c:v>
+                  <c:v>458.8857815930247</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>439.1408546258064</c:v>
+                  <c:v>470.1787512405551</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>461.2492125158888</c:v>
+                  <c:v>481.248493102654</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>482.160733866663</c:v>
+                  <c:v>492.1417222953299</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>502.0261557538429</c:v>
+                  <c:v>502.896475988704</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>520.9786356251381</c:v>
+                  <c:v>513.5437488902129</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>539.1355237985156</c:v>
+                  <c:v>524.1088545151072</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>556.599971273701</c:v>
+                  <c:v>534.6125556191093</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>573.4623874544886</c:v>
+                  <c:v>545.0720004558393</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>589.8017611204085</c:v>
+                  <c:v>555.5014958511965</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>605.6868568341325</c:v>
+                  <c:v>565.9131432933987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,118 +970,118 @@
                   <c:v>248.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242.0841756421436</c:v>
+                  <c:v>237.1642338909016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235.9895536418895</c:v>
+                  <c:v>226.0351739657313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230.0184024457951</c:v>
+                  <c:v>214.9127907004929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>224.173032957099</c:v>
+                  <c:v>203.7970547011696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218.455799330347</c:v>
+                  <c:v>192.687936703152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212.8690997808933</c:v>
+                  <c:v>181.585407570668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>207.4153774095502</c:v>
+                  <c:v>170.489438296216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>202.097121042673</c:v>
+                  <c:v>159.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>216.2495932174226</c:v>
+                  <c:v>172.0493087379617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>230.3212796502843</c:v>
+                  <c:v>180.2612565712478</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>244.3221905439585</c:v>
+                  <c:v>186.3827653715967</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>258.2621393805476</c:v>
+                  <c:v>189.3954298356606</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>272.1507520421437</c:v>
+                  <c:v>187.7670731972323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>285.9974756753721</c:v>
+                  <c:v>179.322300017031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>299.8115873093216</c:v>
+                  <c:v>161.7114211486281</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>313.6022022359964</c:v>
+                  <c:v>137.6941439516995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>327.3782821621386</c:v>
+                  <c:v>117.5773662550056</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>341.1486431409909</c:v>
+                  <c:v>100.9211524464836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>344.9219632923018</c:v>
+                  <c:v>87.32294227385449</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>339.0401236519505</c:v>
+                  <c:v>76.41540703556035</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>313.8337710478739</c:v>
+                  <c:v>67.86432838425702</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>286.1260289357762</c:v>
+                  <c:v>61.2715215385702</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>259.8646837010744</c:v>
+                  <c:v>55.93647197442857</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>236.0727643395173</c:v>
+                  <c:v>51.61384149752706</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215.061311785936</c:v>
+                  <c:v>48.15112103576996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>196.5289271183366</c:v>
+                  <c:v>45.42377125180258</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>180.2069573460714</c:v>
+                  <c:v>43.33046625996951</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>165.856342828632</c:v>
+                  <c:v>41.789101728797</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>153.2647507646504</c:v>
+                  <c:v>40.73344751703803</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>142.243969740807</c:v>
+                  <c:v>40.1103438085512</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>132.6275424702313</c:v>
+                  <c:v>39.87735551566931</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>124.2686158091644</c:v>
+                  <c:v>40.00081301048965</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>117.037988934266</c:v>
+                  <c:v>40.4541784310702</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>110.8223422048789</c:v>
+                  <c:v>41.21668623691801</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>105.5226307375159</c:v>
+                  <c:v>42.27221463965452</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>101.0526280954808</c:v>
+                  <c:v>43.6083512470119</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97.33760675555448</c:v>
+                  <c:v>45.2156219287524</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>94.31314316586656</c:v>
+                  <c:v>47.08685670660338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,11 +1095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="581569528"/>
-        <c:axId val="581572536"/>
+        <c:axId val="573474408"/>
+        <c:axId val="573477416"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="581569528"/>
+        <c:axId val="573474408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1109,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581572536"/>
+        <c:crossAx val="573477416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,7 +1118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="581572536"/>
+        <c:axId val="573477416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1149,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581569528"/>
+        <c:crossAx val="573474408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,7 +1228,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 161   148   136   124   112   101   90   80 </c:v>
+                  <c:v> 161   146   131   117   104   92   80   69 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1255,118 +1253,118 @@
                   <c:v>161.395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.276557580813</c:v>
+                  <c:v>145.8560038429045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135.6939933440865</c:v>
+                  <c:v>131.1004009001242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.6348913146149</c:v>
+                  <c:v>117.1274709317686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.0865164785495</c:v>
+                  <c:v>103.9364978975965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.0358071902855</c:v>
+                  <c:v>91.52676993399718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.46936740687967</c:v>
+                  <c:v>79.89757933109389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.37345874620073</c:v>
+                  <c:v>69.04822250996747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.73399236493555</c:v>
+                  <c:v>58.97800000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.68735762609793</c:v>
+                  <c:v>63.54354469388718</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.61244787759949</c:v>
+                  <c:v>66.4563165892667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.5127666903855</c:v>
+                  <c:v>68.58885765674756</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.39174878319164</c:v>
+                  <c:v>69.57125455963264</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.25276321475029</c:v>
+                  <c:v>68.84792683898514</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.0991164863802</c:v>
+                  <c:v>65.63196180623331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.9340555582626</c:v>
+                  <c:v>59.07857252629876</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>109.7607707825987</c:v>
+                  <c:v>50.2124644943864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114.5823987567485</c:v>
+                  <c:v>42.798161316822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119.4020250993468</c:v>
+                  <c:v>36.66801872222237</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>120.7226871523056</c:v>
+                  <c:v>31.66912039798455</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>118.6640432781827</c:v>
+                  <c:v>27.66237734687283</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>109.8418198667559</c:v>
+                  <c:v>24.52164398951152</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100.1441101275217</c:v>
+                  <c:v>22.09859543491097</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.95263929537603</c:v>
+                  <c:v>20.13712991079427</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>82.62546751883104</c:v>
+                  <c:v>18.54657371144471</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>75.2714591250776</c:v>
+                  <c:v>17.27020207816281</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.7851244914178</c:v>
+                  <c:v>16.26171010814531</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63.07243507112497</c:v>
+                  <c:v>15.48341994356242</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.0497199900212</c:v>
+                  <c:v>14.90477961660424</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>53.64266276762763</c:v>
+                  <c:v>14.50110731606552</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.78538940928243</c:v>
+                  <c:v>14.25254216663851</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46.41963986458097</c:v>
+                  <c:v>14.14316875622403</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.49401553320755</c:v>
+                  <c:v>14.16028780571332</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.96329612699309</c:v>
+                  <c:v>14.29380971231145</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38.7878197717076</c:v>
+                  <c:v>14.53575134621973</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.93292075813056</c:v>
+                  <c:v>14.87981955315837</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>35.36841983341829</c:v>
+                  <c:v>15.32106740478349</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34.06816236444407</c:v>
+                  <c:v>15.85561142301582</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33.0096001080533</c:v>
+                  <c:v>16.48039984731116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,11 +1378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="581608664"/>
-        <c:axId val="581611672"/>
+        <c:axId val="573493208"/>
+        <c:axId val="573496264"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="581608664"/>
+        <c:axId val="573493208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1392,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581611672"/>
+        <c:crossAx val="573496264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1403,7 +1401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="581611672"/>
+        <c:axId val="573496264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1432,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581608664"/>
+        <c:crossAx val="573493208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1643,118 +1641,118 @@
                   <c:v>466.4595375722544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>420.6715939178522</c:v>
+                  <c:v>423.413222122276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>377.9010571037327</c:v>
+                  <c:v>382.2612969435447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>337.9911475499874</c:v>
+                  <c:v>343.0293489909732</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.7907227834534</c:v>
+                  <c:v>305.7431928303125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.1541067843964</c:v>
+                  <c:v>270.42887232045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>233.9409240030618</c:v>
+                  <c:v>237.1126623068843</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204.0159379265537</c:v>
+                  <c:v>205.8210703264497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>176.2488940794213</c:v>
+                  <c:v>176.5808383233534</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>185.1264034471207</c:v>
+                  <c:v>186.4380294323253</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>193.5503319748245</c:v>
+                  <c:v>191.0771987313078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201.5438545835486</c:v>
+                  <c:v>193.2572085435512</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.128962112185</c:v>
+                  <c:v>192.0974060267117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>216.3265218161114</c:v>
+                  <c:v>186.2910822848512</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>223.1563347747285</c:v>
+                  <c:v>174.0308004039356</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>229.63719036586</c:v>
+                  <c:v>153.5148024041555</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>235.7869179568781</c:v>
+                  <c:v>127.8619535182738</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>241.6224359547612</c:v>
+                  <c:v>106.7983252149517</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>247.1597983500245</c:v>
+                  <c:v>89.66775744786612</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>245.3024152991228</c:v>
+                  <c:v>75.89172042205696</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>236.6894299709496</c:v>
+                  <c:v>64.96170745850764</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>215.067225436347</c:v>
+                  <c:v>56.4322083998287</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>192.476944353754</c:v>
+                  <c:v>49.83697428888665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>171.5992560852957</c:v>
+                  <c:v>44.5034931902713</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>153.0244458878425</c:v>
+                  <c:v>40.16703293110714</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>136.8434489879758</c:v>
+                  <c:v>36.65329436716511</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>122.7538141966276</c:v>
+                  <c:v>33.82138150931282</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>110.4909880263842</c:v>
+                  <c:v>31.55742469865044</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>99.82381857728276</c:v>
+                  <c:v>29.76937752042939</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90.55056582773479</c:v>
+                  <c:v>28.38277761096424</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>82.49536344903764</c:v>
+                  <c:v>27.33729853142571</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75.50508305259829</c:v>
+                  <c:v>26.58395036211168</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>69.44655696975097</c:v>
+                  <c:v>26.08281178161188</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64.204120316271</c:v>
+                  <c:v>25.8011970936887</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.6774372625333</c:v>
+                  <c:v>25.71217873313051</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>55.77958016528317</c:v>
+                  <c:v>25.79339986126514</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>52.43533356270868</c:v>
+                  <c:v>26.02612327804874</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>49.57969803091501</c:v>
+                  <c:v>26.39447246253427</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>47.15657158293334</c:v>
+                  <c:v>26.88482846217146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,11 +1769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="581640056"/>
-        <c:axId val="581643064"/>
+        <c:axId val="573530744"/>
+        <c:axId val="573533752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="581640056"/>
+        <c:axId val="573530744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,7 +1783,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581643064"/>
+        <c:crossAx val="573533752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1794,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="581643064"/>
+        <c:axId val="573533752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1823,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581640056"/>
+        <c:crossAx val="573530744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2028,70 +2026,70 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>15.9482933478149</c:v>
+                  <c:v>12.86916666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.9482933478149</c:v>
+                  <c:v>12.86916666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.37134757051984</c:v>
+                  <c:v>13.18958333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.79440179322479</c:v>
+                  <c:v>13.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.21745601592974</c:v>
+                  <c:v>13.83041666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.64051023863468</c:v>
+                  <c:v>14.15083333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.06356446133962</c:v>
+                  <c:v>14.47124999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.48661868404456</c:v>
+                  <c:v>14.79166666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.90967290674951</c:v>
+                  <c:v>15.11208333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>4.383</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>6.5745</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>9.86175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>14.792625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>22.1889375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>33.28340625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>43.83</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>43.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>43.83</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.0</c:v>
+                  <c:v>43.83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>43.83</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.0</c:v>
+                  <c:v>43.83</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43.83</c:v>
@@ -2159,11 +2157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="581671608"/>
-        <c:axId val="581674616"/>
+        <c:axId val="572690568"/>
+        <c:axId val="572687544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="581671608"/>
+        <c:axId val="572690568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,7 +2171,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581674616"/>
+        <c:crossAx val="572687544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2182,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="581674616"/>
+        <c:axId val="572687544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2211,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581671608"/>
+        <c:crossAx val="572690568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2653,8 +2651,8 @@
   <dimension ref="A2:AY89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B50" sqref="B50:AN50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2677,17 +2675,17 @@
         <v>17</v>
       </c>
       <c r="B3" s="5">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(M53:Q53)</f>
-        <v>476.19045073297025</v>
+        <v>331.71857338789744</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -2698,20 +2696,20 @@
         <v>18</v>
       </c>
       <c r="B4" s="5">
-        <v>700</v>
+        <v>613</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M4" s="11">
         <f>B31*((1+B32)^(B3-B47))</f>
-        <v>346</v>
+        <v>333.99999999999983</v>
       </c>
       <c r="N4" t="s">
         <v>1</v>
@@ -2725,11 +2723,11 @@
     </row>
     <row r="5" spans="1:18">
       <c r="E5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="F5" s="12">
-        <f>T52</f>
-        <v>247.15979835002454</v>
+        <f>J52</f>
+        <v>176.58083832335336</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -2739,7 +2737,7 @@
       </c>
       <c r="M5" s="8">
         <f>((B4/M4)^(1/(2050-B3)))-1</f>
-        <v>1.8716191685814731E-2</v>
+        <v>2.0447032149585764E-2</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
@@ -2758,11 +2756,11 @@
         <v>46</v>
       </c>
       <c r="E6">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="F6" s="12">
-        <f>AN52</f>
-        <v>47.156571582933339</v>
+        <f>T52</f>
+        <v>89.667757447866123</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -2781,17 +2779,27 @@
         <v>19</v>
       </c>
       <c r="B7" s="6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="E7">
+        <v>2050</v>
+      </c>
+      <c r="F7" s="12">
+        <f>AN52</f>
+        <v>26.884828462171455</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
       <c r="L7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="2">
         <f>B7*J48</f>
-        <v>40.133013449185903</v>
+        <v>100.19999999999997</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -2802,17 +2810,17 @@
         <v>22</v>
       </c>
       <c r="B8" s="5">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2">
         <f>SUM(B53:AN53)</f>
-        <v>3300.5364677557859</v>
+        <v>1907.2421424213694</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2829,10 +2837,11 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7">
-        <v>10</v>
+        <f>0.5*24*365.25/1000</f>
+        <v>4.383</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2840,24 +2849,24 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="14">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2995,7 +3004,7 @@
       </c>
       <c r="N34" s="2">
         <f>M7</f>
-        <v>40.133013449185903</v>
+        <v>100.19999999999997</v>
       </c>
       <c r="O34" t="s">
         <v>1</v>
@@ -3030,7 +3039,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="5">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -3047,7 +3056,7 @@
       </c>
       <c r="N36" s="2">
         <f>M36+B36</f>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="O36" t="s">
         <v>1</v>
@@ -3075,7 +3084,7 @@
       </c>
       <c r="N37" s="2">
         <f>SUM(N34:N36)</f>
-        <v>101.5330134491859</v>
+        <v>174.59999999999997</v>
       </c>
       <c r="O37" t="s">
         <v>1</v>
@@ -3086,8 +3095,8 @@
         <v>41</v>
       </c>
       <c r="N38">
-        <f>N37/(N33-M33)</f>
-        <v>12.691626681148238</v>
+        <f>(N37-M37)/(N33-M33)</f>
+        <v>9.6124999999999954</v>
       </c>
       <c r="O38" t="s">
         <v>7</v>
@@ -3112,7 +3121,7 @@
         <v>650</v>
       </c>
       <c r="C40" s="5">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D40" s="5">
         <v>350</v>
@@ -3130,11 +3139,11 @@
       </c>
       <c r="C41">
         <f>(C40-B40)/(C39-B39)</f>
-        <v>-37.5</v>
+        <v>-35</v>
       </c>
       <c r="D41">
         <f>(D40-C40)/(D39-C39)</f>
-        <v>0</v>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="E41" t="s">
         <v>45</v>
@@ -3148,12 +3157,12 @@
         <v>2050</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="5">
         <v>0.5</v>
@@ -3162,28 +3171,28 @@
         <v>0.5</v>
       </c>
       <c r="D44" s="18">
-        <f>((C44/B44)^(1/($C$43-Start_year)))-1</f>
+        <f>((C44/B44)^(1/($C$43-B3)))-1</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="5">
         <v>1.5</v>
       </c>
       <c r="C45" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D45" s="18">
-        <f>((C45/B45)^(1/($C$43-Start_year)))-1</f>
-        <v>0</v>
+        <f>((C45/B45)^(1/($C$43-B3)))-1</f>
+        <v>9.6355280556115197E-3</v>
       </c>
     </row>
     <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>2012</v>
@@ -3358,155 +3367,155 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ref="C48:AN48" si="1">B48*IF(C$47&gt;$B$3,(1+$M$5),(1+$B$32))</f>
-        <v>352.47580232329187</v>
+        <v>344.47673389090158</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>359.07280700418596</v>
+        <v>342.96017396573131</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="1"/>
-        <v>365.79328248923986</v>
+        <v>341.45029070049287</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
-        <v>372.63953968169187</v>
+        <v>339.94705470116958</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="1"/>
-        <v>379.6139327360882</v>
+        <v>338.45043670315192</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="1"/>
-        <v>386.71885986778278</v>
+        <v>336.96040757066788</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="1"/>
-        <v>393.95676417758796</v>
+        <v>335.47693829621591</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="1"/>
-        <v>401.33013449185898</v>
+        <v>333.99999999999994</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="1"/>
-        <v>408.84150621830241</v>
+        <v>340.82930873796158</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="1"/>
-        <v>416.49346221780138</v>
+        <v>347.79825657124775</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="1"/>
-        <v>424.28863369255839</v>
+        <v>354.90969870492995</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="1"/>
-        <v>432.22970109086077</v>
+        <v>362.16654872454944</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="1"/>
-        <v>440.31939502877975</v>
+        <v>369.5717797898248</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="1"/>
-        <v>448.56049722912036</v>
+        <v>377.12842585276695</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="1"/>
-        <v>456.95584147794494</v>
+        <v>384.83958290070115</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="1"/>
-        <v>465.50831459899894</v>
+        <v>392.70841022470495</v>
       </c>
       <c r="S48" s="1">
         <f t="shared" si="1"/>
-        <v>474.22085744637434</v>
+        <v>400.73813171398223</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" si="1"/>
-        <v>483.09646591575211</v>
+        <v>408.93203717670298</v>
       </c>
       <c r="U48" s="1">
         <f t="shared" si="1"/>
-        <v>492.13819197457099</v>
+        <v>417.2934836878506</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="1"/>
-        <v>501.34914471147732</v>
+        <v>425.82589696462873</v>
       </c>
       <c r="W48" s="1">
         <f t="shared" si="1"/>
-        <v>510.73249140541662</v>
+        <v>434.53277276999069</v>
       </c>
       <c r="X48" s="1">
         <f t="shared" si="1"/>
-        <v>520.2914586147341</v>
+        <v>443.41767834486734</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="1"/>
-        <v>530.02933328665961</v>
+        <v>452.48425386967955</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="1"/>
-        <v>539.94946388755727</v>
+        <v>461.73621395573423</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="1"/>
-        <v>550.05526155432972</v>
+        <v>471.17734916711515</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="1"/>
-        <v>560.35020126737152</v>
+        <v>480.81152757369176</v>
       </c>
       <c r="AC48" s="1">
         <f t="shared" si="1"/>
-        <v>570.83782304547651</v>
+        <v>490.64269633588248</v>
       </c>
       <c r="AD48" s="1">
         <f t="shared" si="1"/>
-        <v>581.52173316310882</v>
+        <v>500.67488332182171</v>
       </c>
       <c r="AE48" s="1">
         <f t="shared" si="1"/>
-        <v>592.4056053904568</v>
+        <v>510.9121987575931</v>
       </c>
       <c r="AF48" s="1">
         <f t="shared" si="1"/>
-        <v>603.49318225669572</v>
+        <v>521.35883691120512</v>
       </c>
       <c r="AG48" s="1">
         <f t="shared" si="1"/>
-        <v>614.78827633689434</v>
+        <v>532.01907781099919</v>
       </c>
       <c r="AH48" s="1">
         <f t="shared" si="1"/>
-        <v>626.29477156300732</v>
+        <v>542.89728899919362</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="1"/>
-        <v>638.01662455940414</v>
+        <v>553.9979273212831</v>
       </c>
       <c r="AJ48" s="1">
         <f t="shared" si="1"/>
-        <v>649.95786600339443</v>
+        <v>565.32554075202529</v>
       </c>
       <c r="AK48" s="1">
         <f t="shared" si="1"/>
-        <v>662.12260201121705</v>
+        <v>576.88477025876387</v>
       </c>
       <c r="AL48" s="1">
         <f t="shared" si="1"/>
-        <v>674.51501554996946</v>
+        <v>588.68035170285123</v>
       </c>
       <c r="AM48" s="1">
         <f t="shared" si="1"/>
-        <v>687.13936787596299</v>
+        <v>600.71711777994892</v>
       </c>
       <c r="AN48" s="1">
         <f t="shared" si="1"/>
-        <v>699.99999999999909</v>
+        <v>613.00000000000205</v>
       </c>
       <c r="AO48" t="s">
         <v>1</v>
@@ -3522,155 +3531,155 @@
       </c>
       <c r="C49" s="2">
         <f>B49+$N$38</f>
-        <v>110.39162668114824</v>
+        <v>107.3125</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ref="D49:J49" si="2">C49+$N$38</f>
-        <v>123.08325336229647</v>
+        <v>116.925</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="2"/>
-        <v>135.77488004344471</v>
+        <v>126.53749999999999</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="2"/>
-        <v>148.46650672459296</v>
+        <v>136.14999999999998</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="2"/>
-        <v>161.15813340574121</v>
+        <v>145.76249999999996</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>173.84976008688946</v>
+        <v>155.37499999999994</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="2"/>
-        <v>186.54138676803771</v>
+        <v>164.98749999999993</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="2"/>
-        <v>199.23301344918596</v>
+        <v>174.59999999999991</v>
       </c>
       <c r="K49" s="2">
         <f>K86</f>
-        <v>192.59191300087977</v>
+        <v>168.77999999999992</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" ref="L49:AN49" si="3">L86</f>
-        <v>186.1721825675171</v>
+        <v>167.53699999999992</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>179.96644314859986</v>
+        <v>168.52693333333326</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="3"/>
-        <v>173.96756171031319</v>
+        <v>172.77111888888882</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="3"/>
-        <v>168.16864298663609</v>
+        <v>181.80470659259254</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="3"/>
-        <v>162.56302155374823</v>
+        <v>197.806125835736</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="3"/>
-        <v>157.14425416862329</v>
+        <v>223.12816175207308</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="3"/>
-        <v>151.90611236300251</v>
+        <v>255.01426627300543</v>
       </c>
       <c r="S49" s="2">
         <f t="shared" si="3"/>
-        <v>146.84257528423575</v>
+        <v>283.16076545897664</v>
       </c>
       <c r="T49" s="2">
         <f t="shared" si="3"/>
-        <v>141.94782277476122</v>
+        <v>308.01088473021935</v>
       </c>
       <c r="U49" s="2">
         <f t="shared" si="3"/>
-        <v>147.21622868226919</v>
+        <v>329.9705414139961</v>
       </c>
       <c r="V49" s="2">
         <f t="shared" si="3"/>
-        <v>162.30902105952688</v>
+        <v>349.41048992906838</v>
       </c>
       <c r="W49" s="2">
         <f t="shared" si="3"/>
-        <v>196.89872035754266</v>
+        <v>366.66844438573366</v>
       </c>
       <c r="X49" s="2">
         <f t="shared" si="3"/>
-        <v>234.16542967895791</v>
+        <v>382.14615680629714</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="3"/>
-        <v>270.16464958558521</v>
+        <v>396.54778189525098</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="3"/>
-        <v>303.87669954803999</v>
+        <v>410.12237245820717</v>
       </c>
       <c r="AA49" s="2">
         <f t="shared" si="3"/>
-        <v>334.99394976839369</v>
+        <v>423.02622813134519</v>
       </c>
       <c r="AB49" s="2">
         <f t="shared" si="3"/>
-        <v>363.82127414903493</v>
+        <v>435.38775632188919</v>
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="3"/>
-        <v>390.63086569940515</v>
+        <v>447.31223007591296</v>
       </c>
       <c r="AD49" s="2">
         <f t="shared" si="3"/>
-        <v>415.6653903344768</v>
+        <v>458.88578159302472</v>
       </c>
       <c r="AE49" s="2">
         <f t="shared" si="3"/>
-        <v>439.14085462580641</v>
+        <v>470.17875124055507</v>
       </c>
       <c r="AF49" s="2">
         <f t="shared" si="3"/>
-        <v>461.24921251588876</v>
+        <v>481.24849310265392</v>
       </c>
       <c r="AG49" s="2">
         <f t="shared" si="3"/>
-        <v>482.16073386666301</v>
+        <v>492.14172229532988</v>
       </c>
       <c r="AH49" s="2">
         <f t="shared" si="3"/>
-        <v>502.02615575384289</v>
+        <v>502.89647598870397</v>
       </c>
       <c r="AI49" s="2">
         <f t="shared" si="3"/>
-        <v>520.97863562513817</v>
+        <v>513.5437488902129</v>
       </c>
       <c r="AJ49" s="2">
         <f t="shared" si="3"/>
-        <v>539.13552379851558</v>
+        <v>524.10885451510728</v>
       </c>
       <c r="AK49" s="2">
         <f t="shared" si="3"/>
-        <v>556.59997127370116</v>
+        <v>534.61255561910934</v>
       </c>
       <c r="AL49" s="2">
         <f t="shared" si="3"/>
-        <v>573.46238745448863</v>
+        <v>545.07200045583932</v>
       </c>
       <c r="AM49" s="2">
         <f t="shared" si="3"/>
-        <v>589.80176112040851</v>
+        <v>555.50149585119652</v>
       </c>
       <c r="AN49" s="2">
         <f t="shared" si="3"/>
-        <v>605.68685683413253</v>
+        <v>565.91314329339866</v>
       </c>
       <c r="AO49" t="s">
         <v>1</v>
@@ -3686,155 +3695,155 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ref="C50:AN50" si="4">C48-C49</f>
-        <v>242.08417564214363</v>
+        <v>237.16423389090158</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="4"/>
-        <v>235.98955364188947</v>
+        <v>226.0351739657313</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="4"/>
-        <v>230.01840244579515</v>
+        <v>214.91279070049288</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="4"/>
-        <v>224.17303295709891</v>
+        <v>203.7970547011696</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="4"/>
-        <v>218.45579933034699</v>
+        <v>192.68793670315196</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="4"/>
-        <v>212.86909978089332</v>
+        <v>181.58540757066794</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="4"/>
-        <v>207.41537740955025</v>
+        <v>170.48943829621598</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="4"/>
-        <v>202.09712104267302</v>
+        <v>159.40000000000003</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="4"/>
-        <v>216.24959321742264</v>
+        <v>172.04930873796167</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="4"/>
-        <v>230.32127965028428</v>
+        <v>180.26125657124783</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="4"/>
-        <v>244.32219054395853</v>
+        <v>186.38276537159669</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>258.26213938054758</v>
+        <v>189.39542983566062</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="4"/>
-        <v>272.15075204214367</v>
+        <v>187.76707319723226</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="4"/>
-        <v>285.99747567537213</v>
+        <v>179.32230001703095</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="4"/>
-        <v>299.81158730932168</v>
+        <v>161.71142114862806</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="4"/>
-        <v>313.6022022359964</v>
+        <v>137.69414395169952</v>
       </c>
       <c r="S50" s="2">
         <f t="shared" si="4"/>
-        <v>327.37828216213859</v>
+        <v>117.57736625500559</v>
       </c>
       <c r="T50" s="2">
         <f t="shared" si="4"/>
-        <v>341.14864314099088</v>
+        <v>100.92115244648363</v>
       </c>
       <c r="U50" s="2">
         <f t="shared" si="4"/>
-        <v>344.92196329230183</v>
+        <v>87.322942273854494</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" si="4"/>
-        <v>339.04012365195047</v>
+        <v>76.415407035560349</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="4"/>
-        <v>313.83377104787394</v>
+        <v>67.864328384257021</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="4"/>
-        <v>286.12602893577616</v>
+        <v>61.271521538570198</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="4"/>
-        <v>259.8646837010744</v>
+        <v>55.936471974428571</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="4"/>
-        <v>236.07276433951728</v>
+        <v>51.613841497527062</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="4"/>
-        <v>215.06131178593603</v>
+        <v>48.151121035769961</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="4"/>
-        <v>196.52892711833658</v>
+        <v>45.423771251802577</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="4"/>
-        <v>180.20695734607136</v>
+        <v>43.330466259969512</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="4"/>
-        <v>165.85634282863202</v>
+        <v>41.789101728796993</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="4"/>
-        <v>153.26475076465039</v>
+        <v>40.73344751703803</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="4"/>
-        <v>142.24396974080696</v>
+        <v>40.110343808551193</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="4"/>
-        <v>132.62754247023133</v>
+        <v>39.877355515669308</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="4"/>
-        <v>124.26861580916443</v>
+        <v>40.000813010489651</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="4"/>
-        <v>117.03798893426597</v>
+        <v>40.454178431070204</v>
       </c>
       <c r="AJ50" s="2">
         <f t="shared" si="4"/>
-        <v>110.82234220487885</v>
+        <v>41.216686236918008</v>
       </c>
       <c r="AK50" s="2">
         <f t="shared" si="4"/>
-        <v>105.5226307375159</v>
+        <v>42.272214639654521</v>
       </c>
       <c r="AL50" s="2">
         <f t="shared" si="4"/>
-        <v>101.05262809548083</v>
+        <v>43.60835124701191</v>
       </c>
       <c r="AM50" s="2">
         <f t="shared" si="4"/>
-        <v>97.337606755554475</v>
+        <v>45.215621928752398</v>
       </c>
       <c r="AN50" s="2">
         <f t="shared" si="4"/>
-        <v>94.313143165866563</v>
+        <v>47.086856706603385</v>
       </c>
       <c r="AO50" t="s">
         <v>1</v>
@@ -3850,155 +3859,155 @@
       </c>
       <c r="C51" s="11">
         <f>B51+$C$41</f>
-        <v>612.5</v>
+        <v>615</v>
       </c>
       <c r="D51" s="11">
         <f t="shared" ref="D51:J51" si="5">C51+$C$41</f>
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="5"/>
-        <v>537.5</v>
+        <v>545</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G51" s="11">
         <f t="shared" si="5"/>
-        <v>462.5</v>
+        <v>475</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="5"/>
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="5"/>
-        <v>387.5</v>
+        <v>405</v>
       </c>
       <c r="J51" s="11">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="K51" s="11">
         <f>J51+$D$41</f>
-        <v>350</v>
+        <v>369.33333333333331</v>
       </c>
       <c r="L51" s="11">
         <f t="shared" ref="L51:AN51" si="6">K51+$D$41</f>
-        <v>350</v>
+        <v>368.66666666666663</v>
       </c>
       <c r="M51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>367.99999999999994</v>
       </c>
       <c r="N51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>367.33333333333326</v>
       </c>
       <c r="O51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>366.66666666666657</v>
       </c>
       <c r="P51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>365.99999999999989</v>
       </c>
       <c r="Q51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>365.3333333333332</v>
       </c>
       <c r="R51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>364.66666666666652</v>
       </c>
       <c r="S51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>363.99999999999983</v>
       </c>
       <c r="T51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>363.33333333333314</v>
       </c>
       <c r="U51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>362.66666666666646</v>
       </c>
       <c r="V51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>361.99999999999977</v>
       </c>
       <c r="W51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>361.33333333333309</v>
       </c>
       <c r="X51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>360.6666666666664</v>
       </c>
       <c r="Y51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>359.99999999999972</v>
       </c>
       <c r="Z51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>359.33333333333303</v>
       </c>
       <c r="AA51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>358.66666666666634</v>
       </c>
       <c r="AB51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>357.99999999999966</v>
       </c>
       <c r="AC51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>357.33333333333297</v>
       </c>
       <c r="AD51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>356.66666666666629</v>
       </c>
       <c r="AE51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>355.9999999999996</v>
       </c>
       <c r="AF51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>355.33333333333292</v>
       </c>
       <c r="AG51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>354.66666666666623</v>
       </c>
       <c r="AH51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>353.99999999999955</v>
       </c>
       <c r="AI51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>353.33333333333286</v>
       </c>
       <c r="AJ51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>352.66666666666617</v>
       </c>
       <c r="AK51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>351.99999999999949</v>
       </c>
       <c r="AL51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>351.3333333333328</v>
       </c>
       <c r="AM51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>350.66666666666612</v>
       </c>
       <c r="AN51" s="11">
         <f t="shared" si="6"/>
-        <v>350</v>
+        <v>349.99999999999943</v>
       </c>
       <c r="AO51" t="s">
         <v>5</v>
@@ -4014,155 +4023,155 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="7"/>
-        <v>420.67159391785219</v>
+        <v>423.41322212227601</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="7"/>
-        <v>377.90105710373268</v>
+        <v>382.26129694354466</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="7"/>
-        <v>337.99114754998737</v>
+        <v>343.02934899097318</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="7"/>
-        <v>300.79072278345336</v>
+        <v>305.74319283031252</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="7"/>
-        <v>266.15410678439639</v>
+        <v>270.42887232044995</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="7"/>
-        <v>233.94092400306178</v>
+        <v>237.11266230688435</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="7"/>
-        <v>204.01593792655368</v>
+        <v>205.82107032644967</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="7"/>
-        <v>176.24889407942129</v>
+        <v>176.58083832335336</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="7"/>
-        <v>185.12640344712065</v>
+        <v>186.43802943232532</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="7"/>
-        <v>193.55033197482453</v>
+        <v>191.07719873130782</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="7"/>
-        <v>201.54385458354855</v>
+        <v>193.2572085435512</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="7"/>
-        <v>209.12896211218492</v>
+        <v>192.09740602671172</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="7"/>
-        <v>216.32652181611138</v>
+        <v>186.29108228485117</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="7"/>
-        <v>223.15633477472846</v>
+        <v>174.03080040393559</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="7"/>
-        <v>229.63719036585999</v>
+        <v>153.51480240415552</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="7"/>
-        <v>235.78691795687806</v>
+        <v>127.86195351827375</v>
       </c>
       <c r="S52" s="1">
         <f t="shared" si="7"/>
-        <v>241.62243595476116</v>
+        <v>106.79832521495166</v>
       </c>
       <c r="T52" s="1">
         <f t="shared" si="7"/>
-        <v>247.15979835002454</v>
+        <v>89.667757447866123</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" si="7"/>
-        <v>245.3024152991228</v>
+        <v>75.891720422056963</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="7"/>
-        <v>236.68942997094959</v>
+        <v>64.961707458507647</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="7"/>
-        <v>215.06722543634697</v>
+        <v>56.432208399828696</v>
       </c>
       <c r="X52" s="1">
         <f t="shared" si="7"/>
-        <v>192.47694435375396</v>
+        <v>49.836974288886651</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" si="7"/>
-        <v>171.59925608529568</v>
+        <v>44.503493190271293</v>
       </c>
       <c r="Z52" s="1">
         <f t="shared" si="7"/>
-        <v>153.02444588784246</v>
+        <v>40.167032931107144</v>
       </c>
       <c r="AA52" s="1">
         <f t="shared" si="7"/>
-        <v>136.84344898797582</v>
+        <v>36.65329436716511</v>
       </c>
       <c r="AB52" s="1">
         <f t="shared" si="7"/>
-        <v>122.7538141966276</v>
+        <v>33.821381509312822</v>
       </c>
       <c r="AC52" s="1">
         <f t="shared" si="7"/>
-        <v>110.49098802638422</v>
+        <v>31.557424698650436</v>
       </c>
       <c r="AD52" s="1">
         <f t="shared" si="7"/>
-        <v>99.823818577282765</v>
+        <v>29.769377520429387</v>
       </c>
       <c r="AE52" s="1">
         <f t="shared" si="7"/>
-        <v>90.550565827734786</v>
+        <v>28.382777610964236</v>
       </c>
       <c r="AF52" s="1">
         <f t="shared" si="7"/>
-        <v>82.49536344903764</v>
+        <v>27.337298531425713</v>
       </c>
       <c r="AG52" s="1">
         <f t="shared" si="7"/>
-        <v>75.505083052598295</v>
+        <v>26.583950362111676</v>
       </c>
       <c r="AH52" s="1">
         <f t="shared" si="7"/>
-        <v>69.446556969750972</v>
+        <v>26.082811781611884</v>
       </c>
       <c r="AI52" s="1">
         <f t="shared" si="7"/>
-        <v>64.204120316271002</v>
+        <v>25.8011970936887</v>
       </c>
       <c r="AJ52" s="1">
         <f t="shared" si="7"/>
-        <v>59.677437262533303</v>
+        <v>25.712178733130514</v>
       </c>
       <c r="AK52" s="1">
         <f t="shared" si="7"/>
-        <v>55.779580165283171</v>
+        <v>25.793399861265137</v>
       </c>
       <c r="AL52" s="1">
         <f t="shared" si="7"/>
-        <v>52.435333562708685</v>
+        <v>26.02612327804874</v>
       </c>
       <c r="AM52" s="1">
         <f t="shared" si="7"/>
-        <v>49.579698030915011</v>
+        <v>26.394472462534267</v>
       </c>
       <c r="AN52" s="1">
         <f t="shared" si="7"/>
-        <v>47.156571582933339</v>
+        <v>26.884828462171455</v>
       </c>
       <c r="AO52" t="s">
         <v>5</v>
@@ -4178,155 +4187,155 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="8"/>
-        <v>148.27655758081298</v>
+        <v>145.85600384290447</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="8"/>
-        <v>135.69399334408646</v>
+        <v>131.10040090012416</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="8"/>
-        <v>123.63489131461489</v>
+        <v>117.12747093176863</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="8"/>
-        <v>112.08651647854946</v>
+        <v>103.9364978975965</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>101.03580719028548</v>
+        <v>91.526769933997187</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="8"/>
-        <v>90.46936740687967</v>
+        <v>79.897579331093894</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="8"/>
-        <v>80.373458746200725</v>
+        <v>69.048222509967474</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="8"/>
-        <v>70.73399236493556</v>
+        <v>58.978000000000016</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="8"/>
-        <v>75.687357626097935</v>
+        <v>63.543544693887178</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="8"/>
-        <v>80.612447877599493</v>
+        <v>66.456316589266692</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="8"/>
-        <v>85.51276669038549</v>
+        <v>68.588857656747564</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="8"/>
-        <v>90.391748783191645</v>
+        <v>69.571254559632649</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="8"/>
-        <v>95.252763214750289</v>
+        <v>68.847926838985146</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="8"/>
-        <v>100.09911648638024</v>
+        <v>65.631961806233306</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="8"/>
-        <v>104.93405555826259</v>
+        <v>59.078572526298764</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="8"/>
-        <v>109.76077078259874</v>
+        <v>50.212464494386403</v>
       </c>
       <c r="S53" s="1">
         <f t="shared" si="8"/>
-        <v>114.5823987567485</v>
+        <v>42.798161316822011</v>
       </c>
       <c r="T53" s="1">
         <f t="shared" si="8"/>
-        <v>119.4020250993468</v>
+        <v>36.668018722222371</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="8"/>
-        <v>120.72268715230564</v>
+        <v>31.669120397984546</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="8"/>
-        <v>118.66404327818267</v>
+        <v>27.66237734687283</v>
       </c>
       <c r="W53" s="1">
         <f t="shared" si="8"/>
-        <v>109.84181986675587</v>
+        <v>24.521643989511521</v>
       </c>
       <c r="X53" s="1">
         <f t="shared" si="8"/>
-        <v>100.14411012752166</v>
+        <v>22.098595434910965</v>
       </c>
       <c r="Y53" s="1">
         <f t="shared" si="8"/>
-        <v>90.952639295376031</v>
+        <v>20.137129910794268</v>
       </c>
       <c r="Z53" s="1">
         <f t="shared" si="8"/>
-        <v>82.625467518831044</v>
+        <v>18.546573711444708</v>
       </c>
       <c r="AA53" s="1">
         <f t="shared" si="8"/>
-        <v>75.271459125077612</v>
+        <v>17.270202078162807</v>
       </c>
       <c r="AB53" s="1">
         <f t="shared" si="8"/>
-        <v>68.785124491417804</v>
+        <v>16.261710108145309</v>
       </c>
       <c r="AC53" s="1">
         <f t="shared" si="8"/>
-        <v>63.072435071124978</v>
+        <v>15.483419943562422</v>
       </c>
       <c r="AD53" s="1">
         <f t="shared" si="8"/>
-        <v>58.04971999002121</v>
+        <v>14.904779616604245</v>
       </c>
       <c r="AE53" s="1">
         <f t="shared" si="8"/>
-        <v>53.642662767627634</v>
+        <v>14.501107316065523</v>
       </c>
       <c r="AF53" s="1">
         <f t="shared" si="8"/>
-        <v>49.785389409282431</v>
+        <v>14.252542166638506</v>
       </c>
       <c r="AG53" s="1">
         <f t="shared" si="8"/>
-        <v>46.419639864580965</v>
+        <v>14.143168756224032</v>
       </c>
       <c r="AH53" s="1">
         <f t="shared" si="8"/>
-        <v>43.494015533207552</v>
+        <v>14.160287805713319</v>
       </c>
       <c r="AI53" s="1">
         <f t="shared" si="8"/>
-        <v>40.963296126993086</v>
+        <v>14.293809712311454</v>
       </c>
       <c r="AJ53" s="1">
         <f t="shared" si="8"/>
-        <v>38.787819771707596</v>
+        <v>14.535751346219731</v>
       </c>
       <c r="AK53" s="1">
         <f t="shared" si="8"/>
-        <v>36.932920758130564</v>
+        <v>14.87981955315837</v>
       </c>
       <c r="AL53" s="1">
         <f t="shared" si="8"/>
-        <v>35.368419833418287</v>
+        <v>15.321067404783495</v>
       </c>
       <c r="AM53" s="1">
         <f t="shared" si="8"/>
-        <v>34.068162364444071</v>
+        <v>15.855611423015816</v>
       </c>
       <c r="AN53" s="1">
         <f t="shared" si="8"/>
-        <v>33.009600108053299</v>
+        <v>16.480399847311158</v>
       </c>
       <c r="AO53" t="s">
         <v>14</v>
@@ -4334,7 +4343,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1">
         <f>B74*(1/$B$13)</f>
@@ -4342,151 +4351,151 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" ref="D54:AN54" si="9">C74*(1/$B$13)</f>
-        <v>3.679720889371608</v>
+        <v>3.5770833333333334</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="9"/>
-        <v>4.1027751120765492</v>
+        <v>3.8975</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="9"/>
-        <v>4.5258293347814904</v>
+        <v>4.2179166666666665</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="9"/>
-        <v>4.9488835574864316</v>
+        <v>4.5383333333333322</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="9"/>
-        <v>5.3719377801913737</v>
+        <v>4.8587499999999988</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="9"/>
-        <v>5.7949920028963149</v>
+        <v>5.1791666666666645</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="9"/>
-        <v>6.218046225601257</v>
+        <v>5.499583333333331</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="9"/>
-        <v>6.6411004483061982</v>
+        <v>5.8199999999999967</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="9"/>
-        <v>6.419730433362659</v>
+        <v>5.6259999999999968</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="9"/>
-        <v>6.2057394189172363</v>
+        <v>5.5845666666666638</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="9"/>
-        <v>5.998881438286662</v>
+        <v>5.6175644444444419</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="9"/>
-        <v>5.7989187236771063</v>
+        <v>5.7590372962962944</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="9"/>
-        <v>5.6056214328878697</v>
+        <v>6.060156886419751</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="9"/>
-        <v>5.4187673851249407</v>
+        <v>6.5977829068724265</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="9"/>
-        <v>5.238141805620776</v>
+        <v>7.4873036849766796</v>
       </c>
       <c r="S54" s="1">
         <f t="shared" si="9"/>
-        <v>5.0635370787667497</v>
+        <v>8.6987268954774564</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" si="9"/>
-        <v>4.8947525094745252</v>
+        <v>9.8697693322948759</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="9"/>
-        <v>4.731594092492041</v>
+        <v>11.001777021218379</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="9"/>
-        <v>4.9072076227423063</v>
+        <v>12.096051120511101</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="9"/>
-        <v>5.4103007019842293</v>
+        <v>13.153849416494063</v>
       </c>
       <c r="X54" s="1">
         <f t="shared" si="9"/>
-        <v>6.5632906785847549</v>
+        <v>14.176387769277595</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" si="9"/>
-        <v>7.8055143226319297</v>
+        <v>15.164841510301674</v>
       </c>
       <c r="Z54" s="1">
         <f t="shared" si="9"/>
-        <v>9.0063305118775325</v>
+        <v>16.120346793291617</v>
       </c>
       <c r="AA54" s="1">
         <f t="shared" si="9"/>
-        <v>10.167119494814948</v>
+        <v>17.044001900181897</v>
       </c>
       <c r="AB54" s="1">
         <f t="shared" si="9"/>
-        <v>11.289215511654449</v>
+        <v>17.936868503509167</v>
       </c>
       <c r="AC54" s="1">
         <f t="shared" si="9"/>
-        <v>12.373908327932634</v>
+        <v>18.799972886725527</v>
       </c>
       <c r="AD54" s="1">
         <f t="shared" si="9"/>
-        <v>13.422444717001547</v>
+        <v>19.634307123834677</v>
       </c>
       <c r="AE54" s="1">
         <f t="shared" si="9"/>
-        <v>14.436029893101493</v>
+        <v>20.440830219706857</v>
       </c>
       <c r="AF54" s="1">
         <f t="shared" si="9"/>
-        <v>15.415828896664777</v>
+        <v>21.220469212383296</v>
       </c>
       <c r="AG54" s="1">
         <f t="shared" si="9"/>
-        <v>16.362967933442619</v>
+        <v>21.974120238637184</v>
       </c>
       <c r="AH54" s="1">
         <f t="shared" si="9"/>
-        <v>17.278535668994532</v>
+        <v>22.702649564015942</v>
       </c>
       <c r="AI54" s="1">
         <f t="shared" si="9"/>
-        <v>18.163584480028046</v>
+        <v>23.406894578548744</v>
       </c>
       <c r="AJ54" s="1">
         <f t="shared" si="9"/>
-        <v>19.01913166402711</v>
+        <v>24.087664759263784</v>
       </c>
       <c r="AK54" s="1">
         <f t="shared" si="9"/>
-        <v>19.846160608559543</v>
+        <v>24.745742600621661</v>
       </c>
       <c r="AL54" s="1">
         <f t="shared" si="9"/>
-        <v>20.645621921607557</v>
+        <v>25.381884513934271</v>
       </c>
       <c r="AM54" s="1">
         <f t="shared" si="9"/>
-        <v>21.41843452422064</v>
+        <v>25.996821696803128</v>
       </c>
       <c r="AN54" s="1">
         <f t="shared" si="9"/>
-        <v>22.16548670674662</v>
+        <v>26.591260973576357</v>
       </c>
       <c r="AO54" t="s">
         <v>7</v>
@@ -4494,43 +4503,43 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
         <f>C55</f>
-        <v>15.948293347814904</v>
+        <v>12.869166666666665</v>
       </c>
       <c r="C55" s="2">
         <f>C56+C54</f>
-        <v>15.948293347814904</v>
+        <v>12.869166666666665</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ref="D55:J55" si="10">D56+D54</f>
-        <v>16.371347570519845</v>
+        <v>13.189583333333331</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="10"/>
-        <v>16.794401793224786</v>
+        <v>13.509999999999998</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="10"/>
-        <v>17.217456015929741</v>
+        <v>13.83041666666665</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="10"/>
-        <v>17.640510238634683</v>
+        <v>14.150833333333315</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="10"/>
-        <v>18.063564461339624</v>
+        <v>14.471249999999982</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="10"/>
-        <v>18.486618684044565</v>
+        <v>14.791666666666647</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="10"/>
-        <v>18.909672906749506</v>
+        <v>15.112083333333313</v>
       </c>
       <c r="K55" s="2">
         <f>IF(K47&gt;$B$8,MIN(MAX(J55*(1+$B$11),$B$10),MIN($B$9,K64-(J74-K54))),MAX(J55*(1-$B$12),0))</f>
@@ -4538,51 +4547,51 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" ref="L55:AN55" si="11">IF(L47&gt;$B$8,MIN(MAX(K55*(1+$B$11),$B$10),MIN($B$9,L64-(K74-L54))),MAX(K55*(1-$B$12),0))</f>
-        <v>0</v>
+        <v>4.383</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6.5745000000000005</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9.8617500000000007</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>14.792625000000001</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>22.188937500000002</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>33.283406249999999</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>43.83</v>
       </c>
       <c r="S55" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>43.83</v>
       </c>
       <c r="T55" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>43.83</v>
       </c>
       <c r="U55" s="2">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>43.83</v>
       </c>
       <c r="V55" s="2">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>43.83</v>
       </c>
       <c r="W55" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>43.83</v>
       </c>
       <c r="X55" s="2">
         <f t="shared" si="11"/>
@@ -4658,159 +4667,159 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2">
         <f>C74-B74</f>
-        <v>12.691626681148236</v>
+        <v>9.6124999999999972</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ref="D56:J56" si="12">D49-C49</f>
-        <v>12.691626681148236</v>
+        <v>9.6124999999999972</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="12"/>
-        <v>12.691626681148236</v>
+        <v>9.6124999999999972</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="12"/>
-        <v>12.69162668114825</v>
+        <v>9.6124999999999829</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="12"/>
-        <v>12.69162668114825</v>
+        <v>9.6124999999999829</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="12"/>
-        <v>12.69162668114825</v>
+        <v>9.6124999999999829</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="12"/>
-        <v>12.69162668114825</v>
+        <v>9.6124999999999829</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="12"/>
-        <v>12.69162668114825</v>
+        <v>9.6124999999999829</v>
       </c>
       <c r="K56" s="2">
         <f>K55-K54</f>
-        <v>-6.6411004483061982</v>
+        <v>-5.8199999999999967</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" ref="L56:AN56" si="13">L55-L54</f>
-        <v>-6.419730433362659</v>
+        <v>-1.2429999999999968</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="13"/>
-        <v>-6.2057394189172363</v>
+        <v>0.98993333333333666</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="13"/>
-        <v>-5.998881438286662</v>
+        <v>4.2441855555555588</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="13"/>
-        <v>-5.7989187236771063</v>
+        <v>9.0335877037037058</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="13"/>
-        <v>-5.6056214328878697</v>
+        <v>16.128780613580251</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="13"/>
-        <v>-5.4187673851249407</v>
+        <v>26.685623343127574</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="13"/>
-        <v>-5.238141805620776</v>
+        <v>36.342696315023318</v>
       </c>
       <c r="S56" s="2">
         <f t="shared" si="13"/>
-        <v>-5.0635370787667497</v>
+        <v>35.131273104522542</v>
       </c>
       <c r="T56" s="2">
         <f t="shared" si="13"/>
-        <v>-4.8947525094745252</v>
+        <v>33.960230667705119</v>
       </c>
       <c r="U56" s="2">
         <f t="shared" si="13"/>
-        <v>5.268405907507959</v>
+        <v>32.828222978781618</v>
       </c>
       <c r="V56" s="2">
         <f t="shared" si="13"/>
-        <v>15.092792377257695</v>
+        <v>31.733948879488899</v>
       </c>
       <c r="W56" s="2">
         <f t="shared" si="13"/>
-        <v>34.589699298015773</v>
+        <v>30.676150583505937</v>
       </c>
       <c r="X56" s="2">
         <f t="shared" si="13"/>
-        <v>37.266709321415242</v>
+        <v>29.653612230722402</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" si="13"/>
-        <v>36.02448567736807</v>
+        <v>28.665158489698324</v>
       </c>
       <c r="Z56" s="2">
         <f t="shared" si="13"/>
-        <v>34.823669488122462</v>
+        <v>27.709653206708381</v>
       </c>
       <c r="AA56" s="2">
         <f t="shared" si="13"/>
-        <v>33.662880505185051</v>
+        <v>26.785998099818102</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="13"/>
-        <v>32.540784488345551</v>
+        <v>25.893131496490831</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="13"/>
-        <v>31.456091672067366</v>
+        <v>25.030027113274471</v>
       </c>
       <c r="AD56" s="2">
         <f t="shared" si="13"/>
-        <v>30.407555282998452</v>
+        <v>24.195692876165321</v>
       </c>
       <c r="AE56" s="2">
         <f t="shared" si="13"/>
-        <v>29.393970106898507</v>
+        <v>23.389169780293141</v>
       </c>
       <c r="AF56" s="2">
         <f t="shared" si="13"/>
-        <v>28.414171103335221</v>
+        <v>22.609530787616702</v>
       </c>
       <c r="AG56" s="2">
         <f t="shared" si="13"/>
-        <v>27.46703206655738</v>
+        <v>21.855879761362814</v>
       </c>
       <c r="AH56" s="2">
         <f t="shared" si="13"/>
-        <v>26.551464331005466</v>
+        <v>21.127350435984056</v>
       </c>
       <c r="AI56" s="2">
         <f t="shared" si="13"/>
-        <v>25.666415519971952</v>
+        <v>20.423105421451254</v>
       </c>
       <c r="AJ56" s="2">
         <f t="shared" si="13"/>
-        <v>24.810868335972888</v>
+        <v>19.742335240736214</v>
       </c>
       <c r="AK56" s="2">
         <f t="shared" si="13"/>
-        <v>23.983839391440455</v>
+        <v>19.084257399378338</v>
       </c>
       <c r="AL56" s="2">
         <f t="shared" si="13"/>
-        <v>23.184378078392442</v>
+        <v>18.448115486065728</v>
       </c>
       <c r="AM56" s="2">
         <f t="shared" si="13"/>
-        <v>22.411565475779359</v>
+        <v>17.83317830319687</v>
       </c>
       <c r="AN56" s="2">
         <f t="shared" si="13"/>
-        <v>21.664513293253378</v>
+        <v>17.238739026423641</v>
       </c>
       <c r="AO56" t="s">
         <v>7</v>
@@ -4818,14 +4827,14 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="16">
-        <f>MinMean2012</f>
+        <f t="shared" ref="B59:AN59" si="14">IF(B47&lt;$B$3,$B$44,A59*(1+$D$44))</f>
         <v>0.5</v>
       </c>
       <c r="C59" s="16">
-        <f t="shared" ref="C59:AN59" si="14">IF(C47&lt;Start_year,$B$44,B59*(1+$D$44))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="D59" s="16">
@@ -4979,14 +4988,14 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="16">
-        <f>MaxMean2012</f>
+        <f t="shared" ref="B60:AN60" si="15">IF(B47&lt;$B$3,$B$45,A60*(1+$D$45))</f>
         <v>1.5</v>
       </c>
       <c r="C60" s="16">
-        <f t="shared" ref="C60:AN60" si="15">IF(C47&lt;Start_year,$B$45,B60*(1+$D$45))</f>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="D60" s="16">
@@ -5015,132 +5024,132 @@
       </c>
       <c r="J60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.5144532920834173</v>
       </c>
       <c r="K60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.5290458492682002</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.5437790134471403</v>
       </c>
       <c r="M60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.5586541394428746</v>
       </c>
       <c r="N60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.5736725951324715</v>
       </c>
       <c r="O60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.5888357615732174</v>
       </c>
       <c r="P60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.604145033129615</v>
       </c>
       <c r="Q60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.6196018176016052</v>
       </c>
       <c r="R60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.6352075363540248</v>
       </c>
       <c r="S60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.6509636244473114</v>
       </c>
       <c r="T60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.6668715307694675</v>
       </c>
       <c r="U60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.6829327181692968</v>
       </c>
       <c r="V60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.6991486635909236</v>
       </c>
       <c r="W60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.7155208582096089</v>
       </c>
       <c r="X60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.7320508075688743</v>
       </c>
       <c r="Y60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.7487400317189488</v>
       </c>
       <c r="Z60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.7655900653565477</v>
       </c>
       <c r="AA60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.7826024579659998</v>
       </c>
       <c r="AB60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.7997787739617332</v>
       </c>
       <c r="AC60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.8171205928321357</v>
       </c>
       <c r="AD60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.8346295092847991</v>
       </c>
       <c r="AE60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.8523071333931656</v>
       </c>
       <c r="AF60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.8701550907445847</v>
       </c>
       <c r="AG60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.8881750225897989</v>
       </c>
       <c r="AH60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.9063685859938677</v>
       </c>
       <c r="AI60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.924737453988548</v>
       </c>
       <c r="AJ60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.9432833157261409</v>
       </c>
       <c r="AK60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.9620078766348219</v>
       </c>
       <c r="AL60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.9809128585754676</v>
       </c>
       <c r="AM60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>1.9999999999999931</v>
       </c>
       <c r="AN60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5</v>
+        <v>2.0192710561112159</v>
       </c>
     </row>
     <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <f>B48</f>
@@ -5148,160 +5157,160 @@
       </c>
       <c r="C62" s="1">
         <f>C48</f>
-        <v>352.47580232329187</v>
+        <v>344.47673389090158</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" ref="D62:J62" si="16">D48</f>
-        <v>359.07280700418596</v>
+        <v>342.96017396573131</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="16"/>
-        <v>365.79328248923986</v>
+        <v>341.45029070049287</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="16"/>
-        <v>372.63953968169187</v>
+        <v>339.94705470116958</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="16"/>
-        <v>379.6139327360882</v>
+        <v>338.45043670315192</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="16"/>
-        <v>386.71885986778278</v>
+        <v>336.96040757066788</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="16"/>
-        <v>393.95676417758796</v>
+        <v>335.47693829621591</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="16"/>
-        <v>401.33013449185898</v>
+        <v>333.99999999999994</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" ref="K62:AN62" si="17">K48</f>
-        <v>408.84150621830241</v>
+        <v>340.82930873796158</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="17"/>
-        <v>416.49346221780138</v>
+        <v>347.79825657124775</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="17"/>
-        <v>424.28863369255839</v>
+        <v>354.90969870492995</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="17"/>
-        <v>432.22970109086077</v>
+        <v>362.16654872454944</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" si="17"/>
-        <v>440.31939502877975</v>
+        <v>369.5717797898248</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" si="17"/>
-        <v>448.56049722912036</v>
+        <v>377.12842585276695</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="17"/>
-        <v>456.95584147794494</v>
+        <v>384.83958290070115</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" si="17"/>
-        <v>465.50831459899894</v>
+        <v>392.70841022470495</v>
       </c>
       <c r="S62" s="1">
         <f t="shared" si="17"/>
-        <v>474.22085744637434</v>
+        <v>400.73813171398223</v>
       </c>
       <c r="T62" s="1">
         <f t="shared" si="17"/>
-        <v>483.09646591575211</v>
+        <v>408.93203717670298</v>
       </c>
       <c r="U62" s="1">
         <f t="shared" si="17"/>
-        <v>492.13819197457099</v>
+        <v>417.2934836878506</v>
       </c>
       <c r="V62" s="1">
         <f t="shared" si="17"/>
-        <v>501.34914471147732</v>
+        <v>425.82589696462873</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" si="17"/>
-        <v>510.73249140541662</v>
+        <v>434.53277276999069</v>
       </c>
       <c r="X62" s="1">
         <f t="shared" si="17"/>
-        <v>520.2914586147341</v>
+        <v>443.41767834486734</v>
       </c>
       <c r="Y62" s="1">
         <f t="shared" si="17"/>
-        <v>530.02933328665961</v>
+        <v>452.48425386967955</v>
       </c>
       <c r="Z62" s="1">
         <f t="shared" si="17"/>
-        <v>539.94946388755727</v>
+        <v>461.73621395573423</v>
       </c>
       <c r="AA62" s="1">
         <f t="shared" si="17"/>
-        <v>550.05526155432972</v>
+        <v>471.17734916711515</v>
       </c>
       <c r="AB62" s="1">
         <f t="shared" si="17"/>
-        <v>560.35020126737152</v>
+        <v>480.81152757369176</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="17"/>
-        <v>570.83782304547651</v>
+        <v>490.64269633588248</v>
       </c>
       <c r="AD62" s="1">
         <f t="shared" si="17"/>
-        <v>581.52173316310882</v>
+        <v>500.67488332182171</v>
       </c>
       <c r="AE62" s="1">
         <f t="shared" si="17"/>
-        <v>592.4056053904568</v>
+        <v>510.9121987575931</v>
       </c>
       <c r="AF62" s="1">
         <f t="shared" si="17"/>
-        <v>603.49318225669572</v>
+        <v>521.35883691120512</v>
       </c>
       <c r="AG62" s="1">
         <f t="shared" si="17"/>
-        <v>614.78827633689434</v>
+        <v>532.01907781099919</v>
       </c>
       <c r="AH62" s="1">
         <f t="shared" si="17"/>
-        <v>626.29477156300732</v>
+        <v>542.89728899919362</v>
       </c>
       <c r="AI62" s="1">
         <f t="shared" si="17"/>
-        <v>638.01662455940414</v>
+        <v>553.9979273212831</v>
       </c>
       <c r="AJ62" s="1">
         <f t="shared" si="17"/>
-        <v>649.95786600339443</v>
+        <v>565.32554075202529</v>
       </c>
       <c r="AK62" s="1">
         <f t="shared" si="17"/>
-        <v>662.12260201121705</v>
+        <v>576.88477025876387</v>
       </c>
       <c r="AL62" s="1">
         <f t="shared" si="17"/>
-        <v>674.51501554996946</v>
+        <v>588.68035170285123</v>
       </c>
       <c r="AM62" s="1">
         <f t="shared" si="17"/>
-        <v>687.13936787596299</v>
+        <v>600.71711777994892</v>
       </c>
       <c r="AN62" s="1">
         <f t="shared" si="17"/>
-        <v>699.99999999999909</v>
+        <v>613.00000000000205</v>
       </c>
     </row>
     <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <f>B62*B59</f>
@@ -5309,160 +5318,160 @@
       </c>
       <c r="C63" s="1">
         <f>C62*C59</f>
-        <v>176.23790116164594</v>
+        <v>172.23836694545079</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" ref="D63:K63" si="18">D62*D59</f>
-        <v>179.53640350209298</v>
+        <v>171.48008698286566</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="18"/>
-        <v>182.89664124461993</v>
+        <v>170.72514535024644</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="18"/>
-        <v>186.31976984084594</v>
+        <v>169.97352735058479</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="18"/>
-        <v>189.8069663680441</v>
+        <v>169.22521835157596</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="18"/>
-        <v>193.35942993389139</v>
+        <v>168.48020378533394</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="18"/>
-        <v>196.97838208879398</v>
+        <v>167.73846914810795</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="18"/>
-        <v>200.66506724592949</v>
+        <v>166.99999999999997</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="18"/>
-        <v>204.42075310915121</v>
+        <v>170.41465436898079</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ref="L63" si="19">L62*L59</f>
-        <v>208.24673110890069</v>
+        <v>173.89912828562387</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" ref="M63" si="20">M62*M59</f>
-        <v>212.1443168462792</v>
+        <v>177.45484935246498</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ref="N63" si="21">N62*N59</f>
-        <v>216.11485054543039</v>
+        <v>181.08327436227472</v>
       </c>
       <c r="O63" s="1">
         <f t="shared" ref="O63" si="22">O62*O59</f>
-        <v>220.15969751438988</v>
+        <v>184.7858898949124</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ref="P63" si="23">P62*P59</f>
-        <v>224.28024861456018</v>
+        <v>188.56421292638348</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" ref="Q63" si="24">Q62*Q59</f>
-        <v>228.47792073897247</v>
+        <v>192.41979145035057</v>
       </c>
       <c r="R63" s="1">
         <f t="shared" ref="R63" si="25">R62*R59</f>
-        <v>232.75415729949947</v>
+        <v>196.35420511235247</v>
       </c>
       <c r="S63" s="1">
         <f t="shared" ref="S63" si="26">S62*S59</f>
-        <v>237.11042872318717</v>
+        <v>200.36906585699111</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" ref="T63" si="27">T62*T59</f>
-        <v>241.54823295787605</v>
+        <v>204.46601858835149</v>
       </c>
       <c r="U63" s="1">
         <f t="shared" ref="U63" si="28">U62*U59</f>
-        <v>246.06909598728549</v>
+        <v>208.6467418439253</v>
       </c>
       <c r="V63" s="1">
         <f t="shared" ref="V63" si="29">V62*V59</f>
-        <v>250.67457235573866</v>
+        <v>212.91294848231436</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" ref="W63" si="30">W62*W59</f>
-        <v>255.36624570270831</v>
+        <v>217.26638638499534</v>
       </c>
       <c r="X63" s="1">
         <f t="shared" ref="X63" si="31">X62*X59</f>
-        <v>260.14572930736705</v>
+        <v>221.70883917243367</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" ref="Y63" si="32">Y62*Y59</f>
-        <v>265.0146666433298</v>
+        <v>226.24212693483977</v>
       </c>
       <c r="Z63" s="1">
         <f t="shared" ref="Z63" si="33">Z62*Z59</f>
-        <v>269.97473194377864</v>
+        <v>230.86810697786711</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" ref="AA63" si="34">AA62*AA59</f>
-        <v>275.02763077716486</v>
+        <v>235.58867458355758</v>
       </c>
       <c r="AB63" s="1">
         <f t="shared" ref="AB63" si="35">AB62*AB59</f>
-        <v>280.17510063368576</v>
+        <v>240.40576378684588</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" ref="AC63" si="36">AC62*AC59</f>
-        <v>285.41891152273826</v>
+        <v>245.32134816794124</v>
       </c>
       <c r="AD63" s="1">
         <f t="shared" ref="AD63" si="37">AD62*AD59</f>
-        <v>290.76086658155441</v>
+        <v>250.33744166091086</v>
       </c>
       <c r="AE63" s="1">
         <f t="shared" ref="AE63" si="38">AE62*AE59</f>
-        <v>296.2028026952284</v>
+        <v>255.45609937879655</v>
       </c>
       <c r="AF63" s="1">
         <f t="shared" ref="AF63" si="39">AF62*AF59</f>
-        <v>301.74659112834786</v>
+        <v>260.67941845560256</v>
       </c>
       <c r="AG63" s="1">
         <f t="shared" ref="AG63" si="40">AG62*AG59</f>
-        <v>307.39413816844717</v>
+        <v>266.0095389054996</v>
       </c>
       <c r="AH63" s="1">
         <f t="shared" ref="AH63" si="41">AH62*AH59</f>
-        <v>313.14738578150366</v>
+        <v>271.44864449959681</v>
       </c>
       <c r="AI63" s="1">
         <f t="shared" ref="AI63" si="42">AI62*AI59</f>
-        <v>319.00831227970207</v>
+        <v>276.99896366064155</v>
       </c>
       <c r="AJ63" s="1">
         <f t="shared" ref="AJ63" si="43">AJ62*AJ59</f>
-        <v>324.97893300169721</v>
+        <v>282.66277037601265</v>
       </c>
       <c r="AK63" s="1">
         <f t="shared" ref="AK63" si="44">AK62*AK59</f>
-        <v>331.06130100560853</v>
+        <v>288.44238512938193</v>
       </c>
       <c r="AL63" s="1">
         <f t="shared" ref="AL63" si="45">AL62*AL59</f>
-        <v>337.25750777498473</v>
+        <v>294.34017585142561</v>
       </c>
       <c r="AM63" s="1">
         <f t="shared" ref="AM63" si="46">AM62*AM59</f>
-        <v>343.56968393798149</v>
+        <v>300.35855888997446</v>
       </c>
       <c r="AN63" s="1">
         <f t="shared" ref="AN63" si="47">AN62*AN59</f>
-        <v>349.99999999999955</v>
+        <v>306.50000000000102</v>
       </c>
     </row>
     <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <f>B60*B62</f>
@@ -5470,155 +5479,155 @@
       </c>
       <c r="C64" s="1">
         <f>C60*C62</f>
-        <v>528.71370348493781</v>
+        <v>516.71510083635235</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" ref="D64:J64" si="48">D60*D62</f>
-        <v>538.60921050627894</v>
+        <v>514.44026094859692</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="48"/>
-        <v>548.68992373385981</v>
+        <v>512.17543605073934</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="48"/>
-        <v>558.95930952253775</v>
+        <v>509.92058205175437</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="48"/>
-        <v>569.42089910413233</v>
+        <v>507.67565505472788</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="48"/>
-        <v>580.07828980167415</v>
+        <v>505.4406113560018</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="48"/>
-        <v>590.93514626638193</v>
+        <v>503.21540744432389</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="48"/>
-        <v>601.99520173778842</v>
+        <v>505.82739955586129</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" ref="K64:AN64" si="49">K60*K62</f>
-        <v>613.26225932745365</v>
+        <v>521.14363983473004</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="49"/>
-        <v>624.74019332670207</v>
+        <v>536.92364940819618</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="49"/>
-        <v>636.43295053883753</v>
+        <v>553.1814710148625</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" si="49"/>
-        <v>648.34455163629116</v>
+        <v>569.93157260153237</v>
       </c>
       <c r="O64" s="1">
         <f t="shared" si="49"/>
-        <v>660.4790925431696</v>
+        <v>587.18886019833565</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" si="49"/>
-        <v>672.84074584368057</v>
+        <v>604.96869118370637</v>
       </c>
       <c r="Q64" s="1">
         <f t="shared" si="49"/>
-        <v>685.43376221691744</v>
+        <v>623.28688795101914</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" si="49"/>
-        <v>698.26247189849846</v>
+        <v>642.1597519890455</v>
       </c>
       <c r="S64" s="1">
         <f t="shared" si="49"/>
-        <v>711.33128616956151</v>
+        <v>661.60407838876017</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" si="49"/>
-        <v>724.64469887362816</v>
+        <v>681.63717078940772</v>
       </c>
       <c r="U64" s="1">
         <f t="shared" si="49"/>
-        <v>738.20728796185654</v>
+        <v>702.27685677712952</v>
       </c>
       <c r="V64" s="1">
         <f t="shared" si="49"/>
-        <v>752.02371706721601</v>
+        <v>723.54150374985522</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="49"/>
-        <v>766.09873710812496</v>
+        <v>745.4500352625754</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" si="49"/>
-        <v>780.4371879221012</v>
+        <v>768.02194786754285</v>
       </c>
       <c r="Y64" s="1">
         <f t="shared" si="49"/>
-        <v>795.04399992998947</v>
+        <v>791.27732846438823</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" si="49"/>
-        <v>809.92419583133596</v>
+        <v>815.23687217558972</v>
       </c>
       <c r="AA64" s="1">
         <f t="shared" si="49"/>
-        <v>825.08289233149458</v>
+        <v>839.92190076320355</v>
       </c>
       <c r="AB64" s="1">
         <f t="shared" si="49"/>
-        <v>840.52530190105722</v>
+        <v>865.35438160324702</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="49"/>
-        <v>856.25673456821482</v>
+        <v>891.55694723461625</v>
       </c>
       <c r="AD64" s="1">
         <f t="shared" si="49"/>
-        <v>872.28259974466323</v>
+        <v>918.55291549993774</v>
       </c>
       <c r="AE64" s="1">
         <f t="shared" si="49"/>
-        <v>888.60840808568514</v>
+        <v>946.36631029627654</v>
       </c>
       <c r="AF64" s="1">
         <f t="shared" si="49"/>
-        <v>905.23977338504358</v>
+        <v>975.02188295416602</v>
       </c>
       <c r="AG64" s="1">
         <f t="shared" si="49"/>
-        <v>922.18241450534151</v>
+        <v>1004.5451342639874</v>
       </c>
       <c r="AH64" s="1">
         <f t="shared" si="49"/>
-        <v>939.44215734451097</v>
+        <v>1034.9623371692969</v>
       </c>
       <c r="AI64" s="1">
         <f t="shared" si="49"/>
-        <v>957.0249368391062</v>
+        <v>1066.3005601472992</v>
       </c>
       <c r="AJ64" s="1">
         <f t="shared" si="49"/>
-        <v>974.93679900509164</v>
+        <v>1098.5876912972692</v>
       </c>
       <c r="AK64" s="1">
         <f t="shared" si="49"/>
-        <v>993.18390301682552</v>
+        <v>1131.8524631583643</v>
       </c>
       <c r="AL64" s="1">
         <f t="shared" si="49"/>
-        <v>1011.7725233249541</v>
+        <v>1166.1244782789067</v>
       </c>
       <c r="AM64" s="1">
         <f t="shared" si="49"/>
-        <v>1030.7090518139444</v>
+        <v>1201.4342355598938</v>
       </c>
       <c r="AN64" s="1">
         <f t="shared" si="49"/>
-        <v>1049.9999999999986</v>
+        <v>1237.8131573961796</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -5663,7 +5672,7 @@
     </row>
     <row r="66" spans="1:42">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <f>B63</f>
@@ -5671,160 +5680,160 @@
       </c>
       <c r="C66" s="1">
         <f>C63</f>
-        <v>176.23790116164594</v>
+        <v>172.23836694545079</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" ref="D66:J66" si="50">D63</f>
-        <v>179.53640350209298</v>
+        <v>171.48008698286566</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="50"/>
-        <v>182.89664124461993</v>
+        <v>170.72514535024644</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="50"/>
-        <v>186.31976984084594</v>
+        <v>169.97352735058479</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="50"/>
-        <v>189.8069663680441</v>
+        <v>169.22521835157596</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="50"/>
-        <v>193.35942993389139</v>
+        <v>168.48020378533394</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="50"/>
-        <v>196.97838208879398</v>
+        <v>167.73846914810795</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" si="50"/>
-        <v>200.66506724592949</v>
+        <v>166.99999999999997</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" ref="K66:AN66" si="51">K63</f>
-        <v>204.42075310915121</v>
+        <v>170.41465436898079</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="51"/>
-        <v>208.24673110890069</v>
+        <v>173.89912828562387</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="51"/>
-        <v>212.1443168462792</v>
+        <v>177.45484935246498</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" si="51"/>
-        <v>216.11485054543039</v>
+        <v>181.08327436227472</v>
       </c>
       <c r="O66" s="1">
         <f t="shared" si="51"/>
-        <v>220.15969751438988</v>
+        <v>184.7858898949124</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" si="51"/>
-        <v>224.28024861456018</v>
+        <v>188.56421292638348</v>
       </c>
       <c r="Q66" s="1">
         <f t="shared" si="51"/>
-        <v>228.47792073897247</v>
+        <v>192.41979145035057</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" si="51"/>
-        <v>232.75415729949947</v>
+        <v>196.35420511235247</v>
       </c>
       <c r="S66" s="1">
         <f t="shared" si="51"/>
-        <v>237.11042872318717</v>
+        <v>200.36906585699111</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" si="51"/>
-        <v>241.54823295787605</v>
+        <v>204.46601858835149</v>
       </c>
       <c r="U66" s="1">
         <f t="shared" si="51"/>
-        <v>246.06909598728549</v>
+        <v>208.6467418439253</v>
       </c>
       <c r="V66" s="1">
         <f t="shared" si="51"/>
-        <v>250.67457235573866</v>
+        <v>212.91294848231436</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" si="51"/>
-        <v>255.36624570270831</v>
+        <v>217.26638638499534</v>
       </c>
       <c r="X66" s="1">
         <f t="shared" si="51"/>
-        <v>260.14572930736705</v>
+        <v>221.70883917243367</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" si="51"/>
-        <v>265.0146666433298</v>
+        <v>226.24212693483977</v>
       </c>
       <c r="Z66" s="1">
         <f t="shared" si="51"/>
-        <v>269.97473194377864</v>
+        <v>230.86810697786711</v>
       </c>
       <c r="AA66" s="1">
         <f t="shared" si="51"/>
-        <v>275.02763077716486</v>
+        <v>235.58867458355758</v>
       </c>
       <c r="AB66" s="1">
         <f t="shared" si="51"/>
-        <v>280.17510063368576</v>
+        <v>240.40576378684588</v>
       </c>
       <c r="AC66" s="1">
         <f t="shared" si="51"/>
-        <v>285.41891152273826</v>
+        <v>245.32134816794124</v>
       </c>
       <c r="AD66" s="1">
         <f t="shared" si="51"/>
-        <v>290.76086658155441</v>
+        <v>250.33744166091086</v>
       </c>
       <c r="AE66" s="1">
         <f t="shared" si="51"/>
-        <v>296.2028026952284</v>
+        <v>255.45609937879655</v>
       </c>
       <c r="AF66" s="1">
         <f t="shared" si="51"/>
-        <v>301.74659112834786</v>
+        <v>260.67941845560256</v>
       </c>
       <c r="AG66" s="1">
         <f t="shared" si="51"/>
-        <v>307.39413816844717</v>
+        <v>266.0095389054996</v>
       </c>
       <c r="AH66" s="1">
         <f t="shared" si="51"/>
-        <v>313.14738578150366</v>
+        <v>271.44864449959681</v>
       </c>
       <c r="AI66" s="1">
         <f t="shared" si="51"/>
-        <v>319.00831227970207</v>
+        <v>276.99896366064155</v>
       </c>
       <c r="AJ66" s="1">
         <f t="shared" si="51"/>
-        <v>324.97893300169721</v>
+        <v>282.66277037601265</v>
       </c>
       <c r="AK66" s="1">
         <f t="shared" si="51"/>
-        <v>331.06130100560853</v>
+        <v>288.44238512938193</v>
       </c>
       <c r="AL66" s="1">
         <f t="shared" si="51"/>
-        <v>337.25750777498473</v>
+        <v>294.34017585142561</v>
       </c>
       <c r="AM66" s="1">
         <f t="shared" si="51"/>
-        <v>343.56968393798149</v>
+        <v>300.35855888997446</v>
       </c>
       <c r="AN66" s="1">
         <f t="shared" si="51"/>
-        <v>349.99999999999955</v>
+        <v>306.50000000000102</v>
       </c>
     </row>
     <row r="67" spans="1:42">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <f>B62-B63</f>
@@ -5832,160 +5841,160 @@
       </c>
       <c r="C67" s="1">
         <f>C62-C63</f>
-        <v>176.23790116164594</v>
+        <v>172.23836694545079</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" ref="D67:J67" si="52">D62-D63</f>
-        <v>179.53640350209298</v>
+        <v>171.48008698286566</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="52"/>
-        <v>182.89664124461993</v>
+        <v>170.72514535024644</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="52"/>
-        <v>186.31976984084594</v>
+        <v>169.97352735058479</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="52"/>
-        <v>189.8069663680441</v>
+        <v>169.22521835157596</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" si="52"/>
-        <v>193.35942993389139</v>
+        <v>168.48020378533394</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="52"/>
-        <v>196.97838208879398</v>
+        <v>167.73846914810795</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" si="52"/>
-        <v>200.66506724592949</v>
+        <v>166.99999999999997</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" ref="K67:AN67" si="53">K62-K63</f>
-        <v>204.42075310915121</v>
+        <v>170.41465436898079</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="53"/>
-        <v>208.24673110890069</v>
+        <v>173.89912828562387</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="53"/>
-        <v>212.1443168462792</v>
+        <v>177.45484935246498</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="53"/>
-        <v>216.11485054543039</v>
+        <v>181.08327436227472</v>
       </c>
       <c r="O67" s="1">
         <f t="shared" si="53"/>
-        <v>220.15969751438988</v>
+        <v>184.7858898949124</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" si="53"/>
-        <v>224.28024861456018</v>
+        <v>188.56421292638348</v>
       </c>
       <c r="Q67" s="1">
         <f t="shared" si="53"/>
-        <v>228.47792073897247</v>
+        <v>192.41979145035057</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" si="53"/>
-        <v>232.75415729949947</v>
+        <v>196.35420511235247</v>
       </c>
       <c r="S67" s="1">
         <f t="shared" si="53"/>
-        <v>237.11042872318717</v>
+        <v>200.36906585699111</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" si="53"/>
-        <v>241.54823295787605</v>
+        <v>204.46601858835149</v>
       </c>
       <c r="U67" s="1">
         <f t="shared" si="53"/>
-        <v>246.06909598728549</v>
+        <v>208.6467418439253</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" si="53"/>
-        <v>250.67457235573866</v>
+        <v>212.91294848231436</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" si="53"/>
-        <v>255.36624570270831</v>
+        <v>217.26638638499534</v>
       </c>
       <c r="X67" s="1">
         <f t="shared" si="53"/>
-        <v>260.14572930736705</v>
+        <v>221.70883917243367</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" si="53"/>
-        <v>265.0146666433298</v>
+        <v>226.24212693483977</v>
       </c>
       <c r="Z67" s="1">
         <f t="shared" si="53"/>
-        <v>269.97473194377864</v>
+        <v>230.86810697786711</v>
       </c>
       <c r="AA67" s="1">
         <f t="shared" si="53"/>
-        <v>275.02763077716486</v>
+        <v>235.58867458355758</v>
       </c>
       <c r="AB67" s="1">
         <f t="shared" si="53"/>
-        <v>280.17510063368576</v>
+        <v>240.40576378684588</v>
       </c>
       <c r="AC67" s="1">
         <f t="shared" si="53"/>
-        <v>285.41891152273826</v>
+        <v>245.32134816794124</v>
       </c>
       <c r="AD67" s="1">
         <f t="shared" si="53"/>
-        <v>290.76086658155441</v>
+        <v>250.33744166091086</v>
       </c>
       <c r="AE67" s="1">
         <f t="shared" si="53"/>
-        <v>296.2028026952284</v>
+        <v>255.45609937879655</v>
       </c>
       <c r="AF67" s="1">
         <f t="shared" si="53"/>
-        <v>301.74659112834786</v>
+        <v>260.67941845560256</v>
       </c>
       <c r="AG67" s="1">
         <f t="shared" si="53"/>
-        <v>307.39413816844717</v>
+        <v>266.0095389054996</v>
       </c>
       <c r="AH67" s="1">
         <f t="shared" si="53"/>
-        <v>313.14738578150366</v>
+        <v>271.44864449959681</v>
       </c>
       <c r="AI67" s="1">
         <f t="shared" si="53"/>
-        <v>319.00831227970207</v>
+        <v>276.99896366064155</v>
       </c>
       <c r="AJ67" s="1">
         <f t="shared" si="53"/>
-        <v>324.97893300169721</v>
+        <v>282.66277037601265</v>
       </c>
       <c r="AK67" s="1">
         <f t="shared" si="53"/>
-        <v>331.06130100560853</v>
+        <v>288.44238512938193</v>
       </c>
       <c r="AL67" s="1">
         <f t="shared" si="53"/>
-        <v>337.25750777498473</v>
+        <v>294.34017585142561</v>
       </c>
       <c r="AM67" s="1">
         <f t="shared" si="53"/>
-        <v>343.56968393798149</v>
+        <v>300.35855888997446</v>
       </c>
       <c r="AN67" s="1">
         <f t="shared" si="53"/>
-        <v>349.99999999999955</v>
+        <v>306.50000000000102</v>
       </c>
     </row>
     <row r="68" spans="1:42">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <f>B64-B62</f>
@@ -5993,165 +6002,165 @@
       </c>
       <c r="C68" s="1">
         <f>C64-C62</f>
-        <v>176.23790116164594</v>
+        <v>172.23836694545076</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" ref="D68:J68" si="54">D64-D62</f>
-        <v>179.53640350209298</v>
+        <v>171.4800869828656</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="54"/>
-        <v>182.89664124461996</v>
+        <v>170.72514535024646</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="54"/>
-        <v>186.31976984084588</v>
+        <v>169.97352735058479</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="54"/>
-        <v>189.80696636804413</v>
+        <v>169.22521835157596</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" si="54"/>
-        <v>193.35942993389136</v>
+        <v>168.48020378533391</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="54"/>
-        <v>196.97838208879398</v>
+        <v>167.73846914810798</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="54"/>
-        <v>200.66506724592944</v>
+        <v>171.82739955586135</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" ref="K68:AN68" si="55">K64-K62</f>
-        <v>204.42075310915124</v>
+        <v>180.31433109676846</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="55"/>
-        <v>208.24673110890069</v>
+        <v>189.12539283694844</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" si="55"/>
-        <v>212.14431684627914</v>
+        <v>198.27177230993254</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" si="55"/>
-        <v>216.11485054543039</v>
+        <v>207.76502387698292</v>
       </c>
       <c r="O68" s="1">
         <f t="shared" si="55"/>
-        <v>220.15969751438985</v>
+        <v>217.61708040851084</v>
       </c>
       <c r="P68" s="1">
         <f t="shared" si="55"/>
-        <v>224.28024861456021</v>
+        <v>227.84026533093942</v>
       </c>
       <c r="Q68" s="1">
         <f t="shared" si="55"/>
-        <v>228.4779207389725</v>
+        <v>238.44730505031799</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" si="55"/>
-        <v>232.75415729949952</v>
+        <v>249.45134176434055</v>
       </c>
       <c r="S68" s="1">
         <f t="shared" si="55"/>
-        <v>237.11042872318717</v>
+        <v>260.86594667477794</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" si="55"/>
-        <v>241.54823295787605</v>
+        <v>272.70513361270474</v>
       </c>
       <c r="U68" s="1">
         <f t="shared" si="55"/>
-        <v>246.06909598728555</v>
+        <v>284.98337308927893</v>
       </c>
       <c r="V68" s="1">
         <f t="shared" si="55"/>
-        <v>250.67457235573869</v>
+        <v>297.7156067852265</v>
       </c>
       <c r="W68" s="1">
         <f t="shared" si="55"/>
-        <v>255.36624570270834</v>
+        <v>310.91726249258471</v>
       </c>
       <c r="X68" s="1">
         <f t="shared" si="55"/>
-        <v>260.14572930736711</v>
+        <v>324.60426952267551</v>
       </c>
       <c r="Y68" s="1">
         <f t="shared" si="55"/>
-        <v>265.01466664332986</v>
+        <v>338.79307459470868</v>
       </c>
       <c r="Z68" s="1">
         <f t="shared" si="55"/>
-        <v>269.97473194377869</v>
+        <v>353.5006582198555</v>
       </c>
       <c r="AA68" s="1">
         <f t="shared" si="55"/>
-        <v>275.02763077716486</v>
+        <v>368.7445515960884</v>
       </c>
       <c r="AB68" s="1">
         <f t="shared" si="55"/>
-        <v>280.1751006336857</v>
+        <v>384.54285402955526</v>
       </c>
       <c r="AC68" s="1">
         <f t="shared" si="55"/>
-        <v>285.41891152273831</v>
+        <v>400.91425089873377</v>
       </c>
       <c r="AD68" s="1">
         <f t="shared" si="55"/>
-        <v>290.76086658155441</v>
+        <v>417.87803217811603</v>
       </c>
       <c r="AE68" s="1">
         <f t="shared" si="55"/>
-        <v>296.20280269522834</v>
+        <v>435.45411153868343</v>
       </c>
       <c r="AF68" s="1">
         <f t="shared" si="55"/>
-        <v>301.74659112834786</v>
+        <v>453.6630460429609</v>
       </c>
       <c r="AG68" s="1">
         <f t="shared" si="55"/>
-        <v>307.39413816844717</v>
+        <v>472.5260564529882</v>
       </c>
       <c r="AH68" s="1">
         <f t="shared" si="55"/>
-        <v>313.14738578150366</v>
+        <v>492.0650481701033</v>
       </c>
       <c r="AI68" s="1">
         <f t="shared" si="55"/>
-        <v>319.00831227970207</v>
+        <v>512.30263282601607</v>
       </c>
       <c r="AJ68" s="1">
         <f t="shared" si="55"/>
-        <v>324.97893300169721</v>
+        <v>533.26215054524391</v>
       </c>
       <c r="AK68" s="1">
         <f t="shared" si="55"/>
-        <v>331.06130100560847</v>
+        <v>554.96769289960048</v>
       </c>
       <c r="AL68" s="1">
         <f t="shared" si="55"/>
-        <v>337.25750777498467</v>
+        <v>577.44412657605551</v>
       </c>
       <c r="AM68" s="1">
         <f t="shared" si="55"/>
-        <v>343.56968393798138</v>
+        <v>600.71711777994483</v>
       </c>
       <c r="AN68" s="1">
         <f t="shared" si="55"/>
-        <v>349.99999999999955</v>
+        <v>624.81315739617753</v>
       </c>
     </row>
     <row r="70" spans="1:42">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:42">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="8">
         <f>B62/SUM(B66:B68)</f>
@@ -6159,11 +6168,11 @@
       </c>
       <c r="C71" s="8">
         <f>C62/SUM(C66:C68)</f>
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" ref="D71:J71" si="56">D62/SUM(D66:D68)</f>
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="E71" s="8">
         <f t="shared" si="56"/>
@@ -6171,7 +6180,7 @@
       </c>
       <c r="F71" s="8">
         <f t="shared" si="56"/>
-        <v>0.66666666666666674</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="56"/>
@@ -6187,132 +6196,132 @@
       </c>
       <c r="J71" s="8">
         <f t="shared" si="56"/>
-        <v>0.66666666666666674</v>
+        <v>0.6603042861918248</v>
       </c>
       <c r="K71" s="8">
         <f t="shared" ref="K71:AN71" si="57">K62/SUM(K66:K68)</f>
-        <v>0.66666666666666663</v>
+        <v>0.65400262554494304</v>
       </c>
       <c r="L71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.64776110524204933</v>
       </c>
       <c r="M71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666674</v>
+        <v>0.64157915132951815</v>
       </c>
       <c r="N71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.63545619533129138</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666674</v>
+        <v>0.6293916741966018</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.62338503024819703</v>
       </c>
       <c r="Q71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.61743571113105733</v>
       </c>
       <c r="R71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.61154316976160172</v>
       </c>
       <c r="S71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.60570686427738063</v>
       </c>
       <c r="T71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.59992625798724641</v>
       </c>
       <c r="U71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.59420081932200197</v>
       </c>
       <c r="V71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.58853002178551794</v>
       </c>
       <c r="W71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.58291334390631822</v>
       </c>
       <c r="X71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.57735026918962673</v>
       </c>
       <c r="Y71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.57184028606987158</v>
       </c>
       <c r="Z71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.56638288786364321</v>
       </c>
       <c r="AA71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.56097757272310089</v>
       </c>
       <c r="AB71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666674</v>
+        <v>0.55562384358982442</v>
       </c>
       <c r="AC71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.55032120814910568</v>
       </c>
       <c r="AD71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.54506917878467687</v>
       </c>
       <c r="AE71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666674</v>
+        <v>0.53986727253387023</v>
       </c>
       <c r="AF71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.53471501104320673</v>
       </c>
       <c r="AG71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.52961192052440753</v>
       </c>
       <c r="AH71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.52455753171082553</v>
       </c>
       <c r="AI71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.51955137981429322</v>
       </c>
       <c r="AJ71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.51459300448238199</v>
       </c>
       <c r="AK71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666674</v>
+        <v>0.50968194975606851</v>
       </c>
       <c r="AL71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666674</v>
+        <v>0.50481776402780743</v>
       </c>
       <c r="AM71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666674</v>
+        <v>0.50000000000000167</v>
       </c>
       <c r="AN71" s="8">
         <f t="shared" si="57"/>
-        <v>0.66666666666666663</v>
+        <v>0.49522821464387029</v>
       </c>
     </row>
     <row r="72" spans="1:42">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="8">
         <f>2*(B62-B66-(B67/2))/(B68+B67)</f>
@@ -6320,11 +6329,11 @@
       </c>
       <c r="C72" s="8">
         <f>2*(C62-C66-(C67/2))/(C68+C67)</f>
-        <v>0.5</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="D72" s="8">
         <f t="shared" ref="D72:J72" si="58">2*(D62-D66-(D67/2))/(D68+D67)</f>
-        <v>0.5</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="E72" s="8">
         <f t="shared" si="58"/>
@@ -6332,11 +6341,11 @@
       </c>
       <c r="F72" s="8">
         <f t="shared" si="58"/>
-        <v>0.50000000000000011</v>
+        <v>0.5</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="58"/>
-        <v>0.49999999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="58"/>
@@ -6344,131 +6353,131 @@
       </c>
       <c r="I72" s="8">
         <f t="shared" si="58"/>
-        <v>0.5</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="J72" s="8">
         <f t="shared" si="58"/>
-        <v>0.50000000000000011</v>
+        <v>0.49287631466317477</v>
       </c>
       <c r="K72" s="8">
         <f t="shared" ref="K72:AN72" si="59">2*(K62-K66-(K67/2))/(K68+K67)</f>
-        <v>0.49999999999999994</v>
+        <v>0.48588699945252395</v>
       </c>
       <c r="L72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.47902860045894319</v>
       </c>
       <c r="M72" s="8">
         <f t="shared" si="59"/>
-        <v>0.50000000000000011</v>
+        <v>0.47229778014482532</v>
       </c>
       <c r="N72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.46569131247902368</v>
       </c>
       <c r="O72" s="8">
         <f t="shared" si="59"/>
-        <v>0.50000000000000011</v>
+        <v>0.45920607831393145</v>
       </c>
       <c r="P72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999994</v>
+        <v>0.45283906099073606</v>
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999994</v>
+        <v>0.44658734215981605</v>
       </c>
       <c r="R72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999994</v>
+        <v>0.44044809780409216</v>
       </c>
       <c r="S72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.43441859445392833</v>
       </c>
       <c r="T72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.42849618558290314</v>
       </c>
       <c r="U72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999994</v>
+        <v>0.4226783081744484</v>
       </c>
       <c r="V72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999994</v>
+        <v>0.41696247944997883</v>
       </c>
       <c r="W72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999994</v>
+        <v>0.41134629374971876</v>
       </c>
       <c r="X72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999989</v>
+        <v>0.40582741955797869</v>
       </c>
       <c r="Y72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999989</v>
+        <v>0.40040359666513359</v>
       </c>
       <c r="Z72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999989</v>
+        <v>0.39507263345903221</v>
       </c>
       <c r="AA72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.38983240433900246</v>
       </c>
       <c r="AB72" s="8">
         <f t="shared" si="59"/>
-        <v>0.50000000000000011</v>
+        <v>0.38468084724602569</v>
       </c>
       <c r="AC72" s="8">
         <f t="shared" si="59"/>
-        <v>0.49999999999999989</v>
+        <v>0.37961596130303915</v>
       </c>
       <c r="AD72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.37463580455967882</v>
       </c>
       <c r="AE72" s="8">
         <f t="shared" si="59"/>
-        <v>0.50000000000000011</v>
+        <v>0.36973849183610835</v>
       </c>
       <c r="AF72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.36492219266089393</v>
       </c>
       <c r="AG72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.36018512929817231</v>
       </c>
       <c r="AH72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.35552557485963371</v>
       </c>
       <c r="AI72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.35094185149709617</v>
       </c>
       <c r="AJ72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.34643232867168661</v>
       </c>
       <c r="AK72" s="8">
         <f t="shared" si="59"/>
-        <v>0.50000000000000011</v>
+        <v>0.34199542149586465</v>
       </c>
       <c r="AL72" s="8">
         <f t="shared" si="59"/>
-        <v>0.50000000000000011</v>
+        <v>0.33762958914474156</v>
       </c>
       <c r="AM72" s="8">
         <f t="shared" si="59"/>
-        <v>0.50000000000000011</v>
+        <v>0.33333333333333487</v>
       </c>
       <c r="AN72" s="8">
         <f t="shared" si="59"/>
-        <v>0.5</v>
+        <v>0.32910519685658923</v>
       </c>
       <c r="AO72" s="4"/>
     </row>
@@ -6482,160 +6491,160 @@
       </c>
       <c r="C74" s="2">
         <f>C49</f>
-        <v>110.39162668114824</v>
+        <v>107.3125</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ref="D74:J74" si="60">D49</f>
-        <v>123.08325336229647</v>
+        <v>116.925</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" si="60"/>
-        <v>135.77488004344471</v>
+        <v>126.53749999999999</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="60"/>
-        <v>148.46650672459296</v>
+        <v>136.14999999999998</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="60"/>
-        <v>161.15813340574121</v>
+        <v>145.76249999999996</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="60"/>
-        <v>173.84976008688946</v>
+        <v>155.37499999999994</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" si="60"/>
-        <v>186.54138676803771</v>
+        <v>164.98749999999993</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="60"/>
-        <v>199.23301344918596</v>
+        <v>174.59999999999991</v>
       </c>
       <c r="K74" s="2">
         <f>J74+K56</f>
-        <v>192.59191300087977</v>
+        <v>168.77999999999992</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" ref="L74:AN74" si="61">K74+L56</f>
-        <v>186.1721825675171</v>
+        <v>167.53699999999992</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="61"/>
-        <v>179.96644314859986</v>
+        <v>168.52693333333326</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="61"/>
-        <v>173.96756171031319</v>
+        <v>172.77111888888882</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="61"/>
-        <v>168.16864298663609</v>
+        <v>181.80470659259254</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="61"/>
-        <v>162.56302155374823</v>
+        <v>197.9334872061728</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="61"/>
-        <v>157.14425416862329</v>
+        <v>224.61911054930039</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="61"/>
-        <v>151.90611236300251</v>
+        <v>260.96180686432371</v>
       </c>
       <c r="S74" s="2">
         <f t="shared" si="61"/>
-        <v>146.84257528423575</v>
+        <v>296.09307996884627</v>
       </c>
       <c r="T74" s="2">
         <f t="shared" si="61"/>
-        <v>141.94782277476122</v>
+        <v>330.05331063655137</v>
       </c>
       <c r="U74" s="2">
         <f t="shared" si="61"/>
-        <v>147.21622868226919</v>
+        <v>362.88153361533301</v>
       </c>
       <c r="V74" s="2">
         <f t="shared" si="61"/>
-        <v>162.30902105952688</v>
+        <v>394.61548249482189</v>
       </c>
       <c r="W74" s="2">
         <f t="shared" si="61"/>
-        <v>196.89872035754266</v>
+        <v>425.29163307832783</v>
       </c>
       <c r="X74" s="2">
         <f t="shared" si="61"/>
-        <v>234.16542967895791</v>
+        <v>454.94524530905022</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" si="61"/>
-        <v>270.18991535632597</v>
+        <v>483.61040379874856</v>
       </c>
       <c r="Z74" s="2">
         <f t="shared" si="61"/>
-        <v>305.01358484444842</v>
+        <v>511.32005700545693</v>
       </c>
       <c r="AA74" s="2">
         <f t="shared" si="61"/>
-        <v>338.67646534963347</v>
+        <v>538.106055105275</v>
       </c>
       <c r="AB74" s="2">
         <f t="shared" si="61"/>
-        <v>371.21724983797901</v>
+        <v>563.99918660176581</v>
       </c>
       <c r="AC74" s="2">
         <f t="shared" si="61"/>
-        <v>402.67334151004638</v>
+        <v>589.02921371504033</v>
       </c>
       <c r="AD74" s="2">
         <f t="shared" si="61"/>
-        <v>433.08089679304481</v>
+        <v>613.22490659120569</v>
       </c>
       <c r="AE74" s="2">
         <f t="shared" si="61"/>
-        <v>462.47486689994332</v>
+        <v>636.61407637149887</v>
       </c>
       <c r="AF74" s="2">
         <f t="shared" si="61"/>
-        <v>490.88903800327853</v>
+        <v>659.22360715911555</v>
       </c>
       <c r="AG74" s="2">
         <f t="shared" si="61"/>
-        <v>518.35607006983594</v>
+        <v>681.0794869204783</v>
       </c>
       <c r="AH74" s="2">
         <f t="shared" si="61"/>
-        <v>544.90753440084143</v>
+        <v>702.2068373564623</v>
       </c>
       <c r="AI74" s="2">
         <f t="shared" si="61"/>
-        <v>570.57394992081333</v>
+        <v>722.62994277791358</v>
       </c>
       <c r="AJ74" s="2">
         <f t="shared" si="61"/>
-        <v>595.38481825678628</v>
+        <v>742.37227801864981</v>
       </c>
       <c r="AK74" s="2">
         <f t="shared" si="61"/>
-        <v>619.36865764822676</v>
+        <v>761.45653541802812</v>
       </c>
       <c r="AL74" s="2">
         <f t="shared" si="61"/>
-        <v>642.55303572661921</v>
+        <v>779.90465090409384</v>
       </c>
       <c r="AM74" s="2">
         <f t="shared" si="61"/>
-        <v>664.96460120239863</v>
+        <v>797.7378292072907</v>
       </c>
       <c r="AN74" s="2">
         <f t="shared" si="61"/>
-        <v>686.62911449565195</v>
+        <v>814.97656823371437</v>
       </c>
     </row>
     <row r="75" spans="1:42">
       <c r="A75" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75">
         <f>MIN(B74,B66)</f>
@@ -6643,160 +6652,160 @@
       </c>
       <c r="C75" s="1">
         <f>MIN(C74,C66)</f>
-        <v>110.39162668114824</v>
+        <v>107.3125</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" ref="D75:K75" si="62">MIN(D74,D66)</f>
-        <v>123.08325336229647</v>
+        <v>116.925</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="62"/>
-        <v>135.77488004344471</v>
+        <v>126.53749999999999</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="62"/>
-        <v>148.46650672459296</v>
+        <v>136.14999999999998</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="62"/>
-        <v>161.15813340574121</v>
+        <v>145.76249999999996</v>
       </c>
       <c r="H75" s="1">
         <f t="shared" si="62"/>
-        <v>173.84976008688946</v>
+        <v>155.37499999999994</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" si="62"/>
-        <v>186.54138676803771</v>
+        <v>164.98749999999993</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="62"/>
-        <v>199.23301344918596</v>
+        <v>166.99999999999997</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="62"/>
-        <v>192.59191300087977</v>
+        <v>168.77999999999992</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" ref="L75" si="63">MIN(L74,L66)</f>
-        <v>186.1721825675171</v>
+        <v>167.53699999999992</v>
       </c>
       <c r="M75" s="1">
         <f t="shared" ref="M75" si="64">MIN(M74,M66)</f>
-        <v>179.96644314859986</v>
+        <v>168.52693333333326</v>
       </c>
       <c r="N75" s="1">
         <f t="shared" ref="N75" si="65">MIN(N74,N66)</f>
-        <v>173.96756171031319</v>
+        <v>172.77111888888882</v>
       </c>
       <c r="O75" s="1">
         <f t="shared" ref="O75" si="66">MIN(O74,O66)</f>
-        <v>168.16864298663609</v>
+        <v>181.80470659259254</v>
       </c>
       <c r="P75" s="1">
         <f t="shared" ref="P75" si="67">MIN(P74,P66)</f>
-        <v>162.56302155374823</v>
+        <v>188.56421292638348</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" ref="Q75" si="68">MIN(Q74,Q66)</f>
-        <v>157.14425416862329</v>
+        <v>192.41979145035057</v>
       </c>
       <c r="R75" s="1">
         <f t="shared" ref="R75" si="69">MIN(R74,R66)</f>
-        <v>151.90611236300251</v>
+        <v>196.35420511235247</v>
       </c>
       <c r="S75" s="1">
         <f t="shared" ref="S75" si="70">MIN(S74,S66)</f>
-        <v>146.84257528423575</v>
+        <v>200.36906585699111</v>
       </c>
       <c r="T75" s="1">
         <f t="shared" ref="T75" si="71">MIN(T74,T66)</f>
-        <v>141.94782277476122</v>
+        <v>204.46601858835149</v>
       </c>
       <c r="U75" s="1">
         <f t="shared" ref="U75" si="72">MIN(U74,U66)</f>
-        <v>147.21622868226919</v>
+        <v>208.6467418439253</v>
       </c>
       <c r="V75" s="1">
         <f t="shared" ref="V75" si="73">MIN(V74,V66)</f>
-        <v>162.30902105952688</v>
+        <v>212.91294848231436</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" ref="W75" si="74">MIN(W74,W66)</f>
-        <v>196.89872035754266</v>
+        <v>217.26638638499534</v>
       </c>
       <c r="X75" s="1">
         <f t="shared" ref="X75" si="75">MIN(X74,X66)</f>
-        <v>234.16542967895791</v>
+        <v>221.70883917243367</v>
       </c>
       <c r="Y75" s="1">
         <f t="shared" ref="Y75" si="76">MIN(Y74,Y66)</f>
-        <v>265.0146666433298</v>
+        <v>226.24212693483977</v>
       </c>
       <c r="Z75" s="1">
         <f t="shared" ref="Z75" si="77">MIN(Z74,Z66)</f>
-        <v>269.97473194377864</v>
+        <v>230.86810697786711</v>
       </c>
       <c r="AA75" s="1">
         <f t="shared" ref="AA75" si="78">MIN(AA74,AA66)</f>
-        <v>275.02763077716486</v>
+        <v>235.58867458355758</v>
       </c>
       <c r="AB75" s="1">
         <f t="shared" ref="AB75" si="79">MIN(AB74,AB66)</f>
-        <v>280.17510063368576</v>
+        <v>240.40576378684588</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" ref="AC75" si="80">MIN(AC74,AC66)</f>
-        <v>285.41891152273826</v>
+        <v>245.32134816794124</v>
       </c>
       <c r="AD75" s="1">
         <f t="shared" ref="AD75" si="81">MIN(AD74,AD66)</f>
-        <v>290.76086658155441</v>
+        <v>250.33744166091086</v>
       </c>
       <c r="AE75" s="1">
         <f t="shared" ref="AE75" si="82">MIN(AE74,AE66)</f>
-        <v>296.2028026952284</v>
+        <v>255.45609937879655</v>
       </c>
       <c r="AF75" s="1">
         <f t="shared" ref="AF75" si="83">MIN(AF74,AF66)</f>
-        <v>301.74659112834786</v>
+        <v>260.67941845560256</v>
       </c>
       <c r="AG75" s="1">
         <f t="shared" ref="AG75" si="84">MIN(AG74,AG66)</f>
-        <v>307.39413816844717</v>
+        <v>266.0095389054996</v>
       </c>
       <c r="AH75" s="1">
         <f t="shared" ref="AH75" si="85">MIN(AH74,AH66)</f>
-        <v>313.14738578150366</v>
+        <v>271.44864449959681</v>
       </c>
       <c r="AI75" s="1">
         <f t="shared" ref="AI75" si="86">MIN(AI74,AI66)</f>
-        <v>319.00831227970207</v>
+        <v>276.99896366064155</v>
       </c>
       <c r="AJ75" s="1">
         <f t="shared" ref="AJ75" si="87">MIN(AJ74,AJ66)</f>
-        <v>324.97893300169721</v>
+        <v>282.66277037601265</v>
       </c>
       <c r="AK75" s="1">
         <f t="shared" ref="AK75" si="88">MIN(AK74,AK66)</f>
-        <v>331.06130100560853</v>
+        <v>288.44238512938193</v>
       </c>
       <c r="AL75" s="1">
         <f t="shared" ref="AL75" si="89">MIN(AL74,AL66)</f>
-        <v>337.25750777498473</v>
+        <v>294.34017585142561</v>
       </c>
       <c r="AM75" s="1">
         <f t="shared" ref="AM75" si="90">MIN(AM74,AM66)</f>
-        <v>343.56968393798149</v>
+        <v>300.35855888997446</v>
       </c>
       <c r="AN75" s="1">
         <f t="shared" ref="AN75" si="91">MIN(AN74,AN66)</f>
-        <v>349.99999999999955</v>
+        <v>306.50000000000102</v>
       </c>
     </row>
     <row r="76" spans="1:42">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76">
         <f>MIN(B67,B74-B75)</f>
@@ -6832,7 +6841,7 @@
       </c>
       <c r="J76" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>7.5999999999999375</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="92"/>
@@ -6856,108 +6865,108 @@
       </c>
       <c r="P76" s="1">
         <f t="shared" ref="P76" si="97">MIN(P67,P74-P75)</f>
-        <v>0</v>
+        <v>9.3692742797893231</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" ref="Q76" si="98">MIN(Q67,Q74-Q75)</f>
-        <v>0</v>
+        <v>32.199319098949815</v>
       </c>
       <c r="R76" s="1">
         <f t="shared" ref="R76" si="99">MIN(R67,R74-R75)</f>
-        <v>0</v>
+        <v>64.607601751971231</v>
       </c>
       <c r="S76" s="1">
         <f t="shared" ref="S76" si="100">MIN(S67,S74-S75)</f>
-        <v>0</v>
+        <v>95.724014111855155</v>
       </c>
       <c r="T76" s="1">
         <f t="shared" ref="T76" si="101">MIN(T67,T74-T75)</f>
-        <v>0</v>
+        <v>125.58729204819988</v>
       </c>
       <c r="U76" s="1">
         <f t="shared" ref="U76" si="102">MIN(U67,U74-U75)</f>
-        <v>0</v>
+        <v>154.23479177140771</v>
       </c>
       <c r="V76" s="1">
         <f t="shared" ref="V76" si="103">MIN(V67,V74-V75)</f>
-        <v>0</v>
+        <v>181.70253401250753</v>
       </c>
       <c r="W76" s="1">
         <f t="shared" ref="W76" si="104">MIN(W67,W74-W75)</f>
-        <v>0</v>
+        <v>208.02524669333249</v>
       </c>
       <c r="X76" s="1">
         <f t="shared" ref="X76" si="105">MIN(X67,X74-X75)</f>
-        <v>0</v>
+        <v>221.70883917243367</v>
       </c>
       <c r="Y76" s="1">
         <f t="shared" ref="Y76" si="106">MIN(Y67,Y74-Y75)</f>
-        <v>5.1752487129961651</v>
+        <v>226.24212693483977</v>
       </c>
       <c r="Z76" s="1">
         <f t="shared" ref="Z76" si="107">MIN(Z67,Z74-Z75)</f>
-        <v>35.038852900669781</v>
+        <v>230.86810697786711</v>
       </c>
       <c r="AA76" s="1">
         <f t="shared" ref="AA76" si="108">MIN(AA67,AA74-AA75)</f>
-        <v>63.648834572468616</v>
+        <v>235.58867458355758</v>
       </c>
       <c r="AB76" s="1">
         <f t="shared" ref="AB76" si="109">MIN(AB67,AB74-AB75)</f>
-        <v>91.042149204293253</v>
+        <v>240.40576378684588</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" ref="AC76" si="110">MIN(AC67,AC74-AC75)</f>
-        <v>117.25442998730813</v>
+        <v>245.32134816794124</v>
       </c>
       <c r="AD76" s="1">
         <f t="shared" ref="AD76" si="111">MIN(AD67,AD74-AD75)</f>
-        <v>142.3200302114904</v>
+        <v>250.33744166091086</v>
       </c>
       <c r="AE76" s="1">
         <f t="shared" ref="AE76" si="112">MIN(AE67,AE74-AE75)</f>
-        <v>166.27206420471492</v>
+        <v>255.45609937879655</v>
       </c>
       <c r="AF76" s="1">
         <f t="shared" ref="AF76" si="113">MIN(AF67,AF74-AF75)</f>
-        <v>189.14244687493067</v>
+        <v>260.67941845560256</v>
       </c>
       <c r="AG76" s="1">
         <f t="shared" ref="AG76" si="114">MIN(AG67,AG74-AG75)</f>
-        <v>210.96193190138877</v>
+        <v>266.0095389054996</v>
       </c>
       <c r="AH76" s="1">
         <f t="shared" ref="AH76" si="115">MIN(AH67,AH74-AH75)</f>
-        <v>231.76014861933777</v>
+        <v>271.44864449959681</v>
       </c>
       <c r="AI76" s="1">
         <f t="shared" ref="AI76" si="116">MIN(AI67,AI74-AI75)</f>
-        <v>251.56563764111127</v>
+        <v>276.99896366064155</v>
       </c>
       <c r="AJ76" s="1">
         <f t="shared" ref="AJ76" si="117">MIN(AJ67,AJ74-AJ75)</f>
-        <v>270.40588525508906</v>
+        <v>282.66277037601265</v>
       </c>
       <c r="AK76" s="1">
         <f t="shared" ref="AK76" si="118">MIN(AK67,AK74-AK75)</f>
-        <v>288.30735664261823</v>
+        <v>288.44238512938193</v>
       </c>
       <c r="AL76" s="1">
         <f t="shared" ref="AL76" si="119">MIN(AL67,AL74-AL75)</f>
-        <v>305.29552795163448</v>
+        <v>294.34017585142561</v>
       </c>
       <c r="AM76" s="1">
         <f t="shared" ref="AM76" si="120">MIN(AM67,AM74-AM75)</f>
-        <v>321.39491726441713</v>
+        <v>300.35855888997446</v>
       </c>
       <c r="AN76" s="1">
         <f t="shared" ref="AN76" si="121">MIN(AN67,AN74-AN75)</f>
-        <v>336.6291144956524</v>
+        <v>306.50000000000102</v>
       </c>
     </row>
     <row r="77" spans="1:42">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77">
         <f>MIN(B68,B74-B75-B76)</f>
@@ -7049,78 +7058,78 @@
       </c>
       <c r="X77" s="1">
         <f t="shared" ref="X77" si="135">MIN(X68,X74-X75-X76)</f>
-        <v>0</v>
+        <v>11.527566964182881</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" ref="Y77" si="136">MIN(Y68,Y74-Y75-Y76)</f>
-        <v>0</v>
+        <v>31.126149929069044</v>
       </c>
       <c r="Z77" s="1">
         <f t="shared" ref="Z77" si="137">MIN(Z68,Z74-Z75-Z76)</f>
-        <v>0</v>
+        <v>49.583843049722702</v>
       </c>
       <c r="AA77" s="1">
         <f t="shared" ref="AA77" si="138">MIN(AA68,AA74-AA75-AA76)</f>
-        <v>0</v>
+        <v>66.928705938159851</v>
       </c>
       <c r="AB77" s="1">
         <f t="shared" ref="AB77" si="139">MIN(AB68,AB74-AB75-AB76)</f>
-        <v>0</v>
+        <v>83.187659028074023</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" ref="AC77" si="140">MIN(AC68,AC74-AC75-AC76)</f>
-        <v>0</v>
+        <v>98.38651737915788</v>
       </c>
       <c r="AD77" s="1">
         <f t="shared" ref="AD77" si="141">MIN(AD68,AD74-AD75-AD76)</f>
-        <v>0</v>
+        <v>112.55002326938401</v>
       </c>
       <c r="AE77" s="1">
         <f t="shared" ref="AE77" si="142">MIN(AE68,AE74-AE75-AE76)</f>
-        <v>0</v>
+        <v>125.70187761390574</v>
       </c>
       <c r="AF77" s="1">
         <f t="shared" ref="AF77" si="143">MIN(AF68,AF74-AF75-AF76)</f>
-        <v>0</v>
+        <v>137.86477024791043</v>
       </c>
       <c r="AG77" s="1">
         <f t="shared" ref="AG77" si="144">MIN(AG68,AG74-AG75-AG76)</f>
-        <v>0</v>
+        <v>149.06040910947911</v>
       </c>
       <c r="AH77" s="1">
         <f t="shared" ref="AH77" si="145">MIN(AH68,AH74-AH75-AH76)</f>
-        <v>0</v>
+        <v>159.30954835726868</v>
       </c>
       <c r="AI77" s="1">
         <f t="shared" ref="AI77" si="146">MIN(AI68,AI74-AI75-AI76)</f>
-        <v>0</v>
+        <v>168.63201545663048</v>
       </c>
       <c r="AJ77" s="1">
         <f t="shared" ref="AJ77" si="147">MIN(AJ68,AJ74-AJ75-AJ76)</f>
-        <v>0</v>
+        <v>177.04673726662452</v>
       </c>
       <c r="AK77" s="1">
         <f t="shared" ref="AK77" si="148">MIN(AK68,AK74-AK75-AK76)</f>
-        <v>0</v>
+        <v>184.57176515926426</v>
       </c>
       <c r="AL77" s="1">
         <f t="shared" ref="AL77" si="149">MIN(AL68,AL74-AL75-AL76)</f>
-        <v>0</v>
+        <v>191.22429920124262</v>
       </c>
       <c r="AM77" s="1">
         <f t="shared" ref="AM77" si="150">MIN(AM68,AM74-AM75-AM76)</f>
-        <v>0</v>
+        <v>197.02071142734178</v>
       </c>
       <c r="AN77" s="1">
         <f t="shared" ref="AN77" si="151">MIN(AN68,AN74-AN75-AN76)</f>
-        <v>0</v>
+        <v>201.97656823371233</v>
       </c>
       <c r="AO77" s="8"/>
       <c r="AP77" s="19"/>
     </row>
     <row r="78" spans="1:42">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78">
         <f>B74-SUM(B75:B77)</f>
@@ -7285,7 +7294,7 @@
     </row>
     <row r="80" spans="1:42">
       <c r="A80" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -7407,7 +7416,7 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" s="8">
         <f t="shared" ref="B81:AM81" si="182">AVERAGE(B80,1-((B76/B67)*(1-B72)))</f>
@@ -7443,7 +7452,7 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.98846065865700639</v>
       </c>
       <c r="K81" s="8">
         <f t="shared" si="182"/>
@@ -7467,108 +7476,108 @@
       </c>
       <c r="P81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.98640648500262795</v>
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.9536962631835304</v>
       </c>
       <c r="R81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.90794364084042489</v>
       </c>
       <c r="S81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.86489999787558014</v>
       </c>
       <c r="T81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.82448522022536919</v>
       </c>
       <c r="U81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.78661758593278686</v>
       </c>
       <c r="V81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75121429752519697</v>
       </c>
       <c r="W81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.71819195206139796</v>
       </c>
       <c r="X81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.70291370977898937</v>
       </c>
       <c r="Y81" s="8">
         <f t="shared" si="182"/>
-        <v>0.99511796009392062</v>
+        <v>0.70020179833256679</v>
       </c>
       <c r="Z81" s="8">
         <f t="shared" si="182"/>
-        <v>0.96755358117369439</v>
+        <v>0.6975363167295161</v>
       </c>
       <c r="AA81" s="8">
         <f t="shared" si="182"/>
-        <v>0.94214323630628338</v>
+        <v>0.69491620216950123</v>
       </c>
       <c r="AB81" s="8">
         <f t="shared" si="182"/>
-        <v>0.91876316899826327</v>
+        <v>0.69234042362301285</v>
       </c>
       <c r="AC81" s="8">
         <f t="shared" si="182"/>
-        <v>0.89729619757697199</v>
+        <v>0.6898079806515196</v>
       </c>
       <c r="AD81" s="8">
         <f t="shared" si="182"/>
-        <v>0.87763137463722996</v>
+        <v>0.68731790227983947</v>
       </c>
       <c r="AE81" s="8">
         <f t="shared" si="182"/>
-        <v>0.85966366397299332</v>
+        <v>0.6848692459180542</v>
       </c>
       <c r="AF81" s="8">
         <f t="shared" si="182"/>
-        <v>0.8432936340990187</v>
+        <v>0.68246109633044694</v>
       </c>
       <c r="AG81" s="8">
         <f t="shared" si="182"/>
-        <v>0.82842716751336931</v>
+        <v>0.68009256464908618</v>
       </c>
       <c r="AH81" s="8">
         <f t="shared" si="182"/>
-        <v>0.81497518489500753</v>
+        <v>0.67776278742981688</v>
       </c>
       <c r="AI81" s="8">
         <f t="shared" si="182"/>
-        <v>0.80285338347191559</v>
+        <v>0.67547092574854806</v>
       </c>
       <c r="AJ81" s="8">
         <f t="shared" si="182"/>
-        <v>0.79198198883427562</v>
+        <v>0.6732161643358433</v>
       </c>
       <c r="AK81" s="8">
         <f t="shared" si="182"/>
-        <v>0.78228551950433656</v>
+        <v>0.67099771074793235</v>
       </c>
       <c r="AL81" s="8">
         <f t="shared" si="182"/>
-        <v>0.77369256360978855</v>
+        <v>0.66881479457237081</v>
       </c>
       <c r="AM81" s="8">
         <f t="shared" si="182"/>
-        <v>0.76613556704086794</v>
+        <v>0.66666666666666741</v>
       </c>
       <c r="AN81" s="8">
         <f>AVERAGE(AN80,1-((AN76/AN67)*(1-AN72)))</f>
-        <v>0.75955063250310517</v>
+        <v>0.66455259842829462</v>
       </c>
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8">
         <f t="shared" ref="B82:AM82" si="183">AVERAGE(B72,B72-((B77/B68)*B72))</f>
@@ -7576,11 +7585,11 @@
       </c>
       <c r="C82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="D82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="E82" s="8">
         <f t="shared" si="183"/>
@@ -7588,11 +7597,11 @@
       </c>
       <c r="F82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.5</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="183"/>
@@ -7600,137 +7609,137 @@
       </c>
       <c r="I82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="J82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.49287631466317477</v>
       </c>
       <c r="K82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999994</v>
+        <v>0.48588699945252395</v>
       </c>
       <c r="L82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.47902860045894319</v>
       </c>
       <c r="M82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.47229778014482532</v>
       </c>
       <c r="N82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.46569131247902368</v>
       </c>
       <c r="O82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.45920607831393145</v>
       </c>
       <c r="P82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999994</v>
+        <v>0.45283906099073606</v>
       </c>
       <c r="Q82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999994</v>
+        <v>0.44658734215981605</v>
       </c>
       <c r="R82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999994</v>
+        <v>0.44044809780409216</v>
       </c>
       <c r="S82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.43441859445392833</v>
       </c>
       <c r="T82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.42849618558290314</v>
       </c>
       <c r="U82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999994</v>
+        <v>0.4226783081744484</v>
       </c>
       <c r="V82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999994</v>
+        <v>0.41696247944997883</v>
       </c>
       <c r="W82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999994</v>
+        <v>0.41134629374971876</v>
       </c>
       <c r="X82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999989</v>
+        <v>0.39862141028130565</v>
       </c>
       <c r="Y82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999989</v>
+        <v>0.38201033051462757</v>
       </c>
       <c r="Z82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999989</v>
+        <v>0.367365161075077</v>
       </c>
       <c r="AA82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.35445428384578065</v>
       </c>
       <c r="AB82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.34307209178482878</v>
       </c>
       <c r="AC82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999989</v>
+        <v>0.33303606012663878</v>
       </c>
       <c r="AD82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.32418415925428051</v>
       </c>
       <c r="AE82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.31637256714004103</v>
       </c>
       <c r="AF82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.30947364479218165</v>
       </c>
       <c r="AG82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.30337414290373443</v>
       </c>
       <c r="AH82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.2979736119931643</v>
       </c>
       <c r="AI82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.29318299185628005</v>
       </c>
       <c r="AJ82" s="8">
         <f t="shared" si="183"/>
-        <v>0.5</v>
+        <v>0.28892335919739692</v>
       </c>
       <c r="AK82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.28512481494571196</v>
       </c>
       <c r="AL82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.28172549504941174</v>
       </c>
       <c r="AM82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.27867069052527815</v>
       </c>
       <c r="AN82" s="8">
         <f>AVERAGE(AN72,AN72-((AN77/AN68)*AN72))</f>
-        <v>0.5</v>
+        <v>0.27591206426797255</v>
       </c>
       <c r="AO82" s="8"/>
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
@@ -7852,7 +7861,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="8">
         <f>SUMPRODUCT(B75:B78,B80:B83)/B74</f>
@@ -7888,7 +7897,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="184"/>
-        <v>1</v>
+        <v>0.99949771480981231</v>
       </c>
       <c r="K85" s="8">
         <f t="shared" ref="K85:AN85" si="185">SUMPRODUCT(K75:K78,K80:K83)/K74</f>
@@ -7912,108 +7921,108 @@
       </c>
       <c r="P85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.99935654460377321</v>
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.9933623243650942</v>
       </c>
       <c r="R85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.97720915308342249</v>
       </c>
       <c r="S85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.95632348276687074</v>
       </c>
       <c r="T85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.93321555883254037</v>
       </c>
       <c r="U85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.90930651148475439</v>
       </c>
       <c r="V85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.88544546635636201</v>
       </c>
       <c r="W85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.8621576722112535</v>
       </c>
       <c r="X85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.83998274681758744</v>
       </c>
       <c r="Y85" s="8">
         <f t="shared" si="185"/>
-        <v>0.99990648884616051</v>
+        <v>0.81997363741635276</v>
       </c>
       <c r="Z85" s="8">
         <f t="shared" si="185"/>
-        <v>0.99627267324178947</v>
+        <v>0.80208543912806107</v>
       </c>
       <c r="AA85" s="8">
         <f t="shared" si="185"/>
-        <v>0.98912674496753672</v>
+        <v>0.78613913394560186</v>
       </c>
       <c r="AB85" s="8">
         <f t="shared" si="185"/>
-        <v>0.98007642238561887</v>
+        <v>0.77196522027843295</v>
       </c>
       <c r="AC85" s="8">
         <f t="shared" si="185"/>
-        <v>0.97009368495693971</v>
+        <v>0.75940584891314578</v>
       </c>
       <c r="AD85" s="8">
         <f t="shared" si="185"/>
-        <v>0.95978694376147855</v>
+        <v>0.74831562883490621</v>
       </c>
       <c r="AE85" s="8">
         <f t="shared" si="185"/>
-        <v>0.94954533977046318</v>
+        <v>0.73856166348131491</v>
       </c>
       <c r="AF85" s="8">
         <f t="shared" si="185"/>
-        <v>0.93962011128227352</v>
+        <v>0.73002314825551429</v>
       </c>
       <c r="AG85" s="8">
         <f t="shared" si="185"/>
-        <v>0.93017283235769477</v>
+        <v>0.72259072802289748</v>
       </c>
       <c r="AH85" s="8">
         <f t="shared" si="185"/>
-        <v>0.92130521980366964</v>
+        <v>0.71616573527240934</v>
       </c>
       <c r="AI85" s="8">
         <f t="shared" si="185"/>
-        <v>0.91307820081418334</v>
+        <v>0.71065938247183968</v>
       </c>
       <c r="AJ85" s="8">
         <f t="shared" si="185"/>
-        <v>0.90552447302408257</v>
+        <v>0.70599195313963581</v>
       </c>
       <c r="AK85" s="8">
         <f t="shared" si="185"/>
-        <v>0.89865698627234158</v>
+        <v>0.70209201806327015</v>
       </c>
       <c r="AL85" s="8">
         <f t="shared" si="185"/>
-        <v>0.89247479284881026</v>
+        <v>0.69889569170278965</v>
       </c>
       <c r="AM85" s="8">
         <f t="shared" si="185"/>
-        <v>0.88696715592667708</v>
+        <v>0.69634593661328115</v>
       </c>
       <c r="AN85" s="8">
         <f t="shared" si="185"/>
-        <v>0.88211647896554202</v>
+        <v>0.6943919191687844</v>
       </c>
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" s="11">
         <f>B85*B74</f>
@@ -8021,160 +8030,160 @@
       </c>
       <c r="C86" s="11">
         <f>C85*C74</f>
-        <v>110.39162668114824</v>
+        <v>107.3125</v>
       </c>
       <c r="D86" s="11">
         <f t="shared" ref="D86:K86" si="186">D85*D74</f>
-        <v>123.08325336229647</v>
+        <v>116.925</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="186"/>
-        <v>135.77488004344471</v>
+        <v>126.53749999999999</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="186"/>
-        <v>148.46650672459296</v>
+        <v>136.14999999999998</v>
       </c>
       <c r="G86" s="11">
         <f t="shared" si="186"/>
-        <v>161.15813340574121</v>
+        <v>145.76249999999996</v>
       </c>
       <c r="H86" s="11">
         <f t="shared" si="186"/>
-        <v>173.84976008688946</v>
+        <v>155.37499999999994</v>
       </c>
       <c r="I86" s="11">
         <f t="shared" si="186"/>
-        <v>186.54138676803771</v>
+        <v>164.98749999999993</v>
       </c>
       <c r="J86" s="11">
         <f t="shared" si="186"/>
-        <v>199.23301344918596</v>
+        <v>174.51230100579315</v>
       </c>
       <c r="K86" s="11">
         <f t="shared" si="186"/>
-        <v>192.59191300087977</v>
+        <v>168.77999999999992</v>
       </c>
       <c r="L86" s="11">
         <f t="shared" ref="L86" si="187">L85*L74</f>
-        <v>186.1721825675171</v>
+        <v>167.53699999999992</v>
       </c>
       <c r="M86" s="11">
         <f t="shared" ref="M86" si="188">M85*M74</f>
-        <v>179.96644314859986</v>
+        <v>168.52693333333326</v>
       </c>
       <c r="N86" s="11">
         <f t="shared" ref="N86" si="189">N85*N74</f>
-        <v>173.96756171031319</v>
+        <v>172.77111888888882</v>
       </c>
       <c r="O86" s="11">
         <f t="shared" ref="O86" si="190">O85*O74</f>
-        <v>168.16864298663609</v>
+        <v>181.80470659259254</v>
       </c>
       <c r="P86" s="11">
         <f t="shared" ref="P86" si="191">P85*P74</f>
-        <v>162.56302155374823</v>
+        <v>197.806125835736</v>
       </c>
       <c r="Q86" s="11">
         <f t="shared" ref="Q86" si="192">Q85*Q74</f>
-        <v>157.14425416862329</v>
+        <v>223.12816175207308</v>
       </c>
       <c r="R86" s="11">
         <f t="shared" ref="R86" si="193">R85*R74</f>
-        <v>151.90611236300251</v>
+        <v>255.01426627300543</v>
       </c>
       <c r="S86" s="11">
         <f t="shared" ref="S86" si="194">S85*S74</f>
-        <v>146.84257528423575</v>
+        <v>283.16076545897664</v>
       </c>
       <c r="T86" s="11">
         <f t="shared" ref="T86" si="195">T85*T74</f>
-        <v>141.94782277476122</v>
+        <v>308.01088473021935</v>
       </c>
       <c r="U86" s="11">
         <f t="shared" ref="U86" si="196">U85*U74</f>
-        <v>147.21622868226919</v>
+        <v>329.9705414139961</v>
       </c>
       <c r="V86" s="11">
         <f t="shared" ref="V86" si="197">V85*V74</f>
-        <v>162.30902105952688</v>
+        <v>349.41048992906838</v>
       </c>
       <c r="W86" s="11">
         <f t="shared" ref="W86" si="198">W85*W74</f>
-        <v>196.89872035754266</v>
+        <v>366.66844438573366</v>
       </c>
       <c r="X86" s="11">
         <f t="shared" ref="X86" si="199">X85*X74</f>
-        <v>234.16542967895791</v>
+        <v>382.14615680629714</v>
       </c>
       <c r="Y86" s="11">
         <f t="shared" ref="Y86" si="200">Y85*Y74</f>
-        <v>270.16464958558521</v>
+        <v>396.54778189525098</v>
       </c>
       <c r="Z86" s="11">
         <f t="shared" ref="Z86" si="201">Z85*Z74</f>
-        <v>303.87669954803999</v>
+        <v>410.12237245820717</v>
       </c>
       <c r="AA86" s="11">
         <f t="shared" ref="AA86" si="202">AA85*AA74</f>
-        <v>334.99394976839369</v>
+        <v>423.02622813134519</v>
       </c>
       <c r="AB86" s="11">
         <f t="shared" ref="AB86" si="203">AB85*AB74</f>
-        <v>363.82127414903493</v>
+        <v>435.38775632188919</v>
       </c>
       <c r="AC86" s="11">
         <f t="shared" ref="AC86" si="204">AC85*AC74</f>
-        <v>390.63086569940515</v>
+        <v>447.31223007591296</v>
       </c>
       <c r="AD86" s="11">
         <f t="shared" ref="AD86" si="205">AD85*AD74</f>
-        <v>415.6653903344768</v>
+        <v>458.88578159302472</v>
       </c>
       <c r="AE86" s="11">
         <f t="shared" ref="AE86" si="206">AE85*AE74</f>
-        <v>439.14085462580641</v>
+        <v>470.17875124055507</v>
       </c>
       <c r="AF86" s="11">
         <f t="shared" ref="AF86" si="207">AF85*AF74</f>
-        <v>461.24921251588876</v>
+        <v>481.24849310265392</v>
       </c>
       <c r="AG86" s="11">
         <f t="shared" ref="AG86" si="208">AG85*AG74</f>
-        <v>482.16073386666301</v>
+        <v>492.14172229532988</v>
       </c>
       <c r="AH86" s="11">
         <f t="shared" ref="AH86" si="209">AH85*AH74</f>
-        <v>502.02615575384289</v>
+        <v>502.89647598870397</v>
       </c>
       <c r="AI86" s="11">
         <f t="shared" ref="AI86" si="210">AI85*AI74</f>
-        <v>520.97863562513817</v>
+        <v>513.5437488902129</v>
       </c>
       <c r="AJ86" s="11">
         <f t="shared" ref="AJ86" si="211">AJ85*AJ74</f>
-        <v>539.13552379851558</v>
+        <v>524.10885451510728</v>
       </c>
       <c r="AK86" s="11">
         <f t="shared" ref="AK86" si="212">AK85*AK74</f>
-        <v>556.59997127370116</v>
+        <v>534.61255561910934</v>
       </c>
       <c r="AL86" s="11">
         <f t="shared" ref="AL86" si="213">AL85*AL74</f>
-        <v>573.46238745448863</v>
+        <v>545.07200045583932</v>
       </c>
       <c r="AM86" s="11">
         <f t="shared" ref="AM86" si="214">AM85*AM74</f>
-        <v>589.80176112040851</v>
+        <v>555.50149585119652</v>
       </c>
       <c r="AN86" s="11">
         <f t="shared" ref="AN86" si="215">AN85*AN74</f>
-        <v>605.68685683413253</v>
+        <v>565.91314329339866</v>
       </c>
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="1">
         <f>MAX(B64-B74,0)</f>
@@ -8182,160 +8191,160 @@
       </c>
       <c r="C88" s="1">
         <f>MAX(C64-C74,0)</f>
-        <v>418.32207680378957</v>
+        <v>409.40260083635235</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" ref="D88:J88" si="216">MAX(D64-D74,0)</f>
-        <v>415.52595714398245</v>
+        <v>397.5152609485969</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="216"/>
-        <v>412.91504369041513</v>
+        <v>385.63793605073931</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="216"/>
-        <v>410.49280279794482</v>
+        <v>373.77058205175439</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="216"/>
-        <v>408.26276569839115</v>
+        <v>361.91315505472789</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" si="216"/>
-        <v>406.22852971478471</v>
+        <v>350.06561135600185</v>
       </c>
       <c r="I88" s="1">
         <f t="shared" si="216"/>
-        <v>404.39375949834425</v>
+        <v>338.22790744432393</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" si="216"/>
-        <v>402.76218828860249</v>
+        <v>331.22739955586138</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" ref="K88:AN88" si="217">MAX(K64-K74,0)</f>
-        <v>420.67034632657385</v>
+        <v>352.36363983473012</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" si="217"/>
-        <v>438.56801075918497</v>
+        <v>369.38664940819626</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="217"/>
-        <v>456.46650739023767</v>
+        <v>384.65453768152923</v>
       </c>
       <c r="N88" s="1">
         <f t="shared" si="217"/>
-        <v>474.37698992597797</v>
+        <v>397.16045371264352</v>
       </c>
       <c r="O88" s="1">
         <f t="shared" si="217"/>
-        <v>492.31044955653351</v>
+        <v>405.38415360574311</v>
       </c>
       <c r="P88" s="1">
         <f t="shared" si="217"/>
-        <v>510.27772428993234</v>
+        <v>407.03520397753357</v>
       </c>
       <c r="Q88" s="1">
         <f t="shared" si="217"/>
-        <v>528.28950804829412</v>
+        <v>398.66777740171875</v>
       </c>
       <c r="R88" s="1">
         <f t="shared" si="217"/>
-        <v>546.35635953549593</v>
+        <v>381.1979451247218</v>
       </c>
       <c r="S88" s="1">
         <f t="shared" si="217"/>
-        <v>564.48871088532576</v>
+        <v>365.5109984199139</v>
       </c>
       <c r="T88" s="1">
         <f t="shared" si="217"/>
-        <v>582.69687609886694</v>
+        <v>351.58386015285635</v>
       </c>
       <c r="U88" s="1">
         <f t="shared" si="217"/>
-        <v>590.99105927958738</v>
+        <v>339.39532316179651</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" si="217"/>
-        <v>589.7146960076891</v>
+        <v>328.92602125503333</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="217"/>
-        <v>569.20001675058234</v>
+        <v>320.15840218424756</v>
       </c>
       <c r="X88" s="1">
         <f t="shared" si="217"/>
-        <v>546.27175824314327</v>
+        <v>313.07670255849263</v>
       </c>
       <c r="Y88" s="1">
         <f t="shared" si="217"/>
-        <v>524.8540845736635</v>
+        <v>307.66692466563967</v>
       </c>
       <c r="Z88" s="1">
         <f t="shared" si="217"/>
-        <v>504.91061098688755</v>
+        <v>303.91681517013279</v>
       </c>
       <c r="AA88" s="1">
         <f t="shared" si="217"/>
-        <v>486.4064269818611</v>
+        <v>301.81584565792855</v>
       </c>
       <c r="AB88" s="1">
         <f t="shared" si="217"/>
-        <v>469.30805206307821</v>
+        <v>301.35519500148121</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" si="217"/>
-        <v>453.58339305816844</v>
+        <v>302.52773351957592</v>
       </c>
       <c r="AD88" s="1">
         <f t="shared" si="217"/>
-        <v>439.20170295161842</v>
+        <v>305.32800890873204</v>
       </c>
       <c r="AE88" s="1">
         <f t="shared" si="217"/>
-        <v>426.13354118574182</v>
+        <v>309.75223392477767</v>
       </c>
       <c r="AF88" s="1">
         <f t="shared" si="217"/>
-        <v>414.35073538176505</v>
+        <v>315.79827579505047</v>
       </c>
       <c r="AG88" s="1">
         <f t="shared" si="217"/>
-        <v>403.82634443550558</v>
+        <v>323.46564734350909</v>
       </c>
       <c r="AH88" s="1">
         <f t="shared" si="217"/>
-        <v>394.53462294366955</v>
+        <v>332.75549981283461</v>
       </c>
       <c r="AI88" s="1">
         <f t="shared" si="217"/>
-        <v>386.45098691829287</v>
+        <v>343.67061736938558</v>
       </c>
       <c r="AJ88" s="1">
         <f t="shared" si="217"/>
-        <v>379.55198074830537</v>
+        <v>356.21541327861939</v>
       </c>
       <c r="AK88" s="1">
         <f t="shared" si="217"/>
-        <v>373.81524536859877</v>
+        <v>370.39592774033622</v>
       </c>
       <c r="AL88" s="1">
         <f t="shared" si="217"/>
-        <v>369.21948759833492</v>
+        <v>386.21982737481289</v>
       </c>
       <c r="AM88" s="1">
         <f t="shared" si="217"/>
-        <v>365.74445061154574</v>
+        <v>403.69640635260305</v>
       </c>
       <c r="AN88" s="1">
         <f t="shared" si="217"/>
-        <v>363.37088550434669</v>
+        <v>422.8365891624652</v>
       </c>
     </row>
     <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="8">
         <f>IFERROR((B62-B86)/B88,0)</f>
@@ -8343,155 +8352,155 @@
       </c>
       <c r="C89" s="8">
         <f>IFERROR((C62-C86)/C88,0)</f>
-        <v>0.57870284420989615</v>
+        <v>0.57929342267588968</v>
       </c>
       <c r="D89" s="8">
         <f t="shared" ref="D89:K89" si="218">IFERROR((D62-D86)/D88,0)</f>
-        <v>0.56792975164272963</v>
+        <v>0.56862011643613386</v>
       </c>
       <c r="E89" s="8">
         <f t="shared" si="218"/>
-        <v>0.55705987456890149</v>
+        <v>0.55729162151779665</v>
       </c>
       <c r="F89" s="8">
         <f t="shared" si="218"/>
-        <v>0.54610709719907724</v>
+        <v>0.54524637434668599</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="218"/>
-        <v>0.53508626719031671</v>
+        <v>0.53241484597047606</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="218"/>
-        <v>0.52401317044460138</v>
+        <v>0.51871821075850633</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="218"/>
-        <v>0.51290449602103583</v>
+        <v>0.50406673885797093</v>
       </c>
       <c r="J89" s="8">
         <f t="shared" si="218"/>
-        <v>0.50177779076386064</v>
+        <v>0.48150515086632878</v>
       </c>
       <c r="K89" s="8">
         <f t="shared" si="218"/>
-        <v>0.5140595126463805</v>
+        <v>0.48827202721216728</v>
       </c>
       <c r="L89" s="8">
         <f t="shared" ref="L89" si="219">IFERROR((L62-L86)/L88,0)</f>
-        <v>0.52516661954342192</v>
+        <v>0.48800154759260783</v>
       </c>
       <c r="M89" s="8">
         <f t="shared" ref="M89" si="220">IFERROR((M62-M86)/M88,0)</f>
-        <v>0.5352466973772626</v>
+        <v>0.48454586417984852</v>
       </c>
       <c r="N89" s="8">
         <f t="shared" ref="N89" si="221">IFERROR((N62-N86)/N88,0)</f>
-        <v>0.54442383350180401</v>
+        <v>0.476873837929225</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" ref="O89" si="222">IFERROR((O62-O86)/O88,0)</f>
-        <v>0.55280311902234314</v>
+        <v>0.46318306112144031</v>
       </c>
       <c r="P89" s="8">
         <f t="shared" ref="P89" si="223">IFERROR((P62-P86)/P88,0)</f>
-        <v>0.56047415370393971</v>
+        <v>0.44055722518519236</v>
       </c>
       <c r="Q89" s="8">
         <f t="shared" ref="Q89" si="224">IFERROR((Q62-Q86)/Q88,0)</f>
-        <v>0.56751380207595203</v>
+        <v>0.40562952492064358</v>
       </c>
       <c r="R89" s="8">
         <f t="shared" ref="R89" si="225">IFERROR((R62-R86)/R88,0)</f>
-        <v>0.57398838095820159</v>
+        <v>0.36121428699372504</v>
       </c>
       <c r="S89" s="8">
         <f t="shared" ref="S89" si="226">IFERROR((S62-S86)/S88,0)</f>
-        <v>0.57995541070908063</v>
+        <v>0.32167942076513911</v>
       </c>
       <c r="T89" s="8">
         <f t="shared" ref="T89" si="227">IFERROR((T62-T86)/T88,0)</f>
-        <v>0.58546502844663917</v>
+        <v>0.28704717105787125</v>
       </c>
       <c r="U89" s="8">
         <f t="shared" ref="U89" si="228">IFERROR((U62-U86)/U88,0)</f>
-        <v>0.5836331326446097</v>
+        <v>0.25728976304197892</v>
       </c>
       <c r="V89" s="8">
         <f t="shared" ref="V89" si="229">IFERROR((V62-V86)/V88,0)</f>
-        <v>0.57492229029939224</v>
+        <v>0.23231791374848856</v>
       </c>
       <c r="W89" s="8">
         <f t="shared" ref="W89" si="230">IFERROR((W62-W86)/W88,0)</f>
-        <v>0.55135938477210678</v>
+        <v>0.2119710990599018</v>
       </c>
       <c r="X89" s="8">
         <f t="shared" ref="X89" si="231">IFERROR((X62-X86)/X88,0)</f>
-        <v>0.52377964743405725</v>
+        <v>0.19570770050231617</v>
       </c>
       <c r="Y89" s="8">
         <f t="shared" ref="Y89" si="232">IFERROR((Y62-Y86)/Y88,0)</f>
-        <v>0.49511796009392067</v>
+        <v>0.18180853218206061</v>
       </c>
       <c r="Z89" s="8">
         <f t="shared" ref="Z89" si="233">IFERROR((Z62-Z86)/Z88,0)</f>
-        <v>0.46755358117369422</v>
+        <v>0.16982884434556084</v>
       </c>
       <c r="AA89" s="8">
         <f t="shared" ref="AA89" si="234">IFERROR((AA62-AA86)/AA88,0)</f>
-        <v>0.44214323630628344</v>
+        <v>0.15953808167627948</v>
       </c>
       <c r="AB89" s="8">
         <f t="shared" ref="AB89" si="235">IFERROR((AB62-AB86)/AB88,0)</f>
-        <v>0.41876316899826332</v>
+        <v>0.15073166816181588</v>
       </c>
       <c r="AC89" s="8">
         <f t="shared" ref="AC89" si="236">IFERROR((AC62-AC86)/AC88,0)</f>
-        <v>0.39729619757697182</v>
+        <v>0.14322807947511923</v>
       </c>
       <c r="AD89" s="8">
         <f t="shared" ref="AD89" si="237">IFERROR((AD62-AD86)/AD88,0)</f>
-        <v>0.37763137463723001</v>
+        <v>0.13686625697444121</v>
       </c>
       <c r="AE89" s="8">
         <f t="shared" ref="AE89" si="238">IFERROR((AE62-AE86)/AE88,0)</f>
-        <v>0.35966366397299337</v>
+        <v>0.1315033212219868</v>
       </c>
       <c r="AF89" s="8">
         <f t="shared" ref="AF89" si="239">IFERROR((AF62-AF86)/AF88,0)</f>
-        <v>0.3432936340990187</v>
+        <v>0.12701254846173496</v>
       </c>
       <c r="AG89" s="8">
         <f t="shared" ref="AG89" si="240">IFERROR((AG62-AG86)/AG88,0)</f>
-        <v>0.32842716751336926</v>
+        <v>0.12328157825464837</v>
       </c>
       <c r="AH89" s="8">
         <f t="shared" ref="AH89" si="241">IFERROR((AH62-AH86)/AH88,0)</f>
-        <v>0.31497518489500764</v>
+        <v>0.12021082456334743</v>
       </c>
       <c r="AI89" s="8">
         <f t="shared" ref="AI89" si="242">IFERROR((AI62-AI86)/AI88,0)</f>
-        <v>0.30285338347191554</v>
+        <v>0.11771206610773205</v>
       </c>
       <c r="AJ89" s="8">
         <f t="shared" ref="AJ89" si="243">IFERROR((AJ62-AJ86)/AJ88,0)</f>
-        <v>0.29198198883427551</v>
+        <v>0.11570719486155345</v>
       </c>
       <c r="AK89" s="8">
         <f t="shared" ref="AK89" si="244">IFERROR((AK62-AK86)/AK88,0)</f>
-        <v>0.28228551950433645</v>
+        <v>0.1141271041977794</v>
       </c>
       <c r="AL89" s="8">
         <f t="shared" ref="AL89" si="245">IFERROR((AL62-AL86)/AL88,0)</f>
-        <v>0.27369256360978861</v>
+        <v>0.11291070047704083</v>
       </c>
       <c r="AM89" s="8">
         <f t="shared" ref="AM89" si="246">IFERROR((AM62-AM86)/AM88,0)</f>
-        <v>0.26613556704086799</v>
+        <v>0.11200402385861082</v>
       </c>
       <c r="AN89" s="8">
         <f t="shared" ref="AN89" si="247">IFERROR((AN62-AN86)/AN88,0)</f>
-        <v>0.25955063250310512</v>
+        <v>0.11135946583967772</v>
       </c>
     </row>
   </sheetData>

--- a/electricity-build-rate-constraint.xlsx
+++ b/electricity-build-rate-constraint.xlsx
@@ -703,118 +703,118 @@
                   <c:v>97.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.3125</c:v>
+                  <c:v>107.3530665293694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.925</c:v>
+                  <c:v>117.0061330587389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126.5375</c:v>
+                  <c:v>126.6591995881083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.15</c:v>
+                  <c:v>136.3122661174778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145.7625</c:v>
+                  <c:v>145.9653326468472</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>155.3749999999999</c:v>
+                  <c:v>155.6183991762167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164.9875</c:v>
+                  <c:v>165.2714657055861</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174.6</c:v>
+                  <c:v>174.9245322349556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168.7799999999999</c:v>
+                  <c:v>169.0937144937904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>167.537</c:v>
+                  <c:v>163.8572573439974</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>168.5269333333333</c:v>
+                  <c:v>158.9953487658642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>172.7711188888888</c:v>
+                  <c:v>154.595503807002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>181.8047065925925</c:v>
+                  <c:v>150.7923203467686</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>197.806125835736</c:v>
+                  <c:v>147.790909668543</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>223.1281617520731</c:v>
+                  <c:v>145.9020460129248</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>255.0142662730054</c:v>
+                  <c:v>145.5948944791607</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>283.1607654589766</c:v>
+                  <c:v>147.5761063298553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>308.0108847302193</c:v>
+                  <c:v>152.9084652855268</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>329.9705414139961</c:v>
+                  <c:v>163.1888601926759</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>349.4104899290684</c:v>
+                  <c:v>180.8152471445867</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>366.6684443857336</c:v>
+                  <c:v>209.3870956772672</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>382.1461568062971</c:v>
+                  <c:v>245.6166016137859</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>396.547781895251</c:v>
+                  <c:v>278.1062324007859</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>410.1223724582072</c:v>
+                  <c:v>307.2088262112753</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>423.0262281313452</c:v>
+                  <c:v>333.3306422831736</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>435.3877563218892</c:v>
+                  <c:v>356.8413177850695</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>447.312230075913</c:v>
+                  <c:v>378.076379050315</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>458.8857815930247</c:v>
+                  <c:v>397.3396458278668</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>470.1787512405551</c:v>
+                  <c:v>414.9055243219899</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>481.248493102654</c:v>
+                  <c:v>431.0211866621105</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>492.1417222953299</c:v>
+                  <c:v>445.9086359878589</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>502.896475988704</c:v>
+                  <c:v>459.882502016792</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>513.5437488902129</c:v>
+                  <c:v>473.3456502536238</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>524.1088545151072</c:v>
+                  <c:v>486.3920294913023</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>534.6125556191093</c:v>
+                  <c:v>499.0913858437601</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>545.0720004558393</c:v>
+                  <c:v>511.5026353526991</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>555.5014958511965</c:v>
+                  <c:v>523.6756650848824</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>565.9131432933987</c:v>
+                  <c:v>535.652853451975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,118 +970,118 @@
                   <c:v>248.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.1642338909016</c:v>
+                  <c:v>237.2629334706305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226.0351739657313</c:v>
+                  <c:v>226.2314029412611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>214.9127907004929</c:v>
+                  <c:v>215.2053862678916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>203.7970547011696</c:v>
+                  <c:v>204.1848613950982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.687936703152</c:v>
+                  <c:v>193.1698063556784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.585407570668</c:v>
+                  <c:v>182.1601992702989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.489438296216</c:v>
+                  <c:v>171.1560183471433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.4</c:v>
+                  <c:v>160.157241881563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>172.0493087379617</c:v>
+                  <c:v>172.802633452753</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>180.2612565712478</c:v>
+                  <c:v>184.9922527416702</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>186.3827653715967</c:v>
+                  <c:v>196.948730245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>189.3954298356606</c:v>
+                  <c:v>208.5874267116025</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>187.7670731972323</c:v>
+                  <c:v>219.7766785438006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>179.322300017031</c:v>
+                  <c:v>230.3143684145198</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161.7114211486281</c:v>
+                  <c:v>239.892776927696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137.6941439516995</c:v>
+                  <c:v>248.0458559551352</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.5773662550056</c:v>
+                  <c:v>254.0701345952724</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.9211524464836</c:v>
+                  <c:v>256.9060741677819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.32294227385449</c:v>
+                  <c:v>254.9600968608901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76.41540703556035</c:v>
+                  <c:v>245.8376249527099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67.86432838425702</c:v>
+                  <c:v>225.9426359847282</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.2715215385702</c:v>
+                  <c:v>198.5664513147489</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.93647197442857</c:v>
+                  <c:v>175.1101922060747</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.61384149752706</c:v>
+                  <c:v>155.2246821794062</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.15112103576996</c:v>
+                  <c:v>138.5073981585704</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.42377125180258</c:v>
+                  <c:v>124.5925151192225</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43.33046625996951</c:v>
+                  <c:v>113.1483964000114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.789101728797</c:v>
+                  <c:v>103.8751910284242</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.73344751703803</c:v>
+                  <c:v>96.5025422898334</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.1103438085512</c:v>
+                  <c:v>90.78740989911148</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39.87735551566931</c:v>
+                  <c:v>86.5120065904394</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40.00081301048965</c:v>
+                  <c:v>83.36600425849571</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.4541784310702</c:v>
+                  <c:v>80.95092649289256</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41.21668623691801</c:v>
+                  <c:v>79.1773028562265</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42.27221463965452</c:v>
+                  <c:v>77.97995666663672</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43.6083512470119</c:v>
+                  <c:v>77.30463424324886</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45.2156219287524</c:v>
+                  <c:v>77.10620569877937</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>47.08685670660338</c:v>
+                  <c:v>77.34714654802553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,11 +1095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="573474408"/>
-        <c:axId val="573477416"/>
+        <c:axId val="617544456"/>
+        <c:axId val="617546360"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="573474408"/>
+        <c:axId val="617544456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1109,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573477416"/>
+        <c:crossAx val="617546360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1118,7 +1118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="573477416"/>
+        <c:axId val="617546360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1149,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573474408"/>
+        <c:crossAx val="617544456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1253,118 +1253,118 @@
                   <c:v>161.395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.8560038429045</c:v>
+                  <c:v>145.9167040844378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.1004009001242</c:v>
+                  <c:v>131.2142137059314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.1274709317686</c:v>
+                  <c:v>117.2869355160009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.9364978975965</c:v>
+                  <c:v>104.1342793115001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.52676993399718</c:v>
+                  <c:v>91.75565801894724</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.89757933109389</c:v>
+                  <c:v>80.1504876789315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.04822250996747</c:v>
+                  <c:v>69.31818743059306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.97800000000002</c:v>
+                  <c:v>59.2581794961783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.54354469388718</c:v>
+                  <c:v>63.82177262188342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.4563165892667</c:v>
+                  <c:v>68.20047717742906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.58885765674756</c:v>
+                  <c:v>72.47713273015997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69.57125455963264</c:v>
+                  <c:v>76.6211147453953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.84792683898514</c:v>
+                  <c:v>80.58478213272684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.63196180623331</c:v>
+                  <c:v>84.29505883971423</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59.07857252629876</c:v>
+                  <c:v>87.64082783758489</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.2124644943864</c:v>
+                  <c:v>90.45405547163925</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.798161316822</c:v>
+                  <c:v>92.48152899267911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.66801872222237</c:v>
+                  <c:v>93.3425402809607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.66912039798455</c:v>
+                  <c:v>92.46552846154942</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.66237734687283</c:v>
+                  <c:v>88.9932202328809</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.52164398951152</c:v>
+                  <c:v>81.64060580248173</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.09859543491097</c:v>
+                  <c:v>71.61630010751939</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.13712991079427</c:v>
+                  <c:v>63.03966919418683</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18.54657371144471</c:v>
+                  <c:v>55.77740246313325</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.27020207816281</c:v>
+                  <c:v>49.67798680620722</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.26171010814531</c:v>
+                  <c:v>44.6041204126816</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.48341994356242</c:v>
+                  <c:v>40.43169364693736</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.90477961660424</c:v>
+                  <c:v>37.04881813347127</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.50110731606552</c:v>
+                  <c:v>34.35490505518065</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.25254216663851</c:v>
+                  <c:v>32.2597929841509</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.14316875622403</c:v>
+                  <c:v>30.6829250040758</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.16028780571332</c:v>
+                  <c:v>29.51156550750744</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.29380971231145</c:v>
+                  <c:v>28.60266069415533</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.53575134621973</c:v>
+                  <c:v>27.92319547396251</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.87981955315837</c:v>
+                  <c:v>27.44894474665609</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15.32106740478349</c:v>
+                  <c:v>27.15969483079473</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15.85561142301582</c:v>
+                  <c:v>27.03857613170526</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.48039984731116</c:v>
+                  <c:v>27.07150129180889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,11 +1378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="573493208"/>
-        <c:axId val="573496264"/>
+        <c:axId val="627070520"/>
+        <c:axId val="627073608"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="573493208"/>
+        <c:axId val="627070520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1392,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573496264"/>
+        <c:crossAx val="627073608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1401,7 +1401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="573496264"/>
+        <c:axId val="627073608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1432,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573493208"/>
+        <c:crossAx val="627070520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,118 +1641,118 @@
                   <c:v>466.4595375722544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423.413222122276</c:v>
+                  <c:v>423.4182512838573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>382.2612969435447</c:v>
+                  <c:v>382.2839868712128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>343.0293489909732</c:v>
+                  <c:v>343.0800977010368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>305.7431928303125</c:v>
+                  <c:v>305.8301257112777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>270.42887232045</c:v>
+                  <c:v>270.5578026766018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>237.1126623068843</c:v>
+                  <c:v>237.2870514815126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205.8210703264497</c:v>
+                  <c:v>206.0419874011499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>176.5808383233534</c:v>
+                  <c:v>176.8469193898094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186.4380294323253</c:v>
+                  <c:v>186.6699454533576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>191.0771987313078</c:v>
+                  <c:v>195.5011407660597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>193.2572085435512</c:v>
+                  <c:v>203.6194363214786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>192.0974060267117</c:v>
+                  <c:v>210.9711341223684</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>186.2910822848512</c:v>
+                  <c:v>217.4622873850381</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>174.0308004039356</c:v>
+                  <c:v>222.9407091778183</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>153.5148024041555</c:v>
+                  <c:v>227.169528013791</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>127.8619535182738</c:v>
+                  <c:v>229.788342217728</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>106.7983252149517</c:v>
+                  <c:v>230.2561796163279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89.66775744786612</c:v>
+                  <c:v>227.7677614988462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.89172042205696</c:v>
+                  <c:v>221.1305968884776</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.96170745850764</c:v>
+                  <c:v>208.5846036742167</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.4322083998287</c:v>
+                  <c:v>187.5373995035796</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.83697428888665</c:v>
+                  <c:v>161.2315004711398</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.5034931902713</c:v>
+                  <c:v>139.0939643215052</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.16703293110714</c:v>
+                  <c:v>120.6171297085383</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.65329436716511</c:v>
+                  <c:v>105.2860993566727</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>33.82138150931282</c:v>
+                  <c:v>92.64849573118556</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.55742469865044</c:v>
+                  <c:v>82.30792840176256</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.76937752042939</c:v>
+                  <c:v>73.91803954936385</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.38277761096424</c:v>
+                  <c:v>67.17708870489372</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.33729853142571</c:v>
+                  <c:v>61.82303855618058</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.58395036211168</c:v>
+                  <c:v>57.62910479107417</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.08281178161188</c:v>
+                  <c:v>54.32424602480663</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>25.8011970936887</c:v>
+                  <c:v>51.60172711518571</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25.71217873313051</c:v>
+                  <c:v>49.37183449827576</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.79339986126514</c:v>
+                  <c:v>47.5659467462839</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.02612327804874</c:v>
+                  <c:v>46.12662960060307</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.39447246253427</c:v>
+                  <c:v>45.00564588681088</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.88482846217146</c:v>
+                  <c:v>44.16231858370124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,11 +1769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573530744"/>
-        <c:axId val="573533752"/>
+        <c:axId val="627102248"/>
+        <c:axId val="627105256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="573530744"/>
+        <c:axId val="627102248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1783,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573533752"/>
+        <c:crossAx val="627105256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="573533752"/>
+        <c:axId val="627105256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +1823,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573530744"/>
+        <c:crossAx val="627102248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,121 +2026,121 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>12.86916666666666</c:v>
+                  <c:v>12.90973319603611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.86916666666666</c:v>
+                  <c:v>12.90973319603611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.18958333333333</c:v>
+                  <c:v>13.23150208034842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.51</c:v>
+                  <c:v>13.55327096466074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.83041666666665</c:v>
+                  <c:v>13.87503984897306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.15083333333332</c:v>
+                  <c:v>14.19680873328538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.47124999999998</c:v>
+                  <c:v>14.5185776175977</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.79166666666665</c:v>
+                  <c:v>14.84034650191001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.11208333333331</c:v>
+                  <c:v>15.16211538622233</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.383</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5745</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.86175</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.792625</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.1889375</c:v>
+                  <c:v>2.025</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.28340625</c:v>
+                  <c:v>3.037500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.83</c:v>
+                  <c:v>4.55625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.83</c:v>
+                  <c:v>6.834375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.83</c:v>
+                  <c:v>10.2515625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.83</c:v>
+                  <c:v>15.37734375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.83</c:v>
+                  <c:v>23.066015625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43.83</c:v>
+                  <c:v>34.5990234375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43.83</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,11 +2157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="572690568"/>
-        <c:axId val="572687544"/>
+        <c:axId val="627133960"/>
+        <c:axId val="627136968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="572690568"/>
+        <c:axId val="627133960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +2171,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572687544"/>
+        <c:crossAx val="627136968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2180,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572687544"/>
+        <c:axId val="627136968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,7 +2211,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572690568"/>
+        <c:crossAx val="627133960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2650,9 +2650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B50" sqref="B50:AN50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="F3" s="12">
         <f>SUM(M53:Q53)</f>
-        <v>331.71857338789744</v>
+        <v>401.61891628558124</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="M4" s="11">
         <f>B31*((1+B32)^(B3-B47))</f>
-        <v>333.99999999999983</v>
+        <v>335.0817741165186</v>
       </c>
       <c r="N4" t="s">
         <v>1</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="F5" s="12">
         <f>J52</f>
-        <v>176.58083832335336</v>
+        <v>176.84691938980944</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="M5" s="8">
         <f>((B4/M4)^(1/(2050-B3)))-1</f>
-        <v>2.0447032149585764E-2</v>
+        <v>2.0337047122279905E-2</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="F6" s="12">
         <f>T52</f>
-        <v>89.667757447866123</v>
+        <v>227.76776149884617</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F7" s="12">
         <f>AN52</f>
-        <v>26.884828462171455</v>
+        <v>44.16231858370125</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="M7" s="2">
         <f>B7*J48</f>
-        <v>100.19999999999997</v>
+        <v>100.52453223495556</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="F8" s="2">
         <f>SUM(B53:AN53)</f>
-        <v>1907.2421424213694</v>
+        <v>2687.6980430537405</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -2828,8 +2828,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="7">
-        <f>5*24*365.25/1000</f>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2840,8 +2839,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="7">
-        <f>0.5*24*365.25/1000</f>
-        <v>4.383</v>
+        <v>0.4</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2966,8 +2964,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="17">
-        <f>((334/346)^(1/8))-1</f>
-        <v>-4.4025032054867408E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -3004,7 +3001,7 @@
       </c>
       <c r="N34" s="2">
         <f>M7</f>
-        <v>100.19999999999997</v>
+        <v>100.52453223495556</v>
       </c>
       <c r="O34" t="s">
         <v>1</v>
@@ -3084,7 +3081,7 @@
       </c>
       <c r="N37" s="2">
         <f>SUM(N34:N36)</f>
-        <v>174.59999999999997</v>
+        <v>174.92453223495556</v>
       </c>
       <c r="O37" t="s">
         <v>1</v>
@@ -3096,7 +3093,7 @@
       </c>
       <c r="N38">
         <f>(N37-M37)/(N33-M33)</f>
-        <v>9.6124999999999954</v>
+        <v>9.6530665293694451</v>
       </c>
       <c r="O38" t="s">
         <v>7</v>
@@ -3367,155 +3364,155 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ref="C48:AN48" si="1">B48*IF(C$47&gt;$B$3,(1+$M$5),(1+$B$32))</f>
-        <v>344.47673389090158</v>
+        <v>344.61599999999999</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>342.96017396573131</v>
+        <v>343.23753599999998</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="1"/>
-        <v>341.45029070049287</v>
+        <v>341.86458585599996</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
-        <v>339.94705470116958</v>
+        <v>340.49712751257596</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="1"/>
-        <v>338.45043670315192</v>
+        <v>339.13513900252565</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="1"/>
-        <v>336.96040757066788</v>
+        <v>337.77859844651556</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="1"/>
-        <v>335.47693829621591</v>
+        <v>336.42748405272948</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="1"/>
-        <v>333.99999999999994</v>
+        <v>335.08177411651855</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="1"/>
-        <v>340.82930873796158</v>
+        <v>341.89634794654336</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="1"/>
-        <v>347.79825657124775</v>
+        <v>348.84951008566759</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="1"/>
-        <v>354.90969870492995</v>
+        <v>355.94407901086407</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="1"/>
-        <v>362.16654872454944</v>
+        <v>363.18293051860456</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="1"/>
-        <v>369.5717797898248</v>
+        <v>370.56899889056916</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="1"/>
-        <v>377.12842585276695</v>
+        <v>378.10527808306279</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="1"/>
-        <v>384.83958290070115</v>
+        <v>385.7948229406208</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="1"/>
-        <v>392.70841022470495</v>
+        <v>393.64075043429585</v>
       </c>
       <c r="S48" s="1">
         <f t="shared" si="1"/>
-        <v>400.73813171398223</v>
+        <v>401.64624092512776</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" si="1"/>
-        <v>408.93203717670298</v>
+        <v>409.81453945330867</v>
       </c>
       <c r="U48" s="1">
         <f t="shared" si="1"/>
-        <v>417.2934836878506</v>
+        <v>418.14895705356605</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="1"/>
-        <v>425.82589696462873</v>
+        <v>426.65287209729661</v>
       </c>
       <c r="W48" s="1">
         <f t="shared" si="1"/>
-        <v>434.53277276999069</v>
+        <v>435.32973166199537</v>
       </c>
       <c r="X48" s="1">
         <f t="shared" si="1"/>
-        <v>443.41767834486734</v>
+        <v>444.18305292853483</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="1"/>
-        <v>452.48425386967955</v>
+        <v>453.21642460686058</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="1"/>
-        <v>461.73621395573423</v>
+        <v>462.43350839068154</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="1"/>
-        <v>471.17734916711515</v>
+        <v>471.83804044174406</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="1"/>
-        <v>480.81152757369176</v>
+        <v>481.43383290429199</v>
       </c>
       <c r="AC48" s="1">
         <f t="shared" si="1"/>
-        <v>490.64269633588248</v>
+        <v>491.22477545032643</v>
       </c>
       <c r="AD48" s="1">
         <f t="shared" si="1"/>
-        <v>500.67488332182171</v>
+        <v>501.21483685629107</v>
       </c>
       <c r="AE48" s="1">
         <f t="shared" si="1"/>
-        <v>510.9121987575931</v>
+        <v>511.4080666118233</v>
       </c>
       <c r="AF48" s="1">
         <f t="shared" si="1"/>
-        <v>521.35883691120512</v>
+        <v>521.80859656122198</v>
       </c>
       <c r="AG48" s="1">
         <f t="shared" si="1"/>
-        <v>532.01907781099919</v>
+        <v>532.42064257829827</v>
       </c>
       <c r="AH48" s="1">
         <f t="shared" si="1"/>
-        <v>542.89728899919362</v>
+        <v>543.2485062752877</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="1"/>
-        <v>553.9979273212831</v>
+        <v>554.29657674651639</v>
       </c>
       <c r="AJ48" s="1">
         <f t="shared" si="1"/>
-        <v>565.32554075202529</v>
+        <v>565.56933234752876</v>
       </c>
       <c r="AK48" s="1">
         <f t="shared" si="1"/>
-        <v>576.88477025876387</v>
+        <v>577.07134251039679</v>
       </c>
       <c r="AL48" s="1">
         <f t="shared" si="1"/>
-        <v>588.68035170285123</v>
+        <v>588.80726959594801</v>
       </c>
       <c r="AM48" s="1">
         <f t="shared" si="1"/>
-        <v>600.71711777994892</v>
+        <v>600.78187078366182</v>
       </c>
       <c r="AN48" s="1">
         <f t="shared" si="1"/>
-        <v>613.00000000000205</v>
+        <v>613.00000000000057</v>
       </c>
       <c r="AO48" t="s">
         <v>1</v>
@@ -3531,155 +3528,155 @@
       </c>
       <c r="C49" s="2">
         <f>B49+$N$38</f>
-        <v>107.3125</v>
+        <v>107.35306652936944</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ref="D49:J49" si="2">C49+$N$38</f>
-        <v>116.925</v>
+        <v>117.00613305873888</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="2"/>
-        <v>126.53749999999999</v>
+        <v>126.65919958810832</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="2"/>
-        <v>136.14999999999998</v>
+        <v>136.31226611747778</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="2"/>
-        <v>145.76249999999996</v>
+        <v>145.96533264684723</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>155.37499999999994</v>
+        <v>155.61839917621668</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="2"/>
-        <v>164.98749999999993</v>
+        <v>165.27146570558614</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="2"/>
-        <v>174.59999999999991</v>
+        <v>174.92453223495559</v>
       </c>
       <c r="K49" s="2">
         <f>K86</f>
-        <v>168.77999999999992</v>
+        <v>169.0937144937904</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" ref="L49:AN49" si="3">L86</f>
-        <v>167.53699999999992</v>
+        <v>163.85725734399739</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>168.52693333333326</v>
+        <v>158.99534876586415</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="3"/>
-        <v>172.77111888888882</v>
+        <v>154.59550380700202</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="3"/>
-        <v>181.80470659259254</v>
+        <v>150.79232034676861</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="3"/>
-        <v>197.806125835736</v>
+        <v>147.79090966854298</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="3"/>
-        <v>223.12816175207308</v>
+        <v>145.90204601292487</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="3"/>
-        <v>255.01426627300543</v>
+        <v>145.5948944791607</v>
       </c>
       <c r="S49" s="2">
         <f t="shared" si="3"/>
-        <v>283.16076545897664</v>
+        <v>147.57610632985535</v>
       </c>
       <c r="T49" s="2">
         <f t="shared" si="3"/>
-        <v>308.01088473021935</v>
+        <v>152.90846528552683</v>
       </c>
       <c r="U49" s="2">
         <f t="shared" si="3"/>
-        <v>329.9705414139961</v>
+        <v>163.18886019267595</v>
       </c>
       <c r="V49" s="2">
         <f t="shared" si="3"/>
-        <v>349.41048992906838</v>
+        <v>180.81524714458675</v>
       </c>
       <c r="W49" s="2">
         <f t="shared" si="3"/>
-        <v>366.66844438573366</v>
+        <v>209.38709567726718</v>
       </c>
       <c r="X49" s="2">
         <f t="shared" si="3"/>
-        <v>382.14615680629714</v>
+        <v>245.61660161378592</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="3"/>
-        <v>396.54778189525098</v>
+        <v>278.10623240078593</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="3"/>
-        <v>410.12237245820717</v>
+        <v>307.20882621127532</v>
       </c>
       <c r="AA49" s="2">
         <f t="shared" si="3"/>
-        <v>423.02622813134519</v>
+        <v>333.33064228317363</v>
       </c>
       <c r="AB49" s="2">
         <f t="shared" si="3"/>
-        <v>435.38775632188919</v>
+        <v>356.84131778506952</v>
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="3"/>
-        <v>447.31223007591296</v>
+        <v>378.07637905031504</v>
       </c>
       <c r="AD49" s="2">
         <f t="shared" si="3"/>
-        <v>458.88578159302472</v>
+        <v>397.33964582786683</v>
       </c>
       <c r="AE49" s="2">
         <f t="shared" si="3"/>
-        <v>470.17875124055507</v>
+        <v>414.9055243219899</v>
       </c>
       <c r="AF49" s="2">
         <f t="shared" si="3"/>
-        <v>481.24849310265392</v>
+        <v>431.02118666211049</v>
       </c>
       <c r="AG49" s="2">
         <f t="shared" si="3"/>
-        <v>492.14172229532988</v>
+        <v>445.90863598785887</v>
       </c>
       <c r="AH49" s="2">
         <f t="shared" si="3"/>
-        <v>502.89647598870397</v>
+        <v>459.88250201679199</v>
       </c>
       <c r="AI49" s="2">
         <f t="shared" si="3"/>
-        <v>513.5437488902129</v>
+        <v>473.34565025362383</v>
       </c>
       <c r="AJ49" s="2">
         <f t="shared" si="3"/>
-        <v>524.10885451510728</v>
+        <v>486.39202949130225</v>
       </c>
       <c r="AK49" s="2">
         <f t="shared" si="3"/>
-        <v>534.61255561910934</v>
+        <v>499.09138584376007</v>
       </c>
       <c r="AL49" s="2">
         <f t="shared" si="3"/>
-        <v>545.07200045583932</v>
+        <v>511.50263535269914</v>
       </c>
       <c r="AM49" s="2">
         <f t="shared" si="3"/>
-        <v>555.50149585119652</v>
+        <v>523.67566508488244</v>
       </c>
       <c r="AN49" s="2">
         <f t="shared" si="3"/>
-        <v>565.91314329339866</v>
+        <v>535.65285345197503</v>
       </c>
       <c r="AO49" t="s">
         <v>1</v>
@@ -3695,155 +3692,155 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ref="C50:AN50" si="4">C48-C49</f>
-        <v>237.16423389090158</v>
+        <v>237.26293347063054</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="4"/>
-        <v>226.0351739657313</v>
+        <v>226.23140294126108</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="4"/>
-        <v>214.91279070049288</v>
+        <v>215.20538626789164</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="4"/>
-        <v>203.7970547011696</v>
+        <v>204.18486139509818</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="4"/>
-        <v>192.68793670315196</v>
+        <v>193.16980635567842</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="4"/>
-        <v>181.58540757066794</v>
+        <v>182.16019927029888</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="4"/>
-        <v>170.48943829621598</v>
+        <v>171.15601834714334</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="4"/>
-        <v>159.40000000000003</v>
+        <v>160.15724188156295</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="4"/>
-        <v>172.04930873796167</v>
+        <v>172.80263345275296</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="4"/>
-        <v>180.26125657124783</v>
+        <v>184.9922527416702</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="4"/>
-        <v>186.38276537159669</v>
+        <v>196.94873024499992</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>189.39542983566062</v>
+        <v>208.58742671160255</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="4"/>
-        <v>187.76707319723226</v>
+        <v>219.77667854380056</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="4"/>
-        <v>179.32230001703095</v>
+        <v>230.31436841451981</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="4"/>
-        <v>161.71142114862806</v>
+        <v>239.89277692769593</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="4"/>
-        <v>137.69414395169952</v>
+        <v>248.04585595513515</v>
       </c>
       <c r="S50" s="2">
         <f t="shared" si="4"/>
-        <v>117.57736625500559</v>
+        <v>254.07013459527241</v>
       </c>
       <c r="T50" s="2">
         <f t="shared" si="4"/>
-        <v>100.92115244648363</v>
+        <v>256.90607416778187</v>
       </c>
       <c r="U50" s="2">
         <f t="shared" si="4"/>
-        <v>87.322942273854494</v>
+        <v>254.9600968608901</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" si="4"/>
-        <v>76.415407035560349</v>
+        <v>245.83762495270986</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="4"/>
-        <v>67.864328384257021</v>
+        <v>225.94263598472818</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="4"/>
-        <v>61.271521538570198</v>
+        <v>198.56645131474892</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="4"/>
-        <v>55.936471974428571</v>
+        <v>175.11019220607466</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="4"/>
-        <v>51.613841497527062</v>
+        <v>155.22468217940622</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="4"/>
-        <v>48.151121035769961</v>
+        <v>138.50739815857042</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="4"/>
-        <v>45.423771251802577</v>
+        <v>124.59251511922247</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="4"/>
-        <v>43.330466259969512</v>
+        <v>113.14839640001139</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="4"/>
-        <v>41.789101728796993</v>
+        <v>103.87519102842424</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="4"/>
-        <v>40.73344751703803</v>
+        <v>96.5025422898334</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="4"/>
-        <v>40.110343808551193</v>
+        <v>90.787409899111481</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="4"/>
-        <v>39.877355515669308</v>
+        <v>86.512006590439398</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="4"/>
-        <v>40.000813010489651</v>
+        <v>83.366004258495707</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="4"/>
-        <v>40.454178431070204</v>
+        <v>80.950926492892563</v>
       </c>
       <c r="AJ50" s="2">
         <f t="shared" si="4"/>
-        <v>41.216686236918008</v>
+        <v>79.177302856226504</v>
       </c>
       <c r="AK50" s="2">
         <f t="shared" si="4"/>
-        <v>42.272214639654521</v>
+        <v>77.979956666636724</v>
       </c>
       <c r="AL50" s="2">
         <f t="shared" si="4"/>
-        <v>43.60835124701191</v>
+        <v>77.30463424324887</v>
       </c>
       <c r="AM50" s="2">
         <f t="shared" si="4"/>
-        <v>45.215621928752398</v>
+        <v>77.106205698779377</v>
       </c>
       <c r="AN50" s="2">
         <f t="shared" si="4"/>
-        <v>47.086856706603385</v>
+        <v>77.347146548025535</v>
       </c>
       <c r="AO50" t="s">
         <v>1</v>
@@ -4023,155 +4020,155 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="7"/>
-        <v>423.41322212227601</v>
+        <v>423.41825128385733</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="7"/>
-        <v>382.26129694354466</v>
+        <v>382.28398687121285</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="7"/>
-        <v>343.02934899097318</v>
+        <v>343.08009770103678</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="7"/>
-        <v>305.74319283031252</v>
+        <v>305.83012571127773</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="7"/>
-        <v>270.42887232044995</v>
+        <v>270.5578026766018</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="7"/>
-        <v>237.11266230688435</v>
+        <v>237.28705148151258</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="7"/>
-        <v>205.82107032644967</v>
+        <v>206.04198740114992</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="7"/>
-        <v>176.58083832335336</v>
+        <v>176.84691938980944</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="7"/>
-        <v>186.43802943232532</v>
+        <v>186.6699454533576</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="7"/>
-        <v>191.07719873130782</v>
+        <v>195.50114076605971</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="7"/>
-        <v>193.2572085435512</v>
+        <v>203.61943632147856</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="7"/>
-        <v>192.09740602671172</v>
+        <v>210.97113412236837</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="7"/>
-        <v>186.29108228485117</v>
+        <v>217.46228738503817</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="7"/>
-        <v>174.03080040393559</v>
+        <v>222.94070917781832</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="7"/>
-        <v>153.51480240415552</v>
+        <v>227.16952801379099</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="7"/>
-        <v>127.86195351827375</v>
+        <v>229.78834221772803</v>
       </c>
       <c r="S52" s="1">
         <f t="shared" si="7"/>
-        <v>106.79832521495166</v>
+        <v>230.25617961632787</v>
       </c>
       <c r="T52" s="1">
         <f t="shared" si="7"/>
-        <v>89.667757447866123</v>
+        <v>227.76776149884617</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" si="7"/>
-        <v>75.891720422056963</v>
+        <v>221.13059688847756</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="7"/>
-        <v>64.961707458507647</v>
+        <v>208.58460367421674</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="7"/>
-        <v>56.432208399828696</v>
+        <v>187.53739950357959</v>
       </c>
       <c r="X52" s="1">
         <f t="shared" si="7"/>
-        <v>49.836974288886651</v>
+        <v>161.23150047113981</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" si="7"/>
-        <v>44.503493190271293</v>
+        <v>139.09396432150521</v>
       </c>
       <c r="Z52" s="1">
         <f t="shared" si="7"/>
-        <v>40.167032931107144</v>
+        <v>120.61712970853826</v>
       </c>
       <c r="AA52" s="1">
         <f t="shared" si="7"/>
-        <v>36.65329436716511</v>
+        <v>105.28609935667269</v>
       </c>
       <c r="AB52" s="1">
         <f t="shared" si="7"/>
-        <v>33.821381509312822</v>
+        <v>92.648495731185562</v>
       </c>
       <c r="AC52" s="1">
         <f t="shared" si="7"/>
-        <v>31.557424698650436</v>
+        <v>82.307928401762567</v>
       </c>
       <c r="AD52" s="1">
         <f t="shared" si="7"/>
-        <v>29.769377520429387</v>
+        <v>73.918039549363854</v>
       </c>
       <c r="AE52" s="1">
         <f t="shared" si="7"/>
-        <v>28.382777610964236</v>
+        <v>67.17708870489372</v>
       </c>
       <c r="AF52" s="1">
         <f t="shared" si="7"/>
-        <v>27.337298531425713</v>
+        <v>61.823038556180585</v>
       </c>
       <c r="AG52" s="1">
         <f t="shared" si="7"/>
-        <v>26.583950362111676</v>
+        <v>57.629104791074177</v>
       </c>
       <c r="AH52" s="1">
         <f t="shared" si="7"/>
-        <v>26.082811781611884</v>
+        <v>54.324246024806634</v>
       </c>
       <c r="AI52" s="1">
         <f t="shared" si="7"/>
-        <v>25.8011970936887</v>
+        <v>51.60172711518571</v>
       </c>
       <c r="AJ52" s="1">
         <f t="shared" si="7"/>
-        <v>25.712178733130514</v>
+        <v>49.37183449827576</v>
       </c>
       <c r="AK52" s="1">
         <f t="shared" si="7"/>
-        <v>25.793399861265137</v>
+        <v>47.565946746283899</v>
       </c>
       <c r="AL52" s="1">
         <f t="shared" si="7"/>
-        <v>26.02612327804874</v>
+        <v>46.126629600603067</v>
       </c>
       <c r="AM52" s="1">
         <f t="shared" si="7"/>
-        <v>26.394472462534267</v>
+        <v>45.005645886810882</v>
       </c>
       <c r="AN52" s="1">
         <f t="shared" si="7"/>
-        <v>26.884828462171455</v>
+        <v>44.16231858370125</v>
       </c>
       <c r="AO52" t="s">
         <v>5</v>
@@ -4187,155 +4184,155 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="8"/>
-        <v>145.85600384290447</v>
+        <v>145.91670408443778</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="8"/>
-        <v>131.10040090012416</v>
+        <v>131.21421370593143</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="8"/>
-        <v>117.12747093176863</v>
+        <v>117.28693551600094</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="8"/>
-        <v>103.9364978975965</v>
+        <v>104.13427931150007</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>91.526769933997187</v>
+        <v>91.755658018947244</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="8"/>
-        <v>79.897579331093894</v>
+        <v>80.150487678931498</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="8"/>
-        <v>69.048222509967474</v>
+        <v>69.318187430593056</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="8"/>
-        <v>58.978000000000016</v>
+        <v>59.258179496178293</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="8"/>
-        <v>63.543544693887178</v>
+        <v>63.821772621883419</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="8"/>
-        <v>66.456316589266692</v>
+        <v>68.200477177429065</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="8"/>
-        <v>68.588857656747564</v>
+        <v>72.477132730159965</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="8"/>
-        <v>69.571254559632649</v>
+        <v>76.621114745395317</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="8"/>
-        <v>68.847926838985146</v>
+        <v>80.584782132726843</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="8"/>
-        <v>65.631961806233306</v>
+        <v>84.29505883971423</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="8"/>
-        <v>59.078572526298764</v>
+        <v>87.640827837584894</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="8"/>
-        <v>50.212464494386403</v>
+        <v>90.454055471639251</v>
       </c>
       <c r="S53" s="1">
         <f t="shared" si="8"/>
-        <v>42.798161316822011</v>
+        <v>92.481528992679117</v>
       </c>
       <c r="T53" s="1">
         <f t="shared" si="8"/>
-        <v>36.668018722222371</v>
+        <v>93.342540280960691</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="8"/>
-        <v>31.669120397984546</v>
+        <v>92.465528461549425</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="8"/>
-        <v>27.66237734687283</v>
+        <v>88.993220232880901</v>
       </c>
       <c r="W53" s="1">
         <f t="shared" si="8"/>
-        <v>24.521643989511521</v>
+        <v>81.64060580248173</v>
       </c>
       <c r="X53" s="1">
         <f t="shared" si="8"/>
-        <v>22.098595434910965</v>
+        <v>71.616300107519393</v>
       </c>
       <c r="Y53" s="1">
         <f t="shared" si="8"/>
-        <v>20.137129910794268</v>
+        <v>63.039669194186828</v>
       </c>
       <c r="Z53" s="1">
         <f t="shared" si="8"/>
-        <v>18.546573711444708</v>
+        <v>55.777402463133249</v>
       </c>
       <c r="AA53" s="1">
         <f t="shared" si="8"/>
-        <v>17.270202078162807</v>
+        <v>49.677986806207215</v>
       </c>
       <c r="AB53" s="1">
         <f t="shared" si="8"/>
-        <v>16.261710108145309</v>
+        <v>44.604120412681603</v>
       </c>
       <c r="AC53" s="1">
         <f t="shared" si="8"/>
-        <v>15.483419943562422</v>
+        <v>40.431693646937362</v>
       </c>
       <c r="AD53" s="1">
         <f t="shared" si="8"/>
-        <v>14.904779616604245</v>
+        <v>37.048818133471272</v>
       </c>
       <c r="AE53" s="1">
         <f t="shared" si="8"/>
-        <v>14.501107316065523</v>
+        <v>34.354905055180652</v>
       </c>
       <c r="AF53" s="1">
         <f t="shared" si="8"/>
-        <v>14.252542166638506</v>
+        <v>32.259792984150906</v>
       </c>
       <c r="AG53" s="1">
         <f t="shared" si="8"/>
-        <v>14.143168756224032</v>
+        <v>30.682925004075802</v>
       </c>
       <c r="AH53" s="1">
         <f t="shared" si="8"/>
-        <v>14.160287805713319</v>
+        <v>29.511565507507441</v>
       </c>
       <c r="AI53" s="1">
         <f t="shared" si="8"/>
-        <v>14.293809712311454</v>
+        <v>28.602660694155333</v>
       </c>
       <c r="AJ53" s="1">
         <f t="shared" si="8"/>
-        <v>14.535751346219731</v>
+        <v>27.923195473962508</v>
       </c>
       <c r="AK53" s="1">
         <f t="shared" si="8"/>
-        <v>14.87981955315837</v>
+        <v>27.448944746656089</v>
       </c>
       <c r="AL53" s="1">
         <f t="shared" si="8"/>
-        <v>15.321067404783495</v>
+        <v>27.159694830794727</v>
       </c>
       <c r="AM53" s="1">
         <f t="shared" si="8"/>
-        <v>15.855611423015816</v>
+        <v>27.038576131705259</v>
       </c>
       <c r="AN53" s="1">
         <f t="shared" si="8"/>
-        <v>16.480399847311158</v>
+        <v>27.071501291808893</v>
       </c>
       <c r="AO53" t="s">
         <v>14</v>
@@ -4351,151 +4348,151 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" ref="D54:AN54" si="9">C74*(1/$B$13)</f>
-        <v>3.5770833333333334</v>
+        <v>3.5784355509789814</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="9"/>
-        <v>3.8975</v>
+        <v>3.9002044352912959</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="9"/>
-        <v>4.2179166666666665</v>
+        <v>4.2219733196036104</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="9"/>
-        <v>4.5383333333333322</v>
+        <v>4.5437422039159259</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="9"/>
-        <v>4.8587499999999988</v>
+        <v>4.8655110882282413</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="9"/>
-        <v>5.1791666666666645</v>
+        <v>5.1872799725405558</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="9"/>
-        <v>5.499583333333331</v>
+        <v>5.5090488568528713</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="9"/>
-        <v>5.8199999999999967</v>
+        <v>5.8308177411651867</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="9"/>
-        <v>5.6259999999999968</v>
+        <v>5.6364571497930136</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="9"/>
-        <v>5.5845666666666638</v>
+        <v>5.4619085781332464</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="9"/>
-        <v>5.6175644444444419</v>
+        <v>5.2998449588621384</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="9"/>
-        <v>5.7590372962962944</v>
+        <v>5.1531834602334001</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="9"/>
-        <v>6.060156886419751</v>
+        <v>5.0264106782256199</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="9"/>
-        <v>6.5977829068724265</v>
+        <v>4.9263636556180996</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="9"/>
-        <v>7.4873036849766796</v>
+        <v>4.8634015337641623</v>
       </c>
       <c r="S54" s="1">
         <f t="shared" si="9"/>
-        <v>8.6987268954774564</v>
+        <v>4.8531631493053569</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" si="9"/>
-        <v>9.8697693322948759</v>
+        <v>4.9192035443285116</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="9"/>
-        <v>11.001777021218379</v>
+        <v>5.0969488428508942</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="9"/>
-        <v>12.096051120511101</v>
+        <v>5.4396286730891985</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="9"/>
-        <v>13.153849416494063</v>
+        <v>6.0271749048195584</v>
       </c>
       <c r="X54" s="1">
         <f t="shared" si="9"/>
-        <v>14.176387769277595</v>
+        <v>6.9795698559089061</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" si="9"/>
-        <v>15.164841510301674</v>
+        <v>8.213584194045275</v>
       </c>
       <c r="Z54" s="1">
         <f t="shared" si="9"/>
-        <v>16.120346793291617</v>
+        <v>9.4064647209104333</v>
       </c>
       <c r="AA54" s="1">
         <f t="shared" si="9"/>
-        <v>17.044001900181897</v>
+        <v>10.559582563546751</v>
       </c>
       <c r="AB54" s="1">
         <f t="shared" si="9"/>
-        <v>17.936868503509167</v>
+        <v>11.674263144761859</v>
       </c>
       <c r="AC54" s="1">
         <f t="shared" si="9"/>
-        <v>18.799972886725527</v>
+        <v>12.75178770660313</v>
       </c>
       <c r="AD54" s="1">
         <f t="shared" si="9"/>
-        <v>19.634307123834677</v>
+        <v>13.793394783049692</v>
       </c>
       <c r="AE54" s="1">
         <f t="shared" si="9"/>
-        <v>20.440830219706857</v>
+        <v>14.800281623614703</v>
       </c>
       <c r="AF54" s="1">
         <f t="shared" si="9"/>
-        <v>21.220469212383296</v>
+        <v>15.773605569494213</v>
       </c>
       <c r="AG54" s="1">
         <f t="shared" si="9"/>
-        <v>21.974120238637184</v>
+        <v>16.714485383844405</v>
       </c>
       <c r="AH54" s="1">
         <f t="shared" si="9"/>
-        <v>22.702649564015942</v>
+        <v>17.624002537716258</v>
       </c>
       <c r="AI54" s="1">
         <f t="shared" si="9"/>
-        <v>23.406894578548744</v>
+        <v>18.503202453125716</v>
       </c>
       <c r="AJ54" s="1">
         <f t="shared" si="9"/>
-        <v>24.087664759263784</v>
+        <v>19.353095704688194</v>
       </c>
       <c r="AK54" s="1">
         <f t="shared" si="9"/>
-        <v>24.745742600621661</v>
+        <v>20.174659181198589</v>
       </c>
       <c r="AL54" s="1">
         <f t="shared" si="9"/>
-        <v>25.381884513934271</v>
+        <v>20.968837208491969</v>
       </c>
       <c r="AM54" s="1">
         <f t="shared" si="9"/>
-        <v>25.996821696803128</v>
+        <v>21.736542634875569</v>
       </c>
       <c r="AN54" s="1">
         <f t="shared" si="9"/>
-        <v>26.591260973576357</v>
+        <v>22.478657880379718</v>
       </c>
       <c r="AO54" t="s">
         <v>7</v>
@@ -4507,39 +4504,39 @@
       </c>
       <c r="B55" s="2">
         <f>C55</f>
-        <v>12.869166666666665</v>
+        <v>12.909733196036107</v>
       </c>
       <c r="C55" s="2">
         <f>C56+C54</f>
-        <v>12.869166666666665</v>
+        <v>12.909733196036107</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ref="D55:J55" si="10">D56+D54</f>
-        <v>13.189583333333331</v>
+        <v>13.23150208034842</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="10"/>
-        <v>13.509999999999998</v>
+        <v>13.553270964660737</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="10"/>
-        <v>13.83041666666665</v>
+        <v>13.875039848973064</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="10"/>
-        <v>14.150833333333315</v>
+        <v>14.19680873328538</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="10"/>
-        <v>14.471249999999982</v>
+        <v>14.518577617597696</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="10"/>
-        <v>14.791666666666647</v>
+        <v>14.840346501910009</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="10"/>
-        <v>15.112083333333313</v>
+        <v>15.162115386222325</v>
       </c>
       <c r="K55" s="2">
         <f>IF(K47&gt;$B$8,MIN(MAX(J55*(1+$B$11),$B$10),MIN($B$9,K64-(J74-K54))),MAX(J55*(1-$B$12),0))</f>
@@ -4547,119 +4544,119 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" ref="L55:AN55" si="11">IF(L47&gt;$B$8,MIN(MAX(K55*(1+$B$11),$B$10),MIN($B$9,L64-(K74-L54))),MAX(K55*(1-$B$12),0))</f>
-        <v>4.383</v>
+        <v>0.4</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="11"/>
-        <v>6.5745000000000005</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="11"/>
-        <v>9.8617500000000007</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="11"/>
-        <v>14.792625000000001</v>
+        <v>1.35</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="11"/>
-        <v>22.188937500000002</v>
+        <v>2.0250000000000004</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="11"/>
-        <v>33.283406249999999</v>
+        <v>3.0375000000000005</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>4.5562500000000004</v>
       </c>
       <c r="S55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>6.8343750000000005</v>
       </c>
       <c r="T55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>10.2515625</v>
       </c>
       <c r="U55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>15.377343750000001</v>
       </c>
       <c r="V55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>23.066015625000002</v>
       </c>
       <c r="W55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>34.599023437500001</v>
       </c>
       <c r="X55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="Z55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AA55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AD55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AE55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AF55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AG55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AH55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AI55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AJ55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AK55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AL55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AM55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AN55" s="2">
         <f t="shared" si="11"/>
-        <v>43.83</v>
+        <v>44</v>
       </c>
       <c r="AO55" t="s">
         <v>7</v>
@@ -4671,155 +4668,155 @@
       </c>
       <c r="C56" s="2">
         <f>C74-B74</f>
-        <v>9.6124999999999972</v>
+        <v>9.6530665293694398</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ref="D56:J56" si="12">D49-C49</f>
-        <v>9.6124999999999972</v>
+        <v>9.6530665293694398</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="12"/>
-        <v>9.6124999999999972</v>
+        <v>9.6530665293694398</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="12"/>
-        <v>9.6124999999999829</v>
+        <v>9.653066529369454</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="12"/>
-        <v>9.6124999999999829</v>
+        <v>9.653066529369454</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="12"/>
-        <v>9.6124999999999829</v>
+        <v>9.653066529369454</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="12"/>
-        <v>9.6124999999999829</v>
+        <v>9.653066529369454</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="12"/>
-        <v>9.6124999999999829</v>
+        <v>9.653066529369454</v>
       </c>
       <c r="K56" s="2">
         <f>K55-K54</f>
-        <v>-5.8199999999999967</v>
+        <v>-5.8308177411651867</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" ref="L56:AN56" si="13">L55-L54</f>
-        <v>-1.2429999999999968</v>
+        <v>-5.2364571497930132</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="13"/>
-        <v>0.98993333333333666</v>
+        <v>-4.8619085781332458</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="13"/>
-        <v>4.2441855555555588</v>
+        <v>-4.399844958862138</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="13"/>
-        <v>9.0335877037037058</v>
+        <v>-3.8031834602334</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="13"/>
-        <v>16.128780613580251</v>
+        <v>-3.0014106782256196</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="13"/>
-        <v>26.685623343127574</v>
+        <v>-1.8888636556180991</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="13"/>
-        <v>36.342696315023318</v>
+        <v>-0.30715153376416193</v>
       </c>
       <c r="S56" s="2">
         <f t="shared" si="13"/>
-        <v>35.131273104522542</v>
+        <v>1.9812118506946437</v>
       </c>
       <c r="T56" s="2">
         <f t="shared" si="13"/>
-        <v>33.960230667705119</v>
+        <v>5.3323589556714888</v>
       </c>
       <c r="U56" s="2">
         <f t="shared" si="13"/>
-        <v>32.828222978781618</v>
+        <v>10.280394907149107</v>
       </c>
       <c r="V56" s="2">
         <f t="shared" si="13"/>
-        <v>31.733948879488899</v>
+        <v>17.626386951910803</v>
       </c>
       <c r="W56" s="2">
         <f t="shared" si="13"/>
-        <v>30.676150583505937</v>
+        <v>28.571848532680441</v>
       </c>
       <c r="X56" s="2">
         <f t="shared" si="13"/>
-        <v>29.653612230722402</v>
+        <v>37.020430144091094</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" si="13"/>
-        <v>28.665158489698324</v>
+        <v>35.786415805954725</v>
       </c>
       <c r="Z56" s="2">
         <f t="shared" si="13"/>
-        <v>27.709653206708381</v>
+        <v>34.593535279089565</v>
       </c>
       <c r="AA56" s="2">
         <f t="shared" si="13"/>
-        <v>26.785998099818102</v>
+        <v>33.440417436453245</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="13"/>
-        <v>25.893131496490831</v>
+        <v>32.325736855238141</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="13"/>
-        <v>25.030027113274471</v>
+        <v>31.248212293396868</v>
       </c>
       <c r="AD56" s="2">
         <f t="shared" si="13"/>
-        <v>24.195692876165321</v>
+        <v>30.206605216950308</v>
       </c>
       <c r="AE56" s="2">
         <f t="shared" si="13"/>
-        <v>23.389169780293141</v>
+        <v>29.199718376385299</v>
       </c>
       <c r="AF56" s="2">
         <f t="shared" si="13"/>
-        <v>22.609530787616702</v>
+        <v>28.226394430505785</v>
       </c>
       <c r="AG56" s="2">
         <f t="shared" si="13"/>
-        <v>21.855879761362814</v>
+        <v>27.285514616155595</v>
       </c>
       <c r="AH56" s="2">
         <f t="shared" si="13"/>
-        <v>21.127350435984056</v>
+        <v>26.375997462283742</v>
       </c>
       <c r="AI56" s="2">
         <f t="shared" si="13"/>
-        <v>20.423105421451254</v>
+        <v>25.496797546874284</v>
       </c>
       <c r="AJ56" s="2">
         <f t="shared" si="13"/>
-        <v>19.742335240736214</v>
+        <v>24.646904295311806</v>
       </c>
       <c r="AK56" s="2">
         <f t="shared" si="13"/>
-        <v>19.084257399378338</v>
+        <v>23.825340818801411</v>
       </c>
       <c r="AL56" s="2">
         <f t="shared" si="13"/>
-        <v>18.448115486065728</v>
+        <v>23.031162791508031</v>
       </c>
       <c r="AM56" s="2">
         <f t="shared" si="13"/>
-        <v>17.83317830319687</v>
+        <v>22.263457365124431</v>
       </c>
       <c r="AN56" s="2">
         <f t="shared" si="13"/>
-        <v>17.238739026423641</v>
+        <v>21.521342119620282</v>
       </c>
       <c r="AO56" t="s">
         <v>7</v>
@@ -5157,155 +5154,155 @@
       </c>
       <c r="C62" s="1">
         <f>C48</f>
-        <v>344.47673389090158</v>
+        <v>344.61599999999999</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" ref="D62:J62" si="16">D48</f>
-        <v>342.96017396573131</v>
+        <v>343.23753599999998</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="16"/>
-        <v>341.45029070049287</v>
+        <v>341.86458585599996</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="16"/>
-        <v>339.94705470116958</v>
+        <v>340.49712751257596</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="16"/>
-        <v>338.45043670315192</v>
+        <v>339.13513900252565</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="16"/>
-        <v>336.96040757066788</v>
+        <v>337.77859844651556</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="16"/>
-        <v>335.47693829621591</v>
+        <v>336.42748405272948</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="16"/>
-        <v>333.99999999999994</v>
+        <v>335.08177411651855</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" ref="K62:AN62" si="17">K48</f>
-        <v>340.82930873796158</v>
+        <v>341.89634794654336</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="17"/>
-        <v>347.79825657124775</v>
+        <v>348.84951008566759</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="17"/>
-        <v>354.90969870492995</v>
+        <v>355.94407901086407</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="17"/>
-        <v>362.16654872454944</v>
+        <v>363.18293051860456</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" si="17"/>
-        <v>369.5717797898248</v>
+        <v>370.56899889056916</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" si="17"/>
-        <v>377.12842585276695</v>
+        <v>378.10527808306279</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="17"/>
-        <v>384.83958290070115</v>
+        <v>385.7948229406208</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" si="17"/>
-        <v>392.70841022470495</v>
+        <v>393.64075043429585</v>
       </c>
       <c r="S62" s="1">
         <f t="shared" si="17"/>
-        <v>400.73813171398223</v>
+        <v>401.64624092512776</v>
       </c>
       <c r="T62" s="1">
         <f t="shared" si="17"/>
-        <v>408.93203717670298</v>
+        <v>409.81453945330867</v>
       </c>
       <c r="U62" s="1">
         <f t="shared" si="17"/>
-        <v>417.2934836878506</v>
+        <v>418.14895705356605</v>
       </c>
       <c r="V62" s="1">
         <f t="shared" si="17"/>
-        <v>425.82589696462873</v>
+        <v>426.65287209729661</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" si="17"/>
-        <v>434.53277276999069</v>
+        <v>435.32973166199537</v>
       </c>
       <c r="X62" s="1">
         <f t="shared" si="17"/>
-        <v>443.41767834486734</v>
+        <v>444.18305292853483</v>
       </c>
       <c r="Y62" s="1">
         <f t="shared" si="17"/>
-        <v>452.48425386967955</v>
+        <v>453.21642460686058</v>
       </c>
       <c r="Z62" s="1">
         <f t="shared" si="17"/>
-        <v>461.73621395573423</v>
+        <v>462.43350839068154</v>
       </c>
       <c r="AA62" s="1">
         <f t="shared" si="17"/>
-        <v>471.17734916711515</v>
+        <v>471.83804044174406</v>
       </c>
       <c r="AB62" s="1">
         <f t="shared" si="17"/>
-        <v>480.81152757369176</v>
+        <v>481.43383290429199</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="17"/>
-        <v>490.64269633588248</v>
+        <v>491.22477545032643</v>
       </c>
       <c r="AD62" s="1">
         <f t="shared" si="17"/>
-        <v>500.67488332182171</v>
+        <v>501.21483685629107</v>
       </c>
       <c r="AE62" s="1">
         <f t="shared" si="17"/>
-        <v>510.9121987575931</v>
+        <v>511.4080666118233</v>
       </c>
       <c r="AF62" s="1">
         <f t="shared" si="17"/>
-        <v>521.35883691120512</v>
+        <v>521.80859656122198</v>
       </c>
       <c r="AG62" s="1">
         <f t="shared" si="17"/>
-        <v>532.01907781099919</v>
+        <v>532.42064257829827</v>
       </c>
       <c r="AH62" s="1">
         <f t="shared" si="17"/>
-        <v>542.89728899919362</v>
+        <v>543.2485062752877</v>
       </c>
       <c r="AI62" s="1">
         <f t="shared" si="17"/>
-        <v>553.9979273212831</v>
+        <v>554.29657674651639</v>
       </c>
       <c r="AJ62" s="1">
         <f t="shared" si="17"/>
-        <v>565.32554075202529</v>
+        <v>565.56933234752876</v>
       </c>
       <c r="AK62" s="1">
         <f t="shared" si="17"/>
-        <v>576.88477025876387</v>
+        <v>577.07134251039679</v>
       </c>
       <c r="AL62" s="1">
         <f t="shared" si="17"/>
-        <v>588.68035170285123</v>
+        <v>588.80726959594801</v>
       </c>
       <c r="AM62" s="1">
         <f t="shared" si="17"/>
-        <v>600.71711777994892</v>
+        <v>600.78187078366182</v>
       </c>
       <c r="AN62" s="1">
         <f t="shared" si="17"/>
-        <v>613.00000000000205</v>
+        <v>613.00000000000057</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -5318,155 +5315,155 @@
       </c>
       <c r="C63" s="1">
         <f>C62*C59</f>
-        <v>172.23836694545079</v>
+        <v>172.30799999999999</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" ref="D63:K63" si="18">D62*D59</f>
-        <v>171.48008698286566</v>
+        <v>171.61876799999999</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="18"/>
-        <v>170.72514535024644</v>
+        <v>170.93229292799998</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="18"/>
-        <v>169.97352735058479</v>
+        <v>170.24856375628798</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="18"/>
-        <v>169.22521835157596</v>
+        <v>169.56756950126282</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="18"/>
-        <v>168.48020378533394</v>
+        <v>168.88929922325778</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="18"/>
-        <v>167.73846914810795</v>
+        <v>168.21374202636474</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="18"/>
-        <v>166.99999999999997</v>
+        <v>167.54088705825927</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="18"/>
-        <v>170.41465436898079</v>
+        <v>170.94817397327168</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ref="L63" si="19">L62*L59</f>
-        <v>173.89912828562387</v>
+        <v>174.42475504283379</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" ref="M63" si="20">M62*M59</f>
-        <v>177.45484935246498</v>
+        <v>177.97203950543204</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ref="N63" si="21">N62*N59</f>
-        <v>181.08327436227472</v>
+        <v>181.59146525930228</v>
       </c>
       <c r="O63" s="1">
         <f t="shared" ref="O63" si="22">O62*O59</f>
-        <v>184.7858898949124</v>
+        <v>185.28449944528458</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ref="P63" si="23">P62*P59</f>
-        <v>188.56421292638348</v>
+        <v>189.05263904153139</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" ref="Q63" si="24">Q62*Q59</f>
-        <v>192.41979145035057</v>
+        <v>192.8974114703104</v>
       </c>
       <c r="R63" s="1">
         <f t="shared" ref="R63" si="25">R62*R59</f>
-        <v>196.35420511235247</v>
+        <v>196.82037521714793</v>
       </c>
       <c r="S63" s="1">
         <f t="shared" ref="S63" si="26">S62*S59</f>
-        <v>200.36906585699111</v>
+        <v>200.82312046256388</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" ref="T63" si="27">T62*T59</f>
-        <v>204.46601858835149</v>
+        <v>204.90726972665433</v>
       </c>
       <c r="U63" s="1">
         <f t="shared" ref="U63" si="28">U62*U59</f>
-        <v>208.6467418439253</v>
+        <v>209.07447852678303</v>
       </c>
       <c r="V63" s="1">
         <f t="shared" ref="V63" si="29">V62*V59</f>
-        <v>212.91294848231436</v>
+        <v>213.3264360486483</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" ref="W63" si="30">W62*W59</f>
-        <v>217.26638638499534</v>
+        <v>217.66486583099768</v>
       </c>
       <c r="X63" s="1">
         <f t="shared" ref="X63" si="31">X62*X59</f>
-        <v>221.70883917243367</v>
+        <v>222.09152646426742</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" ref="Y63" si="32">Y62*Y59</f>
-        <v>226.24212693483977</v>
+        <v>226.60821230343029</v>
       </c>
       <c r="Z63" s="1">
         <f t="shared" ref="Z63" si="33">Z62*Z59</f>
-        <v>230.86810697786711</v>
+        <v>231.21675419534077</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" ref="AA63" si="34">AA62*AA59</f>
-        <v>235.58867458355758</v>
+        <v>235.91902022087203</v>
       </c>
       <c r="AB63" s="1">
         <f t="shared" ref="AB63" si="35">AB62*AB59</f>
-        <v>240.40576378684588</v>
+        <v>240.71691645214599</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" ref="AC63" si="36">AC62*AC59</f>
-        <v>245.32134816794124</v>
+        <v>245.61238772516322</v>
       </c>
       <c r="AD63" s="1">
         <f t="shared" ref="AD63" si="37">AD62*AD59</f>
-        <v>250.33744166091086</v>
+        <v>250.60741842814554</v>
       </c>
       <c r="AE63" s="1">
         <f t="shared" ref="AE63" si="38">AE62*AE59</f>
-        <v>255.45609937879655</v>
+        <v>255.70403330591165</v>
       </c>
       <c r="AF63" s="1">
         <f t="shared" ref="AF63" si="39">AF62*AF59</f>
-        <v>260.67941845560256</v>
+        <v>260.90429828061099</v>
       </c>
       <c r="AG63" s="1">
         <f t="shared" ref="AG63" si="40">AG62*AG59</f>
-        <v>266.0095389054996</v>
+        <v>266.21032128914914</v>
       </c>
       <c r="AH63" s="1">
         <f t="shared" ref="AH63" si="41">AH62*AH59</f>
-        <v>271.44864449959681</v>
+        <v>271.62425313764385</v>
       </c>
       <c r="AI63" s="1">
         <f t="shared" ref="AI63" si="42">AI62*AI59</f>
-        <v>276.99896366064155</v>
+        <v>277.1482883732582</v>
       </c>
       <c r="AJ63" s="1">
         <f t="shared" ref="AJ63" si="43">AJ62*AJ59</f>
-        <v>282.66277037601265</v>
+        <v>282.78466617376438</v>
       </c>
       <c r="AK63" s="1">
         <f t="shared" ref="AK63" si="44">AK62*AK59</f>
-        <v>288.44238512938193</v>
+        <v>288.53567125519839</v>
       </c>
       <c r="AL63" s="1">
         <f t="shared" ref="AL63" si="45">AL62*AL59</f>
-        <v>294.34017585142561</v>
+        <v>294.40363479797401</v>
       </c>
       <c r="AM63" s="1">
         <f t="shared" ref="AM63" si="46">AM62*AM59</f>
-        <v>300.35855888997446</v>
+        <v>300.39093539183091</v>
       </c>
       <c r="AN63" s="1">
         <f t="shared" ref="AN63" si="47">AN62*AN59</f>
-        <v>306.50000000000102</v>
+        <v>306.50000000000028</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -5479,155 +5476,155 @@
       </c>
       <c r="C64" s="1">
         <f>C60*C62</f>
-        <v>516.71510083635235</v>
+        <v>516.92399999999998</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" ref="D64:J64" si="48">D60*D62</f>
-        <v>514.44026094859692</v>
+        <v>514.85630399999991</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="48"/>
-        <v>512.17543605073934</v>
+        <v>512.796878784</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="48"/>
-        <v>509.92058205175437</v>
+        <v>510.74569126886394</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="48"/>
-        <v>507.67565505472788</v>
+        <v>508.70270850378847</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="48"/>
-        <v>505.4406113560018</v>
+        <v>506.66789766977331</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="48"/>
-        <v>503.21540744432389</v>
+        <v>504.64122607909422</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="48"/>
-        <v>505.82739955586129</v>
+        <v>507.46569592791349</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" ref="K64:AN64" si="49">K60*K62</f>
-        <v>521.14363983473004</v>
+        <v>522.77519170761843</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="49"/>
-        <v>536.92364940819618</v>
+        <v>538.54655252157011</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="49"/>
-        <v>553.1814710148625</v>
+        <v>554.79371216046491</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" si="49"/>
-        <v>569.93157260153237</v>
+        <v>571.53102477702851</v>
       </c>
       <c r="O64" s="1">
         <f t="shared" si="49"/>
-        <v>587.18886019833565</v>
+        <v>588.77327756772218</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" si="49"/>
-        <v>604.96869118370637</v>
+        <v>606.53570383703709</v>
       </c>
       <c r="Q64" s="1">
         <f t="shared" si="49"/>
-        <v>623.28688795101914</v>
+        <v>624.83399645591885</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" si="49"/>
-        <v>642.1597519890455</v>
+        <v>643.68432172621442</v>
       </c>
       <c r="S64" s="1">
         <f t="shared" si="49"/>
-        <v>661.60407838876017</v>
+        <v>663.10333366338693</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" si="49"/>
-        <v>681.63717078940772</v>
+        <v>683.108188710121</v>
       </c>
       <c r="U64" s="1">
         <f t="shared" si="49"/>
-        <v>702.27685677712952</v>
+        <v>703.71656089381452</v>
       </c>
       <c r="V64" s="1">
         <f t="shared" si="49"/>
-        <v>723.54150374985522</v>
+        <v>724.94665744135079</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="49"/>
-        <v>745.4500352625754</v>
+        <v>746.81723486494502</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" si="49"/>
-        <v>768.02194786754285</v>
+        <v>769.34761553327678</v>
       </c>
       <c r="Y64" s="1">
         <f t="shared" si="49"/>
-        <v>791.27732846438823</v>
+        <v>792.55770474254996</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" si="49"/>
-        <v>815.23687217558972</v>
+        <v>816.46800830256109</v>
       </c>
       <c r="AA64" s="1">
         <f t="shared" si="49"/>
-        <v>839.92190076320355</v>
+        <v>841.0996506533138</v>
       </c>
       <c r="AB64" s="1">
         <f t="shared" si="49"/>
-        <v>865.35438160324702</v>
+        <v>866.47439352818458</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="49"/>
-        <v>891.55694723461625</v>
+        <v>892.61465518012994</v>
       </c>
       <c r="AD64" s="1">
         <f t="shared" si="49"/>
-        <v>918.55291549993774</v>
+        <v>919.5435301879179</v>
       </c>
       <c r="AE64" s="1">
         <f t="shared" si="49"/>
-        <v>946.36631029627654</v>
+        <v>947.28480985988745</v>
       </c>
       <c r="AF64" s="1">
         <f t="shared" si="49"/>
-        <v>975.02188295416602</v>
+        <v>975.86300325325647</v>
       </c>
       <c r="AG64" s="1">
         <f t="shared" si="49"/>
-        <v>1004.5451342639874</v>
+        <v>1005.3033588275536</v>
       </c>
       <c r="AH64" s="1">
         <f t="shared" si="49"/>
-        <v>1034.9623371692969</v>
+        <v>1035.631886751301</v>
       </c>
       <c r="AI64" s="1">
         <f t="shared" si="49"/>
-        <v>1066.3005601472992</v>
+        <v>1066.8753818816579</v>
       </c>
       <c r="AJ64" s="1">
         <f t="shared" si="49"/>
-        <v>1098.5876912972692</v>
+        <v>1099.0614474373253</v>
       </c>
       <c r="AK64" s="1">
         <f t="shared" si="49"/>
-        <v>1131.8524631583643</v>
+        <v>1132.2185193856296</v>
       </c>
       <c r="AL64" s="1">
         <f t="shared" si="49"/>
-        <v>1166.1244782789067</v>
+        <v>1166.3758915653254</v>
       </c>
       <c r="AM64" s="1">
         <f t="shared" si="49"/>
-        <v>1201.4342355598938</v>
+        <v>1201.5637415673195</v>
       </c>
       <c r="AN64" s="1">
         <f t="shared" si="49"/>
-        <v>1237.8131573961796</v>
+        <v>1237.8131573961766</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -5680,155 +5677,155 @@
       </c>
       <c r="C66" s="1">
         <f>C63</f>
-        <v>172.23836694545079</v>
+        <v>172.30799999999999</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" ref="D66:J66" si="50">D63</f>
-        <v>171.48008698286566</v>
+        <v>171.61876799999999</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="50"/>
-        <v>170.72514535024644</v>
+        <v>170.93229292799998</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="50"/>
-        <v>169.97352735058479</v>
+        <v>170.24856375628798</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="50"/>
-        <v>169.22521835157596</v>
+        <v>169.56756950126282</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="50"/>
-        <v>168.48020378533394</v>
+        <v>168.88929922325778</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="50"/>
-        <v>167.73846914810795</v>
+        <v>168.21374202636474</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" si="50"/>
-        <v>166.99999999999997</v>
+        <v>167.54088705825927</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" ref="K66:AN66" si="51">K63</f>
-        <v>170.41465436898079</v>
+        <v>170.94817397327168</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="51"/>
-        <v>173.89912828562387</v>
+        <v>174.42475504283379</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="51"/>
-        <v>177.45484935246498</v>
+        <v>177.97203950543204</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" si="51"/>
-        <v>181.08327436227472</v>
+        <v>181.59146525930228</v>
       </c>
       <c r="O66" s="1">
         <f t="shared" si="51"/>
-        <v>184.7858898949124</v>
+        <v>185.28449944528458</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" si="51"/>
-        <v>188.56421292638348</v>
+        <v>189.05263904153139</v>
       </c>
       <c r="Q66" s="1">
         <f t="shared" si="51"/>
-        <v>192.41979145035057</v>
+        <v>192.8974114703104</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" si="51"/>
-        <v>196.35420511235247</v>
+        <v>196.82037521714793</v>
       </c>
       <c r="S66" s="1">
         <f t="shared" si="51"/>
-        <v>200.36906585699111</v>
+        <v>200.82312046256388</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" si="51"/>
-        <v>204.46601858835149</v>
+        <v>204.90726972665433</v>
       </c>
       <c r="U66" s="1">
         <f t="shared" si="51"/>
-        <v>208.6467418439253</v>
+        <v>209.07447852678303</v>
       </c>
       <c r="V66" s="1">
         <f t="shared" si="51"/>
-        <v>212.91294848231436</v>
+        <v>213.3264360486483</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" si="51"/>
-        <v>217.26638638499534</v>
+        <v>217.66486583099768</v>
       </c>
       <c r="X66" s="1">
         <f t="shared" si="51"/>
-        <v>221.70883917243367</v>
+        <v>222.09152646426742</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" si="51"/>
-        <v>226.24212693483977</v>
+        <v>226.60821230343029</v>
       </c>
       <c r="Z66" s="1">
         <f t="shared" si="51"/>
-        <v>230.86810697786711</v>
+        <v>231.21675419534077</v>
       </c>
       <c r="AA66" s="1">
         <f t="shared" si="51"/>
-        <v>235.58867458355758</v>
+        <v>235.91902022087203</v>
       </c>
       <c r="AB66" s="1">
         <f t="shared" si="51"/>
-        <v>240.40576378684588</v>
+        <v>240.71691645214599</v>
       </c>
       <c r="AC66" s="1">
         <f t="shared" si="51"/>
-        <v>245.32134816794124</v>
+        <v>245.61238772516322</v>
       </c>
       <c r="AD66" s="1">
         <f t="shared" si="51"/>
-        <v>250.33744166091086</v>
+        <v>250.60741842814554</v>
       </c>
       <c r="AE66" s="1">
         <f t="shared" si="51"/>
-        <v>255.45609937879655</v>
+        <v>255.70403330591165</v>
       </c>
       <c r="AF66" s="1">
         <f t="shared" si="51"/>
-        <v>260.67941845560256</v>
+        <v>260.90429828061099</v>
       </c>
       <c r="AG66" s="1">
         <f t="shared" si="51"/>
-        <v>266.0095389054996</v>
+        <v>266.21032128914914</v>
       </c>
       <c r="AH66" s="1">
         <f t="shared" si="51"/>
-        <v>271.44864449959681</v>
+        <v>271.62425313764385</v>
       </c>
       <c r="AI66" s="1">
         <f t="shared" si="51"/>
-        <v>276.99896366064155</v>
+        <v>277.1482883732582</v>
       </c>
       <c r="AJ66" s="1">
         <f t="shared" si="51"/>
-        <v>282.66277037601265</v>
+        <v>282.78466617376438</v>
       </c>
       <c r="AK66" s="1">
         <f t="shared" si="51"/>
-        <v>288.44238512938193</v>
+        <v>288.53567125519839</v>
       </c>
       <c r="AL66" s="1">
         <f t="shared" si="51"/>
-        <v>294.34017585142561</v>
+        <v>294.40363479797401</v>
       </c>
       <c r="AM66" s="1">
         <f t="shared" si="51"/>
-        <v>300.35855888997446</v>
+        <v>300.39093539183091</v>
       </c>
       <c r="AN66" s="1">
         <f t="shared" si="51"/>
-        <v>306.50000000000102</v>
+        <v>306.50000000000028</v>
       </c>
     </row>
     <row r="67" spans="1:42">
@@ -5841,155 +5838,155 @@
       </c>
       <c r="C67" s="1">
         <f>C62-C63</f>
-        <v>172.23836694545079</v>
+        <v>172.30799999999999</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" ref="D67:J67" si="52">D62-D63</f>
-        <v>171.48008698286566</v>
+        <v>171.61876799999999</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="52"/>
-        <v>170.72514535024644</v>
+        <v>170.93229292799998</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="52"/>
-        <v>169.97352735058479</v>
+        <v>170.24856375628798</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="52"/>
-        <v>169.22521835157596</v>
+        <v>169.56756950126282</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" si="52"/>
-        <v>168.48020378533394</v>
+        <v>168.88929922325778</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="52"/>
-        <v>167.73846914810795</v>
+        <v>168.21374202636474</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" si="52"/>
-        <v>166.99999999999997</v>
+        <v>167.54088705825927</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" ref="K67:AN67" si="53">K62-K63</f>
-        <v>170.41465436898079</v>
+        <v>170.94817397327168</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="53"/>
-        <v>173.89912828562387</v>
+        <v>174.42475504283379</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="53"/>
-        <v>177.45484935246498</v>
+        <v>177.97203950543204</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="53"/>
-        <v>181.08327436227472</v>
+        <v>181.59146525930228</v>
       </c>
       <c r="O67" s="1">
         <f t="shared" si="53"/>
-        <v>184.7858898949124</v>
+        <v>185.28449944528458</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" si="53"/>
-        <v>188.56421292638348</v>
+        <v>189.05263904153139</v>
       </c>
       <c r="Q67" s="1">
         <f t="shared" si="53"/>
-        <v>192.41979145035057</v>
+        <v>192.8974114703104</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" si="53"/>
-        <v>196.35420511235247</v>
+        <v>196.82037521714793</v>
       </c>
       <c r="S67" s="1">
         <f t="shared" si="53"/>
-        <v>200.36906585699111</v>
+        <v>200.82312046256388</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" si="53"/>
-        <v>204.46601858835149</v>
+        <v>204.90726972665433</v>
       </c>
       <c r="U67" s="1">
         <f t="shared" si="53"/>
-        <v>208.6467418439253</v>
+        <v>209.07447852678303</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" si="53"/>
-        <v>212.91294848231436</v>
+        <v>213.3264360486483</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" si="53"/>
-        <v>217.26638638499534</v>
+        <v>217.66486583099768</v>
       </c>
       <c r="X67" s="1">
         <f t="shared" si="53"/>
-        <v>221.70883917243367</v>
+        <v>222.09152646426742</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" si="53"/>
-        <v>226.24212693483977</v>
+        <v>226.60821230343029</v>
       </c>
       <c r="Z67" s="1">
         <f t="shared" si="53"/>
-        <v>230.86810697786711</v>
+        <v>231.21675419534077</v>
       </c>
       <c r="AA67" s="1">
         <f t="shared" si="53"/>
-        <v>235.58867458355758</v>
+        <v>235.91902022087203</v>
       </c>
       <c r="AB67" s="1">
         <f t="shared" si="53"/>
-        <v>240.40576378684588</v>
+        <v>240.71691645214599</v>
       </c>
       <c r="AC67" s="1">
         <f t="shared" si="53"/>
-        <v>245.32134816794124</v>
+        <v>245.61238772516322</v>
       </c>
       <c r="AD67" s="1">
         <f t="shared" si="53"/>
-        <v>250.33744166091086</v>
+        <v>250.60741842814554</v>
       </c>
       <c r="AE67" s="1">
         <f t="shared" si="53"/>
-        <v>255.45609937879655</v>
+        <v>255.70403330591165</v>
       </c>
       <c r="AF67" s="1">
         <f t="shared" si="53"/>
-        <v>260.67941845560256</v>
+        <v>260.90429828061099</v>
       </c>
       <c r="AG67" s="1">
         <f t="shared" si="53"/>
-        <v>266.0095389054996</v>
+        <v>266.21032128914914</v>
       </c>
       <c r="AH67" s="1">
         <f t="shared" si="53"/>
-        <v>271.44864449959681</v>
+        <v>271.62425313764385</v>
       </c>
       <c r="AI67" s="1">
         <f t="shared" si="53"/>
-        <v>276.99896366064155</v>
+        <v>277.1482883732582</v>
       </c>
       <c r="AJ67" s="1">
         <f t="shared" si="53"/>
-        <v>282.66277037601265</v>
+        <v>282.78466617376438</v>
       </c>
       <c r="AK67" s="1">
         <f t="shared" si="53"/>
-        <v>288.44238512938193</v>
+        <v>288.53567125519839</v>
       </c>
       <c r="AL67" s="1">
         <f t="shared" si="53"/>
-        <v>294.34017585142561</v>
+        <v>294.40363479797401</v>
       </c>
       <c r="AM67" s="1">
         <f t="shared" si="53"/>
-        <v>300.35855888997446</v>
+        <v>300.39093539183091</v>
       </c>
       <c r="AN67" s="1">
         <f t="shared" si="53"/>
-        <v>306.50000000000102</v>
+        <v>306.50000000000028</v>
       </c>
     </row>
     <row r="68" spans="1:42">
@@ -6002,155 +5999,155 @@
       </c>
       <c r="C68" s="1">
         <f>C64-C62</f>
-        <v>172.23836694545076</v>
+        <v>172.30799999999999</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" ref="D68:J68" si="54">D64-D62</f>
-        <v>171.4800869828656</v>
+        <v>171.61876799999993</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="54"/>
-        <v>170.72514535024646</v>
+        <v>170.93229292800004</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="54"/>
-        <v>169.97352735058479</v>
+        <v>170.24856375628798</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="54"/>
-        <v>169.22521835157596</v>
+        <v>169.56756950126282</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" si="54"/>
-        <v>168.48020378533391</v>
+        <v>168.88929922325775</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="54"/>
-        <v>167.73846914810798</v>
+        <v>168.21374202636474</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="54"/>
-        <v>171.82739955586135</v>
+        <v>172.38392181139494</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" ref="K68:AN68" si="55">K64-K62</f>
-        <v>180.31433109676846</v>
+        <v>180.87884376107507</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="55"/>
-        <v>189.12539283694844</v>
+        <v>189.69704243590252</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" si="55"/>
-        <v>198.27177230993254</v>
+        <v>198.84963314960083</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" si="55"/>
-        <v>207.76502387698292</v>
+        <v>208.34809425842394</v>
       </c>
       <c r="O68" s="1">
         <f t="shared" si="55"/>
-        <v>217.61708040851084</v>
+        <v>218.20427867715301</v>
       </c>
       <c r="P68" s="1">
         <f t="shared" si="55"/>
-        <v>227.84026533093942</v>
+        <v>228.4304257539743</v>
       </c>
       <c r="Q68" s="1">
         <f t="shared" si="55"/>
-        <v>238.44730505031799</v>
+        <v>239.03917351529805</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" si="55"/>
-        <v>249.45134176434055</v>
+        <v>250.04357129191857</v>
       </c>
       <c r="S68" s="1">
         <f t="shared" si="55"/>
-        <v>260.86594667477794</v>
+        <v>261.45709273825918</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" si="55"/>
-        <v>272.70513361270474</v>
+        <v>273.29364925681233</v>
       </c>
       <c r="U68" s="1">
         <f t="shared" si="55"/>
-        <v>284.98337308927893</v>
+        <v>285.56760384024847</v>
       </c>
       <c r="V68" s="1">
         <f t="shared" si="55"/>
-        <v>297.7156067852265</v>
+        <v>298.29378534405419</v>
       </c>
       <c r="W68" s="1">
         <f t="shared" si="55"/>
-        <v>310.91726249258471</v>
+        <v>311.48750320294965</v>
       </c>
       <c r="X68" s="1">
         <f t="shared" si="55"/>
-        <v>324.60426952267551</v>
+        <v>325.16456260474195</v>
       </c>
       <c r="Y68" s="1">
         <f t="shared" si="55"/>
-        <v>338.79307459470868</v>
+        <v>339.34128013568937</v>
       </c>
       <c r="Z68" s="1">
         <f t="shared" si="55"/>
-        <v>353.5006582198555</v>
+        <v>354.03449991187955</v>
       </c>
       <c r="AA68" s="1">
         <f t="shared" si="55"/>
-        <v>368.7445515960884</v>
+        <v>369.26161021156975</v>
       </c>
       <c r="AB68" s="1">
         <f t="shared" si="55"/>
-        <v>384.54285402955526</v>
+        <v>385.04056062389259</v>
       </c>
       <c r="AC68" s="1">
         <f t="shared" si="55"/>
-        <v>400.91425089873377</v>
+        <v>401.38987972980351</v>
       </c>
       <c r="AD68" s="1">
         <f t="shared" si="55"/>
-        <v>417.87803217811603</v>
+        <v>418.32869333162682</v>
       </c>
       <c r="AE68" s="1">
         <f t="shared" si="55"/>
-        <v>435.45411153868343</v>
+        <v>435.87674324806414</v>
       </c>
       <c r="AF68" s="1">
         <f t="shared" si="55"/>
-        <v>453.6630460429609</v>
+        <v>454.05440669203449</v>
       </c>
       <c r="AG68" s="1">
         <f t="shared" si="55"/>
-        <v>472.5260564529882</v>
+        <v>472.88271624925528</v>
       </c>
       <c r="AH68" s="1">
         <f t="shared" si="55"/>
-        <v>492.0650481701033</v>
+        <v>492.38338047601326</v>
       </c>
       <c r="AI68" s="1">
         <f t="shared" si="55"/>
-        <v>512.30263282601607</v>
+        <v>512.57880513514147</v>
       </c>
       <c r="AJ68" s="1">
         <f t="shared" si="55"/>
-        <v>533.26215054524391</v>
+        <v>533.49211508979658</v>
       </c>
       <c r="AK68" s="1">
         <f t="shared" si="55"/>
-        <v>554.96769289960048</v>
+        <v>555.14717687523284</v>
       </c>
       <c r="AL68" s="1">
         <f t="shared" si="55"/>
-        <v>577.44412657605551</v>
+        <v>577.56862196937743</v>
       </c>
       <c r="AM68" s="1">
         <f t="shared" si="55"/>
-        <v>600.71711777994483</v>
+        <v>600.78187078365772</v>
       </c>
       <c r="AN68" s="1">
         <f t="shared" si="55"/>
-        <v>624.81315739617753</v>
+        <v>624.81315739617605</v>
       </c>
     </row>
     <row r="70" spans="1:42">
@@ -6168,7 +6165,7 @@
       </c>
       <c r="C71" s="8">
         <f>C62/SUM(C66:C68)</f>
-        <v>0.66666666666666674</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" ref="D71:J71" si="56">D62/SUM(D66:D68)</f>
@@ -6200,11 +6197,11 @@
       </c>
       <c r="K71" s="8">
         <f t="shared" ref="K71:AN71" si="57">K62/SUM(K66:K68)</f>
-        <v>0.65400262554494304</v>
+        <v>0.65400262554494293</v>
       </c>
       <c r="L71" s="8">
         <f t="shared" si="57"/>
-        <v>0.64776110524204933</v>
+        <v>0.64776110524204922</v>
       </c>
       <c r="M71" s="8">
         <f t="shared" si="57"/>
@@ -6216,11 +6213,11 @@
       </c>
       <c r="O71" s="8">
         <f t="shared" si="57"/>
-        <v>0.6293916741966018</v>
+        <v>0.62939167419660169</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="57"/>
-        <v>0.62338503024819703</v>
+        <v>0.62338503024819691</v>
       </c>
       <c r="Q71" s="8">
         <f t="shared" si="57"/>
@@ -6228,7 +6225,7 @@
       </c>
       <c r="R71" s="8">
         <f t="shared" si="57"/>
-        <v>0.61154316976160172</v>
+        <v>0.61154316976160183</v>
       </c>
       <c r="S71" s="8">
         <f t="shared" si="57"/>
@@ -6248,7 +6245,7 @@
       </c>
       <c r="W71" s="8">
         <f t="shared" si="57"/>
-        <v>0.58291334390631822</v>
+        <v>0.58291334390631833</v>
       </c>
       <c r="X71" s="8">
         <f t="shared" si="57"/>
@@ -6276,7 +6273,7 @@
       </c>
       <c r="AD71" s="8">
         <f t="shared" si="57"/>
-        <v>0.54506917878467687</v>
+        <v>0.54506917878467676</v>
       </c>
       <c r="AE71" s="8">
         <f t="shared" si="57"/>
@@ -6284,7 +6281,7 @@
       </c>
       <c r="AF71" s="8">
         <f t="shared" si="57"/>
-        <v>0.53471501104320673</v>
+        <v>0.53471501104320684</v>
       </c>
       <c r="AG71" s="8">
         <f t="shared" si="57"/>
@@ -6292,7 +6289,7 @@
       </c>
       <c r="AH71" s="8">
         <f t="shared" si="57"/>
-        <v>0.52455753171082553</v>
+        <v>0.52455753171082564</v>
       </c>
       <c r="AI71" s="8">
         <f t="shared" si="57"/>
@@ -6329,7 +6326,7 @@
       </c>
       <c r="C72" s="8">
         <f>2*(C62-C66-(C67/2))/(C68+C67)</f>
-        <v>0.50000000000000011</v>
+        <v>0.5</v>
       </c>
       <c r="D72" s="8">
         <f t="shared" ref="D72:J72" si="58">2*(D62-D66-(D67/2))/(D68+D67)</f>
@@ -6353,11 +6350,11 @@
       </c>
       <c r="I72" s="8">
         <f t="shared" si="58"/>
-        <v>0.49999999999999989</v>
+        <v>0.5</v>
       </c>
       <c r="J72" s="8">
         <f t="shared" si="58"/>
-        <v>0.49287631466317477</v>
+        <v>0.49287631466317489</v>
       </c>
       <c r="K72" s="8">
         <f t="shared" ref="K72:AN72" si="59">2*(K62-K66-(K67/2))/(K68+K67)</f>
@@ -6369,11 +6366,11 @@
       </c>
       <c r="M72" s="8">
         <f t="shared" si="59"/>
-        <v>0.47229778014482532</v>
+        <v>0.47229778014482526</v>
       </c>
       <c r="N72" s="8">
         <f t="shared" si="59"/>
-        <v>0.46569131247902368</v>
+        <v>0.46569131247902362</v>
       </c>
       <c r="O72" s="8">
         <f t="shared" si="59"/>
@@ -6381,23 +6378,23 @@
       </c>
       <c r="P72" s="8">
         <f t="shared" si="59"/>
-        <v>0.45283906099073606</v>
+        <v>0.45283906099073601</v>
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="59"/>
-        <v>0.44658734215981605</v>
+        <v>0.4465873421598161</v>
       </c>
       <c r="R72" s="8">
         <f t="shared" si="59"/>
-        <v>0.44044809780409216</v>
+        <v>0.44044809780409211</v>
       </c>
       <c r="S72" s="8">
         <f t="shared" si="59"/>
-        <v>0.43441859445392833</v>
+        <v>0.43441859445392839</v>
       </c>
       <c r="T72" s="8">
         <f t="shared" si="59"/>
-        <v>0.42849618558290314</v>
+        <v>0.42849618558290309</v>
       </c>
       <c r="U72" s="8">
         <f t="shared" si="59"/>
@@ -6405,11 +6402,11 @@
       </c>
       <c r="V72" s="8">
         <f t="shared" si="59"/>
-        <v>0.41696247944997883</v>
+        <v>0.41696247944997877</v>
       </c>
       <c r="W72" s="8">
         <f t="shared" si="59"/>
-        <v>0.41134629374971876</v>
+        <v>0.41134629374971871</v>
       </c>
       <c r="X72" s="8">
         <f t="shared" si="59"/>
@@ -6417,7 +6414,7 @@
       </c>
       <c r="Y72" s="8">
         <f t="shared" si="59"/>
-        <v>0.40040359666513359</v>
+        <v>0.40040359666513348</v>
       </c>
       <c r="Z72" s="8">
         <f t="shared" si="59"/>
@@ -6425,15 +6422,15 @@
       </c>
       <c r="AA72" s="8">
         <f t="shared" si="59"/>
-        <v>0.38983240433900246</v>
+        <v>0.38983240433900235</v>
       </c>
       <c r="AB72" s="8">
         <f t="shared" si="59"/>
-        <v>0.38468084724602569</v>
+        <v>0.38468084724602564</v>
       </c>
       <c r="AC72" s="8">
         <f t="shared" si="59"/>
-        <v>0.37961596130303915</v>
+        <v>0.3796159613030391</v>
       </c>
       <c r="AD72" s="8">
         <f t="shared" si="59"/>
@@ -6445,19 +6442,19 @@
       </c>
       <c r="AF72" s="8">
         <f t="shared" si="59"/>
-        <v>0.36492219266089393</v>
+        <v>0.36492219266089398</v>
       </c>
       <c r="AG72" s="8">
         <f t="shared" si="59"/>
-        <v>0.36018512929817231</v>
+        <v>0.36018512929817237</v>
       </c>
       <c r="AH72" s="8">
         <f t="shared" si="59"/>
-        <v>0.35552557485963371</v>
+        <v>0.35552557485963365</v>
       </c>
       <c r="AI72" s="8">
         <f t="shared" si="59"/>
-        <v>0.35094185149709617</v>
+        <v>0.35094185149709622</v>
       </c>
       <c r="AJ72" s="8">
         <f t="shared" si="59"/>
@@ -6469,7 +6466,7 @@
       </c>
       <c r="AL72" s="8">
         <f t="shared" si="59"/>
-        <v>0.33762958914474156</v>
+        <v>0.33762958914474162</v>
       </c>
       <c r="AM72" s="8">
         <f t="shared" si="59"/>
@@ -6491,155 +6488,155 @@
       </c>
       <c r="C74" s="2">
         <f>C49</f>
-        <v>107.3125</v>
+        <v>107.35306652936944</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ref="D74:J74" si="60">D49</f>
-        <v>116.925</v>
+        <v>117.00613305873888</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" si="60"/>
-        <v>126.53749999999999</v>
+        <v>126.65919958810832</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="60"/>
-        <v>136.14999999999998</v>
+        <v>136.31226611747778</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="60"/>
-        <v>145.76249999999996</v>
+        <v>145.96533264684723</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="60"/>
-        <v>155.37499999999994</v>
+        <v>155.61839917621668</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" si="60"/>
-        <v>164.98749999999993</v>
+        <v>165.27146570558614</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="60"/>
-        <v>174.59999999999991</v>
+        <v>174.92453223495559</v>
       </c>
       <c r="K74" s="2">
         <f>J74+K56</f>
-        <v>168.77999999999992</v>
+        <v>169.0937144937904</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" ref="L74:AN74" si="61">K74+L56</f>
-        <v>167.53699999999992</v>
+        <v>163.85725734399739</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="61"/>
-        <v>168.52693333333326</v>
+        <v>158.99534876586415</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="61"/>
-        <v>172.77111888888882</v>
+        <v>154.59550380700202</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="61"/>
-        <v>181.80470659259254</v>
+        <v>150.79232034676861</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="61"/>
-        <v>197.9334872061728</v>
+        <v>147.79090966854298</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="61"/>
-        <v>224.61911054930039</v>
+        <v>145.90204601292487</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="61"/>
-        <v>260.96180686432371</v>
+        <v>145.5948944791607</v>
       </c>
       <c r="S74" s="2">
         <f t="shared" si="61"/>
-        <v>296.09307996884627</v>
+        <v>147.57610632985535</v>
       </c>
       <c r="T74" s="2">
         <f t="shared" si="61"/>
-        <v>330.05331063655137</v>
+        <v>152.90846528552683</v>
       </c>
       <c r="U74" s="2">
         <f t="shared" si="61"/>
-        <v>362.88153361533301</v>
+        <v>163.18886019267595</v>
       </c>
       <c r="V74" s="2">
         <f t="shared" si="61"/>
-        <v>394.61548249482189</v>
+        <v>180.81524714458675</v>
       </c>
       <c r="W74" s="2">
         <f t="shared" si="61"/>
-        <v>425.29163307832783</v>
+        <v>209.38709567726718</v>
       </c>
       <c r="X74" s="2">
         <f t="shared" si="61"/>
-        <v>454.94524530905022</v>
+        <v>246.40752582135826</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" si="61"/>
-        <v>483.61040379874856</v>
+        <v>282.193941627313</v>
       </c>
       <c r="Z74" s="2">
         <f t="shared" si="61"/>
-        <v>511.32005700545693</v>
+        <v>316.78747690640256</v>
       </c>
       <c r="AA74" s="2">
         <f t="shared" si="61"/>
-        <v>538.106055105275</v>
+        <v>350.22789434285579</v>
       </c>
       <c r="AB74" s="2">
         <f t="shared" si="61"/>
-        <v>563.99918660176581</v>
+        <v>382.55363119809391</v>
       </c>
       <c r="AC74" s="2">
         <f t="shared" si="61"/>
-        <v>589.02921371504033</v>
+        <v>413.80184349149079</v>
       </c>
       <c r="AD74" s="2">
         <f t="shared" si="61"/>
-        <v>613.22490659120569</v>
+        <v>444.00844870844111</v>
       </c>
       <c r="AE74" s="2">
         <f t="shared" si="61"/>
-        <v>636.61407637149887</v>
+        <v>473.20816708482641</v>
       </c>
       <c r="AF74" s="2">
         <f t="shared" si="61"/>
-        <v>659.22360715911555</v>
+        <v>501.43456151533218</v>
       </c>
       <c r="AG74" s="2">
         <f t="shared" si="61"/>
-        <v>681.0794869204783</v>
+        <v>528.72007613148776</v>
       </c>
       <c r="AH74" s="2">
         <f t="shared" si="61"/>
-        <v>702.2068373564623</v>
+        <v>555.09607359377151</v>
       </c>
       <c r="AI74" s="2">
         <f t="shared" si="61"/>
-        <v>722.62994277791358</v>
+        <v>580.5928711406458</v>
       </c>
       <c r="AJ74" s="2">
         <f t="shared" si="61"/>
-        <v>742.37227801864981</v>
+        <v>605.23977543595765</v>
       </c>
       <c r="AK74" s="2">
         <f t="shared" si="61"/>
-        <v>761.45653541802812</v>
+        <v>629.06511625475912</v>
       </c>
       <c r="AL74" s="2">
         <f t="shared" si="61"/>
-        <v>779.90465090409384</v>
+        <v>652.09627904626711</v>
       </c>
       <c r="AM74" s="2">
         <f t="shared" si="61"/>
-        <v>797.7378292072907</v>
+        <v>674.35973641139151</v>
       </c>
       <c r="AN74" s="2">
         <f t="shared" si="61"/>
-        <v>814.97656823371437</v>
+        <v>695.88107853101178</v>
       </c>
     </row>
     <row r="75" spans="1:42">
@@ -6652,155 +6649,155 @@
       </c>
       <c r="C75" s="1">
         <f>MIN(C74,C66)</f>
-        <v>107.3125</v>
+        <v>107.35306652936944</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" ref="D75:K75" si="62">MIN(D74,D66)</f>
-        <v>116.925</v>
+        <v>117.00613305873888</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="62"/>
-        <v>126.53749999999999</v>
+        <v>126.65919958810832</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="62"/>
-        <v>136.14999999999998</v>
+        <v>136.31226611747778</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="62"/>
-        <v>145.76249999999996</v>
+        <v>145.96533264684723</v>
       </c>
       <c r="H75" s="1">
         <f t="shared" si="62"/>
-        <v>155.37499999999994</v>
+        <v>155.61839917621668</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" si="62"/>
-        <v>164.98749999999993</v>
+        <v>165.27146570558614</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="62"/>
-        <v>166.99999999999997</v>
+        <v>167.54088705825927</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="62"/>
-        <v>168.77999999999992</v>
+        <v>169.0937144937904</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" ref="L75" si="63">MIN(L74,L66)</f>
-        <v>167.53699999999992</v>
+        <v>163.85725734399739</v>
       </c>
       <c r="M75" s="1">
         <f t="shared" ref="M75" si="64">MIN(M74,M66)</f>
-        <v>168.52693333333326</v>
+        <v>158.99534876586415</v>
       </c>
       <c r="N75" s="1">
         <f t="shared" ref="N75" si="65">MIN(N74,N66)</f>
-        <v>172.77111888888882</v>
+        <v>154.59550380700202</v>
       </c>
       <c r="O75" s="1">
         <f t="shared" ref="O75" si="66">MIN(O74,O66)</f>
-        <v>181.80470659259254</v>
+        <v>150.79232034676861</v>
       </c>
       <c r="P75" s="1">
         <f t="shared" ref="P75" si="67">MIN(P74,P66)</f>
-        <v>188.56421292638348</v>
+        <v>147.79090966854298</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" ref="Q75" si="68">MIN(Q74,Q66)</f>
-        <v>192.41979145035057</v>
+        <v>145.90204601292487</v>
       </c>
       <c r="R75" s="1">
         <f t="shared" ref="R75" si="69">MIN(R74,R66)</f>
-        <v>196.35420511235247</v>
+        <v>145.5948944791607</v>
       </c>
       <c r="S75" s="1">
         <f t="shared" ref="S75" si="70">MIN(S74,S66)</f>
-        <v>200.36906585699111</v>
+        <v>147.57610632985535</v>
       </c>
       <c r="T75" s="1">
         <f t="shared" ref="T75" si="71">MIN(T74,T66)</f>
-        <v>204.46601858835149</v>
+        <v>152.90846528552683</v>
       </c>
       <c r="U75" s="1">
         <f t="shared" ref="U75" si="72">MIN(U74,U66)</f>
-        <v>208.6467418439253</v>
+        <v>163.18886019267595</v>
       </c>
       <c r="V75" s="1">
         <f t="shared" ref="V75" si="73">MIN(V74,V66)</f>
-        <v>212.91294848231436</v>
+        <v>180.81524714458675</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" ref="W75" si="74">MIN(W74,W66)</f>
-        <v>217.26638638499534</v>
+        <v>209.38709567726718</v>
       </c>
       <c r="X75" s="1">
         <f t="shared" ref="X75" si="75">MIN(X74,X66)</f>
-        <v>221.70883917243367</v>
+        <v>222.09152646426742</v>
       </c>
       <c r="Y75" s="1">
         <f t="shared" ref="Y75" si="76">MIN(Y74,Y66)</f>
-        <v>226.24212693483977</v>
+        <v>226.60821230343029</v>
       </c>
       <c r="Z75" s="1">
         <f t="shared" ref="Z75" si="77">MIN(Z74,Z66)</f>
-        <v>230.86810697786711</v>
+        <v>231.21675419534077</v>
       </c>
       <c r="AA75" s="1">
         <f t="shared" ref="AA75" si="78">MIN(AA74,AA66)</f>
-        <v>235.58867458355758</v>
+        <v>235.91902022087203</v>
       </c>
       <c r="AB75" s="1">
         <f t="shared" ref="AB75" si="79">MIN(AB74,AB66)</f>
-        <v>240.40576378684588</v>
+        <v>240.71691645214599</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" ref="AC75" si="80">MIN(AC74,AC66)</f>
-        <v>245.32134816794124</v>
+        <v>245.61238772516322</v>
       </c>
       <c r="AD75" s="1">
         <f t="shared" ref="AD75" si="81">MIN(AD74,AD66)</f>
-        <v>250.33744166091086</v>
+        <v>250.60741842814554</v>
       </c>
       <c r="AE75" s="1">
         <f t="shared" ref="AE75" si="82">MIN(AE74,AE66)</f>
-        <v>255.45609937879655</v>
+        <v>255.70403330591165</v>
       </c>
       <c r="AF75" s="1">
         <f t="shared" ref="AF75" si="83">MIN(AF74,AF66)</f>
-        <v>260.67941845560256</v>
+        <v>260.90429828061099</v>
       </c>
       <c r="AG75" s="1">
         <f t="shared" ref="AG75" si="84">MIN(AG74,AG66)</f>
-        <v>266.0095389054996</v>
+        <v>266.21032128914914</v>
       </c>
       <c r="AH75" s="1">
         <f t="shared" ref="AH75" si="85">MIN(AH74,AH66)</f>
-        <v>271.44864449959681</v>
+        <v>271.62425313764385</v>
       </c>
       <c r="AI75" s="1">
         <f t="shared" ref="AI75" si="86">MIN(AI74,AI66)</f>
-        <v>276.99896366064155</v>
+        <v>277.1482883732582</v>
       </c>
       <c r="AJ75" s="1">
         <f t="shared" ref="AJ75" si="87">MIN(AJ74,AJ66)</f>
-        <v>282.66277037601265</v>
+        <v>282.78466617376438</v>
       </c>
       <c r="AK75" s="1">
         <f t="shared" ref="AK75" si="88">MIN(AK74,AK66)</f>
-        <v>288.44238512938193</v>
+        <v>288.53567125519839</v>
       </c>
       <c r="AL75" s="1">
         <f t="shared" ref="AL75" si="89">MIN(AL74,AL66)</f>
-        <v>294.34017585142561</v>
+        <v>294.40363479797401</v>
       </c>
       <c r="AM75" s="1">
         <f t="shared" ref="AM75" si="90">MIN(AM74,AM66)</f>
-        <v>300.35855888997446</v>
+        <v>300.39093539183091</v>
       </c>
       <c r="AN75" s="1">
         <f t="shared" ref="AN75" si="91">MIN(AN74,AN66)</f>
-        <v>306.50000000000102</v>
+        <v>306.50000000000028</v>
       </c>
     </row>
     <row r="76" spans="1:42">
@@ -6841,7 +6838,7 @@
       </c>
       <c r="J76" s="1">
         <f t="shared" si="92"/>
-        <v>7.5999999999999375</v>
+        <v>7.3836451766963194</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="92"/>
@@ -6865,103 +6862,103 @@
       </c>
       <c r="P76" s="1">
         <f t="shared" ref="P76" si="97">MIN(P67,P74-P75)</f>
-        <v>9.3692742797893231</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" ref="Q76" si="98">MIN(Q67,Q74-Q75)</f>
-        <v>32.199319098949815</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
         <f t="shared" ref="R76" si="99">MIN(R67,R74-R75)</f>
-        <v>64.607601751971231</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1">
         <f t="shared" ref="S76" si="100">MIN(S67,S74-S75)</f>
-        <v>95.724014111855155</v>
+        <v>0</v>
       </c>
       <c r="T76" s="1">
         <f t="shared" ref="T76" si="101">MIN(T67,T74-T75)</f>
-        <v>125.58729204819988</v>
+        <v>0</v>
       </c>
       <c r="U76" s="1">
         <f t="shared" ref="U76" si="102">MIN(U67,U74-U75)</f>
-        <v>154.23479177140771</v>
+        <v>0</v>
       </c>
       <c r="V76" s="1">
         <f t="shared" ref="V76" si="103">MIN(V67,V74-V75)</f>
-        <v>181.70253401250753</v>
+        <v>0</v>
       </c>
       <c r="W76" s="1">
         <f t="shared" ref="W76" si="104">MIN(W67,W74-W75)</f>
-        <v>208.02524669333249</v>
+        <v>0</v>
       </c>
       <c r="X76" s="1">
         <f t="shared" ref="X76" si="105">MIN(X67,X74-X75)</f>
-        <v>221.70883917243367</v>
+        <v>24.315999357090845</v>
       </c>
       <c r="Y76" s="1">
         <f t="shared" ref="Y76" si="106">MIN(Y67,Y74-Y75)</f>
-        <v>226.24212693483977</v>
+        <v>55.585729323882703</v>
       </c>
       <c r="Z76" s="1">
         <f t="shared" ref="Z76" si="107">MIN(Z67,Z74-Z75)</f>
-        <v>230.86810697786711</v>
+        <v>85.570722711061791</v>
       </c>
       <c r="AA76" s="1">
         <f t="shared" ref="AA76" si="108">MIN(AA67,AA74-AA75)</f>
-        <v>235.58867458355758</v>
+        <v>114.30887412198376</v>
       </c>
       <c r="AB76" s="1">
         <f t="shared" ref="AB76" si="109">MIN(AB67,AB74-AB75)</f>
-        <v>240.40576378684588</v>
+        <v>141.83671474594792</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" ref="AC76" si="110">MIN(AC67,AC74-AC75)</f>
-        <v>245.32134816794124</v>
+        <v>168.18945576632757</v>
       </c>
       <c r="AD76" s="1">
         <f t="shared" ref="AD76" si="111">MIN(AD67,AD74-AD75)</f>
-        <v>250.33744166091086</v>
+        <v>193.40103028029557</v>
       </c>
       <c r="AE76" s="1">
         <f t="shared" ref="AE76" si="112">MIN(AE67,AE74-AE75)</f>
-        <v>255.45609937879655</v>
+        <v>217.50413377891476</v>
       </c>
       <c r="AF76" s="1">
         <f t="shared" ref="AF76" si="113">MIN(AF67,AF74-AF75)</f>
-        <v>260.67941845560256</v>
+        <v>240.53026323472119</v>
       </c>
       <c r="AG76" s="1">
         <f t="shared" ref="AG76" si="114">MIN(AG67,AG74-AG75)</f>
-        <v>266.0095389054996</v>
+        <v>262.50975484233862</v>
       </c>
       <c r="AH76" s="1">
         <f t="shared" ref="AH76" si="115">MIN(AH67,AH74-AH75)</f>
-        <v>271.44864449959681</v>
+        <v>271.62425313764385</v>
       </c>
       <c r="AI76" s="1">
         <f t="shared" ref="AI76" si="116">MIN(AI67,AI74-AI75)</f>
-        <v>276.99896366064155</v>
+        <v>277.1482883732582</v>
       </c>
       <c r="AJ76" s="1">
         <f t="shared" ref="AJ76" si="117">MIN(AJ67,AJ74-AJ75)</f>
-        <v>282.66277037601265</v>
+        <v>282.78466617376438</v>
       </c>
       <c r="AK76" s="1">
         <f t="shared" ref="AK76" si="118">MIN(AK67,AK74-AK75)</f>
-        <v>288.44238512938193</v>
+        <v>288.53567125519839</v>
       </c>
       <c r="AL76" s="1">
         <f t="shared" ref="AL76" si="119">MIN(AL67,AL74-AL75)</f>
-        <v>294.34017585142561</v>
+        <v>294.40363479797401</v>
       </c>
       <c r="AM76" s="1">
         <f t="shared" ref="AM76" si="120">MIN(AM67,AM74-AM75)</f>
-        <v>300.35855888997446</v>
+        <v>300.39093539183091</v>
       </c>
       <c r="AN76" s="1">
         <f t="shared" ref="AN76" si="121">MIN(AN67,AN74-AN75)</f>
-        <v>306.50000000000102</v>
+        <v>306.50000000000028</v>
       </c>
     </row>
     <row r="77" spans="1:42">
@@ -7058,71 +7055,71 @@
       </c>
       <c r="X77" s="1">
         <f t="shared" ref="X77" si="135">MIN(X68,X74-X75-X76)</f>
-        <v>11.527566964182881</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" ref="Y77" si="136">MIN(Y68,Y74-Y75-Y76)</f>
-        <v>31.126149929069044</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="1">
         <f t="shared" ref="Z77" si="137">MIN(Z68,Z74-Z75-Z76)</f>
-        <v>49.583843049722702</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="1">
         <f t="shared" ref="AA77" si="138">MIN(AA68,AA74-AA75-AA76)</f>
-        <v>66.928705938159851</v>
+        <v>0</v>
       </c>
       <c r="AB77" s="1">
         <f t="shared" ref="AB77" si="139">MIN(AB68,AB74-AB75-AB76)</f>
-        <v>83.187659028074023</v>
+        <v>0</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" ref="AC77" si="140">MIN(AC68,AC74-AC75-AC76)</f>
-        <v>98.38651737915788</v>
+        <v>0</v>
       </c>
       <c r="AD77" s="1">
         <f t="shared" ref="AD77" si="141">MIN(AD68,AD74-AD75-AD76)</f>
-        <v>112.55002326938401</v>
+        <v>0</v>
       </c>
       <c r="AE77" s="1">
         <f t="shared" ref="AE77" si="142">MIN(AE68,AE74-AE75-AE76)</f>
-        <v>125.70187761390574</v>
+        <v>0</v>
       </c>
       <c r="AF77" s="1">
         <f t="shared" ref="AF77" si="143">MIN(AF68,AF74-AF75-AF76)</f>
-        <v>137.86477024791043</v>
+        <v>0</v>
       </c>
       <c r="AG77" s="1">
         <f t="shared" ref="AG77" si="144">MIN(AG68,AG74-AG75-AG76)</f>
-        <v>149.06040910947911</v>
+        <v>0</v>
       </c>
       <c r="AH77" s="1">
         <f t="shared" ref="AH77" si="145">MIN(AH68,AH74-AH75-AH76)</f>
-        <v>159.30954835726868</v>
+        <v>11.847567318483812</v>
       </c>
       <c r="AI77" s="1">
         <f t="shared" ref="AI77" si="146">MIN(AI68,AI74-AI75-AI76)</f>
-        <v>168.63201545663048</v>
+        <v>26.296294394129404</v>
       </c>
       <c r="AJ77" s="1">
         <f t="shared" ref="AJ77" si="147">MIN(AJ68,AJ74-AJ75-AJ76)</f>
-        <v>177.04673726662452</v>
+        <v>39.670443088428897</v>
       </c>
       <c r="AK77" s="1">
         <f t="shared" ref="AK77" si="148">MIN(AK68,AK74-AK75-AK76)</f>
-        <v>184.57176515926426</v>
+        <v>51.993773744362329</v>
       </c>
       <c r="AL77" s="1">
         <f t="shared" ref="AL77" si="149">MIN(AL68,AL74-AL75-AL76)</f>
-        <v>191.22429920124262</v>
+        <v>63.289009450319099</v>
       </c>
       <c r="AM77" s="1">
         <f t="shared" ref="AM77" si="150">MIN(AM68,AM74-AM75-AM76)</f>
-        <v>197.02071142734178</v>
+        <v>73.577865627729693</v>
       </c>
       <c r="AN77" s="1">
         <f t="shared" ref="AN77" si="151">MIN(AN68,AN74-AN75-AN76)</f>
-        <v>201.97656823371233</v>
+        <v>82.881078531011212</v>
       </c>
       <c r="AO77" s="8"/>
       <c r="AP77" s="19"/>
@@ -7452,7 +7449,7 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="182"/>
-        <v>0.98846065865700639</v>
+        <v>0.98882535057868104</v>
       </c>
       <c r="K81" s="8">
         <f t="shared" si="182"/>
@@ -7476,75 +7473,75 @@
       </c>
       <c r="P81" s="8">
         <f t="shared" si="182"/>
-        <v>0.98640648500262795</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="182"/>
-        <v>0.9536962631835304</v>
+        <v>1</v>
       </c>
       <c r="R81" s="8">
         <f t="shared" si="182"/>
-        <v>0.90794364084042489</v>
+        <v>1</v>
       </c>
       <c r="S81" s="8">
         <f t="shared" si="182"/>
-        <v>0.86489999787558014</v>
+        <v>1</v>
       </c>
       <c r="T81" s="8">
         <f t="shared" si="182"/>
-        <v>0.82448522022536919</v>
+        <v>1</v>
       </c>
       <c r="U81" s="8">
         <f t="shared" si="182"/>
-        <v>0.78661758593278686</v>
+        <v>1</v>
       </c>
       <c r="V81" s="8">
         <f t="shared" si="182"/>
-        <v>0.75121429752519697</v>
+        <v>1</v>
       </c>
       <c r="W81" s="8">
         <f t="shared" si="182"/>
-        <v>0.71819195206139796</v>
+        <v>1</v>
       </c>
       <c r="X81" s="8">
         <f t="shared" si="182"/>
-        <v>0.70291370977898937</v>
+        <v>0.96747309473251397</v>
       </c>
       <c r="Y81" s="8">
         <f t="shared" si="182"/>
-        <v>0.70020179833256679</v>
+        <v>0.92646117490499935</v>
       </c>
       <c r="Z81" s="8">
         <f t="shared" si="182"/>
-        <v>0.6975363167295161</v>
+        <v>0.88806158938880841</v>
       </c>
       <c r="AA81" s="8">
         <f t="shared" si="182"/>
-        <v>0.69491620216950123</v>
+        <v>0.85217900019161785</v>
       </c>
       <c r="AB81" s="8">
         <f t="shared" si="182"/>
-        <v>0.69234042362301285</v>
+        <v>0.81871891590919021</v>
       </c>
       <c r="AC81" s="8">
         <f t="shared" si="182"/>
-        <v>0.6898079806515196</v>
+        <v>0.78758796573543466</v>
       </c>
       <c r="AD81" s="8">
         <f t="shared" si="182"/>
-        <v>0.68731790227983947</v>
+        <v>0.75869413511945971</v>
       </c>
       <c r="AE81" s="8">
         <f t="shared" si="182"/>
-        <v>0.6848692459180542</v>
+        <v>0.73194696693857275</v>
       </c>
       <c r="AF81" s="8">
         <f t="shared" si="182"/>
-        <v>0.68246109633044694</v>
+        <v>0.7072577317037696</v>
       </c>
       <c r="AG81" s="8">
         <f t="shared" si="182"/>
-        <v>0.68009256464908618</v>
+        <v>0.6845395699928758</v>
       </c>
       <c r="AH81" s="8">
         <f t="shared" si="182"/>
@@ -7585,7 +7582,7 @@
       </c>
       <c r="C82" s="8">
         <f t="shared" si="183"/>
-        <v>0.50000000000000011</v>
+        <v>0.5</v>
       </c>
       <c r="D82" s="8">
         <f t="shared" si="183"/>
@@ -7609,11 +7606,11 @@
       </c>
       <c r="I82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49999999999999989</v>
+        <v>0.5</v>
       </c>
       <c r="J82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49287631466317477</v>
+        <v>0.49287631466317489</v>
       </c>
       <c r="K82" s="8">
         <f t="shared" si="183"/>
@@ -7625,11 +7622,11 @@
       </c>
       <c r="M82" s="8">
         <f t="shared" si="183"/>
-        <v>0.47229778014482532</v>
+        <v>0.47229778014482526</v>
       </c>
       <c r="N82" s="8">
         <f t="shared" si="183"/>
-        <v>0.46569131247902368</v>
+        <v>0.46569131247902362</v>
       </c>
       <c r="O82" s="8">
         <f t="shared" si="183"/>
@@ -7637,23 +7634,23 @@
       </c>
       <c r="P82" s="8">
         <f t="shared" si="183"/>
-        <v>0.45283906099073606</v>
+        <v>0.45283906099073601</v>
       </c>
       <c r="Q82" s="8">
         <f t="shared" si="183"/>
-        <v>0.44658734215981605</v>
+        <v>0.4465873421598161</v>
       </c>
       <c r="R82" s="8">
         <f t="shared" si="183"/>
-        <v>0.44044809780409216</v>
+        <v>0.44044809780409211</v>
       </c>
       <c r="S82" s="8">
         <f t="shared" si="183"/>
-        <v>0.43441859445392833</v>
+        <v>0.43441859445392839</v>
       </c>
       <c r="T82" s="8">
         <f t="shared" si="183"/>
-        <v>0.42849618558290314</v>
+        <v>0.42849618558290309</v>
       </c>
       <c r="U82" s="8">
         <f t="shared" si="183"/>
@@ -7661,79 +7658,79 @@
       </c>
       <c r="V82" s="8">
         <f t="shared" si="183"/>
-        <v>0.41696247944997883</v>
+        <v>0.41696247944997877</v>
       </c>
       <c r="W82" s="8">
         <f t="shared" si="183"/>
-        <v>0.41134629374971876</v>
+        <v>0.41134629374971871</v>
       </c>
       <c r="X82" s="8">
         <f t="shared" si="183"/>
-        <v>0.39862141028130565</v>
+        <v>0.40582741955797869</v>
       </c>
       <c r="Y82" s="8">
         <f t="shared" si="183"/>
-        <v>0.38201033051462757</v>
+        <v>0.40040359666513348</v>
       </c>
       <c r="Z82" s="8">
         <f t="shared" si="183"/>
-        <v>0.367365161075077</v>
+        <v>0.39507263345903221</v>
       </c>
       <c r="AA82" s="8">
         <f t="shared" si="183"/>
-        <v>0.35445428384578065</v>
+        <v>0.38983240433900235</v>
       </c>
       <c r="AB82" s="8">
         <f t="shared" si="183"/>
-        <v>0.34307209178482878</v>
+        <v>0.38468084724602564</v>
       </c>
       <c r="AC82" s="8">
         <f t="shared" si="183"/>
-        <v>0.33303606012663878</v>
+        <v>0.3796159613030391</v>
       </c>
       <c r="AD82" s="8">
         <f t="shared" si="183"/>
-        <v>0.32418415925428051</v>
+        <v>0.37463580455967882</v>
       </c>
       <c r="AE82" s="8">
         <f t="shared" si="183"/>
-        <v>0.31637256714004103</v>
+        <v>0.36973849183610835</v>
       </c>
       <c r="AF82" s="8">
         <f t="shared" si="183"/>
-        <v>0.30947364479218165</v>
+        <v>0.36492219266089398</v>
       </c>
       <c r="AG82" s="8">
         <f t="shared" si="183"/>
-        <v>0.30337414290373443</v>
+        <v>0.36018512929817237</v>
       </c>
       <c r="AH82" s="8">
         <f t="shared" si="183"/>
-        <v>0.2979736119931643</v>
+        <v>0.35124830500385573</v>
       </c>
       <c r="AI82" s="8">
         <f t="shared" si="183"/>
-        <v>0.29318299185628005</v>
+        <v>0.34193985009776467</v>
       </c>
       <c r="AJ82" s="8">
         <f t="shared" si="183"/>
-        <v>0.28892335919739692</v>
+        <v>0.33355198462363184</v>
       </c>
       <c r="AK82" s="8">
         <f t="shared" si="183"/>
-        <v>0.28512481494571196</v>
+        <v>0.32598017967571202</v>
       </c>
       <c r="AL82" s="8">
         <f t="shared" si="183"/>
-        <v>0.28172549504941174</v>
+        <v>0.31913114459175668</v>
       </c>
       <c r="AM82" s="8">
         <f t="shared" si="183"/>
-        <v>0.27867069052527815</v>
+        <v>0.31292163617505364</v>
       </c>
       <c r="AN82" s="8">
         <f>AVERAGE(AN72,AN72-((AN77/AN68)*AN72))</f>
-        <v>0.27591206426797255</v>
+        <v>0.30727739654320724</v>
       </c>
       <c r="AO82" s="8"/>
     </row>
@@ -7897,7 +7894,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="184"/>
-        <v>0.99949771480981231</v>
+        <v>0.99952831289444199</v>
       </c>
       <c r="K85" s="8">
         <f t="shared" ref="K85:AN85" si="185">SUMPRODUCT(K75:K78,K80:K83)/K74</f>
@@ -7921,103 +7918,103 @@
       </c>
       <c r="P85" s="8">
         <f t="shared" si="185"/>
-        <v>0.99935654460377321</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="185"/>
-        <v>0.9933623243650942</v>
+        <v>1</v>
       </c>
       <c r="R85" s="8">
         <f t="shared" si="185"/>
-        <v>0.97720915308342249</v>
+        <v>1</v>
       </c>
       <c r="S85" s="8">
         <f t="shared" si="185"/>
-        <v>0.95632348276687074</v>
+        <v>1</v>
       </c>
       <c r="T85" s="8">
         <f t="shared" si="185"/>
-        <v>0.93321555883254037</v>
+        <v>1</v>
       </c>
       <c r="U85" s="8">
         <f t="shared" si="185"/>
-        <v>0.90930651148475439</v>
+        <v>1</v>
       </c>
       <c r="V85" s="8">
         <f t="shared" si="185"/>
-        <v>0.88544546635636201</v>
+        <v>1</v>
       </c>
       <c r="W85" s="8">
         <f t="shared" si="185"/>
-        <v>0.8621576722112535</v>
+        <v>1</v>
       </c>
       <c r="X85" s="8">
         <f t="shared" si="185"/>
-        <v>0.83998274681758744</v>
+        <v>0.99679017836433392</v>
       </c>
       <c r="Y85" s="8">
         <f t="shared" si="185"/>
-        <v>0.81997363741635276</v>
+        <v>0.98551453938750533</v>
       </c>
       <c r="Z85" s="8">
         <f t="shared" si="185"/>
-        <v>0.80208543912806107</v>
+        <v>0.96976316491842474</v>
       </c>
       <c r="AA85" s="8">
         <f t="shared" si="185"/>
-        <v>0.78613913394560186</v>
+        <v>0.95175355152282481</v>
       </c>
       <c r="AB85" s="8">
         <f t="shared" si="185"/>
-        <v>0.77196522027843295</v>
+        <v>0.93278768957832725</v>
       </c>
       <c r="AC85" s="8">
         <f t="shared" si="185"/>
-        <v>0.75940584891314578</v>
+        <v>0.91366528447592477</v>
       </c>
       <c r="AD85" s="8">
         <f t="shared" si="185"/>
-        <v>0.74831562883490621</v>
+        <v>0.89489208366118411</v>
       </c>
       <c r="AE85" s="8">
         <f t="shared" si="185"/>
-        <v>0.73856166348131491</v>
+        <v>0.87679282223295762</v>
       </c>
       <c r="AF85" s="8">
         <f t="shared" si="185"/>
-        <v>0.73002314825551429</v>
+        <v>0.8595761436139685</v>
       </c>
       <c r="AG85" s="8">
         <f t="shared" si="185"/>
-        <v>0.72259072802289748</v>
+        <v>0.84337375506990497</v>
       </c>
       <c r="AH85" s="8">
         <f t="shared" si="185"/>
-        <v>0.71616573527240934</v>
+        <v>0.82847370733402381</v>
       </c>
       <c r="AI85" s="8">
         <f t="shared" si="185"/>
-        <v>0.71065938247183968</v>
+        <v>0.81527981789317927</v>
       </c>
       <c r="AJ85" s="8">
         <f t="shared" si="185"/>
-        <v>0.70599195313963581</v>
+        <v>0.80363526858582834</v>
       </c>
       <c r="AK85" s="8">
         <f t="shared" si="185"/>
-        <v>0.70209201806327015</v>
+        <v>0.79338588795891485</v>
       </c>
       <c r="AL85" s="8">
         <f t="shared" si="185"/>
-        <v>0.69889569170278965</v>
+        <v>0.78439741459774126</v>
       </c>
       <c r="AM85" s="8">
         <f t="shared" si="185"/>
-        <v>0.69634593661328115</v>
+        <v>0.77655239008133103</v>
       </c>
       <c r="AN85" s="8">
         <f t="shared" si="185"/>
-        <v>0.6943919191687844</v>
+        <v>0.76974769106055496</v>
       </c>
     </row>
     <row r="86" spans="1:41">
@@ -8030,155 +8027,155 @@
       </c>
       <c r="C86" s="11">
         <f>C85*C74</f>
-        <v>107.3125</v>
+        <v>107.35306652936944</v>
       </c>
       <c r="D86" s="11">
         <f t="shared" ref="D86:K86" si="186">D85*D74</f>
-        <v>116.925</v>
+        <v>117.00613305873888</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="186"/>
-        <v>126.53749999999999</v>
+        <v>126.65919958810832</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="186"/>
-        <v>136.14999999999998</v>
+        <v>136.31226611747778</v>
       </c>
       <c r="G86" s="11">
         <f t="shared" si="186"/>
-        <v>145.76249999999996</v>
+        <v>145.96533264684723</v>
       </c>
       <c r="H86" s="11">
         <f t="shared" si="186"/>
-        <v>155.37499999999994</v>
+        <v>155.61839917621668</v>
       </c>
       <c r="I86" s="11">
         <f t="shared" si="186"/>
-        <v>164.98749999999993</v>
+        <v>165.27146570558614</v>
       </c>
       <c r="J86" s="11">
         <f t="shared" si="186"/>
-        <v>174.51230100579315</v>
+        <v>174.8420225886546</v>
       </c>
       <c r="K86" s="11">
         <f t="shared" si="186"/>
-        <v>168.77999999999992</v>
+        <v>169.0937144937904</v>
       </c>
       <c r="L86" s="11">
         <f t="shared" ref="L86" si="187">L85*L74</f>
-        <v>167.53699999999992</v>
+        <v>163.85725734399739</v>
       </c>
       <c r="M86" s="11">
         <f t="shared" ref="M86" si="188">M85*M74</f>
-        <v>168.52693333333326</v>
+        <v>158.99534876586415</v>
       </c>
       <c r="N86" s="11">
         <f t="shared" ref="N86" si="189">N85*N74</f>
-        <v>172.77111888888882</v>
+        <v>154.59550380700202</v>
       </c>
       <c r="O86" s="11">
         <f t="shared" ref="O86" si="190">O85*O74</f>
-        <v>181.80470659259254</v>
+        <v>150.79232034676861</v>
       </c>
       <c r="P86" s="11">
         <f t="shared" ref="P86" si="191">P85*P74</f>
-        <v>197.806125835736</v>
+        <v>147.79090966854298</v>
       </c>
       <c r="Q86" s="11">
         <f t="shared" ref="Q86" si="192">Q85*Q74</f>
-        <v>223.12816175207308</v>
+        <v>145.90204601292487</v>
       </c>
       <c r="R86" s="11">
         <f t="shared" ref="R86" si="193">R85*R74</f>
-        <v>255.01426627300543</v>
+        <v>145.5948944791607</v>
       </c>
       <c r="S86" s="11">
         <f t="shared" ref="S86" si="194">S85*S74</f>
-        <v>283.16076545897664</v>
+        <v>147.57610632985535</v>
       </c>
       <c r="T86" s="11">
         <f t="shared" ref="T86" si="195">T85*T74</f>
-        <v>308.01088473021935</v>
+        <v>152.90846528552683</v>
       </c>
       <c r="U86" s="11">
         <f t="shared" ref="U86" si="196">U85*U74</f>
-        <v>329.9705414139961</v>
+        <v>163.18886019267595</v>
       </c>
       <c r="V86" s="11">
         <f t="shared" ref="V86" si="197">V85*V74</f>
-        <v>349.41048992906838</v>
+        <v>180.81524714458675</v>
       </c>
       <c r="W86" s="11">
         <f t="shared" ref="W86" si="198">W85*W74</f>
-        <v>366.66844438573366</v>
+        <v>209.38709567726718</v>
       </c>
       <c r="X86" s="11">
         <f t="shared" ref="X86" si="199">X85*X74</f>
-        <v>382.14615680629714</v>
+        <v>245.61660161378592</v>
       </c>
       <c r="Y86" s="11">
         <f t="shared" ref="Y86" si="200">Y85*Y74</f>
-        <v>396.54778189525098</v>
+        <v>278.10623240078593</v>
       </c>
       <c r="Z86" s="11">
         <f t="shared" ref="Z86" si="201">Z85*Z74</f>
-        <v>410.12237245820717</v>
+        <v>307.20882621127532</v>
       </c>
       <c r="AA86" s="11">
         <f t="shared" ref="AA86" si="202">AA85*AA74</f>
-        <v>423.02622813134519</v>
+        <v>333.33064228317363</v>
       </c>
       <c r="AB86" s="11">
         <f t="shared" ref="AB86" si="203">AB85*AB74</f>
-        <v>435.38775632188919</v>
+        <v>356.84131778506952</v>
       </c>
       <c r="AC86" s="11">
         <f t="shared" ref="AC86" si="204">AC85*AC74</f>
-        <v>447.31223007591296</v>
+        <v>378.07637905031504</v>
       </c>
       <c r="AD86" s="11">
         <f t="shared" ref="AD86" si="205">AD85*AD74</f>
-        <v>458.88578159302472</v>
+        <v>397.33964582786683</v>
       </c>
       <c r="AE86" s="11">
         <f t="shared" ref="AE86" si="206">AE85*AE74</f>
-        <v>470.17875124055507</v>
+        <v>414.9055243219899</v>
       </c>
       <c r="AF86" s="11">
         <f t="shared" ref="AF86" si="207">AF85*AF74</f>
-        <v>481.24849310265392</v>
+        <v>431.02118666211049</v>
       </c>
       <c r="AG86" s="11">
         <f t="shared" ref="AG86" si="208">AG85*AG74</f>
-        <v>492.14172229532988</v>
+        <v>445.90863598785887</v>
       </c>
       <c r="AH86" s="11">
         <f t="shared" ref="AH86" si="209">AH85*AH74</f>
-        <v>502.89647598870397</v>
+        <v>459.88250201679199</v>
       </c>
       <c r="AI86" s="11">
         <f t="shared" ref="AI86" si="210">AI85*AI74</f>
-        <v>513.5437488902129</v>
+        <v>473.34565025362383</v>
       </c>
       <c r="AJ86" s="11">
         <f t="shared" ref="AJ86" si="211">AJ85*AJ74</f>
-        <v>524.10885451510728</v>
+        <v>486.39202949130225</v>
       </c>
       <c r="AK86" s="11">
         <f t="shared" ref="AK86" si="212">AK85*AK74</f>
-        <v>534.61255561910934</v>
+        <v>499.09138584376007</v>
       </c>
       <c r="AL86" s="11">
         <f t="shared" ref="AL86" si="213">AL85*AL74</f>
-        <v>545.07200045583932</v>
+        <v>511.50263535269914</v>
       </c>
       <c r="AM86" s="11">
         <f t="shared" ref="AM86" si="214">AM85*AM74</f>
-        <v>555.50149585119652</v>
+        <v>523.67566508488244</v>
       </c>
       <c r="AN86" s="11">
         <f t="shared" ref="AN86" si="215">AN85*AN74</f>
-        <v>565.91314329339866</v>
+        <v>535.65285345197503</v>
       </c>
     </row>
     <row r="88" spans="1:41">
@@ -8191,155 +8188,155 @@
       </c>
       <c r="C88" s="1">
         <f>MAX(C64-C74,0)</f>
-        <v>409.40260083635235</v>
+        <v>409.57093347063051</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" ref="D88:J88" si="216">MAX(D64-D74,0)</f>
-        <v>397.5152609485969</v>
+        <v>397.85017094126101</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="216"/>
-        <v>385.63793605073931</v>
+        <v>386.13767919589168</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="216"/>
-        <v>373.77058205175439</v>
+        <v>374.43342515138613</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="216"/>
-        <v>361.91315505472789</v>
+        <v>362.73737585694124</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" si="216"/>
-        <v>350.06561135600185</v>
+        <v>351.0494984935566</v>
       </c>
       <c r="I88" s="1">
         <f t="shared" si="216"/>
-        <v>338.22790744432393</v>
+        <v>339.36976037350809</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" si="216"/>
-        <v>331.22739955586138</v>
+        <v>332.54116369295787</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" ref="K88:AN88" si="217">MAX(K64-K74,0)</f>
-        <v>352.36363983473012</v>
+        <v>353.68147721382803</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" si="217"/>
-        <v>369.38664940819626</v>
+        <v>374.68929517757272</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="217"/>
-        <v>384.65453768152923</v>
+        <v>395.79836339460076</v>
       </c>
       <c r="N88" s="1">
         <f t="shared" si="217"/>
-        <v>397.16045371264352</v>
+        <v>416.93552097002646</v>
       </c>
       <c r="O88" s="1">
         <f t="shared" si="217"/>
-        <v>405.38415360574311</v>
+        <v>437.98095722095354</v>
       </c>
       <c r="P88" s="1">
         <f t="shared" si="217"/>
-        <v>407.03520397753357</v>
+        <v>458.74479416849408</v>
       </c>
       <c r="Q88" s="1">
         <f t="shared" si="217"/>
-        <v>398.66777740171875</v>
+        <v>478.93195044299398</v>
       </c>
       <c r="R88" s="1">
         <f t="shared" si="217"/>
-        <v>381.1979451247218</v>
+        <v>498.08942724705372</v>
       </c>
       <c r="S88" s="1">
         <f t="shared" si="217"/>
-        <v>365.5109984199139</v>
+        <v>515.52722733353153</v>
       </c>
       <c r="T88" s="1">
         <f t="shared" si="217"/>
-        <v>351.58386015285635</v>
+        <v>530.19972342459414</v>
       </c>
       <c r="U88" s="1">
         <f t="shared" si="217"/>
-        <v>339.39532316179651</v>
+        <v>540.52770070113854</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" si="217"/>
-        <v>328.92602125503333</v>
+        <v>544.13141029676399</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="217"/>
-        <v>320.15840218424756</v>
+        <v>537.43013918767781</v>
       </c>
       <c r="X88" s="1">
         <f t="shared" si="217"/>
-        <v>313.07670255849263</v>
+        <v>522.94008971191852</v>
       </c>
       <c r="Y88" s="1">
         <f t="shared" si="217"/>
-        <v>307.66692466563967</v>
+        <v>510.36376311523696</v>
       </c>
       <c r="Z88" s="1">
         <f t="shared" si="217"/>
-        <v>303.91681517013279</v>
+        <v>499.68053139615853</v>
       </c>
       <c r="AA88" s="1">
         <f t="shared" si="217"/>
-        <v>301.81584565792855</v>
+        <v>490.87175631045801</v>
       </c>
       <c r="AB88" s="1">
         <f t="shared" si="217"/>
-        <v>301.35519500148121</v>
+        <v>483.92076233009067</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" si="217"/>
-        <v>302.52773351957592</v>
+        <v>478.81281168863916</v>
       </c>
       <c r="AD88" s="1">
         <f t="shared" si="217"/>
-        <v>305.32800890873204</v>
+        <v>475.53508147947679</v>
       </c>
       <c r="AE88" s="1">
         <f t="shared" si="217"/>
-        <v>309.75223392477767</v>
+        <v>474.07664277506103</v>
       </c>
       <c r="AF88" s="1">
         <f t="shared" si="217"/>
-        <v>315.79827579505047</v>
+        <v>474.42844173792429</v>
       </c>
       <c r="AG88" s="1">
         <f t="shared" si="217"/>
-        <v>323.46564734350909</v>
+        <v>476.58328269606579</v>
       </c>
       <c r="AH88" s="1">
         <f t="shared" si="217"/>
-        <v>332.75549981283461</v>
+        <v>480.53581315752945</v>
       </c>
       <c r="AI88" s="1">
         <f t="shared" si="217"/>
-        <v>343.67061736938558</v>
+        <v>486.28251074101206</v>
       </c>
       <c r="AJ88" s="1">
         <f t="shared" si="217"/>
-        <v>356.21541327861939</v>
+        <v>493.82167200136769</v>
       </c>
       <c r="AK88" s="1">
         <f t="shared" si="217"/>
-        <v>370.39592774033622</v>
+        <v>503.15340313087052</v>
       </c>
       <c r="AL88" s="1">
         <f t="shared" si="217"/>
-        <v>386.21982737481289</v>
+        <v>514.27961251905833</v>
       </c>
       <c r="AM88" s="1">
         <f t="shared" si="217"/>
-        <v>403.69640635260305</v>
+        <v>527.20400515592803</v>
       </c>
       <c r="AN88" s="1">
         <f t="shared" si="217"/>
-        <v>422.8365891624652</v>
+        <v>541.93207886516484</v>
       </c>
     </row>
     <row r="89" spans="1:41">
@@ -8352,155 +8349,155 @@
       </c>
       <c r="C89" s="8">
         <f>IFERROR((C62-C86)/C88,0)</f>
-        <v>0.57929342267588968</v>
+        <v>0.57929631739270915</v>
       </c>
       <c r="D89" s="8">
         <f t="shared" ref="D89:K89" si="218">IFERROR((D62-D86)/D88,0)</f>
-        <v>0.56862011643613386</v>
+        <v>0.56863467572736603</v>
       </c>
       <c r="E89" s="8">
         <f t="shared" si="218"/>
-        <v>0.55729162151779665</v>
+        <v>0.55732811860278386</v>
       </c>
       <c r="F89" s="8">
         <f t="shared" si="218"/>
-        <v>0.54524637434668599</v>
+        <v>0.54531686457357476</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="218"/>
-        <v>0.53241484597047606</v>
+        <v>0.5325335055405539</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="218"/>
-        <v>0.51871821075850633</v>
+        <v>0.51890175047107312</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="218"/>
-        <v>0.50406673885797093</v>
+        <v>0.50433491233505945</v>
       </c>
       <c r="J89" s="8">
         <f t="shared" si="218"/>
-        <v>0.48150515086632878</v>
+        <v>0.48186440965190291</v>
       </c>
       <c r="K89" s="8">
         <f t="shared" si="218"/>
-        <v>0.48827202721216728</v>
+        <v>0.48858265016881358</v>
       </c>
       <c r="L89" s="8">
         <f t="shared" ref="L89" si="219">IFERROR((L62-L86)/L88,0)</f>
-        <v>0.48800154759260783</v>
+        <v>0.49372174525028445</v>
       </c>
       <c r="M89" s="8">
         <f t="shared" ref="M89" si="220">IFERROR((M62-M86)/M88,0)</f>
-        <v>0.48454586417984852</v>
+        <v>0.49759864734116427</v>
       </c>
       <c r="N89" s="8">
         <f t="shared" ref="N89" si="221">IFERROR((N62-N86)/N88,0)</f>
-        <v>0.476873837929225</v>
+        <v>0.50028701374809925</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" ref="O89" si="222">IFERROR((O62-O86)/O88,0)</f>
-        <v>0.46318306112144031</v>
+        <v>0.50179505505972755</v>
       </c>
       <c r="P89" s="8">
         <f t="shared" ref="P89" si="223">IFERROR((P62-P86)/P88,0)</f>
-        <v>0.44055722518519236</v>
+        <v>0.50205336680055446</v>
       </c>
       <c r="Q89" s="8">
         <f t="shared" ref="Q89" si="224">IFERROR((Q62-Q86)/Q88,0)</f>
-        <v>0.40562952492064358</v>
+        <v>0.5008911531289657</v>
       </c>
       <c r="R89" s="8">
         <f t="shared" ref="R89" si="225">IFERROR((R62-R86)/R88,0)</f>
-        <v>0.36121428699372504</v>
+        <v>0.49799462182140181</v>
       </c>
       <c r="S89" s="8">
         <f t="shared" ref="S89" si="226">IFERROR((S62-S86)/S88,0)</f>
-        <v>0.32167942076513911</v>
+        <v>0.49283553054879914</v>
       </c>
       <c r="T89" s="8">
         <f t="shared" ref="T89" si="227">IFERROR((T62-T86)/T88,0)</f>
-        <v>0.28704717105787125</v>
+        <v>0.48454584719209015</v>
       </c>
       <c r="U89" s="8">
         <f t="shared" ref="U89" si="228">IFERROR((U62-U86)/U88,0)</f>
-        <v>0.25728976304197892</v>
+        <v>0.47168738351461342</v>
       </c>
       <c r="V89" s="8">
         <f t="shared" ref="V89" si="229">IFERROR((V62-V86)/V88,0)</f>
-        <v>0.23231791374848856</v>
+        <v>0.45179826104622856</v>
       </c>
       <c r="W89" s="8">
         <f t="shared" ref="W89" si="230">IFERROR((W62-W86)/W88,0)</f>
-        <v>0.2119710990599018</v>
+        <v>0.42041303512720557</v>
       </c>
       <c r="X89" s="8">
         <f t="shared" ref="X89" si="231">IFERROR((X62-X86)/X88,0)</f>
-        <v>0.19570770050231617</v>
+        <v>0.37971166338411122</v>
       </c>
       <c r="Y89" s="8">
         <f t="shared" ref="Y89" si="232">IFERROR((Y62-Y86)/Y88,0)</f>
-        <v>0.18180853218206061</v>
+        <v>0.34310859207011501</v>
       </c>
       <c r="Z89" s="8">
         <f t="shared" ref="Z89" si="233">IFERROR((Z62-Z86)/Z88,0)</f>
-        <v>0.16982884434556084</v>
+        <v>0.31064784882791524</v>
       </c>
       <c r="AA89" s="8">
         <f t="shared" ref="AA89" si="234">IFERROR((AA62-AA86)/AA88,0)</f>
-        <v>0.15953808167627948</v>
+        <v>0.28216615924214977</v>
       </c>
       <c r="AB89" s="8">
         <f t="shared" ref="AB89" si="235">IFERROR((AB62-AB86)/AB88,0)</f>
-        <v>0.15073166816181588</v>
+        <v>0.25746470252548448</v>
       </c>
       <c r="AC89" s="8">
         <f t="shared" ref="AC89" si="236">IFERROR((AC62-AC86)/AC88,0)</f>
-        <v>0.14322807947511923</v>
+        <v>0.23631029420655764</v>
       </c>
       <c r="AD89" s="8">
         <f t="shared" ref="AD89" si="237">IFERROR((AD62-AD86)/AD88,0)</f>
-        <v>0.13686625697444121</v>
+        <v>0.21843854443976979</v>
       </c>
       <c r="AE89" s="8">
         <f t="shared" ref="AE89" si="238">IFERROR((AE62-AE86)/AE88,0)</f>
-        <v>0.1315033212219868</v>
+        <v>0.20355894718825399</v>
       </c>
       <c r="AF89" s="8">
         <f t="shared" ref="AF89" si="239">IFERROR((AF62-AF86)/AF88,0)</f>
-        <v>0.12701254846173496</v>
+        <v>0.19136165101430139</v>
       </c>
       <c r="AG89" s="8">
         <f t="shared" ref="AG89" si="240">IFERROR((AG62-AG86)/AG88,0)</f>
-        <v>0.12328157825464837</v>
+        <v>0.18152547462645935</v>
       </c>
       <c r="AH89" s="8">
         <f t="shared" ref="AH89" si="241">IFERROR((AH62-AH86)/AH88,0)</f>
-        <v>0.12021082456334743</v>
+        <v>0.17348551757403902</v>
       </c>
       <c r="AI89" s="8">
         <f t="shared" ref="AI89" si="242">IFERROR((AI62-AI86)/AI88,0)</f>
-        <v>0.11771206610773205</v>
+        <v>0.16646892434921642</v>
       </c>
       <c r="AJ89" s="8">
         <f t="shared" ref="AJ89" si="243">IFERROR((AJ62-AJ86)/AJ88,0)</f>
-        <v>0.11570719486155345</v>
+        <v>0.16033582028778845</v>
       </c>
       <c r="AK89" s="8">
         <f t="shared" ref="AK89" si="244">IFERROR((AK62-AK86)/AK88,0)</f>
-        <v>0.1141271041977794</v>
+        <v>0.15498246892777964</v>
       </c>
       <c r="AL89" s="8">
         <f t="shared" ref="AL89" si="245">IFERROR((AL62-AL86)/AL88,0)</f>
-        <v>0.11291070047704083</v>
+        <v>0.15031635001938579</v>
       </c>
       <c r="AM89" s="8">
         <f t="shared" ref="AM89" si="246">IFERROR((AM62-AM86)/AM88,0)</f>
-        <v>0.11200402385861082</v>
+        <v>0.14625496950838629</v>
       </c>
       <c r="AN89" s="8">
         <f t="shared" ref="AN89" si="247">IFERROR((AN62-AN86)/AN88,0)</f>
-        <v>0.11135946583967772</v>
+        <v>0.14272479811491259</v>
       </c>
     </row>
   </sheetData>

--- a/electricity-build-rate-constraint.xlsx
+++ b/electricity-build-rate-constraint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="160" windowWidth="24920" windowHeight="12220"/>
+    <workbookView xWindow="120" yWindow="160" windowWidth="28200" windowHeight="17320"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="4" r:id="rId1"/>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>MtCO2</t>
-  </si>
-  <si>
-    <t>Maximum build rate</t>
   </si>
   <si>
     <t>Electrification of demand</t>
@@ -305,6 +302,9 @@
   <si>
     <t>MtCO2/CB4 period</t>
   </si>
+  <si>
+    <t>Build rate target in second build</t>
+  </si>
 </sst>
 </file>
 
@@ -388,10 +388,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,7 +455,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -473,6 +475,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -491,6 +494,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -727,94 +731,94 @@
                   <c:v>174.9245322349556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>169.0937144937904</c:v>
+                  <c:v>190.90306686612</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>163.8572573439974</c:v>
+                  <c:v>215.275229384949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>158.9953487658642</c:v>
+                  <c:v>248.9442658620565</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>154.595503807002</c:v>
+                  <c:v>276.7302926635712</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150.7923203467686</c:v>
+                  <c:v>297.6175756185065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>147.790909668543</c:v>
+                  <c:v>312.1442137131525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>145.9020460129248</c:v>
+                  <c:v>320.8118668767954</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>145.5948944791607</c:v>
+                  <c:v>324.0880930743127</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>147.5761063298553</c:v>
+                  <c:v>323.2100467158766</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>152.9084652855268</c:v>
+                  <c:v>321.9172065290131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>163.1888601926759</c:v>
+                  <c:v>320.6295377028971</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>180.8152471445867</c:v>
+                  <c:v>319.3470195520855</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>209.3870956772672</c:v>
+                  <c:v>318.0696314738772</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>245.6166016137859</c:v>
+                  <c:v>316.7973529479817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>278.1062324007859</c:v>
+                  <c:v>315.5301635361897</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>307.2088262112753</c:v>
+                  <c:v>314.2680428820449</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>333.3306422831736</c:v>
+                  <c:v>313.0109707105167</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>356.8413177850695</c:v>
+                  <c:v>311.7589268276747</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>378.076379050315</c:v>
+                  <c:v>310.511891120364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>397.3396458278668</c:v>
+                  <c:v>309.2698435558824</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>414.9055243219899</c:v>
+                  <c:v>308.032764181659</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>431.0211866621105</c:v>
+                  <c:v>306.8006331249322</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>445.9086359878589</c:v>
+                  <c:v>305.5734305924325</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>459.882502016792</c:v>
+                  <c:v>304.3511368700628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>473.3456502536238</c:v>
+                  <c:v>303.1337323225825</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>486.3920294913023</c:v>
+                  <c:v>301.9211973932922</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>499.0913858437601</c:v>
+                  <c:v>300.7135126037191</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>511.5026353526991</c:v>
+                  <c:v>299.5106585533042</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>523.6756650848824</c:v>
+                  <c:v>423.9179108412175</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>535.652853451975</c:v>
+                  <c:v>581.2201357255762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,94 +998,94 @@
                   <c:v>160.157241881563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>172.802633452753</c:v>
+                  <c:v>142.8383801539324</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>184.9922527416702</c:v>
+                  <c:v>117.1312518470233</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>196.948730245</c:v>
+                  <c:v>82.13258944498787</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>208.5874267116025</c:v>
+                  <c:v>53.022255222245</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>219.7766785438006</c:v>
+                  <c:v>30.81596207576644</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>230.3143684145198</c:v>
+                  <c:v>14.97558983034332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>239.892776927696</c:v>
+                  <c:v>4.999457452526542</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248.0458559551352</c:v>
+                  <c:v>0.419985957691892</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>254.0701345952724</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>256.9060741677819</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>254.9600968608901</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>245.8376249527099</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>225.9426359847282</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>198.5664513147489</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>175.1101922060747</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>155.2246821794062</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>138.5073981585704</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>124.5925151192225</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>113.1483964000114</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>103.8751910284242</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>96.5025422898334</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>90.78740989911148</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>86.5120065904394</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83.36600425849571</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>80.95092649289256</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>79.1773028562265</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>77.97995666663672</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>77.30463424324886</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>77.10620569877937</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>77.34714654802553</c:v>
+                  <c:v>18.7798642744234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,94 +1281,94 @@
                   <c:v>59.2581794961783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.82177262188342</c:v>
+                  <c:v>52.75497507018571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.20047717742906</c:v>
+                  <c:v>43.18238818093591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.47713273015997</c:v>
+                  <c:v>30.22479291575553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76.6211147453953</c:v>
+                  <c:v>19.47684175163799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.58478213272684</c:v>
+                  <c:v>11.29918609444769</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84.29505883971423</c:v>
+                  <c:v>5.481065877905655</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87.64082783758489</c:v>
+                  <c:v>1.826468455989696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.45405547163925</c:v>
+                  <c:v>0.15315487923831</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.48152899267911</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>93.3425402809607</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92.46552846154942</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>88.9932202328809</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>81.64060580248173</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71.61630010751939</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.03966919418683</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.77740246313325</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.67798680620722</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44.6041204126816</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.43169364693736</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37.04881813347127</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.35490505518065</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.2597929841509</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30.6829250040758</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29.51156550750744</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.60266069415533</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.92319547396251</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.44894474665609</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27.15969483079473</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.03857613170526</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27.07150129180889</c:v>
+                  <c:v>6.57295249604818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,94 +1669,94 @@
                   <c:v>176.8469193898094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186.6699454533576</c:v>
+                  <c:v>158.0713919149994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>195.5011407660597</c:v>
+                  <c:v>129.9083821136471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203.6194363214786</c:v>
+                  <c:v>91.29237647169482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>210.9711341223684</c:v>
+                  <c:v>59.06502277696505</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>217.4622873850381</c:v>
+                  <c:v>34.40326518957907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>222.9407091778183</c:v>
+                  <c:v>16.75553059928657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>227.169528013791</c:v>
+                  <c:v>5.605908449466746</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>229.788342217728</c:v>
+                  <c:v>0.471960142549194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>230.2561796163279</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>227.7677614988462</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>221.1305968884776</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>208.5846036742167</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>187.5373995035796</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161.2315004711398</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>139.0939643215052</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>120.6171297085383</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>105.2860993566727</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>92.64849573118556</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>82.30792840176256</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73.91803954936385</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>67.17708870489372</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>61.82303855618058</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>57.62910479107417</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>54.32424602480663</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.60172711518571</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.37183449827576</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>47.5659467462839</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>46.12662960060307</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45.00564588681088</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44.16231858370124</c:v>
+                  <c:v>10.95492082674697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,94 +2057,94 @@
                   <c:v>15.16211538622233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>22.74317307933349</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4</c:v>
+                  <c:v>34.11475961900023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6</c:v>
+                  <c:v>51.17213942850034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.35</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.025</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.037500000000001</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.55625</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.834375</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.2515625</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.37734375</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.066015625</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.5990234375</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,9 +2654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B74" sqref="B74"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2664,7 +2668,7 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -2672,20 +2676,20 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5">
-        <v>2020</v>
+        <v>2048</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(M53:Q53)</f>
-        <v>401.61891628558124</v>
+        <v>68.308355095736573</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
@@ -2693,23 +2697,23 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="11">
         <f>B31*((1+B32)^(B3-B47))</f>
-        <v>335.0817741165186</v>
+        <v>299.51065855330432</v>
       </c>
       <c r="N4" t="s">
         <v>1</v>
@@ -2733,14 +2737,14 @@
         <v>5</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="8">
         <f>((B4/M4)^(1/(2050-B3)))-1</f>
-        <v>2.0337047122279905E-2</v>
+        <v>0.41536836414712242</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5">
         <f>690-365</f>
@@ -2753,14 +2757,14 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>2030</v>
       </c>
       <c r="F6" s="12">
         <f>T52</f>
-        <v>227.76776149884617</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -2776,26 +2780,26 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6">
         <v>0.3</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>2050</v>
       </c>
       <c r="F7" s="12">
         <f>AN52</f>
-        <v>44.16231858370125</v>
+        <v>10.954920826746973</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2">
         <f>B7*J48</f>
@@ -2807,28 +2811,28 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2">
         <f>SUM(B53:AN53)</f>
-        <v>2687.6980430537405</v>
+        <v>1131.4014709646651</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B9" s="7">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2836,7 +2840,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="7">
         <v>0.4</v>
@@ -2847,38 +2851,38 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="14">
         <v>0.5</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="14">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <v>30</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2950,7 +2954,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="5">
         <v>346</v>
@@ -2961,16 +2965,16 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="17">
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:51">
@@ -2984,7 +2988,7 @@
     </row>
     <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5">
         <v>38.700000000000003</v>
@@ -3009,7 +3013,7 @@
     </row>
     <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5">
         <v>59</v>
@@ -3018,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -3033,7 +3037,7 @@
     </row>
     <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5">
         <v>10</v>
@@ -3042,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M36" s="1">
         <f>B35</f>
@@ -3061,7 +3065,7 @@
     </row>
     <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="5">
         <v>5.4</v>
@@ -3070,10 +3074,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M37" s="2">
         <f>SUM(M34:M36)</f>
@@ -3089,7 +3093,7 @@
     </row>
     <row r="38" spans="1:51">
       <c r="L38" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <f>(N37-M37)/(N33-M33)</f>
@@ -3112,7 +3116,7 @@
     </row>
     <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="5">
         <v>650</v>
@@ -3127,12 +3131,12 @@
         <v>5</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <f>(C40-B40)/(C39-B39)</f>
@@ -3143,7 +3147,7 @@
         <v>-0.66666666666666663</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:51">
@@ -3154,12 +3158,12 @@
         <v>2050</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="5">
         <v>0.5</v>
@@ -3174,7 +3178,7 @@
     </row>
     <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="5">
         <v>1.5</v>
@@ -3184,12 +3188,12 @@
       </c>
       <c r="D45" s="18">
         <f>((C45/B45)^(1/($C$43-B3)))-1</f>
-        <v>9.6355280556115197E-3</v>
+        <v>0.15470053837925146</v>
       </c>
     </row>
     <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>2012</v>
@@ -3396,123 +3400,123 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="1"/>
-        <v>341.89634794654336</v>
+        <v>333.74144702005248</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="1"/>
-        <v>348.84951008566759</v>
+        <v>332.40648123197229</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="1"/>
-        <v>355.94407901086407</v>
+        <v>331.07685530704441</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="1"/>
-        <v>363.18293051860456</v>
+        <v>329.75254788581623</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="1"/>
-        <v>370.56899889056916</v>
+        <v>328.43353769427296</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="1"/>
-        <v>378.10527808306279</v>
+        <v>327.11980354349589</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="1"/>
-        <v>385.7948229406208</v>
+        <v>325.81132432932191</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="1"/>
-        <v>393.64075043429585</v>
+        <v>324.50807903200462</v>
       </c>
       <c r="S48" s="1">
         <f t="shared" si="1"/>
-        <v>401.64624092512776</v>
+        <v>323.21004671587662</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" si="1"/>
-        <v>409.81453945330867</v>
+        <v>321.91720652901313</v>
       </c>
       <c r="U48" s="1">
         <f t="shared" si="1"/>
-        <v>418.14895705356605</v>
+        <v>320.6295377028971</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="1"/>
-        <v>426.65287209729661</v>
+        <v>319.3470195520855</v>
       </c>
       <c r="W48" s="1">
         <f t="shared" si="1"/>
-        <v>435.32973166199537</v>
+        <v>318.06963147387717</v>
       </c>
       <c r="X48" s="1">
         <f t="shared" si="1"/>
-        <v>444.18305292853483</v>
+        <v>316.79735294798166</v>
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="1"/>
-        <v>453.21642460686058</v>
+        <v>315.53016353618972</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="1"/>
-        <v>462.43350839068154</v>
+        <v>314.26804288204494</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="1"/>
-        <v>471.83804044174406</v>
+        <v>313.01097071051674</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="1"/>
-        <v>481.43383290429199</v>
+        <v>311.75892682767466</v>
       </c>
       <c r="AC48" s="1">
         <f t="shared" si="1"/>
-        <v>491.22477545032643</v>
+        <v>310.51189112036394</v>
       </c>
       <c r="AD48" s="1">
         <f t="shared" si="1"/>
-        <v>501.21483685629107</v>
+        <v>309.26984355588246</v>
       </c>
       <c r="AE48" s="1">
         <f t="shared" si="1"/>
-        <v>511.4080666118233</v>
+        <v>308.03276418165893</v>
       </c>
       <c r="AF48" s="1">
         <f t="shared" si="1"/>
-        <v>521.80859656122198</v>
+        <v>306.80063312493229</v>
       </c>
       <c r="AG48" s="1">
         <f t="shared" si="1"/>
-        <v>532.42064257829827</v>
+        <v>305.57343059243254</v>
       </c>
       <c r="AH48" s="1">
         <f t="shared" si="1"/>
-        <v>543.2485062752877</v>
+        <v>304.35113687006282</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="1"/>
-        <v>554.29657674651639</v>
+        <v>303.13373232258255</v>
       </c>
       <c r="AJ48" s="1">
         <f t="shared" si="1"/>
-        <v>565.56933234752876</v>
+        <v>301.92119739329223</v>
       </c>
       <c r="AK48" s="1">
         <f t="shared" si="1"/>
-        <v>577.07134251039679</v>
+        <v>300.71351260371904</v>
       </c>
       <c r="AL48" s="1">
         <f t="shared" si="1"/>
-        <v>588.80726959594801</v>
+        <v>299.51065855330415</v>
       </c>
       <c r="AM48" s="1">
         <f t="shared" si="1"/>
-        <v>600.78187078366182</v>
+        <v>423.91791084121746</v>
       </c>
       <c r="AN48" s="1">
         <f t="shared" si="1"/>
-        <v>613.00000000000057</v>
+        <v>599.99999999999966</v>
       </c>
       <c r="AO48" t="s">
         <v>1</v>
@@ -3560,123 +3564,123 @@
       </c>
       <c r="K49" s="2">
         <f>K86</f>
-        <v>169.0937144937904</v>
+        <v>190.90306686612004</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" ref="L49:AN49" si="3">L86</f>
-        <v>163.85725734399739</v>
+        <v>215.275229384949</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>158.99534876586415</v>
+        <v>248.94426586205654</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="3"/>
-        <v>154.59550380700202</v>
+        <v>276.73029266357122</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="3"/>
-        <v>150.79232034676861</v>
+        <v>297.61757561850652</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="3"/>
-        <v>147.79090966854298</v>
+        <v>312.14421371315257</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="3"/>
-        <v>145.90204601292487</v>
+        <v>320.81186687679536</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="3"/>
-        <v>145.5948944791607</v>
+        <v>324.08809307431272</v>
       </c>
       <c r="S49" s="2">
         <f t="shared" si="3"/>
-        <v>147.57610632985535</v>
+        <v>323.21004671587662</v>
       </c>
       <c r="T49" s="2">
         <f t="shared" si="3"/>
-        <v>152.90846528552683</v>
+        <v>321.91720652901313</v>
       </c>
       <c r="U49" s="2">
         <f t="shared" si="3"/>
-        <v>163.18886019267595</v>
+        <v>320.6295377028971</v>
       </c>
       <c r="V49" s="2">
         <f t="shared" si="3"/>
-        <v>180.81524714458675</v>
+        <v>319.3470195520855</v>
       </c>
       <c r="W49" s="2">
         <f t="shared" si="3"/>
-        <v>209.38709567726718</v>
+        <v>318.06963147387717</v>
       </c>
       <c r="X49" s="2">
         <f t="shared" si="3"/>
-        <v>245.61660161378592</v>
+        <v>316.79735294798166</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="3"/>
-        <v>278.10623240078593</v>
+        <v>315.53016353618972</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="3"/>
-        <v>307.20882621127532</v>
+        <v>314.26804288204494</v>
       </c>
       <c r="AA49" s="2">
         <f t="shared" si="3"/>
-        <v>333.33064228317363</v>
+        <v>313.01097071051674</v>
       </c>
       <c r="AB49" s="2">
         <f t="shared" si="3"/>
-        <v>356.84131778506952</v>
+        <v>311.75892682767466</v>
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="3"/>
-        <v>378.07637905031504</v>
+        <v>310.51189112036394</v>
       </c>
       <c r="AD49" s="2">
         <f t="shared" si="3"/>
-        <v>397.33964582786683</v>
+        <v>309.2698435558824</v>
       </c>
       <c r="AE49" s="2">
         <f t="shared" si="3"/>
-        <v>414.9055243219899</v>
+        <v>308.03276418165893</v>
       </c>
       <c r="AF49" s="2">
         <f t="shared" si="3"/>
-        <v>431.02118666211049</v>
+        <v>306.80063312493229</v>
       </c>
       <c r="AG49" s="2">
         <f t="shared" si="3"/>
-        <v>445.90863598785887</v>
+        <v>305.57343059243254</v>
       </c>
       <c r="AH49" s="2">
         <f t="shared" si="3"/>
-        <v>459.88250201679199</v>
+        <v>304.35113687006282</v>
       </c>
       <c r="AI49" s="2">
         <f t="shared" si="3"/>
-        <v>473.34565025362383</v>
+        <v>303.13373232258255</v>
       </c>
       <c r="AJ49" s="2">
         <f t="shared" si="3"/>
-        <v>486.39202949130225</v>
+        <v>301.92119739329223</v>
       </c>
       <c r="AK49" s="2">
         <f t="shared" si="3"/>
-        <v>499.09138584376007</v>
+        <v>300.7135126037191</v>
       </c>
       <c r="AL49" s="2">
         <f t="shared" si="3"/>
-        <v>511.50263535269914</v>
+        <v>299.51065855330415</v>
       </c>
       <c r="AM49" s="2">
         <f t="shared" si="3"/>
-        <v>523.67566508488244</v>
+        <v>423.91791084121746</v>
       </c>
       <c r="AN49" s="2">
         <f t="shared" si="3"/>
-        <v>535.65285345197503</v>
+        <v>581.22013572557626</v>
       </c>
       <c r="AO49" t="s">
         <v>1</v>
@@ -3724,123 +3728,123 @@
       </c>
       <c r="K50" s="2">
         <f t="shared" si="4"/>
-        <v>172.80263345275296</v>
+        <v>142.83838015393243</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="4"/>
-        <v>184.9922527416702</v>
+        <v>117.13125184702329</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="4"/>
-        <v>196.94873024499992</v>
+        <v>82.132589444987872</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>208.58742671160255</v>
+        <v>53.022255222245008</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="4"/>
-        <v>219.77667854380056</v>
+        <v>30.815962075766436</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="4"/>
-        <v>230.31436841451981</v>
+        <v>14.975589830343324</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="4"/>
-        <v>239.89277692769593</v>
+        <v>4.9994574525265421</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="4"/>
-        <v>248.04585595513515</v>
+        <v>0.41998595769189251</v>
       </c>
       <c r="S50" s="2">
         <f t="shared" si="4"/>
-        <v>254.07013459527241</v>
+        <v>0</v>
       </c>
       <c r="T50" s="2">
         <f t="shared" si="4"/>
-        <v>256.90607416778187</v>
+        <v>0</v>
       </c>
       <c r="U50" s="2">
         <f t="shared" si="4"/>
-        <v>254.9600968608901</v>
+        <v>0</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" si="4"/>
-        <v>245.83762495270986</v>
+        <v>0</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="4"/>
-        <v>225.94263598472818</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="4"/>
-        <v>198.56645131474892</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="4"/>
-        <v>175.11019220607466</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="4"/>
-        <v>155.22468217940622</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="4"/>
-        <v>138.50739815857042</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="4"/>
-        <v>124.59251511922247</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="4"/>
-        <v>113.14839640001139</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="4"/>
-        <v>103.87519102842424</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="4"/>
-        <v>96.5025422898334</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="4"/>
-        <v>90.787409899111481</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="4"/>
-        <v>86.512006590439398</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="4"/>
-        <v>83.366004258495707</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="4"/>
-        <v>80.950926492892563</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="2">
         <f t="shared" si="4"/>
-        <v>79.177302856226504</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="2">
         <f t="shared" si="4"/>
-        <v>77.979956666636724</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="2">
         <f t="shared" si="4"/>
-        <v>77.30463424324887</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="2">
         <f t="shared" si="4"/>
-        <v>77.106205698779377</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="2">
         <f t="shared" si="4"/>
-        <v>77.347146548025535</v>
+        <v>18.779864274423403</v>
       </c>
       <c r="AO50" t="s">
         <v>1</v>
@@ -4052,123 +4056,123 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" si="7"/>
-        <v>186.6699454533576</v>
+        <v>158.0713919149994</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="7"/>
-        <v>195.50114076605971</v>
+        <v>129.90838211364709</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="7"/>
-        <v>203.61943632147856</v>
+        <v>91.292376471694823</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="7"/>
-        <v>210.97113412236837</v>
+        <v>59.065022776965051</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="7"/>
-        <v>217.46228738503817</v>
+        <v>34.403265189579074</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="7"/>
-        <v>222.94070917781832</v>
+        <v>16.755530599286566</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="7"/>
-        <v>227.16952801379099</v>
+        <v>5.6059084494667459</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="7"/>
-        <v>229.78834221772803</v>
+        <v>0.47196014254919411</v>
       </c>
       <c r="S52" s="1">
         <f t="shared" si="7"/>
-        <v>230.25617961632787</v>
+        <v>0</v>
       </c>
       <c r="T52" s="1">
         <f t="shared" si="7"/>
-        <v>227.76776149884617</v>
+        <v>0</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" si="7"/>
-        <v>221.13059688847756</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="7"/>
-        <v>208.58460367421674</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="7"/>
-        <v>187.53739950357959</v>
+        <v>0</v>
       </c>
       <c r="X52" s="1">
         <f t="shared" si="7"/>
-        <v>161.23150047113981</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" si="7"/>
-        <v>139.09396432150521</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
         <f t="shared" si="7"/>
-        <v>120.61712970853826</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="1">
         <f t="shared" si="7"/>
-        <v>105.28609935667269</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="1">
         <f t="shared" si="7"/>
-        <v>92.648495731185562</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="1">
         <f t="shared" si="7"/>
-        <v>82.307928401762567</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="1">
         <f t="shared" si="7"/>
-        <v>73.918039549363854</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="1">
         <f t="shared" si="7"/>
-        <v>67.17708870489372</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="1">
         <f t="shared" si="7"/>
-        <v>61.823038556180585</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="1">
         <f t="shared" si="7"/>
-        <v>57.629104791074177</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="1">
         <f t="shared" si="7"/>
-        <v>54.324246024806634</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="1">
         <f t="shared" si="7"/>
-        <v>51.60172711518571</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="1">
         <f t="shared" si="7"/>
-        <v>49.37183449827576</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="1">
         <f t="shared" si="7"/>
-        <v>47.565946746283899</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
         <f t="shared" si="7"/>
-        <v>46.126629600603067</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="1">
         <f t="shared" si="7"/>
-        <v>45.005645886810882</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="1">
         <f t="shared" si="7"/>
-        <v>44.16231858370125</v>
+        <v>10.954920826746973</v>
       </c>
       <c r="AO52" t="s">
         <v>5</v>
@@ -4216,123 +4220,123 @@
       </c>
       <c r="K53" s="1">
         <f t="shared" si="8"/>
-        <v>63.821772621883419</v>
+        <v>52.754975070185715</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="8"/>
-        <v>68.200477177429065</v>
+        <v>43.182388180935916</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="8"/>
-        <v>72.477132730159965</v>
+        <v>30.224792915755533</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="8"/>
-        <v>76.621114745395317</v>
+        <v>19.476841751637995</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="8"/>
-        <v>80.584782132726843</v>
+        <v>11.299186094447689</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="8"/>
-        <v>84.29505883971423</v>
+        <v>5.4810658779056549</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="8"/>
-        <v>87.640827837584894</v>
+        <v>1.826468455989696</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="8"/>
-        <v>90.454055471639251</v>
+        <v>0.15315487923831006</v>
       </c>
       <c r="S53" s="1">
         <f t="shared" si="8"/>
-        <v>92.481528992679117</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
         <f t="shared" si="8"/>
-        <v>93.342540280960691</v>
+        <v>0</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="8"/>
-        <v>92.465528461549425</v>
+        <v>0</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="8"/>
-        <v>88.993220232880901</v>
+        <v>0</v>
       </c>
       <c r="W53" s="1">
         <f t="shared" si="8"/>
-        <v>81.64060580248173</v>
+        <v>0</v>
       </c>
       <c r="X53" s="1">
         <f t="shared" si="8"/>
-        <v>71.616300107519393</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <f t="shared" si="8"/>
-        <v>63.039669194186828</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="1">
         <f t="shared" si="8"/>
-        <v>55.777402463133249</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="1">
         <f t="shared" si="8"/>
-        <v>49.677986806207215</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="1">
         <f t="shared" si="8"/>
-        <v>44.604120412681603</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="1">
         <f t="shared" si="8"/>
-        <v>40.431693646937362</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="1">
         <f t="shared" si="8"/>
-        <v>37.048818133471272</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="1">
         <f t="shared" si="8"/>
-        <v>34.354905055180652</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="1">
         <f t="shared" si="8"/>
-        <v>32.259792984150906</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="1">
         <f t="shared" si="8"/>
-        <v>30.682925004075802</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="1">
         <f t="shared" si="8"/>
-        <v>29.511565507507441</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="1">
         <f t="shared" si="8"/>
-        <v>28.602660694155333</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="1">
         <f t="shared" si="8"/>
-        <v>27.923195473962508</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="1">
         <f t="shared" si="8"/>
-        <v>27.448944746656089</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <f t="shared" si="8"/>
-        <v>27.159694830794727</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="1">
         <f t="shared" si="8"/>
-        <v>27.038576131705259</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="1">
         <f t="shared" si="8"/>
-        <v>27.071501291808893</v>
+        <v>6.5729524960481802</v>
       </c>
       <c r="AO53" t="s">
         <v>14</v>
@@ -4340,7 +4344,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1">
         <f>B74*(1/$B$13)</f>
@@ -4380,119 +4384,119 @@
       </c>
       <c r="L54" s="1">
         <f t="shared" si="9"/>
-        <v>5.6364571497930136</v>
+        <v>6.3945629191041302</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="9"/>
-        <v>5.4619085781332464</v>
+        <v>7.3185694757673332</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="9"/>
-        <v>5.2998449588621384</v>
+        <v>8.7803551408584326</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="9"/>
-        <v>5.1531834602334001</v>
+        <v>10.254343302829819</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="9"/>
-        <v>5.0264106782256199</v>
+        <v>11.679198526068825</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="9"/>
-        <v>4.9263636556180996</v>
+        <v>13.056558575199864</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="9"/>
-        <v>4.8634015337641623</v>
+        <v>14.388006622693203</v>
       </c>
       <c r="S54" s="1">
         <f t="shared" si="9"/>
-        <v>4.8531631493053569</v>
+        <v>15.67507306860343</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" si="9"/>
-        <v>4.9192035443285116</v>
+        <v>16.919237299649982</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="9"/>
-        <v>5.0969488428508942</v>
+        <v>18.121929389661652</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="9"/>
-        <v>5.4396286730891985</v>
+        <v>19.284531743339596</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="9"/>
-        <v>6.0271749048195584</v>
+        <v>20.408380685228277</v>
       </c>
       <c r="X54" s="1">
         <f t="shared" si="9"/>
-        <v>6.9795698559089061</v>
+        <v>21.494767995720668</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" si="9"/>
-        <v>8.213584194045275</v>
+        <v>22.544942395863313</v>
       </c>
       <c r="Z54" s="1">
         <f t="shared" si="9"/>
-        <v>9.4064647209104333</v>
+        <v>23.560110982667869</v>
       </c>
       <c r="AA54" s="1">
         <f t="shared" si="9"/>
-        <v>10.559582563546751</v>
+        <v>24.541440616578939</v>
       </c>
       <c r="AB54" s="1">
         <f t="shared" si="9"/>
-        <v>11.674263144761859</v>
+        <v>25.490059262692974</v>
       </c>
       <c r="AC54" s="1">
         <f t="shared" si="9"/>
-        <v>12.75178770660313</v>
+        <v>26.407057287269875</v>
       </c>
       <c r="AD54" s="1">
         <f t="shared" si="9"/>
-        <v>13.793394783049692</v>
+        <v>27.293488711027546</v>
       </c>
       <c r="AE54" s="1">
         <f t="shared" si="9"/>
-        <v>14.800281623614703</v>
+        <v>28.150372420659963</v>
       </c>
       <c r="AF54" s="1">
         <f t="shared" si="9"/>
-        <v>15.773605569494213</v>
+        <v>28.978693339971297</v>
       </c>
       <c r="AG54" s="1">
         <f t="shared" si="9"/>
-        <v>16.714485383844405</v>
+        <v>29.779403561972252</v>
       </c>
       <c r="AH54" s="1">
         <f t="shared" si="9"/>
-        <v>17.624002537716258</v>
+        <v>30.553423443239847</v>
       </c>
       <c r="AI54" s="1">
         <f t="shared" si="9"/>
-        <v>18.503202453125716</v>
+        <v>31.301642661798518</v>
       </c>
       <c r="AJ54" s="1">
         <f t="shared" si="9"/>
-        <v>19.353095704688194</v>
+        <v>32.024921239738568</v>
       </c>
       <c r="AK54" s="1">
         <f t="shared" si="9"/>
-        <v>20.174659181198589</v>
+        <v>32.724090531747287</v>
       </c>
       <c r="AL54" s="1">
         <f t="shared" si="9"/>
-        <v>20.968837208491969</v>
+        <v>33.399954180689043</v>
       </c>
       <c r="AM54" s="1">
         <f t="shared" si="9"/>
-        <v>21.736542634875569</v>
+        <v>34.053289041332739</v>
       </c>
       <c r="AN54" s="1">
         <f t="shared" si="9"/>
-        <v>22.478657880379718</v>
+        <v>34.684846073288313</v>
       </c>
       <c r="AO54" t="s">
         <v>7</v>
@@ -4500,7 +4504,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <f>C55</f>
@@ -4539,124 +4543,124 @@
         <v>15.162115386222325</v>
       </c>
       <c r="K55" s="2">
-        <f>IF(K47&gt;$B$8,MIN(MAX(J55*(1+$B$11),$B$10),MIN($B$9,K64-(J74-K54))),MAX(J55*(1-$B$12),0))</f>
-        <v>0</v>
+        <f>IF(K47&gt;$B$8,MIN(MAX(J55*(1+$B$11),$B$10),$B$9),MAX(J55*(1-$B$12),0))</f>
+        <v>22.743173079333488</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" ref="L55:AN55" si="11">IF(L47&gt;$B$8,MIN(MAX(K55*(1+$B$11),$B$10),MIN($B$9,L64-(K74-L54))),MAX(K55*(1-$B$12),0))</f>
-        <v>0.4</v>
+        <f t="shared" ref="L55:AN55" si="11">IF(L47&gt;$B$8,MIN(MAX(K55*(1+$B$11),$B$10),$B$9),MAX(K55*(1-$B$12),0))</f>
+        <v>34.114759619000232</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="11"/>
-        <v>0.60000000000000009</v>
+        <v>51.172139428500344</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="11"/>
-        <v>0.90000000000000013</v>
+        <v>53</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="11"/>
-        <v>1.35</v>
+        <v>53</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="11"/>
-        <v>2.0250000000000004</v>
+        <v>53</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="11"/>
-        <v>3.0375000000000005</v>
+        <v>53</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="11"/>
-        <v>4.5562500000000004</v>
+        <v>53</v>
       </c>
       <c r="S55" s="2">
         <f t="shared" si="11"/>
-        <v>6.8343750000000005</v>
+        <v>53</v>
       </c>
       <c r="T55" s="2">
         <f t="shared" si="11"/>
-        <v>10.2515625</v>
+        <v>53</v>
       </c>
       <c r="U55" s="2">
         <f t="shared" si="11"/>
-        <v>15.377343750000001</v>
+        <v>53</v>
       </c>
       <c r="V55" s="2">
         <f t="shared" si="11"/>
-        <v>23.066015625000002</v>
+        <v>53</v>
       </c>
       <c r="W55" s="2">
         <f t="shared" si="11"/>
-        <v>34.599023437500001</v>
+        <v>53</v>
       </c>
       <c r="X55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Z55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AA55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AD55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AF55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AI55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AJ55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AK55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AL55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AM55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AN55" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AO55" t="s">
         <v>7</v>
@@ -4664,7 +4668,7 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2">
         <f>C74-B74</f>
@@ -4700,123 +4704,123 @@
       </c>
       <c r="K56" s="2">
         <f>K55-K54</f>
-        <v>-5.8308177411651867</v>
+        <v>16.9123553381683</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" ref="L56:AN56" si="13">L55-L54</f>
-        <v>-5.2364571497930132</v>
+        <v>27.7201966998961</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="13"/>
-        <v>-4.8619085781332458</v>
+        <v>43.853569952733011</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="13"/>
-        <v>-4.399844958862138</v>
+        <v>44.219644859141567</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="13"/>
-        <v>-3.8031834602334</v>
+        <v>42.745656697170183</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="13"/>
-        <v>-3.0014106782256196</v>
+        <v>41.320801473931176</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="13"/>
-        <v>-1.8888636556180991</v>
+        <v>39.943441424800135</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="13"/>
-        <v>-0.30715153376416193</v>
+        <v>38.611993377306796</v>
       </c>
       <c r="S56" s="2">
         <f t="shared" si="13"/>
-        <v>1.9812118506946437</v>
+        <v>37.324926931396568</v>
       </c>
       <c r="T56" s="2">
         <f t="shared" si="13"/>
-        <v>5.3323589556714888</v>
+        <v>36.080762700350022</v>
       </c>
       <c r="U56" s="2">
         <f t="shared" si="13"/>
-        <v>10.280394907149107</v>
+        <v>34.878070610338348</v>
       </c>
       <c r="V56" s="2">
         <f t="shared" si="13"/>
-        <v>17.626386951910803</v>
+        <v>33.715468256660401</v>
       </c>
       <c r="W56" s="2">
         <f t="shared" si="13"/>
-        <v>28.571848532680441</v>
+        <v>32.591619314771719</v>
       </c>
       <c r="X56" s="2">
         <f t="shared" si="13"/>
-        <v>37.020430144091094</v>
+        <v>31.505232004279332</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" si="13"/>
-        <v>35.786415805954725</v>
+        <v>30.455057604136687</v>
       </c>
       <c r="Z56" s="2">
         <f t="shared" si="13"/>
-        <v>34.593535279089565</v>
+        <v>29.439889017332131</v>
       </c>
       <c r="AA56" s="2">
         <f t="shared" si="13"/>
-        <v>33.440417436453245</v>
+        <v>28.458559383421061</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="13"/>
-        <v>32.325736855238141</v>
+        <v>27.509940737307026</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="13"/>
-        <v>31.248212293396868</v>
+        <v>26.592942712730125</v>
       </c>
       <c r="AD56" s="2">
         <f t="shared" si="13"/>
-        <v>30.206605216950308</v>
+        <v>25.706511288972454</v>
       </c>
       <c r="AE56" s="2">
         <f t="shared" si="13"/>
-        <v>29.199718376385299</v>
+        <v>24.849627579340037</v>
       </c>
       <c r="AF56" s="2">
         <f t="shared" si="13"/>
-        <v>28.226394430505785</v>
+        <v>24.021306660028703</v>
       </c>
       <c r="AG56" s="2">
         <f t="shared" si="13"/>
-        <v>27.285514616155595</v>
+        <v>23.220596438027748</v>
       </c>
       <c r="AH56" s="2">
         <f t="shared" si="13"/>
-        <v>26.375997462283742</v>
+        <v>22.446576556760153</v>
       </c>
       <c r="AI56" s="2">
         <f t="shared" si="13"/>
-        <v>25.496797546874284</v>
+        <v>21.698357338201482</v>
       </c>
       <c r="AJ56" s="2">
         <f t="shared" si="13"/>
-        <v>24.646904295311806</v>
+        <v>20.975078760261432</v>
       </c>
       <c r="AK56" s="2">
         <f t="shared" si="13"/>
-        <v>23.825340818801411</v>
+        <v>20.275909468252713</v>
       </c>
       <c r="AL56" s="2">
         <f t="shared" si="13"/>
-        <v>23.031162791508031</v>
+        <v>19.600045819310957</v>
       </c>
       <c r="AM56" s="2">
         <f t="shared" si="13"/>
-        <v>22.263457365124431</v>
+        <v>18.946710958667261</v>
       </c>
       <c r="AN56" s="2">
         <f t="shared" si="13"/>
-        <v>21.521342119620282</v>
+        <v>18.315153926711687</v>
       </c>
       <c r="AO56" t="s">
         <v>7</v>
@@ -4824,7 +4828,7 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="16">
         <f t="shared" ref="B59:AN59" si="14">IF(B47&lt;$B$3,$B$44,A59*(1+$D$44))</f>
@@ -4985,7 +4989,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="16">
         <f t="shared" ref="B60:AN60" si="15">IF(B47&lt;$B$3,$B$45,A60*(1+$D$45))</f>
@@ -5021,132 +5025,132 @@
       </c>
       <c r="J60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5144532920834173</v>
+        <v>1.5</v>
       </c>
       <c r="K60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5290458492682002</v>
+        <v>1.5</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5437790134471403</v>
+        <v>1.5</v>
       </c>
       <c r="M60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5586541394428746</v>
+        <v>1.5</v>
       </c>
       <c r="N60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5736725951324715</v>
+        <v>1.5</v>
       </c>
       <c r="O60" s="16">
         <f t="shared" si="15"/>
-        <v>1.5888357615732174</v>
+        <v>1.5</v>
       </c>
       <c r="P60" s="16">
         <f t="shared" si="15"/>
-        <v>1.604145033129615</v>
+        <v>1.5</v>
       </c>
       <c r="Q60" s="16">
         <f t="shared" si="15"/>
-        <v>1.6196018176016052</v>
+        <v>1.5</v>
       </c>
       <c r="R60" s="16">
         <f t="shared" si="15"/>
-        <v>1.6352075363540248</v>
+        <v>1.5</v>
       </c>
       <c r="S60" s="16">
         <f t="shared" si="15"/>
-        <v>1.6509636244473114</v>
+        <v>1.5</v>
       </c>
       <c r="T60" s="16">
         <f t="shared" si="15"/>
-        <v>1.6668715307694675</v>
+        <v>1.5</v>
       </c>
       <c r="U60" s="16">
         <f t="shared" si="15"/>
-        <v>1.6829327181692968</v>
+        <v>1.5</v>
       </c>
       <c r="V60" s="16">
         <f t="shared" si="15"/>
-        <v>1.6991486635909236</v>
+        <v>1.5</v>
       </c>
       <c r="W60" s="16">
         <f t="shared" si="15"/>
-        <v>1.7155208582096089</v>
+        <v>1.5</v>
       </c>
       <c r="X60" s="16">
         <f t="shared" si="15"/>
-        <v>1.7320508075688743</v>
+        <v>1.5</v>
       </c>
       <c r="Y60" s="16">
         <f t="shared" si="15"/>
-        <v>1.7487400317189488</v>
+        <v>1.5</v>
       </c>
       <c r="Z60" s="16">
         <f t="shared" si="15"/>
-        <v>1.7655900653565477</v>
+        <v>1.5</v>
       </c>
       <c r="AA60" s="16">
         <f t="shared" si="15"/>
-        <v>1.7826024579659998</v>
+        <v>1.5</v>
       </c>
       <c r="AB60" s="16">
         <f t="shared" si="15"/>
-        <v>1.7997787739617332</v>
+        <v>1.5</v>
       </c>
       <c r="AC60" s="16">
         <f t="shared" si="15"/>
-        <v>1.8171205928321357</v>
+        <v>1.5</v>
       </c>
       <c r="AD60" s="16">
         <f t="shared" si="15"/>
-        <v>1.8346295092847991</v>
+        <v>1.5</v>
       </c>
       <c r="AE60" s="16">
         <f t="shared" si="15"/>
-        <v>1.8523071333931656</v>
+        <v>1.5</v>
       </c>
       <c r="AF60" s="16">
         <f t="shared" si="15"/>
-        <v>1.8701550907445847</v>
+        <v>1.5</v>
       </c>
       <c r="AG60" s="16">
         <f t="shared" si="15"/>
-        <v>1.8881750225897989</v>
+        <v>1.5</v>
       </c>
       <c r="AH60" s="16">
         <f t="shared" si="15"/>
-        <v>1.9063685859938677</v>
+        <v>1.5</v>
       </c>
       <c r="AI60" s="16">
         <f t="shared" si="15"/>
-        <v>1.924737453988548</v>
+        <v>1.5</v>
       </c>
       <c r="AJ60" s="16">
         <f t="shared" si="15"/>
-        <v>1.9432833157261409</v>
+        <v>1.5</v>
       </c>
       <c r="AK60" s="16">
         <f t="shared" si="15"/>
-        <v>1.9620078766348219</v>
+        <v>1.5</v>
       </c>
       <c r="AL60" s="16">
         <f t="shared" si="15"/>
-        <v>1.9809128585754676</v>
+        <v>1.7320508075688772</v>
       </c>
       <c r="AM60" s="16">
         <f t="shared" si="15"/>
-        <v>1.9999999999999931</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="AN60" s="16">
         <f t="shared" si="15"/>
-        <v>2.0192710561112159</v>
+        <v>2.3094010767585025</v>
       </c>
     </row>
     <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <f>B48</f>
@@ -5186,128 +5190,128 @@
       </c>
       <c r="K62" s="1">
         <f t="shared" ref="K62:AN62" si="17">K48</f>
-        <v>341.89634794654336</v>
+        <v>333.74144702005248</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="17"/>
-        <v>348.84951008566759</v>
+        <v>332.40648123197229</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="17"/>
-        <v>355.94407901086407</v>
+        <v>331.07685530704441</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="17"/>
-        <v>363.18293051860456</v>
+        <v>329.75254788581623</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" si="17"/>
-        <v>370.56899889056916</v>
+        <v>328.43353769427296</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" si="17"/>
-        <v>378.10527808306279</v>
+        <v>327.11980354349589</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="17"/>
-        <v>385.7948229406208</v>
+        <v>325.81132432932191</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" si="17"/>
-        <v>393.64075043429585</v>
+        <v>324.50807903200462</v>
       </c>
       <c r="S62" s="1">
         <f t="shared" si="17"/>
-        <v>401.64624092512776</v>
+        <v>323.21004671587662</v>
       </c>
       <c r="T62" s="1">
         <f t="shared" si="17"/>
-        <v>409.81453945330867</v>
+        <v>321.91720652901313</v>
       </c>
       <c r="U62" s="1">
         <f t="shared" si="17"/>
-        <v>418.14895705356605</v>
+        <v>320.6295377028971</v>
       </c>
       <c r="V62" s="1">
         <f t="shared" si="17"/>
-        <v>426.65287209729661</v>
+        <v>319.3470195520855</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" si="17"/>
-        <v>435.32973166199537</v>
+        <v>318.06963147387717</v>
       </c>
       <c r="X62" s="1">
         <f t="shared" si="17"/>
-        <v>444.18305292853483</v>
+        <v>316.79735294798166</v>
       </c>
       <c r="Y62" s="1">
         <f t="shared" si="17"/>
-        <v>453.21642460686058</v>
+        <v>315.53016353618972</v>
       </c>
       <c r="Z62" s="1">
         <f t="shared" si="17"/>
-        <v>462.43350839068154</v>
+        <v>314.26804288204494</v>
       </c>
       <c r="AA62" s="1">
         <f t="shared" si="17"/>
-        <v>471.83804044174406</v>
+        <v>313.01097071051674</v>
       </c>
       <c r="AB62" s="1">
         <f t="shared" si="17"/>
-        <v>481.43383290429199</v>
+        <v>311.75892682767466</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="17"/>
-        <v>491.22477545032643</v>
+        <v>310.51189112036394</v>
       </c>
       <c r="AD62" s="1">
         <f t="shared" si="17"/>
-        <v>501.21483685629107</v>
+        <v>309.26984355588246</v>
       </c>
       <c r="AE62" s="1">
         <f t="shared" si="17"/>
-        <v>511.4080666118233</v>
+        <v>308.03276418165893</v>
       </c>
       <c r="AF62" s="1">
         <f t="shared" si="17"/>
-        <v>521.80859656122198</v>
+        <v>306.80063312493229</v>
       </c>
       <c r="AG62" s="1">
         <f t="shared" si="17"/>
-        <v>532.42064257829827</v>
+        <v>305.57343059243254</v>
       </c>
       <c r="AH62" s="1">
         <f t="shared" si="17"/>
-        <v>543.2485062752877</v>
+        <v>304.35113687006282</v>
       </c>
       <c r="AI62" s="1">
         <f t="shared" si="17"/>
-        <v>554.29657674651639</v>
+        <v>303.13373232258255</v>
       </c>
       <c r="AJ62" s="1">
         <f t="shared" si="17"/>
-        <v>565.56933234752876</v>
+        <v>301.92119739329223</v>
       </c>
       <c r="AK62" s="1">
         <f t="shared" si="17"/>
-        <v>577.07134251039679</v>
+        <v>300.71351260371904</v>
       </c>
       <c r="AL62" s="1">
         <f t="shared" si="17"/>
-        <v>588.80726959594801</v>
+        <v>299.51065855330415</v>
       </c>
       <c r="AM62" s="1">
         <f t="shared" si="17"/>
-        <v>600.78187078366182</v>
+        <v>423.91791084121746</v>
       </c>
       <c r="AN62" s="1">
         <f t="shared" si="17"/>
-        <v>613.00000000000057</v>
+        <v>599.99999999999966</v>
       </c>
     </row>
     <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <f>B62*B59</f>
@@ -5347,128 +5351,128 @@
       </c>
       <c r="K63" s="1">
         <f t="shared" si="18"/>
-        <v>170.94817397327168</v>
+        <v>166.87072351002624</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ref="L63" si="19">L62*L59</f>
-        <v>174.42475504283379</v>
+        <v>166.20324061598615</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" ref="M63" si="20">M62*M59</f>
-        <v>177.97203950543204</v>
+        <v>165.53842765352221</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ref="N63" si="21">N62*N59</f>
-        <v>181.59146525930228</v>
+        <v>164.87627394290811</v>
       </c>
       <c r="O63" s="1">
         <f t="shared" ref="O63" si="22">O62*O59</f>
-        <v>185.28449944528458</v>
+        <v>164.21676884713648</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ref="P63" si="23">P62*P59</f>
-        <v>189.05263904153139</v>
+        <v>163.55990177174795</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" ref="Q63" si="24">Q62*Q59</f>
-        <v>192.8974114703104</v>
+        <v>162.90566216466095</v>
       </c>
       <c r="R63" s="1">
         <f t="shared" ref="R63" si="25">R62*R59</f>
-        <v>196.82037521714793</v>
+        <v>162.25403951600231</v>
       </c>
       <c r="S63" s="1">
         <f t="shared" ref="S63" si="26">S62*S59</f>
-        <v>200.82312046256388</v>
+        <v>161.60502335793831</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" ref="T63" si="27">T62*T59</f>
-        <v>204.90726972665433</v>
+        <v>160.95860326450656</v>
       </c>
       <c r="U63" s="1">
         <f t="shared" ref="U63" si="28">U62*U59</f>
-        <v>209.07447852678303</v>
+        <v>160.31476885144855</v>
       </c>
       <c r="V63" s="1">
         <f t="shared" ref="V63" si="29">V62*V59</f>
-        <v>213.3264360486483</v>
+        <v>159.67350977604275</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" ref="W63" si="30">W62*W59</f>
-        <v>217.66486583099768</v>
+        <v>159.03481573693858</v>
       </c>
       <c r="X63" s="1">
         <f t="shared" ref="X63" si="31">X62*X59</f>
-        <v>222.09152646426742</v>
+        <v>158.39867647399083</v>
       </c>
       <c r="Y63" s="1">
         <f t="shared" ref="Y63" si="32">Y62*Y59</f>
-        <v>226.60821230343029</v>
+        <v>157.76508176809486</v>
       </c>
       <c r="Z63" s="1">
         <f t="shared" ref="Z63" si="33">Z62*Z59</f>
-        <v>231.21675419534077</v>
+        <v>157.13402144102247</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" ref="AA63" si="34">AA62*AA59</f>
-        <v>235.91902022087203</v>
+        <v>156.50548535525837</v>
       </c>
       <c r="AB63" s="1">
         <f t="shared" ref="AB63" si="35">AB62*AB59</f>
-        <v>240.71691645214599</v>
+        <v>155.87946341383733</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" ref="AC63" si="36">AC62*AC59</f>
-        <v>245.61238772516322</v>
+        <v>155.25594556018197</v>
       </c>
       <c r="AD63" s="1">
         <f t="shared" ref="AD63" si="37">AD62*AD59</f>
-        <v>250.60741842814554</v>
+        <v>154.63492177794123</v>
       </c>
       <c r="AE63" s="1">
         <f t="shared" ref="AE63" si="38">AE62*AE59</f>
-        <v>255.70403330591165</v>
+        <v>154.01638209082947</v>
       </c>
       <c r="AF63" s="1">
         <f t="shared" ref="AF63" si="39">AF62*AF59</f>
-        <v>260.90429828061099</v>
+        <v>153.40031656246614</v>
       </c>
       <c r="AG63" s="1">
         <f t="shared" ref="AG63" si="40">AG62*AG59</f>
-        <v>266.21032128914914</v>
+        <v>152.78671529621627</v>
       </c>
       <c r="AH63" s="1">
         <f t="shared" ref="AH63" si="41">AH62*AH59</f>
-        <v>271.62425313764385</v>
+        <v>152.17556843503141</v>
       </c>
       <c r="AI63" s="1">
         <f t="shared" ref="AI63" si="42">AI62*AI59</f>
-        <v>277.1482883732582</v>
+        <v>151.56686616129127</v>
       </c>
       <c r="AJ63" s="1">
         <f t="shared" ref="AJ63" si="43">AJ62*AJ59</f>
-        <v>282.78466617376438</v>
+        <v>150.96059869664612</v>
       </c>
       <c r="AK63" s="1">
         <f t="shared" ref="AK63" si="44">AK62*AK59</f>
-        <v>288.53567125519839</v>
+        <v>150.35675630185952</v>
       </c>
       <c r="AL63" s="1">
         <f t="shared" ref="AL63" si="45">AL62*AL59</f>
-        <v>294.40363479797401</v>
+        <v>149.75532927665208</v>
       </c>
       <c r="AM63" s="1">
         <f t="shared" ref="AM63" si="46">AM62*AM59</f>
-        <v>300.39093539183091</v>
+        <v>211.95895542060873</v>
       </c>
       <c r="AN63" s="1">
         <f t="shared" ref="AN63" si="47">AN62*AN59</f>
-        <v>306.50000000000028</v>
+        <v>299.99999999999983</v>
       </c>
     </row>
     <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <f>B60*B62</f>
@@ -5504,127 +5508,127 @@
       </c>
       <c r="J64" s="1">
         <f t="shared" si="48"/>
-        <v>507.46569592791349</v>
+        <v>502.62266117477782</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" ref="K64:AN64" si="49">K60*K62</f>
-        <v>522.77519170761843</v>
+        <v>500.61217053007874</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="49"/>
-        <v>538.54655252157011</v>
+        <v>498.60972184795844</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="49"/>
-        <v>554.79371216046491</v>
+        <v>496.61528296056662</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" si="49"/>
-        <v>571.53102477702851</v>
+        <v>494.62882182872431</v>
       </c>
       <c r="O64" s="1">
         <f t="shared" si="49"/>
-        <v>588.77327756772218</v>
+        <v>492.65030654140946</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" si="49"/>
-        <v>606.53570383703709</v>
+        <v>490.67970531524384</v>
       </c>
       <c r="Q64" s="1">
         <f t="shared" si="49"/>
-        <v>624.83399645591885</v>
+        <v>488.71698649398286</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" si="49"/>
-        <v>643.68432172621442</v>
+        <v>486.76211854800692</v>
       </c>
       <c r="S64" s="1">
         <f t="shared" si="49"/>
-        <v>663.10333366338693</v>
+        <v>484.81507007381492</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" si="49"/>
-        <v>683.108188710121</v>
+        <v>482.87580979351969</v>
       </c>
       <c r="U64" s="1">
         <f t="shared" si="49"/>
-        <v>703.71656089381452</v>
+        <v>480.94430655434564</v>
       </c>
       <c r="V64" s="1">
         <f t="shared" si="49"/>
-        <v>724.94665744135079</v>
+        <v>479.02052932812825</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="49"/>
-        <v>746.81723486494502</v>
+        <v>477.10444721081575</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" si="49"/>
-        <v>769.34761553327678</v>
+        <v>475.19602942197253</v>
       </c>
       <c r="Y64" s="1">
         <f t="shared" si="49"/>
-        <v>792.55770474254996</v>
+        <v>473.29524530428455</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" si="49"/>
-        <v>816.46800830256109</v>
+        <v>471.40206432306741</v>
       </c>
       <c r="AA64" s="1">
         <f t="shared" si="49"/>
-        <v>841.0996506533138</v>
+        <v>469.51645606577512</v>
       </c>
       <c r="AB64" s="1">
         <f t="shared" si="49"/>
-        <v>866.47439352818458</v>
+        <v>467.63839024151196</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="49"/>
-        <v>892.61465518012994</v>
+        <v>465.76783668054588</v>
       </c>
       <c r="AD64" s="1">
         <f t="shared" si="49"/>
-        <v>919.5435301879179</v>
+        <v>463.90476533382366</v>
       </c>
       <c r="AE64" s="1">
         <f t="shared" si="49"/>
-        <v>947.28480985988745</v>
+        <v>462.04914627248843</v>
       </c>
       <c r="AF64" s="1">
         <f t="shared" si="49"/>
-        <v>975.86300325325647</v>
+        <v>460.20094968739841</v>
       </c>
       <c r="AG64" s="1">
         <f t="shared" si="49"/>
-        <v>1005.3033588275536</v>
+        <v>458.36014588864884</v>
       </c>
       <c r="AH64" s="1">
         <f t="shared" si="49"/>
-        <v>1035.631886751301</v>
+        <v>456.5267053050942</v>
       </c>
       <c r="AI64" s="1">
         <f t="shared" si="49"/>
-        <v>1066.8753818816579</v>
+        <v>454.70059848387382</v>
       </c>
       <c r="AJ64" s="1">
         <f t="shared" si="49"/>
-        <v>1099.0614474373253</v>
+        <v>452.88179608993835</v>
       </c>
       <c r="AK64" s="1">
         <f t="shared" si="49"/>
-        <v>1132.2185193856296</v>
+        <v>451.07026890557859</v>
       </c>
       <c r="AL64" s="1">
         <f t="shared" si="49"/>
-        <v>1166.3758915653254</v>
+        <v>518.76767802273673</v>
       </c>
       <c r="AM64" s="1">
         <f t="shared" si="49"/>
-        <v>1201.5637415673195</v>
+        <v>847.83582168243481</v>
       </c>
       <c r="AN64" s="1">
         <f t="shared" si="49"/>
-        <v>1237.8131573961766</v>
+        <v>1385.6406460551007</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -5669,7 +5673,7 @@
     </row>
     <row r="66" spans="1:42">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <f>B63</f>
@@ -5709,128 +5713,128 @@
       </c>
       <c r="K66" s="1">
         <f t="shared" ref="K66:AN66" si="51">K63</f>
-        <v>170.94817397327168</v>
+        <v>166.87072351002624</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="51"/>
-        <v>174.42475504283379</v>
+        <v>166.20324061598615</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="51"/>
-        <v>177.97203950543204</v>
+        <v>165.53842765352221</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" si="51"/>
-        <v>181.59146525930228</v>
+        <v>164.87627394290811</v>
       </c>
       <c r="O66" s="1">
         <f t="shared" si="51"/>
-        <v>185.28449944528458</v>
+        <v>164.21676884713648</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" si="51"/>
-        <v>189.05263904153139</v>
+        <v>163.55990177174795</v>
       </c>
       <c r="Q66" s="1">
         <f t="shared" si="51"/>
-        <v>192.8974114703104</v>
+        <v>162.90566216466095</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" si="51"/>
-        <v>196.82037521714793</v>
+        <v>162.25403951600231</v>
       </c>
       <c r="S66" s="1">
         <f t="shared" si="51"/>
-        <v>200.82312046256388</v>
+        <v>161.60502335793831</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" si="51"/>
-        <v>204.90726972665433</v>
+        <v>160.95860326450656</v>
       </c>
       <c r="U66" s="1">
         <f t="shared" si="51"/>
-        <v>209.07447852678303</v>
+        <v>160.31476885144855</v>
       </c>
       <c r="V66" s="1">
         <f t="shared" si="51"/>
-        <v>213.3264360486483</v>
+        <v>159.67350977604275</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" si="51"/>
-        <v>217.66486583099768</v>
+        <v>159.03481573693858</v>
       </c>
       <c r="X66" s="1">
         <f t="shared" si="51"/>
-        <v>222.09152646426742</v>
+        <v>158.39867647399083</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" si="51"/>
-        <v>226.60821230343029</v>
+        <v>157.76508176809486</v>
       </c>
       <c r="Z66" s="1">
         <f t="shared" si="51"/>
-        <v>231.21675419534077</v>
+        <v>157.13402144102247</v>
       </c>
       <c r="AA66" s="1">
         <f t="shared" si="51"/>
-        <v>235.91902022087203</v>
+        <v>156.50548535525837</v>
       </c>
       <c r="AB66" s="1">
         <f t="shared" si="51"/>
-        <v>240.71691645214599</v>
+        <v>155.87946341383733</v>
       </c>
       <c r="AC66" s="1">
         <f t="shared" si="51"/>
-        <v>245.61238772516322</v>
+        <v>155.25594556018197</v>
       </c>
       <c r="AD66" s="1">
         <f t="shared" si="51"/>
-        <v>250.60741842814554</v>
+        <v>154.63492177794123</v>
       </c>
       <c r="AE66" s="1">
         <f t="shared" si="51"/>
-        <v>255.70403330591165</v>
+        <v>154.01638209082947</v>
       </c>
       <c r="AF66" s="1">
         <f t="shared" si="51"/>
-        <v>260.90429828061099</v>
+        <v>153.40031656246614</v>
       </c>
       <c r="AG66" s="1">
         <f t="shared" si="51"/>
-        <v>266.21032128914914</v>
+        <v>152.78671529621627</v>
       </c>
       <c r="AH66" s="1">
         <f t="shared" si="51"/>
-        <v>271.62425313764385</v>
+        <v>152.17556843503141</v>
       </c>
       <c r="AI66" s="1">
         <f t="shared" si="51"/>
-        <v>277.1482883732582</v>
+        <v>151.56686616129127</v>
       </c>
       <c r="AJ66" s="1">
         <f t="shared" si="51"/>
-        <v>282.78466617376438</v>
+        <v>150.96059869664612</v>
       </c>
       <c r="AK66" s="1">
         <f t="shared" si="51"/>
-        <v>288.53567125519839</v>
+        <v>150.35675630185952</v>
       </c>
       <c r="AL66" s="1">
         <f t="shared" si="51"/>
-        <v>294.40363479797401</v>
+        <v>149.75532927665208</v>
       </c>
       <c r="AM66" s="1">
         <f t="shared" si="51"/>
-        <v>300.39093539183091</v>
+        <v>211.95895542060873</v>
       </c>
       <c r="AN66" s="1">
         <f t="shared" si="51"/>
-        <v>306.50000000000028</v>
+        <v>299.99999999999983</v>
       </c>
     </row>
     <row r="67" spans="1:42">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <f>B62-B63</f>
@@ -5870,128 +5874,128 @@
       </c>
       <c r="K67" s="1">
         <f t="shared" ref="K67:AN67" si="53">K62-K63</f>
-        <v>170.94817397327168</v>
+        <v>166.87072351002624</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="53"/>
-        <v>174.42475504283379</v>
+        <v>166.20324061598615</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="53"/>
-        <v>177.97203950543204</v>
+        <v>165.53842765352221</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="53"/>
-        <v>181.59146525930228</v>
+        <v>164.87627394290811</v>
       </c>
       <c r="O67" s="1">
         <f t="shared" si="53"/>
-        <v>185.28449944528458</v>
+        <v>164.21676884713648</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" si="53"/>
-        <v>189.05263904153139</v>
+        <v>163.55990177174795</v>
       </c>
       <c r="Q67" s="1">
         <f t="shared" si="53"/>
-        <v>192.8974114703104</v>
+        <v>162.90566216466095</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" si="53"/>
-        <v>196.82037521714793</v>
+        <v>162.25403951600231</v>
       </c>
       <c r="S67" s="1">
         <f t="shared" si="53"/>
-        <v>200.82312046256388</v>
+        <v>161.60502335793831</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" si="53"/>
-        <v>204.90726972665433</v>
+        <v>160.95860326450656</v>
       </c>
       <c r="U67" s="1">
         <f t="shared" si="53"/>
-        <v>209.07447852678303</v>
+        <v>160.31476885144855</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" si="53"/>
-        <v>213.3264360486483</v>
+        <v>159.67350977604275</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" si="53"/>
-        <v>217.66486583099768</v>
+        <v>159.03481573693858</v>
       </c>
       <c r="X67" s="1">
         <f t="shared" si="53"/>
-        <v>222.09152646426742</v>
+        <v>158.39867647399083</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" si="53"/>
-        <v>226.60821230343029</v>
+        <v>157.76508176809486</v>
       </c>
       <c r="Z67" s="1">
         <f t="shared" si="53"/>
-        <v>231.21675419534077</v>
+        <v>157.13402144102247</v>
       </c>
       <c r="AA67" s="1">
         <f t="shared" si="53"/>
-        <v>235.91902022087203</v>
+        <v>156.50548535525837</v>
       </c>
       <c r="AB67" s="1">
         <f t="shared" si="53"/>
-        <v>240.71691645214599</v>
+        <v>155.87946341383733</v>
       </c>
       <c r="AC67" s="1">
         <f t="shared" si="53"/>
-        <v>245.61238772516322</v>
+        <v>155.25594556018197</v>
       </c>
       <c r="AD67" s="1">
         <f t="shared" si="53"/>
-        <v>250.60741842814554</v>
+        <v>154.63492177794123</v>
       </c>
       <c r="AE67" s="1">
         <f t="shared" si="53"/>
-        <v>255.70403330591165</v>
+        <v>154.01638209082947</v>
       </c>
       <c r="AF67" s="1">
         <f t="shared" si="53"/>
-        <v>260.90429828061099</v>
+        <v>153.40031656246614</v>
       </c>
       <c r="AG67" s="1">
         <f t="shared" si="53"/>
-        <v>266.21032128914914</v>
+        <v>152.78671529621627</v>
       </c>
       <c r="AH67" s="1">
         <f t="shared" si="53"/>
-        <v>271.62425313764385</v>
+        <v>152.17556843503141</v>
       </c>
       <c r="AI67" s="1">
         <f t="shared" si="53"/>
-        <v>277.1482883732582</v>
+        <v>151.56686616129127</v>
       </c>
       <c r="AJ67" s="1">
         <f t="shared" si="53"/>
-        <v>282.78466617376438</v>
+        <v>150.96059869664612</v>
       </c>
       <c r="AK67" s="1">
         <f t="shared" si="53"/>
-        <v>288.53567125519839</v>
+        <v>150.35675630185952</v>
       </c>
       <c r="AL67" s="1">
         <f t="shared" si="53"/>
-        <v>294.40363479797401</v>
+        <v>149.75532927665208</v>
       </c>
       <c r="AM67" s="1">
         <f t="shared" si="53"/>
-        <v>300.39093539183091</v>
+        <v>211.95895542060873</v>
       </c>
       <c r="AN67" s="1">
         <f t="shared" si="53"/>
-        <v>306.50000000000028</v>
+        <v>299.99999999999983</v>
       </c>
     </row>
     <row r="68" spans="1:42">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <f>B64-B62</f>
@@ -6027,137 +6031,137 @@
       </c>
       <c r="J68" s="1">
         <f t="shared" si="54"/>
-        <v>172.38392181139494</v>
+        <v>167.54088705825927</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" ref="K68:AN68" si="55">K64-K62</f>
-        <v>180.87884376107507</v>
+        <v>166.87072351002627</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="55"/>
-        <v>189.69704243590252</v>
+        <v>166.20324061598615</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" si="55"/>
-        <v>198.84963314960083</v>
+        <v>165.53842765352221</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" si="55"/>
-        <v>208.34809425842394</v>
+        <v>164.87627394290809</v>
       </c>
       <c r="O68" s="1">
         <f t="shared" si="55"/>
-        <v>218.20427867715301</v>
+        <v>164.21676884713651</v>
       </c>
       <c r="P68" s="1">
         <f t="shared" si="55"/>
-        <v>228.4304257539743</v>
+        <v>163.55990177174795</v>
       </c>
       <c r="Q68" s="1">
         <f t="shared" si="55"/>
-        <v>239.03917351529805</v>
+        <v>162.90566216466095</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" si="55"/>
-        <v>250.04357129191857</v>
+        <v>162.25403951600231</v>
       </c>
       <c r="S68" s="1">
         <f t="shared" si="55"/>
-        <v>261.45709273825918</v>
+        <v>161.60502335793831</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" si="55"/>
-        <v>273.29364925681233</v>
+        <v>160.95860326450656</v>
       </c>
       <c r="U68" s="1">
         <f t="shared" si="55"/>
-        <v>285.56760384024847</v>
+        <v>160.31476885144855</v>
       </c>
       <c r="V68" s="1">
         <f t="shared" si="55"/>
-        <v>298.29378534405419</v>
+        <v>159.67350977604275</v>
       </c>
       <c r="W68" s="1">
         <f t="shared" si="55"/>
-        <v>311.48750320294965</v>
+        <v>159.03481573693858</v>
       </c>
       <c r="X68" s="1">
         <f t="shared" si="55"/>
-        <v>325.16456260474195</v>
+        <v>158.39867647399086</v>
       </c>
       <c r="Y68" s="1">
         <f t="shared" si="55"/>
-        <v>339.34128013568937</v>
+        <v>157.76508176809483</v>
       </c>
       <c r="Z68" s="1">
         <f t="shared" si="55"/>
-        <v>354.03449991187955</v>
+        <v>157.13402144102247</v>
       </c>
       <c r="AA68" s="1">
         <f t="shared" si="55"/>
-        <v>369.26161021156975</v>
+        <v>156.50548535525837</v>
       </c>
       <c r="AB68" s="1">
         <f t="shared" si="55"/>
-        <v>385.04056062389259</v>
+        <v>155.8794634138373</v>
       </c>
       <c r="AC68" s="1">
         <f t="shared" si="55"/>
-        <v>401.38987972980351</v>
+        <v>155.25594556018194</v>
       </c>
       <c r="AD68" s="1">
         <f t="shared" si="55"/>
-        <v>418.32869333162682</v>
+        <v>154.6349217779412</v>
       </c>
       <c r="AE68" s="1">
         <f t="shared" si="55"/>
-        <v>435.87674324806414</v>
+        <v>154.0163820908295</v>
       </c>
       <c r="AF68" s="1">
         <f t="shared" si="55"/>
-        <v>454.05440669203449</v>
+        <v>153.40031656246612</v>
       </c>
       <c r="AG68" s="1">
         <f t="shared" si="55"/>
-        <v>472.88271624925528</v>
+        <v>152.7867152962163</v>
       </c>
       <c r="AH68" s="1">
         <f t="shared" si="55"/>
-        <v>492.38338047601326</v>
+        <v>152.17556843503138</v>
       </c>
       <c r="AI68" s="1">
         <f t="shared" si="55"/>
-        <v>512.57880513514147</v>
+        <v>151.56686616129127</v>
       </c>
       <c r="AJ68" s="1">
         <f t="shared" si="55"/>
-        <v>533.49211508979658</v>
+        <v>150.96059869664612</v>
       </c>
       <c r="AK68" s="1">
         <f t="shared" si="55"/>
-        <v>555.14717687523284</v>
+        <v>150.35675630185955</v>
       </c>
       <c r="AL68" s="1">
         <f t="shared" si="55"/>
-        <v>577.56862196937743</v>
+        <v>219.25701946943258</v>
       </c>
       <c r="AM68" s="1">
         <f t="shared" si="55"/>
-        <v>600.78187078365772</v>
+        <v>423.91791084121735</v>
       </c>
       <c r="AN68" s="1">
         <f t="shared" si="55"/>
-        <v>624.81315739617605</v>
+        <v>785.640646055101</v>
       </c>
     </row>
     <row r="70" spans="1:42">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:42">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="8">
         <f>B62/SUM(B66:B68)</f>
@@ -6193,132 +6197,132 @@
       </c>
       <c r="J71" s="8">
         <f t="shared" si="56"/>
-        <v>0.6603042861918248</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K71" s="8">
         <f t="shared" ref="K71:AN71" si="57">K62/SUM(K66:K68)</f>
-        <v>0.65400262554494293</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L71" s="8">
         <f t="shared" si="57"/>
-        <v>0.64776110524204922</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M71" s="8">
         <f t="shared" si="57"/>
-        <v>0.64157915132951815</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N71" s="8">
         <f t="shared" si="57"/>
-        <v>0.63545619533129138</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="57"/>
-        <v>0.62939167419660169</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="57"/>
-        <v>0.62338503024819691</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q71" s="8">
         <f t="shared" si="57"/>
-        <v>0.61743571113105733</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R71" s="8">
         <f t="shared" si="57"/>
-        <v>0.61154316976160183</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S71" s="8">
         <f t="shared" si="57"/>
-        <v>0.60570686427738063</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T71" s="8">
         <f t="shared" si="57"/>
-        <v>0.59992625798724641</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U71" s="8">
         <f t="shared" si="57"/>
-        <v>0.59420081932200197</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V71" s="8">
         <f t="shared" si="57"/>
-        <v>0.58853002178551794</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W71" s="8">
         <f t="shared" si="57"/>
-        <v>0.58291334390631833</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X71" s="8">
         <f t="shared" si="57"/>
-        <v>0.57735026918962673</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y71" s="8">
         <f t="shared" si="57"/>
-        <v>0.57184028606987158</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Z71" s="8">
         <f t="shared" si="57"/>
-        <v>0.56638288786364321</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA71" s="8">
         <f t="shared" si="57"/>
-        <v>0.56097757272310089</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AB71" s="8">
         <f t="shared" si="57"/>
-        <v>0.55562384358982442</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AC71" s="8">
         <f t="shared" si="57"/>
-        <v>0.55032120814910568</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AD71" s="8">
         <f t="shared" si="57"/>
-        <v>0.54506917878467676</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AE71" s="8">
         <f t="shared" si="57"/>
-        <v>0.53986727253387023</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF71" s="8">
         <f t="shared" si="57"/>
-        <v>0.53471501104320684</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AG71" s="8">
         <f t="shared" si="57"/>
-        <v>0.52961192052440753</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AH71" s="8">
         <f t="shared" si="57"/>
-        <v>0.52455753171082564</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AI71" s="8">
         <f t="shared" si="57"/>
-        <v>0.51955137981429322</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AJ71" s="8">
         <f t="shared" si="57"/>
-        <v>0.51459300448238199</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AK71" s="8">
         <f t="shared" si="57"/>
-        <v>0.50968194975606851</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AL71" s="8">
         <f t="shared" si="57"/>
-        <v>0.50481776402780743</v>
+        <v>0.57735026918962573</v>
       </c>
       <c r="AM71" s="8">
         <f t="shared" si="57"/>
-        <v>0.50000000000000167</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="AN71" s="8">
         <f t="shared" si="57"/>
-        <v>0.49522821464387029</v>
+        <v>0.43301270189221946</v>
       </c>
     </row>
     <row r="72" spans="1:42">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="8">
         <f>2*(B62-B66-(B67/2))/(B68+B67)</f>
@@ -6354,133 +6358,133 @@
       </c>
       <c r="J72" s="8">
         <f t="shared" si="58"/>
-        <v>0.49287631466317489</v>
+        <v>0.5</v>
       </c>
       <c r="K72" s="8">
         <f t="shared" ref="K72:AN72" si="59">2*(K62-K66-(K67/2))/(K68+K67)</f>
-        <v>0.48588699945252395</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="L72" s="8">
         <f t="shared" si="59"/>
-        <v>0.47902860045894319</v>
+        <v>0.5</v>
       </c>
       <c r="M72" s="8">
         <f t="shared" si="59"/>
-        <v>0.47229778014482526</v>
+        <v>0.5</v>
       </c>
       <c r="N72" s="8">
         <f t="shared" si="59"/>
-        <v>0.46569131247902362</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="O72" s="8">
         <f t="shared" si="59"/>
-        <v>0.45920607831393145</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="P72" s="8">
         <f t="shared" si="59"/>
-        <v>0.45283906099073601</v>
+        <v>0.5</v>
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="59"/>
-        <v>0.4465873421598161</v>
+        <v>0.5</v>
       </c>
       <c r="R72" s="8">
         <f t="shared" si="59"/>
-        <v>0.44044809780409211</v>
+        <v>0.5</v>
       </c>
       <c r="S72" s="8">
         <f t="shared" si="59"/>
-        <v>0.43441859445392839</v>
+        <v>0.5</v>
       </c>
       <c r="T72" s="8">
         <f t="shared" si="59"/>
-        <v>0.42849618558290309</v>
+        <v>0.5</v>
       </c>
       <c r="U72" s="8">
         <f t="shared" si="59"/>
-        <v>0.4226783081744484</v>
+        <v>0.5</v>
       </c>
       <c r="V72" s="8">
         <f t="shared" si="59"/>
-        <v>0.41696247944997877</v>
+        <v>0.5</v>
       </c>
       <c r="W72" s="8">
         <f t="shared" si="59"/>
-        <v>0.41134629374971871</v>
+        <v>0.5</v>
       </c>
       <c r="X72" s="8">
         <f t="shared" si="59"/>
-        <v>0.40582741955797869</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="Y72" s="8">
         <f t="shared" si="59"/>
-        <v>0.40040359666513348</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="Z72" s="8">
         <f t="shared" si="59"/>
-        <v>0.39507263345903221</v>
+        <v>0.5</v>
       </c>
       <c r="AA72" s="8">
         <f t="shared" si="59"/>
-        <v>0.38983240433900235</v>
+        <v>0.5</v>
       </c>
       <c r="AB72" s="8">
         <f t="shared" si="59"/>
-        <v>0.38468084724602564</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="AC72" s="8">
         <f t="shared" si="59"/>
-        <v>0.3796159613030391</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="AD72" s="8">
         <f t="shared" si="59"/>
-        <v>0.37463580455967882</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="AE72" s="8">
         <f t="shared" si="59"/>
-        <v>0.36973849183610835</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="AF72" s="8">
         <f t="shared" si="59"/>
-        <v>0.36492219266089398</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="AG72" s="8">
         <f t="shared" si="59"/>
-        <v>0.36018512929817237</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="AH72" s="8">
         <f t="shared" si="59"/>
-        <v>0.35552557485963365</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="AI72" s="8">
         <f t="shared" si="59"/>
-        <v>0.35094185149709622</v>
+        <v>0.5</v>
       </c>
       <c r="AJ72" s="8">
         <f t="shared" si="59"/>
-        <v>0.34643232867168661</v>
+        <v>0.5</v>
       </c>
       <c r="AK72" s="8">
         <f t="shared" si="59"/>
-        <v>0.34199542149586465</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="AL72" s="8">
         <f t="shared" si="59"/>
-        <v>0.33762958914474162</v>
+        <v>0.40582741955797769</v>
       </c>
       <c r="AM72" s="8">
         <f t="shared" si="59"/>
-        <v>0.33333333333333487</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="AN72" s="8">
         <f t="shared" si="59"/>
-        <v>0.32910519685658923</v>
+        <v>0.27633453214018072</v>
       </c>
       <c r="AO72" s="4"/>
     </row>
     <row r="74" spans="1:42">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" s="2">
         <f>B49</f>
@@ -6520,128 +6524,128 @@
       </c>
       <c r="K74" s="2">
         <f>J74+K56</f>
-        <v>169.0937144937904</v>
+        <v>191.8368875731239</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" ref="L74:AN74" si="61">K74+L56</f>
-        <v>163.85725734399739</v>
+        <v>219.55708427302</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="61"/>
-        <v>158.99534876586415</v>
+        <v>263.41065422575298</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="61"/>
-        <v>154.59550380700202</v>
+        <v>307.63029908489455</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="61"/>
-        <v>150.79232034676861</v>
+        <v>350.37595578206475</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="61"/>
-        <v>147.79090966854298</v>
+        <v>391.69675725599592</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="61"/>
-        <v>145.90204601292487</v>
+        <v>431.64019868079606</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="61"/>
-        <v>145.5948944791607</v>
+        <v>470.25219205810288</v>
       </c>
       <c r="S74" s="2">
         <f t="shared" si="61"/>
-        <v>147.57610632985535</v>
+        <v>507.57711898949947</v>
       </c>
       <c r="T74" s="2">
         <f t="shared" si="61"/>
-        <v>152.90846528552683</v>
+        <v>543.65788168984955</v>
       </c>
       <c r="U74" s="2">
         <f t="shared" si="61"/>
-        <v>163.18886019267595</v>
+        <v>578.53595230018789</v>
       </c>
       <c r="V74" s="2">
         <f t="shared" si="61"/>
-        <v>180.81524714458675</v>
+        <v>612.2514205568483</v>
       </c>
       <c r="W74" s="2">
         <f t="shared" si="61"/>
-        <v>209.38709567726718</v>
+        <v>644.84303987162002</v>
       </c>
       <c r="X74" s="2">
         <f t="shared" si="61"/>
-        <v>246.40752582135826</v>
+        <v>676.3482718758994</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" si="61"/>
-        <v>282.193941627313</v>
+        <v>706.80332948003604</v>
       </c>
       <c r="Z74" s="2">
         <f t="shared" si="61"/>
-        <v>316.78747690640256</v>
+        <v>736.24321849736816</v>
       </c>
       <c r="AA74" s="2">
         <f t="shared" si="61"/>
-        <v>350.22789434285579</v>
+        <v>764.70177788078922</v>
       </c>
       <c r="AB74" s="2">
         <f t="shared" si="61"/>
-        <v>382.55363119809391</v>
+        <v>792.21171861809626</v>
       </c>
       <c r="AC74" s="2">
         <f t="shared" si="61"/>
-        <v>413.80184349149079</v>
+        <v>818.80466133082643</v>
       </c>
       <c r="AD74" s="2">
         <f t="shared" si="61"/>
-        <v>444.00844870844111</v>
+        <v>844.51117261979891</v>
       </c>
       <c r="AE74" s="2">
         <f t="shared" si="61"/>
-        <v>473.20816708482641</v>
+        <v>869.36080019913891</v>
       </c>
       <c r="AF74" s="2">
         <f t="shared" si="61"/>
-        <v>501.43456151533218</v>
+        <v>893.38210685916761</v>
       </c>
       <c r="AG74" s="2">
         <f t="shared" si="61"/>
-        <v>528.72007613148776</v>
+        <v>916.60270329719538</v>
       </c>
       <c r="AH74" s="2">
         <f t="shared" si="61"/>
-        <v>555.09607359377151</v>
+        <v>939.04927985395557</v>
       </c>
       <c r="AI74" s="2">
         <f t="shared" si="61"/>
-        <v>580.5928711406458</v>
+        <v>960.74763719215707</v>
       </c>
       <c r="AJ74" s="2">
         <f t="shared" si="61"/>
-        <v>605.23977543595765</v>
+        <v>981.72271595241853</v>
       </c>
       <c r="AK74" s="2">
         <f t="shared" si="61"/>
-        <v>629.06511625475912</v>
+        <v>1001.9986254206713</v>
       </c>
       <c r="AL74" s="2">
         <f t="shared" si="61"/>
-        <v>652.09627904626711</v>
+        <v>1021.5986712399822</v>
       </c>
       <c r="AM74" s="2">
         <f t="shared" si="61"/>
-        <v>674.35973641139151</v>
+        <v>1040.5453821986493</v>
       </c>
       <c r="AN74" s="2">
         <f t="shared" si="61"/>
-        <v>695.88107853101178</v>
+        <v>1058.860536125361</v>
       </c>
     </row>
     <row r="75" spans="1:42">
       <c r="A75" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75">
         <f>MIN(B74,B66)</f>
@@ -6681,128 +6685,128 @@
       </c>
       <c r="K75" s="1">
         <f t="shared" si="62"/>
-        <v>169.0937144937904</v>
+        <v>166.87072351002624</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" ref="L75" si="63">MIN(L74,L66)</f>
-        <v>163.85725734399739</v>
+        <v>166.20324061598615</v>
       </c>
       <c r="M75" s="1">
         <f t="shared" ref="M75" si="64">MIN(M74,M66)</f>
-        <v>158.99534876586415</v>
+        <v>165.53842765352221</v>
       </c>
       <c r="N75" s="1">
         <f t="shared" ref="N75" si="65">MIN(N74,N66)</f>
-        <v>154.59550380700202</v>
+        <v>164.87627394290811</v>
       </c>
       <c r="O75" s="1">
         <f t="shared" ref="O75" si="66">MIN(O74,O66)</f>
-        <v>150.79232034676861</v>
+        <v>164.21676884713648</v>
       </c>
       <c r="P75" s="1">
         <f t="shared" ref="P75" si="67">MIN(P74,P66)</f>
-        <v>147.79090966854298</v>
+        <v>163.55990177174795</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" ref="Q75" si="68">MIN(Q74,Q66)</f>
-        <v>145.90204601292487</v>
+        <v>162.90566216466095</v>
       </c>
       <c r="R75" s="1">
         <f t="shared" ref="R75" si="69">MIN(R74,R66)</f>
-        <v>145.5948944791607</v>
+        <v>162.25403951600231</v>
       </c>
       <c r="S75" s="1">
         <f t="shared" ref="S75" si="70">MIN(S74,S66)</f>
-        <v>147.57610632985535</v>
+        <v>161.60502335793831</v>
       </c>
       <c r="T75" s="1">
         <f t="shared" ref="T75" si="71">MIN(T74,T66)</f>
-        <v>152.90846528552683</v>
+        <v>160.95860326450656</v>
       </c>
       <c r="U75" s="1">
         <f t="shared" ref="U75" si="72">MIN(U74,U66)</f>
-        <v>163.18886019267595</v>
+        <v>160.31476885144855</v>
       </c>
       <c r="V75" s="1">
         <f t="shared" ref="V75" si="73">MIN(V74,V66)</f>
-        <v>180.81524714458675</v>
+        <v>159.67350977604275</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" ref="W75" si="74">MIN(W74,W66)</f>
-        <v>209.38709567726718</v>
+        <v>159.03481573693858</v>
       </c>
       <c r="X75" s="1">
         <f t="shared" ref="X75" si="75">MIN(X74,X66)</f>
-        <v>222.09152646426742</v>
+        <v>158.39867647399083</v>
       </c>
       <c r="Y75" s="1">
         <f t="shared" ref="Y75" si="76">MIN(Y74,Y66)</f>
-        <v>226.60821230343029</v>
+        <v>157.76508176809486</v>
       </c>
       <c r="Z75" s="1">
         <f t="shared" ref="Z75" si="77">MIN(Z74,Z66)</f>
-        <v>231.21675419534077</v>
+        <v>157.13402144102247</v>
       </c>
       <c r="AA75" s="1">
         <f t="shared" ref="AA75" si="78">MIN(AA74,AA66)</f>
-        <v>235.91902022087203</v>
+        <v>156.50548535525837</v>
       </c>
       <c r="AB75" s="1">
         <f t="shared" ref="AB75" si="79">MIN(AB74,AB66)</f>
-        <v>240.71691645214599</v>
+        <v>155.87946341383733</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" ref="AC75" si="80">MIN(AC74,AC66)</f>
-        <v>245.61238772516322</v>
+        <v>155.25594556018197</v>
       </c>
       <c r="AD75" s="1">
         <f t="shared" ref="AD75" si="81">MIN(AD74,AD66)</f>
-        <v>250.60741842814554</v>
+        <v>154.63492177794123</v>
       </c>
       <c r="AE75" s="1">
         <f t="shared" ref="AE75" si="82">MIN(AE74,AE66)</f>
-        <v>255.70403330591165</v>
+        <v>154.01638209082947</v>
       </c>
       <c r="AF75" s="1">
         <f t="shared" ref="AF75" si="83">MIN(AF74,AF66)</f>
-        <v>260.90429828061099</v>
+        <v>153.40031656246614</v>
       </c>
       <c r="AG75" s="1">
         <f t="shared" ref="AG75" si="84">MIN(AG74,AG66)</f>
-        <v>266.21032128914914</v>
+        <v>152.78671529621627</v>
       </c>
       <c r="AH75" s="1">
         <f t="shared" ref="AH75" si="85">MIN(AH74,AH66)</f>
-        <v>271.62425313764385</v>
+        <v>152.17556843503141</v>
       </c>
       <c r="AI75" s="1">
         <f t="shared" ref="AI75" si="86">MIN(AI74,AI66)</f>
-        <v>277.1482883732582</v>
+        <v>151.56686616129127</v>
       </c>
       <c r="AJ75" s="1">
         <f t="shared" ref="AJ75" si="87">MIN(AJ74,AJ66)</f>
-        <v>282.78466617376438</v>
+        <v>150.96059869664612</v>
       </c>
       <c r="AK75" s="1">
         <f t="shared" ref="AK75" si="88">MIN(AK74,AK66)</f>
-        <v>288.53567125519839</v>
+        <v>150.35675630185952</v>
       </c>
       <c r="AL75" s="1">
         <f t="shared" ref="AL75" si="89">MIN(AL74,AL66)</f>
-        <v>294.40363479797401</v>
+        <v>149.75532927665208</v>
       </c>
       <c r="AM75" s="1">
         <f t="shared" ref="AM75" si="90">MIN(AM74,AM66)</f>
-        <v>300.39093539183091</v>
+        <v>211.95895542060873</v>
       </c>
       <c r="AN75" s="1">
         <f t="shared" ref="AN75" si="91">MIN(AN74,AN66)</f>
-        <v>306.50000000000028</v>
+        <v>299.99999999999983</v>
       </c>
     </row>
     <row r="76" spans="1:42">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76">
         <f>MIN(B67,B74-B75)</f>
@@ -6842,128 +6846,128 @@
       </c>
       <c r="K76" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>24.966164063097665</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" ref="L76" si="93">MIN(L67,L74-L75)</f>
-        <v>0</v>
+        <v>53.353843657033849</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" ref="M76" si="94">MIN(M67,M74-M75)</f>
-        <v>0</v>
+        <v>97.872226572230772</v>
       </c>
       <c r="N76" s="1">
         <f t="shared" ref="N76" si="95">MIN(N67,N74-N75)</f>
-        <v>0</v>
+        <v>142.75402514198643</v>
       </c>
       <c r="O76" s="1">
         <f t="shared" ref="O76" si="96">MIN(O67,O74-O75)</f>
-        <v>0</v>
+        <v>164.21676884713648</v>
       </c>
       <c r="P76" s="1">
         <f t="shared" ref="P76" si="97">MIN(P67,P74-P75)</f>
-        <v>0</v>
+        <v>163.55990177174795</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" ref="Q76" si="98">MIN(Q67,Q74-Q75)</f>
-        <v>0</v>
+        <v>162.90566216466095</v>
       </c>
       <c r="R76" s="1">
         <f t="shared" ref="R76" si="99">MIN(R67,R74-R75)</f>
-        <v>0</v>
+        <v>162.25403951600231</v>
       </c>
       <c r="S76" s="1">
         <f t="shared" ref="S76" si="100">MIN(S67,S74-S75)</f>
-        <v>0</v>
+        <v>161.60502335793831</v>
       </c>
       <c r="T76" s="1">
         <f t="shared" ref="T76" si="101">MIN(T67,T74-T75)</f>
-        <v>0</v>
+        <v>160.95860326450656</v>
       </c>
       <c r="U76" s="1">
         <f t="shared" ref="U76" si="102">MIN(U67,U74-U75)</f>
-        <v>0</v>
+        <v>160.31476885144855</v>
       </c>
       <c r="V76" s="1">
         <f t="shared" ref="V76" si="103">MIN(V67,V74-V75)</f>
-        <v>0</v>
+        <v>159.67350977604275</v>
       </c>
       <c r="W76" s="1">
         <f t="shared" ref="W76" si="104">MIN(W67,W74-W75)</f>
-        <v>0</v>
+        <v>159.03481573693858</v>
       </c>
       <c r="X76" s="1">
         <f t="shared" ref="X76" si="105">MIN(X67,X74-X75)</f>
-        <v>24.315999357090845</v>
+        <v>158.39867647399083</v>
       </c>
       <c r="Y76" s="1">
         <f t="shared" ref="Y76" si="106">MIN(Y67,Y74-Y75)</f>
-        <v>55.585729323882703</v>
+        <v>157.76508176809486</v>
       </c>
       <c r="Z76" s="1">
         <f t="shared" ref="Z76" si="107">MIN(Z67,Z74-Z75)</f>
-        <v>85.570722711061791</v>
+        <v>157.13402144102247</v>
       </c>
       <c r="AA76" s="1">
         <f t="shared" ref="AA76" si="108">MIN(AA67,AA74-AA75)</f>
-        <v>114.30887412198376</v>
+        <v>156.50548535525837</v>
       </c>
       <c r="AB76" s="1">
         <f t="shared" ref="AB76" si="109">MIN(AB67,AB74-AB75)</f>
-        <v>141.83671474594792</v>
+        <v>155.87946341383733</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" ref="AC76" si="110">MIN(AC67,AC74-AC75)</f>
-        <v>168.18945576632757</v>
+        <v>155.25594556018197</v>
       </c>
       <c r="AD76" s="1">
         <f t="shared" ref="AD76" si="111">MIN(AD67,AD74-AD75)</f>
-        <v>193.40103028029557</v>
+        <v>154.63492177794123</v>
       </c>
       <c r="AE76" s="1">
         <f t="shared" ref="AE76" si="112">MIN(AE67,AE74-AE75)</f>
-        <v>217.50413377891476</v>
+        <v>154.01638209082947</v>
       </c>
       <c r="AF76" s="1">
         <f t="shared" ref="AF76" si="113">MIN(AF67,AF74-AF75)</f>
-        <v>240.53026323472119</v>
+        <v>153.40031656246614</v>
       </c>
       <c r="AG76" s="1">
         <f t="shared" ref="AG76" si="114">MIN(AG67,AG74-AG75)</f>
-        <v>262.50975484233862</v>
+        <v>152.78671529621627</v>
       </c>
       <c r="AH76" s="1">
         <f t="shared" ref="AH76" si="115">MIN(AH67,AH74-AH75)</f>
-        <v>271.62425313764385</v>
+        <v>152.17556843503141</v>
       </c>
       <c r="AI76" s="1">
         <f t="shared" ref="AI76" si="116">MIN(AI67,AI74-AI75)</f>
-        <v>277.1482883732582</v>
+        <v>151.56686616129127</v>
       </c>
       <c r="AJ76" s="1">
         <f t="shared" ref="AJ76" si="117">MIN(AJ67,AJ74-AJ75)</f>
-        <v>282.78466617376438</v>
+        <v>150.96059869664612</v>
       </c>
       <c r="AK76" s="1">
         <f t="shared" ref="AK76" si="118">MIN(AK67,AK74-AK75)</f>
-        <v>288.53567125519839</v>
+        <v>150.35675630185952</v>
       </c>
       <c r="AL76" s="1">
         <f t="shared" ref="AL76" si="119">MIN(AL67,AL74-AL75)</f>
-        <v>294.40363479797401</v>
+        <v>149.75532927665208</v>
       </c>
       <c r="AM76" s="1">
         <f t="shared" ref="AM76" si="120">MIN(AM67,AM74-AM75)</f>
-        <v>300.39093539183091</v>
+        <v>211.95895542060873</v>
       </c>
       <c r="AN76" s="1">
         <f t="shared" ref="AN76" si="121">MIN(AN67,AN74-AN75)</f>
-        <v>306.50000000000028</v>
+        <v>299.99999999999983</v>
       </c>
     </row>
     <row r="77" spans="1:42">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77">
         <f>MIN(B68,B74-B75-B76)</f>
@@ -7019,114 +7023,114 @@
       </c>
       <c r="O77" s="1">
         <f t="shared" ref="O77" si="126">MIN(O68,O74-O75-O76)</f>
-        <v>0</v>
+        <v>21.942418087791793</v>
       </c>
       <c r="P77" s="1">
         <f t="shared" ref="P77" si="127">MIN(P68,P74-P75-P76)</f>
-        <v>0</v>
+        <v>64.576953712500028</v>
       </c>
       <c r="Q77" s="1">
         <f t="shared" ref="Q77" si="128">MIN(Q68,Q74-Q75-Q76)</f>
-        <v>0</v>
+        <v>105.82887435147416</v>
       </c>
       <c r="R77" s="1">
         <f t="shared" ref="R77" si="129">MIN(R68,R74-R75-R76)</f>
-        <v>0</v>
+        <v>145.74411302609826</v>
       </c>
       <c r="S77" s="1">
         <f t="shared" ref="S77" si="130">MIN(S68,S74-S75-S76)</f>
-        <v>0</v>
+        <v>161.60502335793831</v>
       </c>
       <c r="T77" s="1">
         <f t="shared" ref="T77" si="131">MIN(T68,T74-T75-T76)</f>
-        <v>0</v>
+        <v>160.95860326450656</v>
       </c>
       <c r="U77" s="1">
         <f t="shared" ref="U77" si="132">MIN(U68,U74-U75-U76)</f>
-        <v>0</v>
+        <v>160.31476885144855</v>
       </c>
       <c r="V77" s="1">
         <f t="shared" ref="V77" si="133">MIN(V68,V74-V75-V76)</f>
-        <v>0</v>
+        <v>159.67350977604275</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" ref="W77" si="134">MIN(W68,W74-W75-W76)</f>
-        <v>0</v>
+        <v>159.03481573693858</v>
       </c>
       <c r="X77" s="1">
         <f t="shared" ref="X77" si="135">MIN(X68,X74-X75-X76)</f>
-        <v>0</v>
+        <v>158.39867647399086</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" ref="Y77" si="136">MIN(Y68,Y74-Y75-Y76)</f>
-        <v>0</v>
+        <v>157.76508176809483</v>
       </c>
       <c r="Z77" s="1">
         <f t="shared" ref="Z77" si="137">MIN(Z68,Z74-Z75-Z76)</f>
-        <v>0</v>
+        <v>157.13402144102247</v>
       </c>
       <c r="AA77" s="1">
         <f t="shared" ref="AA77" si="138">MIN(AA68,AA74-AA75-AA76)</f>
-        <v>0</v>
+        <v>156.50548535525837</v>
       </c>
       <c r="AB77" s="1">
         <f t="shared" ref="AB77" si="139">MIN(AB68,AB74-AB75-AB76)</f>
-        <v>0</v>
+        <v>155.8794634138373</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" ref="AC77" si="140">MIN(AC68,AC74-AC75-AC76)</f>
-        <v>0</v>
+        <v>155.25594556018194</v>
       </c>
       <c r="AD77" s="1">
         <f t="shared" ref="AD77" si="141">MIN(AD68,AD74-AD75-AD76)</f>
-        <v>0</v>
+        <v>154.6349217779412</v>
       </c>
       <c r="AE77" s="1">
         <f t="shared" ref="AE77" si="142">MIN(AE68,AE74-AE75-AE76)</f>
-        <v>0</v>
+        <v>154.0163820908295</v>
       </c>
       <c r="AF77" s="1">
         <f t="shared" ref="AF77" si="143">MIN(AF68,AF74-AF75-AF76)</f>
-        <v>0</v>
+        <v>153.40031656246612</v>
       </c>
       <c r="AG77" s="1">
         <f t="shared" ref="AG77" si="144">MIN(AG68,AG74-AG75-AG76)</f>
-        <v>0</v>
+        <v>152.7867152962163</v>
       </c>
       <c r="AH77" s="1">
         <f t="shared" ref="AH77" si="145">MIN(AH68,AH74-AH75-AH76)</f>
-        <v>11.847567318483812</v>
+        <v>152.17556843503138</v>
       </c>
       <c r="AI77" s="1">
         <f t="shared" ref="AI77" si="146">MIN(AI68,AI74-AI75-AI76)</f>
-        <v>26.296294394129404</v>
+        <v>151.56686616129127</v>
       </c>
       <c r="AJ77" s="1">
         <f t="shared" ref="AJ77" si="147">MIN(AJ68,AJ74-AJ75-AJ76)</f>
-        <v>39.670443088428897</v>
+        <v>150.96059869664612</v>
       </c>
       <c r="AK77" s="1">
         <f t="shared" ref="AK77" si="148">MIN(AK68,AK74-AK75-AK76)</f>
-        <v>51.993773744362329</v>
+        <v>150.35675630185955</v>
       </c>
       <c r="AL77" s="1">
         <f t="shared" ref="AL77" si="149">MIN(AL68,AL74-AL75-AL76)</f>
-        <v>63.289009450319099</v>
+        <v>219.25701946943258</v>
       </c>
       <c r="AM77" s="1">
         <f t="shared" ref="AM77" si="150">MIN(AM68,AM74-AM75-AM76)</f>
-        <v>73.577865627729693</v>
+        <v>423.91791084121735</v>
       </c>
       <c r="AN77" s="1">
         <f t="shared" ref="AN77" si="151">MIN(AN68,AN74-AN75-AN76)</f>
-        <v>82.881078531011212</v>
+        <v>458.86053612536142</v>
       </c>
       <c r="AO77" s="8"/>
       <c r="AP77" s="19"/>
     </row>
     <row r="78" spans="1:42">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78">
         <f>B74-SUM(B75:B77)</f>
@@ -7198,87 +7202,87 @@
       </c>
       <c r="S78" s="1">
         <f t="shared" ref="S78" si="160">S74-SUM(S75:S77)</f>
-        <v>0</v>
+        <v>22.762048915684545</v>
       </c>
       <c r="T78" s="1">
         <f t="shared" ref="T78" si="161">T74-SUM(T75:T77)</f>
-        <v>0</v>
+        <v>60.782071896329853</v>
       </c>
       <c r="U78" s="1">
         <f t="shared" ref="U78" si="162">U74-SUM(U75:U77)</f>
-        <v>0</v>
+        <v>97.591645745842243</v>
       </c>
       <c r="V78" s="1">
         <f t="shared" ref="V78" si="163">V74-SUM(V75:V77)</f>
-        <v>0</v>
+        <v>133.23089122872005</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" ref="W78" si="164">W74-SUM(W75:W77)</f>
-        <v>0</v>
+        <v>167.73859266080427</v>
       </c>
       <c r="X78" s="1">
         <f t="shared" ref="X78" si="165">X74-SUM(X75:X77)</f>
-        <v>0</v>
+        <v>201.15224245392687</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" ref="Y78" si="166">Y74-SUM(Y75:Y77)</f>
-        <v>0</v>
+        <v>233.50808417575149</v>
       </c>
       <c r="Z78" s="1">
         <f t="shared" ref="Z78" si="167">Z74-SUM(Z75:Z77)</f>
-        <v>0</v>
+        <v>264.84115417430075</v>
       </c>
       <c r="AA78" s="1">
         <f t="shared" ref="AA78" si="168">AA74-SUM(AA75:AA77)</f>
-        <v>0</v>
+        <v>295.18532181501411</v>
       </c>
       <c r="AB78" s="1">
         <f t="shared" ref="AB78" si="169">AB74-SUM(AB75:AB77)</f>
-        <v>0</v>
+        <v>324.5733283765843</v>
       </c>
       <c r="AC78" s="1">
         <f t="shared" ref="AC78" si="170">AC74-SUM(AC75:AC77)</f>
-        <v>0</v>
+        <v>353.03682465028055</v>
       </c>
       <c r="AD78" s="1">
         <f t="shared" ref="AD78" si="171">AD74-SUM(AD75:AD77)</f>
-        <v>0</v>
+        <v>380.60640728597525</v>
       </c>
       <c r="AE78" s="1">
         <f t="shared" ref="AE78" si="172">AE74-SUM(AE75:AE77)</f>
-        <v>0</v>
+        <v>407.31165392665048</v>
       </c>
       <c r="AF78" s="1">
         <f t="shared" ref="AF78" si="173">AF74-SUM(AF75:AF77)</f>
-        <v>0</v>
+        <v>433.1811571717692</v>
       </c>
       <c r="AG78" s="1">
         <f t="shared" ref="AG78" si="174">AG74-SUM(AG75:AG77)</f>
-        <v>0</v>
+        <v>458.24255740854653</v>
       </c>
       <c r="AH78" s="1">
         <f t="shared" ref="AH78" si="175">AH74-SUM(AH75:AH77)</f>
-        <v>0</v>
+        <v>482.52257454886137</v>
       </c>
       <c r="AI78" s="1">
         <f t="shared" ref="AI78" si="176">AI74-SUM(AI75:AI77)</f>
-        <v>0</v>
+        <v>506.04703870828325</v>
       </c>
       <c r="AJ78" s="1">
         <f t="shared" ref="AJ78" si="177">AJ74-SUM(AJ75:AJ77)</f>
-        <v>0</v>
+        <v>528.84091986248018</v>
       </c>
       <c r="AK78" s="1">
         <f t="shared" ref="AK78" si="178">AK74-SUM(AK75:AK77)</f>
-        <v>0</v>
+        <v>550.92835651509267</v>
       </c>
       <c r="AL78" s="1">
         <f t="shared" ref="AL78" si="179">AL74-SUM(AL75:AL77)</f>
-        <v>0</v>
+        <v>502.83099321724546</v>
       </c>
       <c r="AM78" s="1">
         <f t="shared" ref="AM78" si="180">AM74-SUM(AM75:AM77)</f>
-        <v>0</v>
+        <v>192.70956051621454</v>
       </c>
       <c r="AN78" s="1">
         <f t="shared" ref="AN78" si="181">AN74-SUM(AN75:AN77)</f>
@@ -7291,7 +7295,7 @@
     </row>
     <row r="80" spans="1:42">
       <c r="A80" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -7413,7 +7417,7 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="8">
         <f t="shared" ref="B81:AM81" si="182">AVERAGE(B80,1-((B76/B67)*(1-B72)))</f>
@@ -7449,132 +7453,132 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="182"/>
-        <v>0.98882535057868104</v>
+        <v>0.98898232349974258</v>
       </c>
       <c r="K81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.96259654848683263</v>
       </c>
       <c r="L81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.91974608398233904</v>
       </c>
       <c r="M81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.85219107738373467</v>
       </c>
       <c r="N81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.78354371170557569</v>
       </c>
       <c r="O81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W81" s="8">
         <f t="shared" si="182"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X81" s="8">
         <f t="shared" si="182"/>
-        <v>0.96747309473251397</v>
+        <v>0.75</v>
       </c>
       <c r="Y81" s="8">
         <f t="shared" si="182"/>
-        <v>0.92646117490499935</v>
+        <v>0.75</v>
       </c>
       <c r="Z81" s="8">
         <f t="shared" si="182"/>
-        <v>0.88806158938880841</v>
+        <v>0.75</v>
       </c>
       <c r="AA81" s="8">
         <f t="shared" si="182"/>
-        <v>0.85217900019161785</v>
+        <v>0.75</v>
       </c>
       <c r="AB81" s="8">
         <f t="shared" si="182"/>
-        <v>0.81871891590919021</v>
+        <v>0.75</v>
       </c>
       <c r="AC81" s="8">
         <f t="shared" si="182"/>
-        <v>0.78758796573543466</v>
+        <v>0.75</v>
       </c>
       <c r="AD81" s="8">
         <f t="shared" si="182"/>
-        <v>0.75869413511945971</v>
+        <v>0.75</v>
       </c>
       <c r="AE81" s="8">
         <f t="shared" si="182"/>
-        <v>0.73194696693857275</v>
+        <v>0.75</v>
       </c>
       <c r="AF81" s="8">
         <f t="shared" si="182"/>
-        <v>0.7072577317037696</v>
+        <v>0.75</v>
       </c>
       <c r="AG81" s="8">
         <f t="shared" si="182"/>
-        <v>0.6845395699928758</v>
+        <v>0.75</v>
       </c>
       <c r="AH81" s="8">
         <f t="shared" si="182"/>
-        <v>0.67776278742981688</v>
+        <v>0.75</v>
       </c>
       <c r="AI81" s="8">
         <f t="shared" si="182"/>
-        <v>0.67547092574854806</v>
+        <v>0.75</v>
       </c>
       <c r="AJ81" s="8">
         <f t="shared" si="182"/>
-        <v>0.6732161643358433</v>
+        <v>0.75</v>
       </c>
       <c r="AK81" s="8">
         <f t="shared" si="182"/>
-        <v>0.67099771074793235</v>
+        <v>0.75</v>
       </c>
       <c r="AL81" s="8">
         <f t="shared" si="182"/>
-        <v>0.66881479457237081</v>
+        <v>0.70291370977898882</v>
       </c>
       <c r="AM81" s="8">
         <f t="shared" si="182"/>
-        <v>0.66666666666666741</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AN81" s="8">
         <f>AVERAGE(AN80,1-((AN76/AN67)*(1-AN72)))</f>
-        <v>0.66455259842829462</v>
+        <v>0.63816726607009033</v>
       </c>
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="8">
         <f t="shared" ref="B82:AM82" si="183">AVERAGE(B72,B72-((B77/B68)*B72))</f>
@@ -7610,133 +7614,133 @@
       </c>
       <c r="J82" s="8">
         <f t="shared" si="183"/>
-        <v>0.49287631466317489</v>
+        <v>0.5</v>
       </c>
       <c r="K82" s="8">
         <f t="shared" si="183"/>
-        <v>0.48588699945252395</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="L82" s="8">
         <f t="shared" si="183"/>
-        <v>0.47902860045894319</v>
+        <v>0.5</v>
       </c>
       <c r="M82" s="8">
         <f t="shared" si="183"/>
-        <v>0.47229778014482526</v>
+        <v>0.5</v>
       </c>
       <c r="N82" s="8">
         <f t="shared" si="183"/>
-        <v>0.46569131247902362</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="O82" s="8">
         <f t="shared" si="183"/>
-        <v>0.45920607831393145</v>
+        <v>0.4665953449184333</v>
       </c>
       <c r="P82" s="8">
         <f t="shared" si="183"/>
-        <v>0.45283906099073601</v>
+        <v>0.4012946434104937</v>
       </c>
       <c r="Q82" s="8">
         <f t="shared" si="183"/>
-        <v>0.4465873421598161</v>
+        <v>0.33759178019775493</v>
       </c>
       <c r="R82" s="8">
         <f t="shared" si="183"/>
-        <v>0.44044809780409211</v>
+        <v>0.27543839053121966</v>
       </c>
       <c r="S82" s="8">
         <f t="shared" si="183"/>
-        <v>0.43441859445392839</v>
+        <v>0.25</v>
       </c>
       <c r="T82" s="8">
         <f t="shared" si="183"/>
-        <v>0.42849618558290309</v>
+        <v>0.25</v>
       </c>
       <c r="U82" s="8">
         <f t="shared" si="183"/>
-        <v>0.4226783081744484</v>
+        <v>0.25</v>
       </c>
       <c r="V82" s="8">
         <f t="shared" si="183"/>
-        <v>0.41696247944997877</v>
+        <v>0.25</v>
       </c>
       <c r="W82" s="8">
         <f t="shared" si="183"/>
-        <v>0.41134629374971871</v>
+        <v>0.25</v>
       </c>
       <c r="X82" s="8">
         <f t="shared" si="183"/>
-        <v>0.40582741955797869</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="Y82" s="8">
         <f t="shared" si="183"/>
-        <v>0.40040359666513348</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="Z82" s="8">
         <f t="shared" si="183"/>
-        <v>0.39507263345903221</v>
+        <v>0.25</v>
       </c>
       <c r="AA82" s="8">
         <f t="shared" si="183"/>
-        <v>0.38983240433900235</v>
+        <v>0.25</v>
       </c>
       <c r="AB82" s="8">
         <f t="shared" si="183"/>
-        <v>0.38468084724602564</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="AC82" s="8">
         <f t="shared" si="183"/>
-        <v>0.3796159613030391</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="AD82" s="8">
         <f t="shared" si="183"/>
-        <v>0.37463580455967882</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="AE82" s="8">
         <f t="shared" si="183"/>
-        <v>0.36973849183610835</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="AF82" s="8">
         <f t="shared" si="183"/>
-        <v>0.36492219266089398</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="AG82" s="8">
         <f t="shared" si="183"/>
-        <v>0.36018512929817237</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="AH82" s="8">
         <f t="shared" si="183"/>
-        <v>0.35124830500385573</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="AI82" s="8">
         <f t="shared" si="183"/>
-        <v>0.34193985009776467</v>
+        <v>0.25</v>
       </c>
       <c r="AJ82" s="8">
         <f t="shared" si="183"/>
-        <v>0.33355198462363184</v>
+        <v>0.25</v>
       </c>
       <c r="AK82" s="8">
         <f t="shared" si="183"/>
-        <v>0.32598017967571202</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="AL82" s="8">
         <f t="shared" si="183"/>
-        <v>0.31913114459175668</v>
+        <v>0.20291370977898884</v>
       </c>
       <c r="AM82" s="8">
         <f t="shared" si="183"/>
-        <v>0.31292163617505364</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="AN82" s="8">
         <f>AVERAGE(AN72,AN72-((AN77/AN68)*AN72))</f>
-        <v>0.30727739654320724</v>
+        <v>0.19563668879126292</v>
       </c>
       <c r="AO82" s="8"/>
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
@@ -7858,7 +7862,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="8">
         <f>SUMPRODUCT(B75:B78,B80:B83)/B74</f>
@@ -7894,132 +7898,132 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="184"/>
-        <v>0.99952831289444199</v>
+        <v>0.99953493879383226</v>
       </c>
       <c r="K85" s="8">
         <f t="shared" ref="K85:AN85" si="185">SUMPRODUCT(K75:K78,K80:K83)/K74</f>
-        <v>1</v>
+        <v>0.99513221508742467</v>
       </c>
       <c r="L85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.98049776028749547</v>
       </c>
       <c r="M85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.94508047365731007</v>
       </c>
       <c r="N85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.89955473660025909</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.8494235141055908</v>
       </c>
       <c r="P85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.79690272623101832</v>
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.74323908629752111</v>
       </c>
       <c r="R85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.68917933514761676</v>
       </c>
       <c r="S85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.63677032439786363</v>
       </c>
       <c r="T85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.59213195903349958</v>
       </c>
       <c r="U85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.55420849201871281</v>
       </c>
       <c r="V85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.52159457508752927</v>
       </c>
       <c r="W85" s="8">
         <f t="shared" si="185"/>
-        <v>1</v>
+        <v>0.49325124380221386</v>
       </c>
       <c r="X85" s="8">
         <f t="shared" si="185"/>
-        <v>0.99679017836433392</v>
+        <v>0.4683938233024858</v>
       </c>
       <c r="Y85" s="8">
         <f t="shared" si="185"/>
-        <v>0.98551453938750533</v>
+        <v>0.4464186151589174</v>
       </c>
       <c r="Z85" s="8">
         <f t="shared" si="185"/>
-        <v>0.96976316491842474</v>
+        <v>0.42685356548811232</v>
       </c>
       <c r="AA85" s="8">
         <f t="shared" si="185"/>
-        <v>0.95175355152282481</v>
+        <v>0.40932423562288694</v>
       </c>
       <c r="AB85" s="8">
         <f t="shared" si="185"/>
-        <v>0.93278768957832725</v>
+        <v>0.39352980964671286</v>
       </c>
       <c r="AC85" s="8">
         <f t="shared" si="185"/>
-        <v>0.91366528447592477</v>
+        <v>0.37922584687742272</v>
       </c>
       <c r="AD85" s="8">
         <f t="shared" si="185"/>
-        <v>0.89489208366118411</v>
+        <v>0.36621166608901273</v>
       </c>
       <c r="AE85" s="8">
         <f t="shared" si="185"/>
-        <v>0.87679282223295762</v>
+        <v>0.35432097250198058</v>
       </c>
       <c r="AF85" s="8">
         <f t="shared" si="185"/>
-        <v>0.8595761436139685</v>
+        <v>0.34341479504614281</v>
       </c>
       <c r="AG85" s="8">
         <f t="shared" si="185"/>
-        <v>0.84337375506990497</v>
+        <v>0.33337609576452965</v>
       </c>
       <c r="AH85" s="8">
         <f t="shared" si="185"/>
-        <v>0.82847370733402381</v>
+        <v>0.32410560702138724</v>
       </c>
       <c r="AI85" s="8">
         <f t="shared" si="185"/>
-        <v>0.81527981789317927</v>
+        <v>0.31551858218304774</v>
       </c>
       <c r="AJ85" s="8">
         <f t="shared" si="185"/>
-        <v>0.80363526858582834</v>
+        <v>0.30754223416373055</v>
       </c>
       <c r="AK85" s="8">
         <f t="shared" si="185"/>
-        <v>0.79338588795891485</v>
+        <v>0.30011369773832763</v>
       </c>
       <c r="AL85" s="8">
         <f t="shared" si="185"/>
-        <v>0.78439741459774126</v>
+        <v>0.29317839478957836</v>
       </c>
       <c r="AM85" s="8">
         <f t="shared" si="185"/>
-        <v>0.77655239008133103</v>
+        <v>0.40739973296069826</v>
       </c>
       <c r="AN85" s="8">
         <f t="shared" si="185"/>
-        <v>0.76974769106055496</v>
+        <v>0.54891094331686774</v>
       </c>
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="11">
         <f>B85*B74</f>
@@ -8055,132 +8059,132 @@
       </c>
       <c r="J86" s="11">
         <f t="shared" si="186"/>
-        <v>174.8420225886546</v>
+        <v>174.84318162100607</v>
       </c>
       <c r="K86" s="11">
         <f t="shared" si="186"/>
-        <v>169.0937144937904</v>
+        <v>190.90306686612004</v>
       </c>
       <c r="L86" s="11">
         <f t="shared" ref="L86" si="187">L85*L74</f>
-        <v>163.85725734399739</v>
+        <v>215.275229384949</v>
       </c>
       <c r="M86" s="11">
         <f t="shared" ref="M86" si="188">M85*M74</f>
-        <v>158.99534876586415</v>
+        <v>248.94426586205654</v>
       </c>
       <c r="N86" s="11">
         <f t="shared" ref="N86" si="189">N85*N74</f>
-        <v>154.59550380700202</v>
+        <v>276.73029266357122</v>
       </c>
       <c r="O86" s="11">
         <f t="shared" ref="O86" si="190">O85*O74</f>
-        <v>150.79232034676861</v>
+        <v>297.61757561850652</v>
       </c>
       <c r="P86" s="11">
         <f t="shared" ref="P86" si="191">P85*P74</f>
-        <v>147.79090966854298</v>
+        <v>312.14421371315257</v>
       </c>
       <c r="Q86" s="11">
         <f t="shared" ref="Q86" si="192">Q85*Q74</f>
-        <v>145.90204601292487</v>
+        <v>320.81186687679536</v>
       </c>
       <c r="R86" s="11">
         <f t="shared" ref="R86" si="193">R85*R74</f>
-        <v>145.5948944791607</v>
+        <v>324.08809307431272</v>
       </c>
       <c r="S86" s="11">
         <f t="shared" ref="S86" si="194">S85*S74</f>
-        <v>147.57610632985535</v>
+        <v>323.21004671587662</v>
       </c>
       <c r="T86" s="11">
         <f t="shared" ref="T86" si="195">T85*T74</f>
-        <v>152.90846528552683</v>
+        <v>321.91720652901313</v>
       </c>
       <c r="U86" s="11">
         <f t="shared" ref="U86" si="196">U85*U74</f>
-        <v>163.18886019267595</v>
+        <v>320.6295377028971</v>
       </c>
       <c r="V86" s="11">
         <f t="shared" ref="V86" si="197">V85*V74</f>
-        <v>180.81524714458675</v>
+        <v>319.3470195520855</v>
       </c>
       <c r="W86" s="11">
         <f t="shared" ref="W86" si="198">W85*W74</f>
-        <v>209.38709567726718</v>
+        <v>318.06963147387717</v>
       </c>
       <c r="X86" s="11">
         <f t="shared" ref="X86" si="199">X85*X74</f>
-        <v>245.61660161378592</v>
+        <v>316.79735294798166</v>
       </c>
       <c r="Y86" s="11">
         <f t="shared" ref="Y86" si="200">Y85*Y74</f>
-        <v>278.10623240078593</v>
+        <v>315.53016353618972</v>
       </c>
       <c r="Z86" s="11">
         <f t="shared" ref="Z86" si="201">Z85*Z74</f>
-        <v>307.20882621127532</v>
+        <v>314.26804288204494</v>
       </c>
       <c r="AA86" s="11">
         <f t="shared" ref="AA86" si="202">AA85*AA74</f>
-        <v>333.33064228317363</v>
+        <v>313.01097071051674</v>
       </c>
       <c r="AB86" s="11">
         <f t="shared" ref="AB86" si="203">AB85*AB74</f>
-        <v>356.84131778506952</v>
+        <v>311.75892682767466</v>
       </c>
       <c r="AC86" s="11">
         <f t="shared" ref="AC86" si="204">AC85*AC74</f>
-        <v>378.07637905031504</v>
+        <v>310.51189112036394</v>
       </c>
       <c r="AD86" s="11">
         <f t="shared" ref="AD86" si="205">AD85*AD74</f>
-        <v>397.33964582786683</v>
+        <v>309.2698435558824</v>
       </c>
       <c r="AE86" s="11">
         <f t="shared" ref="AE86" si="206">AE85*AE74</f>
-        <v>414.9055243219899</v>
+        <v>308.03276418165893</v>
       </c>
       <c r="AF86" s="11">
         <f t="shared" ref="AF86" si="207">AF85*AF74</f>
-        <v>431.02118666211049</v>
+        <v>306.80063312493229</v>
       </c>
       <c r="AG86" s="11">
         <f t="shared" ref="AG86" si="208">AG85*AG74</f>
-        <v>445.90863598785887</v>
+        <v>305.57343059243254</v>
       </c>
       <c r="AH86" s="11">
         <f t="shared" ref="AH86" si="209">AH85*AH74</f>
-        <v>459.88250201679199</v>
+        <v>304.35113687006282</v>
       </c>
       <c r="AI86" s="11">
         <f t="shared" ref="AI86" si="210">AI85*AI74</f>
-        <v>473.34565025362383</v>
+        <v>303.13373232258255</v>
       </c>
       <c r="AJ86" s="11">
         <f t="shared" ref="AJ86" si="211">AJ85*AJ74</f>
-        <v>486.39202949130225</v>
+        <v>301.92119739329223</v>
       </c>
       <c r="AK86" s="11">
         <f t="shared" ref="AK86" si="212">AK85*AK74</f>
-        <v>499.09138584376007</v>
+        <v>300.7135126037191</v>
       </c>
       <c r="AL86" s="11">
         <f t="shared" ref="AL86" si="213">AL85*AL74</f>
-        <v>511.50263535269914</v>
+        <v>299.51065855330415</v>
       </c>
       <c r="AM86" s="11">
         <f t="shared" ref="AM86" si="214">AM85*AM74</f>
-        <v>523.67566508488244</v>
+        <v>423.91791084121746</v>
       </c>
       <c r="AN86" s="11">
         <f t="shared" ref="AN86" si="215">AN85*AN74</f>
-        <v>535.65285345197503</v>
+        <v>581.22013572557626</v>
       </c>
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88" s="1">
         <f>MAX(B64-B74,0)</f>
@@ -8216,132 +8220,132 @@
       </c>
       <c r="J88" s="1">
         <f t="shared" si="216"/>
-        <v>332.54116369295787</v>
+        <v>327.69812893982225</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" ref="K88:AN88" si="217">MAX(K64-K74,0)</f>
-        <v>353.68147721382803</v>
+        <v>308.77528295695481</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" si="217"/>
-        <v>374.68929517757272</v>
+        <v>279.05263757493844</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="217"/>
-        <v>395.79836339460076</v>
+        <v>233.20462873481364</v>
       </c>
       <c r="N88" s="1">
         <f t="shared" si="217"/>
-        <v>416.93552097002646</v>
+        <v>186.99852274382977</v>
       </c>
       <c r="O88" s="1">
         <f t="shared" si="217"/>
-        <v>437.98095722095354</v>
+        <v>142.27435075934471</v>
       </c>
       <c r="P88" s="1">
         <f t="shared" si="217"/>
-        <v>458.74479416849408</v>
+        <v>98.982948059247917</v>
       </c>
       <c r="Q88" s="1">
         <f t="shared" si="217"/>
-        <v>478.93195044299398</v>
+        <v>57.076787813186797</v>
       </c>
       <c r="R88" s="1">
         <f t="shared" si="217"/>
-        <v>498.08942724705372</v>
+        <v>16.509926489904046</v>
       </c>
       <c r="S88" s="1">
         <f t="shared" si="217"/>
-        <v>515.52722733353153</v>
+        <v>0</v>
       </c>
       <c r="T88" s="1">
         <f t="shared" si="217"/>
-        <v>530.19972342459414</v>
+        <v>0</v>
       </c>
       <c r="U88" s="1">
         <f t="shared" si="217"/>
-        <v>540.52770070113854</v>
+        <v>0</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" si="217"/>
-        <v>544.13141029676399</v>
+        <v>0</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="217"/>
-        <v>537.43013918767781</v>
+        <v>0</v>
       </c>
       <c r="X88" s="1">
         <f t="shared" si="217"/>
-        <v>522.94008971191852</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="1">
         <f t="shared" si="217"/>
-        <v>510.36376311523696</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="1">
         <f t="shared" si="217"/>
-        <v>499.68053139615853</v>
+        <v>0</v>
       </c>
       <c r="AA88" s="1">
         <f t="shared" si="217"/>
-        <v>490.87175631045801</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="1">
         <f t="shared" si="217"/>
-        <v>483.92076233009067</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" si="217"/>
-        <v>478.81281168863916</v>
+        <v>0</v>
       </c>
       <c r="AD88" s="1">
         <f t="shared" si="217"/>
-        <v>475.53508147947679</v>
+        <v>0</v>
       </c>
       <c r="AE88" s="1">
         <f t="shared" si="217"/>
-        <v>474.07664277506103</v>
+        <v>0</v>
       </c>
       <c r="AF88" s="1">
         <f t="shared" si="217"/>
-        <v>474.42844173792429</v>
+        <v>0</v>
       </c>
       <c r="AG88" s="1">
         <f t="shared" si="217"/>
-        <v>476.58328269606579</v>
+        <v>0</v>
       </c>
       <c r="AH88" s="1">
         <f t="shared" si="217"/>
-        <v>480.53581315752945</v>
+        <v>0</v>
       </c>
       <c r="AI88" s="1">
         <f t="shared" si="217"/>
-        <v>486.28251074101206</v>
+        <v>0</v>
       </c>
       <c r="AJ88" s="1">
         <f t="shared" si="217"/>
-        <v>493.82167200136769</v>
+        <v>0</v>
       </c>
       <c r="AK88" s="1">
         <f t="shared" si="217"/>
-        <v>503.15340313087052</v>
+        <v>0</v>
       </c>
       <c r="AL88" s="1">
         <f t="shared" si="217"/>
-        <v>514.27961251905833</v>
+        <v>0</v>
       </c>
       <c r="AM88" s="1">
         <f t="shared" si="217"/>
-        <v>527.20400515592803</v>
+        <v>0</v>
       </c>
       <c r="AN88" s="1">
         <f t="shared" si="217"/>
-        <v>541.93207886516484</v>
+        <v>326.78010992973964</v>
       </c>
     </row>
     <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="8">
         <f>IFERROR((B62-B86)/B88,0)</f>
@@ -8377,127 +8381,127 @@
       </c>
       <c r="J89" s="8">
         <f t="shared" si="218"/>
-        <v>0.48186440965190291</v>
+        <v>0.48898232349974247</v>
       </c>
       <c r="K89" s="8">
         <f t="shared" si="218"/>
-        <v>0.48858265016881358</v>
+        <v>0.46259654848683268</v>
       </c>
       <c r="L89" s="8">
         <f t="shared" ref="L89" si="219">IFERROR((L62-L86)/L88,0)</f>
-        <v>0.49372174525028445</v>
+        <v>0.41974608398233892</v>
       </c>
       <c r="M89" s="8">
         <f t="shared" ref="M89" si="220">IFERROR((M62-M86)/M88,0)</f>
-        <v>0.49759864734116427</v>
+        <v>0.35219107738373473</v>
       </c>
       <c r="N89" s="8">
         <f t="shared" ref="N89" si="221">IFERROR((N62-N86)/N88,0)</f>
-        <v>0.50028701374809925</v>
+        <v>0.28354371170557569</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" ref="O89" si="222">IFERROR((O62-O86)/O88,0)</f>
-        <v>0.50179505505972755</v>
+        <v>0.21659534491843332</v>
       </c>
       <c r="P89" s="8">
         <f t="shared" ref="P89" si="223">IFERROR((P62-P86)/P88,0)</f>
-        <v>0.50205336680055446</v>
+        <v>0.15129464341049362</v>
       </c>
       <c r="Q89" s="8">
         <f t="shared" ref="Q89" si="224">IFERROR((Q62-Q86)/Q88,0)</f>
-        <v>0.5008911531289657</v>
+        <v>8.7591780197754696E-2</v>
       </c>
       <c r="R89" s="8">
         <f t="shared" ref="R89" si="225">IFERROR((R62-R86)/R88,0)</f>
-        <v>0.49799462182140181</v>
+        <v>2.5438390531218737E-2</v>
       </c>
       <c r="S89" s="8">
         <f t="shared" ref="S89" si="226">IFERROR((S62-S86)/S88,0)</f>
-        <v>0.49283553054879914</v>
+        <v>0</v>
       </c>
       <c r="T89" s="8">
         <f t="shared" ref="T89" si="227">IFERROR((T62-T86)/T88,0)</f>
-        <v>0.48454584719209015</v>
+        <v>0</v>
       </c>
       <c r="U89" s="8">
         <f t="shared" ref="U89" si="228">IFERROR((U62-U86)/U88,0)</f>
-        <v>0.47168738351461342</v>
+        <v>0</v>
       </c>
       <c r="V89" s="8">
         <f t="shared" ref="V89" si="229">IFERROR((V62-V86)/V88,0)</f>
-        <v>0.45179826104622856</v>
+        <v>0</v>
       </c>
       <c r="W89" s="8">
         <f t="shared" ref="W89" si="230">IFERROR((W62-W86)/W88,0)</f>
-        <v>0.42041303512720557</v>
+        <v>0</v>
       </c>
       <c r="X89" s="8">
         <f t="shared" ref="X89" si="231">IFERROR((X62-X86)/X88,0)</f>
-        <v>0.37971166338411122</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="8">
         <f t="shared" ref="Y89" si="232">IFERROR((Y62-Y86)/Y88,0)</f>
-        <v>0.34310859207011501</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="8">
         <f t="shared" ref="Z89" si="233">IFERROR((Z62-Z86)/Z88,0)</f>
-        <v>0.31064784882791524</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="8">
         <f t="shared" ref="AA89" si="234">IFERROR((AA62-AA86)/AA88,0)</f>
-        <v>0.28216615924214977</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="8">
         <f t="shared" ref="AB89" si="235">IFERROR((AB62-AB86)/AB88,0)</f>
-        <v>0.25746470252548448</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="8">
         <f t="shared" ref="AC89" si="236">IFERROR((AC62-AC86)/AC88,0)</f>
-        <v>0.23631029420655764</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="8">
         <f t="shared" ref="AD89" si="237">IFERROR((AD62-AD86)/AD88,0)</f>
-        <v>0.21843854443976979</v>
+        <v>0</v>
       </c>
       <c r="AE89" s="8">
         <f t="shared" ref="AE89" si="238">IFERROR((AE62-AE86)/AE88,0)</f>
-        <v>0.20355894718825399</v>
+        <v>0</v>
       </c>
       <c r="AF89" s="8">
         <f t="shared" ref="AF89" si="239">IFERROR((AF62-AF86)/AF88,0)</f>
-        <v>0.19136165101430139</v>
+        <v>0</v>
       </c>
       <c r="AG89" s="8">
         <f t="shared" ref="AG89" si="240">IFERROR((AG62-AG86)/AG88,0)</f>
-        <v>0.18152547462645935</v>
+        <v>0</v>
       </c>
       <c r="AH89" s="8">
         <f t="shared" ref="AH89" si="241">IFERROR((AH62-AH86)/AH88,0)</f>
-        <v>0.17348551757403902</v>
+        <v>0</v>
       </c>
       <c r="AI89" s="8">
         <f t="shared" ref="AI89" si="242">IFERROR((AI62-AI86)/AI88,0)</f>
-        <v>0.16646892434921642</v>
+        <v>0</v>
       </c>
       <c r="AJ89" s="8">
         <f t="shared" ref="AJ89" si="243">IFERROR((AJ62-AJ86)/AJ88,0)</f>
-        <v>0.16033582028778845</v>
+        <v>0</v>
       </c>
       <c r="AK89" s="8">
         <f t="shared" ref="AK89" si="244">IFERROR((AK62-AK86)/AK88,0)</f>
-        <v>0.15498246892777964</v>
+        <v>0</v>
       </c>
       <c r="AL89" s="8">
         <f t="shared" ref="AL89" si="245">IFERROR((AL62-AL86)/AL88,0)</f>
-        <v>0.15031635001938579</v>
+        <v>0</v>
       </c>
       <c r="AM89" s="8">
         <f t="shared" ref="AM89" si="246">IFERROR((AM62-AM86)/AM88,0)</f>
-        <v>0.14625496950838629</v>
+        <v>0</v>
       </c>
       <c r="AN89" s="8">
         <f t="shared" ref="AN89" si="247">IFERROR((AN62-AN86)/AN88,0)</f>
-        <v>0.14272479811491259</v>
+        <v>5.7469422721172427E-2</v>
       </c>
     </row>
   </sheetData>
